--- a/Monstruos.xlsx
+++ b/Monstruos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python\PhytonMaster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Espacios de trabajo\Phyton\Con lo colegas\PhytonMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C32095-2BC3-4D5F-8A16-2CA1BC58AD47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F3D43B-2CC4-4DCA-B5A4-EA68CD4EB53D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,28 +150,28 @@
     <t>Cocodrilo</t>
   </si>
   <si>
-    <t>enjambre de insectos</t>
-  </si>
-  <si>
-    <t>enjambre de pirañas</t>
-  </si>
-  <si>
-    <t>enjambre de murciélagos</t>
-  </si>
-  <si>
     <t>Escorpión gigante</t>
   </si>
   <si>
     <t>Goblin</t>
   </si>
   <si>
-    <t>serpiente venenosa</t>
+    <t>Serpiente venenosa</t>
   </si>
   <si>
-    <t>tigre</t>
+    <t>Enjambre de murciélagos</t>
   </si>
   <si>
-    <t>hombre serpiente</t>
+    <t>Enjambre de pirañas</t>
+  </si>
+  <si>
+    <t>Enjambre de insectos</t>
+  </si>
+  <si>
+    <t>Tigre</t>
+  </si>
+  <si>
+    <t>Hombre serpiente</t>
   </si>
 </sst>
 </file>
@@ -472,12 +472,12 @@
   <dimension ref="A1:AL1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,7 +593,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -827,9 +827,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
@@ -943,9 +943,9 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1059,9 +1059,9 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
@@ -1175,9 +1175,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2">
         <v>21</v>
@@ -1291,9 +1291,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -1407,9 +1407,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1795,7 +1795,7 @@
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1835,7 +1835,7 @@
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1875,7 +1875,7 @@
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
     </row>
-    <row r="15" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1915,7 +1915,7 @@
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
     </row>
-    <row r="16" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1955,7 +1955,7 @@
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
     </row>
-    <row r="17" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1995,7 +1995,7 @@
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
     </row>
-    <row r="18" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2035,7 +2035,7 @@
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2075,7 +2075,7 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2115,7 +2115,7 @@
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
     </row>
-    <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2155,7 +2155,7 @@
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
     </row>
-    <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2195,7 +2195,7 @@
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
     </row>
-    <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2235,7 +2235,7 @@
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
     </row>
-    <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2275,7 +2275,7 @@
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
     </row>
-    <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2315,7 +2315,7 @@
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
     </row>
-    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2355,7 +2355,7 @@
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
     </row>
-    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2395,7 +2395,7 @@
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
     </row>
-    <row r="28" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2435,7 +2435,7 @@
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
     </row>
-    <row r="29" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2475,7 +2475,7 @@
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
     </row>
-    <row r="30" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2515,7 +2515,7 @@
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
     </row>
-    <row r="31" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2555,7 +2555,7 @@
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
     </row>
-    <row r="32" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2595,7 +2595,7 @@
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
     </row>
-    <row r="33" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2635,7 +2635,7 @@
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
     </row>
-    <row r="34" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2675,7 +2675,7 @@
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
     </row>
-    <row r="35" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2715,7 +2715,7 @@
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
     </row>
-    <row r="36" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2755,7 +2755,7 @@
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
     </row>
-    <row r="37" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2795,7 +2795,7 @@
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
     </row>
-    <row r="38" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2835,7 +2835,7 @@
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
     </row>
-    <row r="39" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2875,7 +2875,7 @@
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
     </row>
-    <row r="40" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2915,7 +2915,7 @@
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
     </row>
-    <row r="41" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2955,7 +2955,7 @@
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
     </row>
-    <row r="42" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2995,7 +2995,7 @@
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
     </row>
-    <row r="43" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3035,7 +3035,7 @@
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
     </row>
-    <row r="44" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3075,7 +3075,7 @@
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
     </row>
-    <row r="45" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3115,7 +3115,7 @@
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
     </row>
-    <row r="46" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3155,7 +3155,7 @@
       <c r="AK46" s="3"/>
       <c r="AL46" s="3"/>
     </row>
-    <row r="47" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3195,7 +3195,7 @@
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
     </row>
-    <row r="48" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3235,7 +3235,7 @@
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
     </row>
-    <row r="49" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3275,7 +3275,7 @@
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
     </row>
-    <row r="50" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3315,7 +3315,7 @@
       <c r="AK50" s="3"/>
       <c r="AL50" s="3"/>
     </row>
-    <row r="51" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3355,7 +3355,7 @@
       <c r="AK51" s="3"/>
       <c r="AL51" s="3"/>
     </row>
-    <row r="52" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3395,7 +3395,7 @@
       <c r="AK52" s="3"/>
       <c r="AL52" s="3"/>
     </row>
-    <row r="53" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3435,7 +3435,7 @@
       <c r="AK53" s="3"/>
       <c r="AL53" s="3"/>
     </row>
-    <row r="54" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3475,7 +3475,7 @@
       <c r="AK54" s="3"/>
       <c r="AL54" s="3"/>
     </row>
-    <row r="55" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3515,7 +3515,7 @@
       <c r="AK55" s="3"/>
       <c r="AL55" s="3"/>
     </row>
-    <row r="56" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3555,7 +3555,7 @@
       <c r="AK56" s="3"/>
       <c r="AL56" s="3"/>
     </row>
-    <row r="57" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3595,7 +3595,7 @@
       <c r="AK57" s="3"/>
       <c r="AL57" s="3"/>
     </row>
-    <row r="58" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3635,7 +3635,7 @@
       <c r="AK58" s="3"/>
       <c r="AL58" s="3"/>
     </row>
-    <row r="59" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3675,7 +3675,7 @@
       <c r="AK59" s="3"/>
       <c r="AL59" s="3"/>
     </row>
-    <row r="60" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3715,7 +3715,7 @@
       <c r="AK60" s="3"/>
       <c r="AL60" s="3"/>
     </row>
-    <row r="61" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3755,7 +3755,7 @@
       <c r="AK61" s="3"/>
       <c r="AL61" s="3"/>
     </row>
-    <row r="62" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3795,7 +3795,7 @@
       <c r="AK62" s="3"/>
       <c r="AL62" s="3"/>
     </row>
-    <row r="63" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3835,7 +3835,7 @@
       <c r="AK63" s="3"/>
       <c r="AL63" s="3"/>
     </row>
-    <row r="64" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3875,7 +3875,7 @@
       <c r="AK64" s="3"/>
       <c r="AL64" s="3"/>
     </row>
-    <row r="65" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3915,7 +3915,7 @@
       <c r="AK65" s="3"/>
       <c r="AL65" s="3"/>
     </row>
-    <row r="66" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3955,7 +3955,7 @@
       <c r="AK66" s="3"/>
       <c r="AL66" s="3"/>
     </row>
-    <row r="67" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3995,7 +3995,7 @@
       <c r="AK67" s="3"/>
       <c r="AL67" s="3"/>
     </row>
-    <row r="68" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4035,7 +4035,7 @@
       <c r="AK68" s="3"/>
       <c r="AL68" s="3"/>
     </row>
-    <row r="69" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4075,7 +4075,7 @@
       <c r="AK69" s="3"/>
       <c r="AL69" s="3"/>
     </row>
-    <row r="70" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4115,7 +4115,7 @@
       <c r="AK70" s="3"/>
       <c r="AL70" s="3"/>
     </row>
-    <row r="71" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4155,7 +4155,7 @@
       <c r="AK71" s="3"/>
       <c r="AL71" s="3"/>
     </row>
-    <row r="72" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -4195,7 +4195,7 @@
       <c r="AK72" s="3"/>
       <c r="AL72" s="3"/>
     </row>
-    <row r="73" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4235,7 +4235,7 @@
       <c r="AK73" s="3"/>
       <c r="AL73" s="3"/>
     </row>
-    <row r="74" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -4275,7 +4275,7 @@
       <c r="AK74" s="3"/>
       <c r="AL74" s="3"/>
     </row>
-    <row r="75" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4315,7 +4315,7 @@
       <c r="AK75" s="3"/>
       <c r="AL75" s="3"/>
     </row>
-    <row r="76" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4355,7 +4355,7 @@
       <c r="AK76" s="3"/>
       <c r="AL76" s="3"/>
     </row>
-    <row r="77" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4395,7 +4395,7 @@
       <c r="AK77" s="3"/>
       <c r="AL77" s="3"/>
     </row>
-    <row r="78" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -4435,7 +4435,7 @@
       <c r="AK78" s="3"/>
       <c r="AL78" s="3"/>
     </row>
-    <row r="79" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4475,7 +4475,7 @@
       <c r="AK79" s="3"/>
       <c r="AL79" s="3"/>
     </row>
-    <row r="80" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4515,7 +4515,7 @@
       <c r="AK80" s="3"/>
       <c r="AL80" s="3"/>
     </row>
-    <row r="81" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4555,7 +4555,7 @@
       <c r="AK81" s="3"/>
       <c r="AL81" s="3"/>
     </row>
-    <row r="82" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4595,7 +4595,7 @@
       <c r="AK82" s="3"/>
       <c r="AL82" s="3"/>
     </row>
-    <row r="83" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4635,7 +4635,7 @@
       <c r="AK83" s="3"/>
       <c r="AL83" s="3"/>
     </row>
-    <row r="84" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4675,7 +4675,7 @@
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
     </row>
-    <row r="85" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4715,7 +4715,7 @@
       <c r="AK85" s="3"/>
       <c r="AL85" s="3"/>
     </row>
-    <row r="86" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4755,7 +4755,7 @@
       <c r="AK86" s="3"/>
       <c r="AL86" s="3"/>
     </row>
-    <row r="87" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4795,7 +4795,7 @@
       <c r="AK87" s="3"/>
       <c r="AL87" s="3"/>
     </row>
-    <row r="88" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4835,7 +4835,7 @@
       <c r="AK88" s="3"/>
       <c r="AL88" s="3"/>
     </row>
-    <row r="89" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4875,7 +4875,7 @@
       <c r="AK89" s="3"/>
       <c r="AL89" s="3"/>
     </row>
-    <row r="90" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -4915,7 +4915,7 @@
       <c r="AK90" s="3"/>
       <c r="AL90" s="3"/>
     </row>
-    <row r="91" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4955,7 +4955,7 @@
       <c r="AK91" s="3"/>
       <c r="AL91" s="3"/>
     </row>
-    <row r="92" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4995,7 +4995,7 @@
       <c r="AK92" s="3"/>
       <c r="AL92" s="3"/>
     </row>
-    <row r="93" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5035,7 +5035,7 @@
       <c r="AK93" s="3"/>
       <c r="AL93" s="3"/>
     </row>
-    <row r="94" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5075,7 +5075,7 @@
       <c r="AK94" s="3"/>
       <c r="AL94" s="3"/>
     </row>
-    <row r="95" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5115,7 +5115,7 @@
       <c r="AK95" s="3"/>
       <c r="AL95" s="3"/>
     </row>
-    <row r="96" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5155,7 +5155,7 @@
       <c r="AK96" s="3"/>
       <c r="AL96" s="3"/>
     </row>
-    <row r="97" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5195,7 +5195,7 @@
       <c r="AK97" s="3"/>
       <c r="AL97" s="3"/>
     </row>
-    <row r="98" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5235,7 +5235,7 @@
       <c r="AK98" s="3"/>
       <c r="AL98" s="3"/>
     </row>
-    <row r="99" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5275,7 +5275,7 @@
       <c r="AK99" s="3"/>
       <c r="AL99" s="3"/>
     </row>
-    <row r="100" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5315,7 +5315,7 @@
       <c r="AK100" s="3"/>
       <c r="AL100" s="3"/>
     </row>
-    <row r="101" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5355,7 +5355,7 @@
       <c r="AK101" s="3"/>
       <c r="AL101" s="3"/>
     </row>
-    <row r="102" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -5395,7 +5395,7 @@
       <c r="AK102" s="3"/>
       <c r="AL102" s="3"/>
     </row>
-    <row r="103" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -5435,7 +5435,7 @@
       <c r="AK103" s="3"/>
       <c r="AL103" s="3"/>
     </row>
-    <row r="104" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -5475,7 +5475,7 @@
       <c r="AK104" s="3"/>
       <c r="AL104" s="3"/>
     </row>
-    <row r="105" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -5515,7 +5515,7 @@
       <c r="AK105" s="3"/>
       <c r="AL105" s="3"/>
     </row>
-    <row r="106" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -5555,7 +5555,7 @@
       <c r="AK106" s="3"/>
       <c r="AL106" s="3"/>
     </row>
-    <row r="107" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -5595,7 +5595,7 @@
       <c r="AK107" s="3"/>
       <c r="AL107" s="3"/>
     </row>
-    <row r="108" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -5635,7 +5635,7 @@
       <c r="AK108" s="3"/>
       <c r="AL108" s="3"/>
     </row>
-    <row r="109" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -5675,7 +5675,7 @@
       <c r="AK109" s="3"/>
       <c r="AL109" s="3"/>
     </row>
-    <row r="110" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -5715,7 +5715,7 @@
       <c r="AK110" s="3"/>
       <c r="AL110" s="3"/>
     </row>
-    <row r="111" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -5755,7 +5755,7 @@
       <c r="AK111" s="3"/>
       <c r="AL111" s="3"/>
     </row>
-    <row r="112" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -5795,7 +5795,7 @@
       <c r="AK112" s="3"/>
       <c r="AL112" s="3"/>
     </row>
-    <row r="113" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -5835,7 +5835,7 @@
       <c r="AK113" s="3"/>
       <c r="AL113" s="3"/>
     </row>
-    <row r="114" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -5875,7 +5875,7 @@
       <c r="AK114" s="3"/>
       <c r="AL114" s="3"/>
     </row>
-    <row r="115" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -5915,7 +5915,7 @@
       <c r="AK115" s="3"/>
       <c r="AL115" s="3"/>
     </row>
-    <row r="116" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -5955,7 +5955,7 @@
       <c r="AK116" s="3"/>
       <c r="AL116" s="3"/>
     </row>
-    <row r="117" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -5995,7 +5995,7 @@
       <c r="AK117" s="3"/>
       <c r="AL117" s="3"/>
     </row>
-    <row r="118" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6035,7 +6035,7 @@
       <c r="AK118" s="3"/>
       <c r="AL118" s="3"/>
     </row>
-    <row r="119" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6075,7 +6075,7 @@
       <c r="AK119" s="3"/>
       <c r="AL119" s="3"/>
     </row>
-    <row r="120" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6115,7 +6115,7 @@
       <c r="AK120" s="3"/>
       <c r="AL120" s="3"/>
     </row>
-    <row r="121" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6155,7 +6155,7 @@
       <c r="AK121" s="3"/>
       <c r="AL121" s="3"/>
     </row>
-    <row r="122" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6195,7 +6195,7 @@
       <c r="AK122" s="3"/>
       <c r="AL122" s="3"/>
     </row>
-    <row r="123" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6235,7 +6235,7 @@
       <c r="AK123" s="3"/>
       <c r="AL123" s="3"/>
     </row>
-    <row r="124" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6275,7 +6275,7 @@
       <c r="AK124" s="3"/>
       <c r="AL124" s="3"/>
     </row>
-    <row r="125" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6315,7 +6315,7 @@
       <c r="AK125" s="3"/>
       <c r="AL125" s="3"/>
     </row>
-    <row r="126" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6355,7 +6355,7 @@
       <c r="AK126" s="3"/>
       <c r="AL126" s="3"/>
     </row>
-    <row r="127" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6395,7 +6395,7 @@
       <c r="AK127" s="3"/>
       <c r="AL127" s="3"/>
     </row>
-    <row r="128" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6435,7 +6435,7 @@
       <c r="AK128" s="3"/>
       <c r="AL128" s="3"/>
     </row>
-    <row r="129" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6475,7 +6475,7 @@
       <c r="AK129" s="3"/>
       <c r="AL129" s="3"/>
     </row>
-    <row r="130" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6515,7 +6515,7 @@
       <c r="AK130" s="3"/>
       <c r="AL130" s="3"/>
     </row>
-    <row r="131" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6555,7 +6555,7 @@
       <c r="AK131" s="3"/>
       <c r="AL131" s="3"/>
     </row>
-    <row r="132" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6595,7 +6595,7 @@
       <c r="AK132" s="3"/>
       <c r="AL132" s="3"/>
     </row>
-    <row r="133" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -6635,7 +6635,7 @@
       <c r="AK133" s="3"/>
       <c r="AL133" s="3"/>
     </row>
-    <row r="134" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -6675,7 +6675,7 @@
       <c r="AK134" s="3"/>
       <c r="AL134" s="3"/>
     </row>
-    <row r="135" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -6715,7 +6715,7 @@
       <c r="AK135" s="3"/>
       <c r="AL135" s="3"/>
     </row>
-    <row r="136" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -6755,7 +6755,7 @@
       <c r="AK136" s="3"/>
       <c r="AL136" s="3"/>
     </row>
-    <row r="137" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -6795,7 +6795,7 @@
       <c r="AK137" s="3"/>
       <c r="AL137" s="3"/>
     </row>
-    <row r="138" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -6835,7 +6835,7 @@
       <c r="AK138" s="3"/>
       <c r="AL138" s="3"/>
     </row>
-    <row r="139" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -6875,7 +6875,7 @@
       <c r="AK139" s="3"/>
       <c r="AL139" s="3"/>
     </row>
-    <row r="140" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -6915,7 +6915,7 @@
       <c r="AK140" s="3"/>
       <c r="AL140" s="3"/>
     </row>
-    <row r="141" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -6955,7 +6955,7 @@
       <c r="AK141" s="3"/>
       <c r="AL141" s="3"/>
     </row>
-    <row r="142" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -6995,7 +6995,7 @@
       <c r="AK142" s="3"/>
       <c r="AL142" s="3"/>
     </row>
-    <row r="143" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -7035,7 +7035,7 @@
       <c r="AK143" s="3"/>
       <c r="AL143" s="3"/>
     </row>
-    <row r="144" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -7075,7 +7075,7 @@
       <c r="AK144" s="3"/>
       <c r="AL144" s="3"/>
     </row>
-    <row r="145" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -7115,7 +7115,7 @@
       <c r="AK145" s="3"/>
       <c r="AL145" s="3"/>
     </row>
-    <row r="146" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -7155,7 +7155,7 @@
       <c r="AK146" s="3"/>
       <c r="AL146" s="3"/>
     </row>
-    <row r="147" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -7195,7 +7195,7 @@
       <c r="AK147" s="3"/>
       <c r="AL147" s="3"/>
     </row>
-    <row r="148" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -7235,7 +7235,7 @@
       <c r="AK148" s="3"/>
       <c r="AL148" s="3"/>
     </row>
-    <row r="149" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -7275,7 +7275,7 @@
       <c r="AK149" s="3"/>
       <c r="AL149" s="3"/>
     </row>
-    <row r="150" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -7315,7 +7315,7 @@
       <c r="AK150" s="3"/>
       <c r="AL150" s="3"/>
     </row>
-    <row r="151" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -7355,7 +7355,7 @@
       <c r="AK151" s="3"/>
       <c r="AL151" s="3"/>
     </row>
-    <row r="152" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -7395,7 +7395,7 @@
       <c r="AK152" s="3"/>
       <c r="AL152" s="3"/>
     </row>
-    <row r="153" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -7435,7 +7435,7 @@
       <c r="AK153" s="3"/>
       <c r="AL153" s="3"/>
     </row>
-    <row r="154" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -7475,7 +7475,7 @@
       <c r="AK154" s="3"/>
       <c r="AL154" s="3"/>
     </row>
-    <row r="155" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -7515,7 +7515,7 @@
       <c r="AK155" s="3"/>
       <c r="AL155" s="3"/>
     </row>
-    <row r="156" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -7555,7 +7555,7 @@
       <c r="AK156" s="3"/>
       <c r="AL156" s="3"/>
     </row>
-    <row r="157" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -7595,7 +7595,7 @@
       <c r="AK157" s="3"/>
       <c r="AL157" s="3"/>
     </row>
-    <row r="158" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -7635,7 +7635,7 @@
       <c r="AK158" s="3"/>
       <c r="AL158" s="3"/>
     </row>
-    <row r="159" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -7675,7 +7675,7 @@
       <c r="AK159" s="3"/>
       <c r="AL159" s="3"/>
     </row>
-    <row r="160" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -7715,7 +7715,7 @@
       <c r="AK160" s="3"/>
       <c r="AL160" s="3"/>
     </row>
-    <row r="161" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -7755,7 +7755,7 @@
       <c r="AK161" s="3"/>
       <c r="AL161" s="3"/>
     </row>
-    <row r="162" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -7795,7 +7795,7 @@
       <c r="AK162" s="3"/>
       <c r="AL162" s="3"/>
     </row>
-    <row r="163" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -7835,7 +7835,7 @@
       <c r="AK163" s="3"/>
       <c r="AL163" s="3"/>
     </row>
-    <row r="164" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -7875,7 +7875,7 @@
       <c r="AK164" s="3"/>
       <c r="AL164" s="3"/>
     </row>
-    <row r="165" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -7915,7 +7915,7 @@
       <c r="AK165" s="3"/>
       <c r="AL165" s="3"/>
     </row>
-    <row r="166" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -7955,7 +7955,7 @@
       <c r="AK166" s="3"/>
       <c r="AL166" s="3"/>
     </row>
-    <row r="167" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -7995,7 +7995,7 @@
       <c r="AK167" s="3"/>
       <c r="AL167" s="3"/>
     </row>
-    <row r="168" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -8035,7 +8035,7 @@
       <c r="AK168" s="3"/>
       <c r="AL168" s="3"/>
     </row>
-    <row r="169" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -8075,7 +8075,7 @@
       <c r="AK169" s="3"/>
       <c r="AL169" s="3"/>
     </row>
-    <row r="170" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -8115,7 +8115,7 @@
       <c r="AK170" s="3"/>
       <c r="AL170" s="3"/>
     </row>
-    <row r="171" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -8155,7 +8155,7 @@
       <c r="AK171" s="3"/>
       <c r="AL171" s="3"/>
     </row>
-    <row r="172" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -8195,7 +8195,7 @@
       <c r="AK172" s="3"/>
       <c r="AL172" s="3"/>
     </row>
-    <row r="173" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -8235,7 +8235,7 @@
       <c r="AK173" s="3"/>
       <c r="AL173" s="3"/>
     </row>
-    <row r="174" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -8275,7 +8275,7 @@
       <c r="AK174" s="3"/>
       <c r="AL174" s="3"/>
     </row>
-    <row r="175" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -8315,7 +8315,7 @@
       <c r="AK175" s="3"/>
       <c r="AL175" s="3"/>
     </row>
-    <row r="176" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -8355,7 +8355,7 @@
       <c r="AK176" s="3"/>
       <c r="AL176" s="3"/>
     </row>
-    <row r="177" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -8395,7 +8395,7 @@
       <c r="AK177" s="3"/>
       <c r="AL177" s="3"/>
     </row>
-    <row r="178" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -8435,7 +8435,7 @@
       <c r="AK178" s="3"/>
       <c r="AL178" s="3"/>
     </row>
-    <row r="179" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -8475,7 +8475,7 @@
       <c r="AK179" s="3"/>
       <c r="AL179" s="3"/>
     </row>
-    <row r="180" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -8515,7 +8515,7 @@
       <c r="AK180" s="3"/>
       <c r="AL180" s="3"/>
     </row>
-    <row r="181" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -8555,7 +8555,7 @@
       <c r="AK181" s="3"/>
       <c r="AL181" s="3"/>
     </row>
-    <row r="182" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -8595,7 +8595,7 @@
       <c r="AK182" s="3"/>
       <c r="AL182" s="3"/>
     </row>
-    <row r="183" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -8635,7 +8635,7 @@
       <c r="AK183" s="3"/>
       <c r="AL183" s="3"/>
     </row>
-    <row r="184" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -8675,7 +8675,7 @@
       <c r="AK184" s="3"/>
       <c r="AL184" s="3"/>
     </row>
-    <row r="185" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -8715,7 +8715,7 @@
       <c r="AK185" s="3"/>
       <c r="AL185" s="3"/>
     </row>
-    <row r="186" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -8755,7 +8755,7 @@
       <c r="AK186" s="3"/>
       <c r="AL186" s="3"/>
     </row>
-    <row r="187" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -8795,7 +8795,7 @@
       <c r="AK187" s="3"/>
       <c r="AL187" s="3"/>
     </row>
-    <row r="188" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -8835,7 +8835,7 @@
       <c r="AK188" s="3"/>
       <c r="AL188" s="3"/>
     </row>
-    <row r="189" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -8875,7 +8875,7 @@
       <c r="AK189" s="3"/>
       <c r="AL189" s="3"/>
     </row>
-    <row r="190" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -8915,7 +8915,7 @@
       <c r="AK190" s="3"/>
       <c r="AL190" s="3"/>
     </row>
-    <row r="191" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -8955,7 +8955,7 @@
       <c r="AK191" s="3"/>
       <c r="AL191" s="3"/>
     </row>
-    <row r="192" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -8995,7 +8995,7 @@
       <c r="AK192" s="3"/>
       <c r="AL192" s="3"/>
     </row>
-    <row r="193" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -9035,7 +9035,7 @@
       <c r="AK193" s="3"/>
       <c r="AL193" s="3"/>
     </row>
-    <row r="194" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -9075,7 +9075,7 @@
       <c r="AK194" s="3"/>
       <c r="AL194" s="3"/>
     </row>
-    <row r="195" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -9115,7 +9115,7 @@
       <c r="AK195" s="3"/>
       <c r="AL195" s="3"/>
     </row>
-    <row r="196" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -9155,7 +9155,7 @@
       <c r="AK196" s="3"/>
       <c r="AL196" s="3"/>
     </row>
-    <row r="197" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -9195,7 +9195,7 @@
       <c r="AK197" s="3"/>
       <c r="AL197" s="3"/>
     </row>
-    <row r="198" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -9235,7 +9235,7 @@
       <c r="AK198" s="3"/>
       <c r="AL198" s="3"/>
     </row>
-    <row r="199" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -9275,7 +9275,7 @@
       <c r="AK199" s="3"/>
       <c r="AL199" s="3"/>
     </row>
-    <row r="200" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -9315,7 +9315,7 @@
       <c r="AK200" s="3"/>
       <c r="AL200" s="3"/>
     </row>
-    <row r="201" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -9355,7 +9355,7 @@
       <c r="AK201" s="3"/>
       <c r="AL201" s="3"/>
     </row>
-    <row r="202" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -9395,7 +9395,7 @@
       <c r="AK202" s="3"/>
       <c r="AL202" s="3"/>
     </row>
-    <row r="203" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -9435,7 +9435,7 @@
       <c r="AK203" s="3"/>
       <c r="AL203" s="3"/>
     </row>
-    <row r="204" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -9475,7 +9475,7 @@
       <c r="AK204" s="3"/>
       <c r="AL204" s="3"/>
     </row>
-    <row r="205" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -9515,7 +9515,7 @@
       <c r="AK205" s="3"/>
       <c r="AL205" s="3"/>
     </row>
-    <row r="206" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -9555,7 +9555,7 @@
       <c r="AK206" s="3"/>
       <c r="AL206" s="3"/>
     </row>
-    <row r="207" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -9595,7 +9595,7 @@
       <c r="AK207" s="3"/>
       <c r="AL207" s="3"/>
     </row>
-    <row r="208" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -9635,7 +9635,7 @@
       <c r="AK208" s="3"/>
       <c r="AL208" s="3"/>
     </row>
-    <row r="209" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -9675,7 +9675,7 @@
       <c r="AK209" s="3"/>
       <c r="AL209" s="3"/>
     </row>
-    <row r="210" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -9715,7 +9715,7 @@
       <c r="AK210" s="3"/>
       <c r="AL210" s="3"/>
     </row>
-    <row r="211" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -9755,7 +9755,7 @@
       <c r="AK211" s="3"/>
       <c r="AL211" s="3"/>
     </row>
-    <row r="212" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -9795,7 +9795,7 @@
       <c r="AK212" s="3"/>
       <c r="AL212" s="3"/>
     </row>
-    <row r="213" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -9835,7 +9835,7 @@
       <c r="AK213" s="3"/>
       <c r="AL213" s="3"/>
     </row>
-    <row r="214" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -9875,7 +9875,7 @@
       <c r="AK214" s="3"/>
       <c r="AL214" s="3"/>
     </row>
-    <row r="215" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -9915,7 +9915,7 @@
       <c r="AK215" s="3"/>
       <c r="AL215" s="3"/>
     </row>
-    <row r="216" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -9955,7 +9955,7 @@
       <c r="AK216" s="3"/>
       <c r="AL216" s="3"/>
     </row>
-    <row r="217" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -9995,7 +9995,7 @@
       <c r="AK217" s="3"/>
       <c r="AL217" s="3"/>
     </row>
-    <row r="218" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -10035,7 +10035,7 @@
       <c r="AK218" s="3"/>
       <c r="AL218" s="3"/>
     </row>
-    <row r="219" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -10075,7 +10075,7 @@
       <c r="AK219" s="3"/>
       <c r="AL219" s="3"/>
     </row>
-    <row r="220" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -10115,7 +10115,7 @@
       <c r="AK220" s="3"/>
       <c r="AL220" s="3"/>
     </row>
-    <row r="221" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -10155,7 +10155,7 @@
       <c r="AK221" s="3"/>
       <c r="AL221" s="3"/>
     </row>
-    <row r="222" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -10195,7 +10195,7 @@
       <c r="AK222" s="3"/>
       <c r="AL222" s="3"/>
     </row>
-    <row r="223" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -10235,7 +10235,7 @@
       <c r="AK223" s="3"/>
       <c r="AL223" s="3"/>
     </row>
-    <row r="224" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -10275,7 +10275,7 @@
       <c r="AK224" s="3"/>
       <c r="AL224" s="3"/>
     </row>
-    <row r="225" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -10315,7 +10315,7 @@
       <c r="AK225" s="3"/>
       <c r="AL225" s="3"/>
     </row>
-    <row r="226" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -10355,7 +10355,7 @@
       <c r="AK226" s="3"/>
       <c r="AL226" s="3"/>
     </row>
-    <row r="227" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -10395,7 +10395,7 @@
       <c r="AK227" s="3"/>
       <c r="AL227" s="3"/>
     </row>
-    <row r="228" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -10435,7 +10435,7 @@
       <c r="AK228" s="3"/>
       <c r="AL228" s="3"/>
     </row>
-    <row r="229" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -10475,7 +10475,7 @@
       <c r="AK229" s="3"/>
       <c r="AL229" s="3"/>
     </row>
-    <row r="230" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -10515,7 +10515,7 @@
       <c r="AK230" s="3"/>
       <c r="AL230" s="3"/>
     </row>
-    <row r="231" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -10555,7 +10555,7 @@
       <c r="AK231" s="3"/>
       <c r="AL231" s="3"/>
     </row>
-    <row r="232" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -10595,7 +10595,7 @@
       <c r="AK232" s="3"/>
       <c r="AL232" s="3"/>
     </row>
-    <row r="233" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -10635,7 +10635,7 @@
       <c r="AK233" s="3"/>
       <c r="AL233" s="3"/>
     </row>
-    <row r="234" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -10675,7 +10675,7 @@
       <c r="AK234" s="3"/>
       <c r="AL234" s="3"/>
     </row>
-    <row r="235" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -10715,7 +10715,7 @@
       <c r="AK235" s="3"/>
       <c r="AL235" s="3"/>
     </row>
-    <row r="236" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -10755,7 +10755,7 @@
       <c r="AK236" s="3"/>
       <c r="AL236" s="3"/>
     </row>
-    <row r="237" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -10795,7 +10795,7 @@
       <c r="AK237" s="3"/>
       <c r="AL237" s="3"/>
     </row>
-    <row r="238" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -10835,7 +10835,7 @@
       <c r="AK238" s="3"/>
       <c r="AL238" s="3"/>
     </row>
-    <row r="239" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -10875,7 +10875,7 @@
       <c r="AK239" s="3"/>
       <c r="AL239" s="3"/>
     </row>
-    <row r="240" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -10915,7 +10915,7 @@
       <c r="AK240" s="3"/>
       <c r="AL240" s="3"/>
     </row>
-    <row r="241" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -10955,7 +10955,7 @@
       <c r="AK241" s="3"/>
       <c r="AL241" s="3"/>
     </row>
-    <row r="242" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -10995,7 +10995,7 @@
       <c r="AK242" s="3"/>
       <c r="AL242" s="3"/>
     </row>
-    <row r="243" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -11035,7 +11035,7 @@
       <c r="AK243" s="3"/>
       <c r="AL243" s="3"/>
     </row>
-    <row r="244" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -11075,7 +11075,7 @@
       <c r="AK244" s="3"/>
       <c r="AL244" s="3"/>
     </row>
-    <row r="245" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -11115,7 +11115,7 @@
       <c r="AK245" s="3"/>
       <c r="AL245" s="3"/>
     </row>
-    <row r="246" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -11155,7 +11155,7 @@
       <c r="AK246" s="3"/>
       <c r="AL246" s="3"/>
     </row>
-    <row r="247" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -11195,7 +11195,7 @@
       <c r="AK247" s="3"/>
       <c r="AL247" s="3"/>
     </row>
-    <row r="248" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -11235,7 +11235,7 @@
       <c r="AK248" s="3"/>
       <c r="AL248" s="3"/>
     </row>
-    <row r="249" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -11275,7 +11275,7 @@
       <c r="AK249" s="3"/>
       <c r="AL249" s="3"/>
     </row>
-    <row r="250" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -11315,7 +11315,7 @@
       <c r="AK250" s="3"/>
       <c r="AL250" s="3"/>
     </row>
-    <row r="251" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -11355,7 +11355,7 @@
       <c r="AK251" s="3"/>
       <c r="AL251" s="3"/>
     </row>
-    <row r="252" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -11395,7 +11395,7 @@
       <c r="AK252" s="3"/>
       <c r="AL252" s="3"/>
     </row>
-    <row r="253" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -11435,7 +11435,7 @@
       <c r="AK253" s="3"/>
       <c r="AL253" s="3"/>
     </row>
-    <row r="254" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -11475,7 +11475,7 @@
       <c r="AK254" s="3"/>
       <c r="AL254" s="3"/>
     </row>
-    <row r="255" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -11515,7 +11515,7 @@
       <c r="AK255" s="3"/>
       <c r="AL255" s="3"/>
     </row>
-    <row r="256" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -11555,7 +11555,7 @@
       <c r="AK256" s="3"/>
       <c r="AL256" s="3"/>
     </row>
-    <row r="257" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -11595,7 +11595,7 @@
       <c r="AK257" s="3"/>
       <c r="AL257" s="3"/>
     </row>
-    <row r="258" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -11635,7 +11635,7 @@
       <c r="AK258" s="3"/>
       <c r="AL258" s="3"/>
     </row>
-    <row r="259" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -11675,7 +11675,7 @@
       <c r="AK259" s="3"/>
       <c r="AL259" s="3"/>
     </row>
-    <row r="260" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -11715,7 +11715,7 @@
       <c r="AK260" s="3"/>
       <c r="AL260" s="3"/>
     </row>
-    <row r="261" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -11755,7 +11755,7 @@
       <c r="AK261" s="3"/>
       <c r="AL261" s="3"/>
     </row>
-    <row r="262" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -11795,7 +11795,7 @@
       <c r="AK262" s="3"/>
       <c r="AL262" s="3"/>
     </row>
-    <row r="263" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -11835,7 +11835,7 @@
       <c r="AK263" s="3"/>
       <c r="AL263" s="3"/>
     </row>
-    <row r="264" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -11875,7 +11875,7 @@
       <c r="AK264" s="3"/>
       <c r="AL264" s="3"/>
     </row>
-    <row r="265" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -11915,7 +11915,7 @@
       <c r="AK265" s="3"/>
       <c r="AL265" s="3"/>
     </row>
-    <row r="266" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -11955,7 +11955,7 @@
       <c r="AK266" s="3"/>
       <c r="AL266" s="3"/>
     </row>
-    <row r="267" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -11995,7 +11995,7 @@
       <c r="AK267" s="3"/>
       <c r="AL267" s="3"/>
     </row>
-    <row r="268" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -12035,7 +12035,7 @@
       <c r="AK268" s="3"/>
       <c r="AL268" s="3"/>
     </row>
-    <row r="269" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -12075,7 +12075,7 @@
       <c r="AK269" s="3"/>
       <c r="AL269" s="3"/>
     </row>
-    <row r="270" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -12115,7 +12115,7 @@
       <c r="AK270" s="3"/>
       <c r="AL270" s="3"/>
     </row>
-    <row r="271" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -12155,7 +12155,7 @@
       <c r="AK271" s="3"/>
       <c r="AL271" s="3"/>
     </row>
-    <row r="272" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -12195,7 +12195,7 @@
       <c r="AK272" s="3"/>
       <c r="AL272" s="3"/>
     </row>
-    <row r="273" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -12235,7 +12235,7 @@
       <c r="AK273" s="3"/>
       <c r="AL273" s="3"/>
     </row>
-    <row r="274" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -12275,7 +12275,7 @@
       <c r="AK274" s="3"/>
       <c r="AL274" s="3"/>
     </row>
-    <row r="275" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -12315,7 +12315,7 @@
       <c r="AK275" s="3"/>
       <c r="AL275" s="3"/>
     </row>
-    <row r="276" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -12355,7 +12355,7 @@
       <c r="AK276" s="3"/>
       <c r="AL276" s="3"/>
     </row>
-    <row r="277" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -12395,7 +12395,7 @@
       <c r="AK277" s="3"/>
       <c r="AL277" s="3"/>
     </row>
-    <row r="278" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -12435,7 +12435,7 @@
       <c r="AK278" s="3"/>
       <c r="AL278" s="3"/>
     </row>
-    <row r="279" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -12475,7 +12475,7 @@
       <c r="AK279" s="3"/>
       <c r="AL279" s="3"/>
     </row>
-    <row r="280" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -12515,7 +12515,7 @@
       <c r="AK280" s="3"/>
       <c r="AL280" s="3"/>
     </row>
-    <row r="281" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -12555,7 +12555,7 @@
       <c r="AK281" s="3"/>
       <c r="AL281" s="3"/>
     </row>
-    <row r="282" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -12595,7 +12595,7 @@
       <c r="AK282" s="3"/>
       <c r="AL282" s="3"/>
     </row>
-    <row r="283" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -12635,7 +12635,7 @@
       <c r="AK283" s="3"/>
       <c r="AL283" s="3"/>
     </row>
-    <row r="284" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -12675,7 +12675,7 @@
       <c r="AK284" s="3"/>
       <c r="AL284" s="3"/>
     </row>
-    <row r="285" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -12715,7 +12715,7 @@
       <c r="AK285" s="3"/>
       <c r="AL285" s="3"/>
     </row>
-    <row r="286" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -12755,7 +12755,7 @@
       <c r="AK286" s="3"/>
       <c r="AL286" s="3"/>
     </row>
-    <row r="287" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -12795,7 +12795,7 @@
       <c r="AK287" s="3"/>
       <c r="AL287" s="3"/>
     </row>
-    <row r="288" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -12835,7 +12835,7 @@
       <c r="AK288" s="3"/>
       <c r="AL288" s="3"/>
     </row>
-    <row r="289" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -12875,7 +12875,7 @@
       <c r="AK289" s="3"/>
       <c r="AL289" s="3"/>
     </row>
-    <row r="290" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -12915,7 +12915,7 @@
       <c r="AK290" s="3"/>
       <c r="AL290" s="3"/>
     </row>
-    <row r="291" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -12955,7 +12955,7 @@
       <c r="AK291" s="3"/>
       <c r="AL291" s="3"/>
     </row>
-    <row r="292" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -12995,7 +12995,7 @@
       <c r="AK292" s="3"/>
       <c r="AL292" s="3"/>
     </row>
-    <row r="293" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -13035,7 +13035,7 @@
       <c r="AK293" s="3"/>
       <c r="AL293" s="3"/>
     </row>
-    <row r="294" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -13075,7 +13075,7 @@
       <c r="AK294" s="3"/>
       <c r="AL294" s="3"/>
     </row>
-    <row r="295" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -13115,7 +13115,7 @@
       <c r="AK295" s="3"/>
       <c r="AL295" s="3"/>
     </row>
-    <row r="296" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -13155,7 +13155,7 @@
       <c r="AK296" s="3"/>
       <c r="AL296" s="3"/>
     </row>
-    <row r="297" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -13195,7 +13195,7 @@
       <c r="AK297" s="3"/>
       <c r="AL297" s="3"/>
     </row>
-    <row r="298" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -13235,7 +13235,7 @@
       <c r="AK298" s="3"/>
       <c r="AL298" s="3"/>
     </row>
-    <row r="299" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -13275,7 +13275,7 @@
       <c r="AK299" s="3"/>
       <c r="AL299" s="3"/>
     </row>
-    <row r="300" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -13315,7 +13315,7 @@
       <c r="AK300" s="3"/>
       <c r="AL300" s="3"/>
     </row>
-    <row r="301" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -13355,7 +13355,7 @@
       <c r="AK301" s="3"/>
       <c r="AL301" s="3"/>
     </row>
-    <row r="302" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -13395,7 +13395,7 @@
       <c r="AK302" s="3"/>
       <c r="AL302" s="3"/>
     </row>
-    <row r="303" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -13435,7 +13435,7 @@
       <c r="AK303" s="3"/>
       <c r="AL303" s="3"/>
     </row>
-    <row r="304" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -13475,7 +13475,7 @@
       <c r="AK304" s="3"/>
       <c r="AL304" s="3"/>
     </row>
-    <row r="305" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -13515,7 +13515,7 @@
       <c r="AK305" s="3"/>
       <c r="AL305" s="3"/>
     </row>
-    <row r="306" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -13555,7 +13555,7 @@
       <c r="AK306" s="3"/>
       <c r="AL306" s="3"/>
     </row>
-    <row r="307" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -13595,7 +13595,7 @@
       <c r="AK307" s="3"/>
       <c r="AL307" s="3"/>
     </row>
-    <row r="308" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -13635,7 +13635,7 @@
       <c r="AK308" s="3"/>
       <c r="AL308" s="3"/>
     </row>
-    <row r="309" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -13675,7 +13675,7 @@
       <c r="AK309" s="3"/>
       <c r="AL309" s="3"/>
     </row>
-    <row r="310" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -13715,7 +13715,7 @@
       <c r="AK310" s="3"/>
       <c r="AL310" s="3"/>
     </row>
-    <row r="311" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -13755,7 +13755,7 @@
       <c r="AK311" s="3"/>
       <c r="AL311" s="3"/>
     </row>
-    <row r="312" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -13795,7 +13795,7 @@
       <c r="AK312" s="3"/>
       <c r="AL312" s="3"/>
     </row>
-    <row r="313" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -13835,7 +13835,7 @@
       <c r="AK313" s="3"/>
       <c r="AL313" s="3"/>
     </row>
-    <row r="314" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -13875,7 +13875,7 @@
       <c r="AK314" s="3"/>
       <c r="AL314" s="3"/>
     </row>
-    <row r="315" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -13915,7 +13915,7 @@
       <c r="AK315" s="3"/>
       <c r="AL315" s="3"/>
     </row>
-    <row r="316" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -13955,7 +13955,7 @@
       <c r="AK316" s="3"/>
       <c r="AL316" s="3"/>
     </row>
-    <row r="317" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -13995,7 +13995,7 @@
       <c r="AK317" s="3"/>
       <c r="AL317" s="3"/>
     </row>
-    <row r="318" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -14035,7 +14035,7 @@
       <c r="AK318" s="3"/>
       <c r="AL318" s="3"/>
     </row>
-    <row r="319" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -14075,7 +14075,7 @@
       <c r="AK319" s="3"/>
       <c r="AL319" s="3"/>
     </row>
-    <row r="320" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -14115,7 +14115,7 @@
       <c r="AK320" s="3"/>
       <c r="AL320" s="3"/>
     </row>
-    <row r="321" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -14155,7 +14155,7 @@
       <c r="AK321" s="3"/>
       <c r="AL321" s="3"/>
     </row>
-    <row r="322" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -14195,7 +14195,7 @@
       <c r="AK322" s="3"/>
       <c r="AL322" s="3"/>
     </row>
-    <row r="323" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -14235,7 +14235,7 @@
       <c r="AK323" s="3"/>
       <c r="AL323" s="3"/>
     </row>
-    <row r="324" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -14275,7 +14275,7 @@
       <c r="AK324" s="3"/>
       <c r="AL324" s="3"/>
     </row>
-    <row r="325" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -14315,7 +14315,7 @@
       <c r="AK325" s="3"/>
       <c r="AL325" s="3"/>
     </row>
-    <row r="326" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -14355,7 +14355,7 @@
       <c r="AK326" s="3"/>
       <c r="AL326" s="3"/>
     </row>
-    <row r="327" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -14395,7 +14395,7 @@
       <c r="AK327" s="3"/>
       <c r="AL327" s="3"/>
     </row>
-    <row r="328" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -14435,7 +14435,7 @@
       <c r="AK328" s="3"/>
       <c r="AL328" s="3"/>
     </row>
-    <row r="329" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -14475,7 +14475,7 @@
       <c r="AK329" s="3"/>
       <c r="AL329" s="3"/>
     </row>
-    <row r="330" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -14515,7 +14515,7 @@
       <c r="AK330" s="3"/>
       <c r="AL330" s="3"/>
     </row>
-    <row r="331" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -14555,7 +14555,7 @@
       <c r="AK331" s="3"/>
       <c r="AL331" s="3"/>
     </row>
-    <row r="332" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -14595,7 +14595,7 @@
       <c r="AK332" s="3"/>
       <c r="AL332" s="3"/>
     </row>
-    <row r="333" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -14635,7 +14635,7 @@
       <c r="AK333" s="3"/>
       <c r="AL333" s="3"/>
     </row>
-    <row r="334" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -14675,7 +14675,7 @@
       <c r="AK334" s="3"/>
       <c r="AL334" s="3"/>
     </row>
-    <row r="335" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -14715,7 +14715,7 @@
       <c r="AK335" s="3"/>
       <c r="AL335" s="3"/>
     </row>
-    <row r="336" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -14755,7 +14755,7 @@
       <c r="AK336" s="3"/>
       <c r="AL336" s="3"/>
     </row>
-    <row r="337" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -14795,7 +14795,7 @@
       <c r="AK337" s="3"/>
       <c r="AL337" s="3"/>
     </row>
-    <row r="338" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -14835,7 +14835,7 @@
       <c r="AK338" s="3"/>
       <c r="AL338" s="3"/>
     </row>
-    <row r="339" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -14875,7 +14875,7 @@
       <c r="AK339" s="3"/>
       <c r="AL339" s="3"/>
     </row>
-    <row r="340" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -14915,7 +14915,7 @@
       <c r="AK340" s="3"/>
       <c r="AL340" s="3"/>
     </row>
-    <row r="341" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -14955,7 +14955,7 @@
       <c r="AK341" s="3"/>
       <c r="AL341" s="3"/>
     </row>
-    <row r="342" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -14995,7 +14995,7 @@
       <c r="AK342" s="3"/>
       <c r="AL342" s="3"/>
     </row>
-    <row r="343" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -15035,7 +15035,7 @@
       <c r="AK343" s="3"/>
       <c r="AL343" s="3"/>
     </row>
-    <row r="344" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -15075,7 +15075,7 @@
       <c r="AK344" s="3"/>
       <c r="AL344" s="3"/>
     </row>
-    <row r="345" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -15115,7 +15115,7 @@
       <c r="AK345" s="3"/>
       <c r="AL345" s="3"/>
     </row>
-    <row r="346" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -15155,7 +15155,7 @@
       <c r="AK346" s="3"/>
       <c r="AL346" s="3"/>
     </row>
-    <row r="347" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -15195,7 +15195,7 @@
       <c r="AK347" s="3"/>
       <c r="AL347" s="3"/>
     </row>
-    <row r="348" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -15235,7 +15235,7 @@
       <c r="AK348" s="3"/>
       <c r="AL348" s="3"/>
     </row>
-    <row r="349" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -15275,7 +15275,7 @@
       <c r="AK349" s="3"/>
       <c r="AL349" s="3"/>
     </row>
-    <row r="350" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -15315,7 +15315,7 @@
       <c r="AK350" s="3"/>
       <c r="AL350" s="3"/>
     </row>
-    <row r="351" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -15355,7 +15355,7 @@
       <c r="AK351" s="3"/>
       <c r="AL351" s="3"/>
     </row>
-    <row r="352" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -15395,7 +15395,7 @@
       <c r="AK352" s="3"/>
       <c r="AL352" s="3"/>
     </row>
-    <row r="353" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -15435,7 +15435,7 @@
       <c r="AK353" s="3"/>
       <c r="AL353" s="3"/>
     </row>
-    <row r="354" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -15475,7 +15475,7 @@
       <c r="AK354" s="3"/>
       <c r="AL354" s="3"/>
     </row>
-    <row r="355" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -15515,7 +15515,7 @@
       <c r="AK355" s="3"/>
       <c r="AL355" s="3"/>
     </row>
-    <row r="356" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -15555,7 +15555,7 @@
       <c r="AK356" s="3"/>
       <c r="AL356" s="3"/>
     </row>
-    <row r="357" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -15595,7 +15595,7 @@
       <c r="AK357" s="3"/>
       <c r="AL357" s="3"/>
     </row>
-    <row r="358" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -15635,7 +15635,7 @@
       <c r="AK358" s="3"/>
       <c r="AL358" s="3"/>
     </row>
-    <row r="359" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -15675,7 +15675,7 @@
       <c r="AK359" s="3"/>
       <c r="AL359" s="3"/>
     </row>
-    <row r="360" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -15715,7 +15715,7 @@
       <c r="AK360" s="3"/>
       <c r="AL360" s="3"/>
     </row>
-    <row r="361" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -15755,7 +15755,7 @@
       <c r="AK361" s="3"/>
       <c r="AL361" s="3"/>
     </row>
-    <row r="362" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -15795,7 +15795,7 @@
       <c r="AK362" s="3"/>
       <c r="AL362" s="3"/>
     </row>
-    <row r="363" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -15835,7 +15835,7 @@
       <c r="AK363" s="3"/>
       <c r="AL363" s="3"/>
     </row>
-    <row r="364" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -15875,7 +15875,7 @@
       <c r="AK364" s="3"/>
       <c r="AL364" s="3"/>
     </row>
-    <row r="365" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -15915,7 +15915,7 @@
       <c r="AK365" s="3"/>
       <c r="AL365" s="3"/>
     </row>
-    <row r="366" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -15955,7 +15955,7 @@
       <c r="AK366" s="3"/>
       <c r="AL366" s="3"/>
     </row>
-    <row r="367" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -15995,7 +15995,7 @@
       <c r="AK367" s="3"/>
       <c r="AL367" s="3"/>
     </row>
-    <row r="368" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -16035,7 +16035,7 @@
       <c r="AK368" s="3"/>
       <c r="AL368" s="3"/>
     </row>
-    <row r="369" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -16075,7 +16075,7 @@
       <c r="AK369" s="3"/>
       <c r="AL369" s="3"/>
     </row>
-    <row r="370" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -16115,7 +16115,7 @@
       <c r="AK370" s="3"/>
       <c r="AL370" s="3"/>
     </row>
-    <row r="371" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -16155,7 +16155,7 @@
       <c r="AK371" s="3"/>
       <c r="AL371" s="3"/>
     </row>
-    <row r="372" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -16195,7 +16195,7 @@
       <c r="AK372" s="3"/>
       <c r="AL372" s="3"/>
     </row>
-    <row r="373" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -16235,7 +16235,7 @@
       <c r="AK373" s="3"/>
       <c r="AL373" s="3"/>
     </row>
-    <row r="374" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -16275,7 +16275,7 @@
       <c r="AK374" s="3"/>
       <c r="AL374" s="3"/>
     </row>
-    <row r="375" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -16315,7 +16315,7 @@
       <c r="AK375" s="3"/>
       <c r="AL375" s="3"/>
     </row>
-    <row r="376" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -16355,7 +16355,7 @@
       <c r="AK376" s="3"/>
       <c r="AL376" s="3"/>
     </row>
-    <row r="377" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -16395,7 +16395,7 @@
       <c r="AK377" s="3"/>
       <c r="AL377" s="3"/>
     </row>
-    <row r="378" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -16435,7 +16435,7 @@
       <c r="AK378" s="3"/>
       <c r="AL378" s="3"/>
     </row>
-    <row r="379" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -16475,7 +16475,7 @@
       <c r="AK379" s="3"/>
       <c r="AL379" s="3"/>
     </row>
-    <row r="380" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -16515,7 +16515,7 @@
       <c r="AK380" s="3"/>
       <c r="AL380" s="3"/>
     </row>
-    <row r="381" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -16555,7 +16555,7 @@
       <c r="AK381" s="3"/>
       <c r="AL381" s="3"/>
     </row>
-    <row r="382" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -16595,7 +16595,7 @@
       <c r="AK382" s="3"/>
       <c r="AL382" s="3"/>
     </row>
-    <row r="383" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -16635,7 +16635,7 @@
       <c r="AK383" s="3"/>
       <c r="AL383" s="3"/>
     </row>
-    <row r="384" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -16675,7 +16675,7 @@
       <c r="AK384" s="3"/>
       <c r="AL384" s="3"/>
     </row>
-    <row r="385" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -16715,7 +16715,7 @@
       <c r="AK385" s="3"/>
       <c r="AL385" s="3"/>
     </row>
-    <row r="386" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -16755,7 +16755,7 @@
       <c r="AK386" s="3"/>
       <c r="AL386" s="3"/>
     </row>
-    <row r="387" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -16795,7 +16795,7 @@
       <c r="AK387" s="3"/>
       <c r="AL387" s="3"/>
     </row>
-    <row r="388" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -16835,7 +16835,7 @@
       <c r="AK388" s="3"/>
       <c r="AL388" s="3"/>
     </row>
-    <row r="389" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -16875,7 +16875,7 @@
       <c r="AK389" s="3"/>
       <c r="AL389" s="3"/>
     </row>
-    <row r="390" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -16915,7 +16915,7 @@
       <c r="AK390" s="3"/>
       <c r="AL390" s="3"/>
     </row>
-    <row r="391" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -16955,7 +16955,7 @@
       <c r="AK391" s="3"/>
       <c r="AL391" s="3"/>
     </row>
-    <row r="392" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -16995,7 +16995,7 @@
       <c r="AK392" s="3"/>
       <c r="AL392" s="3"/>
     </row>
-    <row r="393" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -17035,7 +17035,7 @@
       <c r="AK393" s="3"/>
       <c r="AL393" s="3"/>
     </row>
-    <row r="394" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -17075,7 +17075,7 @@
       <c r="AK394" s="3"/>
       <c r="AL394" s="3"/>
     </row>
-    <row r="395" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -17115,7 +17115,7 @@
       <c r="AK395" s="3"/>
       <c r="AL395" s="3"/>
     </row>
-    <row r="396" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -17155,7 +17155,7 @@
       <c r="AK396" s="3"/>
       <c r="AL396" s="3"/>
     </row>
-    <row r="397" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -17195,7 +17195,7 @@
       <c r="AK397" s="3"/>
       <c r="AL397" s="3"/>
     </row>
-    <row r="398" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -17235,7 +17235,7 @@
       <c r="AK398" s="3"/>
       <c r="AL398" s="3"/>
     </row>
-    <row r="399" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -17275,7 +17275,7 @@
       <c r="AK399" s="3"/>
       <c r="AL399" s="3"/>
     </row>
-    <row r="400" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -17315,7 +17315,7 @@
       <c r="AK400" s="3"/>
       <c r="AL400" s="3"/>
     </row>
-    <row r="401" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -17355,7 +17355,7 @@
       <c r="AK401" s="3"/>
       <c r="AL401" s="3"/>
     </row>
-    <row r="402" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -17395,7 +17395,7 @@
       <c r="AK402" s="3"/>
       <c r="AL402" s="3"/>
     </row>
-    <row r="403" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -17435,7 +17435,7 @@
       <c r="AK403" s="3"/>
       <c r="AL403" s="3"/>
     </row>
-    <row r="404" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -17475,7 +17475,7 @@
       <c r="AK404" s="3"/>
       <c r="AL404" s="3"/>
     </row>
-    <row r="405" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -17515,7 +17515,7 @@
       <c r="AK405" s="3"/>
       <c r="AL405" s="3"/>
     </row>
-    <row r="406" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -17555,7 +17555,7 @@
       <c r="AK406" s="3"/>
       <c r="AL406" s="3"/>
     </row>
-    <row r="407" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -17595,7 +17595,7 @@
       <c r="AK407" s="3"/>
       <c r="AL407" s="3"/>
     </row>
-    <row r="408" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -17635,7 +17635,7 @@
       <c r="AK408" s="3"/>
       <c r="AL408" s="3"/>
     </row>
-    <row r="409" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -17675,7 +17675,7 @@
       <c r="AK409" s="3"/>
       <c r="AL409" s="3"/>
     </row>
-    <row r="410" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -17715,7 +17715,7 @@
       <c r="AK410" s="3"/>
       <c r="AL410" s="3"/>
     </row>
-    <row r="411" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -17755,7 +17755,7 @@
       <c r="AK411" s="3"/>
       <c r="AL411" s="3"/>
     </row>
-    <row r="412" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -17795,7 +17795,7 @@
       <c r="AK412" s="3"/>
       <c r="AL412" s="3"/>
     </row>
-    <row r="413" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -17835,7 +17835,7 @@
       <c r="AK413" s="3"/>
       <c r="AL413" s="3"/>
     </row>
-    <row r="414" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -17875,7 +17875,7 @@
       <c r="AK414" s="3"/>
       <c r="AL414" s="3"/>
     </row>
-    <row r="415" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -17915,7 +17915,7 @@
       <c r="AK415" s="3"/>
       <c r="AL415" s="3"/>
     </row>
-    <row r="416" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -17955,7 +17955,7 @@
       <c r="AK416" s="3"/>
       <c r="AL416" s="3"/>
     </row>
-    <row r="417" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -17995,7 +17995,7 @@
       <c r="AK417" s="3"/>
       <c r="AL417" s="3"/>
     </row>
-    <row r="418" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -18035,7 +18035,7 @@
       <c r="AK418" s="3"/>
       <c r="AL418" s="3"/>
     </row>
-    <row r="419" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -18075,7 +18075,7 @@
       <c r="AK419" s="3"/>
       <c r="AL419" s="3"/>
     </row>
-    <row r="420" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -18115,7 +18115,7 @@
       <c r="AK420" s="3"/>
       <c r="AL420" s="3"/>
     </row>
-    <row r="421" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -18155,7 +18155,7 @@
       <c r="AK421" s="3"/>
       <c r="AL421" s="3"/>
     </row>
-    <row r="422" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -18195,7 +18195,7 @@
       <c r="AK422" s="3"/>
       <c r="AL422" s="3"/>
     </row>
-    <row r="423" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -18235,7 +18235,7 @@
       <c r="AK423" s="3"/>
       <c r="AL423" s="3"/>
     </row>
-    <row r="424" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -18275,7 +18275,7 @@
       <c r="AK424" s="3"/>
       <c r="AL424" s="3"/>
     </row>
-    <row r="425" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -18315,7 +18315,7 @@
       <c r="AK425" s="3"/>
       <c r="AL425" s="3"/>
     </row>
-    <row r="426" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -18355,7 +18355,7 @@
       <c r="AK426" s="3"/>
       <c r="AL426" s="3"/>
     </row>
-    <row r="427" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -18395,7 +18395,7 @@
       <c r="AK427" s="3"/>
       <c r="AL427" s="3"/>
     </row>
-    <row r="428" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -18435,7 +18435,7 @@
       <c r="AK428" s="3"/>
       <c r="AL428" s="3"/>
     </row>
-    <row r="429" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -18475,7 +18475,7 @@
       <c r="AK429" s="3"/>
       <c r="AL429" s="3"/>
     </row>
-    <row r="430" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -18515,7 +18515,7 @@
       <c r="AK430" s="3"/>
       <c r="AL430" s="3"/>
     </row>
-    <row r="431" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -18555,7 +18555,7 @@
       <c r="AK431" s="3"/>
       <c r="AL431" s="3"/>
     </row>
-    <row r="432" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -18595,7 +18595,7 @@
       <c r="AK432" s="3"/>
       <c r="AL432" s="3"/>
     </row>
-    <row r="433" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -18635,7 +18635,7 @@
       <c r="AK433" s="3"/>
       <c r="AL433" s="3"/>
     </row>
-    <row r="434" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -18675,7 +18675,7 @@
       <c r="AK434" s="3"/>
       <c r="AL434" s="3"/>
     </row>
-    <row r="435" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -18715,7 +18715,7 @@
       <c r="AK435" s="3"/>
       <c r="AL435" s="3"/>
     </row>
-    <row r="436" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -18755,7 +18755,7 @@
       <c r="AK436" s="3"/>
       <c r="AL436" s="3"/>
     </row>
-    <row r="437" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -18795,7 +18795,7 @@
       <c r="AK437" s="3"/>
       <c r="AL437" s="3"/>
     </row>
-    <row r="438" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -18835,7 +18835,7 @@
       <c r="AK438" s="3"/>
       <c r="AL438" s="3"/>
     </row>
-    <row r="439" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -18875,7 +18875,7 @@
       <c r="AK439" s="3"/>
       <c r="AL439" s="3"/>
     </row>
-    <row r="440" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -18915,7 +18915,7 @@
       <c r="AK440" s="3"/>
       <c r="AL440" s="3"/>
     </row>
-    <row r="441" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -18955,7 +18955,7 @@
       <c r="AK441" s="3"/>
       <c r="AL441" s="3"/>
     </row>
-    <row r="442" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -18995,7 +18995,7 @@
       <c r="AK442" s="3"/>
       <c r="AL442" s="3"/>
     </row>
-    <row r="443" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -19035,7 +19035,7 @@
       <c r="AK443" s="3"/>
       <c r="AL443" s="3"/>
     </row>
-    <row r="444" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -19075,7 +19075,7 @@
       <c r="AK444" s="3"/>
       <c r="AL444" s="3"/>
     </row>
-    <row r="445" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -19115,7 +19115,7 @@
       <c r="AK445" s="3"/>
       <c r="AL445" s="3"/>
     </row>
-    <row r="446" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -19155,7 +19155,7 @@
       <c r="AK446" s="3"/>
       <c r="AL446" s="3"/>
     </row>
-    <row r="447" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -19195,7 +19195,7 @@
       <c r="AK447" s="3"/>
       <c r="AL447" s="3"/>
     </row>
-    <row r="448" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -19235,7 +19235,7 @@
       <c r="AK448" s="3"/>
       <c r="AL448" s="3"/>
     </row>
-    <row r="449" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -19275,7 +19275,7 @@
       <c r="AK449" s="3"/>
       <c r="AL449" s="3"/>
     </row>
-    <row r="450" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -19315,7 +19315,7 @@
       <c r="AK450" s="3"/>
       <c r="AL450" s="3"/>
     </row>
-    <row r="451" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -19355,7 +19355,7 @@
       <c r="AK451" s="3"/>
       <c r="AL451" s="3"/>
     </row>
-    <row r="452" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -19395,7 +19395,7 @@
       <c r="AK452" s="3"/>
       <c r="AL452" s="3"/>
     </row>
-    <row r="453" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -19435,7 +19435,7 @@
       <c r="AK453" s="3"/>
       <c r="AL453" s="3"/>
     </row>
-    <row r="454" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -19475,7 +19475,7 @@
       <c r="AK454" s="3"/>
       <c r="AL454" s="3"/>
     </row>
-    <row r="455" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -19515,7 +19515,7 @@
       <c r="AK455" s="3"/>
       <c r="AL455" s="3"/>
     </row>
-    <row r="456" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -19555,7 +19555,7 @@
       <c r="AK456" s="3"/>
       <c r="AL456" s="3"/>
     </row>
-    <row r="457" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -19595,7 +19595,7 @@
       <c r="AK457" s="3"/>
       <c r="AL457" s="3"/>
     </row>
-    <row r="458" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -19635,7 +19635,7 @@
       <c r="AK458" s="3"/>
       <c r="AL458" s="3"/>
     </row>
-    <row r="459" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -19675,7 +19675,7 @@
       <c r="AK459" s="3"/>
       <c r="AL459" s="3"/>
     </row>
-    <row r="460" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -19715,7 +19715,7 @@
       <c r="AK460" s="3"/>
       <c r="AL460" s="3"/>
     </row>
-    <row r="461" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -19755,7 +19755,7 @@
       <c r="AK461" s="3"/>
       <c r="AL461" s="3"/>
     </row>
-    <row r="462" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -19795,7 +19795,7 @@
       <c r="AK462" s="3"/>
       <c r="AL462" s="3"/>
     </row>
-    <row r="463" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -19835,7 +19835,7 @@
       <c r="AK463" s="3"/>
       <c r="AL463" s="3"/>
     </row>
-    <row r="464" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -19875,7 +19875,7 @@
       <c r="AK464" s="3"/>
       <c r="AL464" s="3"/>
     </row>
-    <row r="465" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -19915,7 +19915,7 @@
       <c r="AK465" s="3"/>
       <c r="AL465" s="3"/>
     </row>
-    <row r="466" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -19955,7 +19955,7 @@
       <c r="AK466" s="3"/>
       <c r="AL466" s="3"/>
     </row>
-    <row r="467" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -19995,7 +19995,7 @@
       <c r="AK467" s="3"/>
       <c r="AL467" s="3"/>
     </row>
-    <row r="468" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -20035,7 +20035,7 @@
       <c r="AK468" s="3"/>
       <c r="AL468" s="3"/>
     </row>
-    <row r="469" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -20075,7 +20075,7 @@
       <c r="AK469" s="3"/>
       <c r="AL469" s="3"/>
     </row>
-    <row r="470" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -20115,7 +20115,7 @@
       <c r="AK470" s="3"/>
       <c r="AL470" s="3"/>
     </row>
-    <row r="471" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -20155,7 +20155,7 @@
       <c r="AK471" s="3"/>
       <c r="AL471" s="3"/>
     </row>
-    <row r="472" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -20195,7 +20195,7 @@
       <c r="AK472" s="3"/>
       <c r="AL472" s="3"/>
     </row>
-    <row r="473" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -20235,7 +20235,7 @@
       <c r="AK473" s="3"/>
       <c r="AL473" s="3"/>
     </row>
-    <row r="474" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -20275,7 +20275,7 @@
       <c r="AK474" s="3"/>
       <c r="AL474" s="3"/>
     </row>
-    <row r="475" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -20315,7 +20315,7 @@
       <c r="AK475" s="3"/>
       <c r="AL475" s="3"/>
     </row>
-    <row r="476" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -20355,7 +20355,7 @@
       <c r="AK476" s="3"/>
       <c r="AL476" s="3"/>
     </row>
-    <row r="477" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -20395,7 +20395,7 @@
       <c r="AK477" s="3"/>
       <c r="AL477" s="3"/>
     </row>
-    <row r="478" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -20435,7 +20435,7 @@
       <c r="AK478" s="3"/>
       <c r="AL478" s="3"/>
     </row>
-    <row r="479" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -20475,7 +20475,7 @@
       <c r="AK479" s="3"/>
       <c r="AL479" s="3"/>
     </row>
-    <row r="480" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -20515,7 +20515,7 @@
       <c r="AK480" s="3"/>
       <c r="AL480" s="3"/>
     </row>
-    <row r="481" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -20555,7 +20555,7 @@
       <c r="AK481" s="3"/>
       <c r="AL481" s="3"/>
     </row>
-    <row r="482" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -20595,7 +20595,7 @@
       <c r="AK482" s="3"/>
       <c r="AL482" s="3"/>
     </row>
-    <row r="483" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -20635,7 +20635,7 @@
       <c r="AK483" s="3"/>
       <c r="AL483" s="3"/>
     </row>
-    <row r="484" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -20675,7 +20675,7 @@
       <c r="AK484" s="3"/>
       <c r="AL484" s="3"/>
     </row>
-    <row r="485" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -20715,7 +20715,7 @@
       <c r="AK485" s="3"/>
       <c r="AL485" s="3"/>
     </row>
-    <row r="486" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -20755,7 +20755,7 @@
       <c r="AK486" s="3"/>
       <c r="AL486" s="3"/>
     </row>
-    <row r="487" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -20795,7 +20795,7 @@
       <c r="AK487" s="3"/>
       <c r="AL487" s="3"/>
     </row>
-    <row r="488" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -20835,7 +20835,7 @@
       <c r="AK488" s="3"/>
       <c r="AL488" s="3"/>
     </row>
-    <row r="489" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -20875,7 +20875,7 @@
       <c r="AK489" s="3"/>
       <c r="AL489" s="3"/>
     </row>
-    <row r="490" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -20915,7 +20915,7 @@
       <c r="AK490" s="3"/>
       <c r="AL490" s="3"/>
     </row>
-    <row r="491" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -20955,7 +20955,7 @@
       <c r="AK491" s="3"/>
       <c r="AL491" s="3"/>
     </row>
-    <row r="492" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -20995,7 +20995,7 @@
       <c r="AK492" s="3"/>
       <c r="AL492" s="3"/>
     </row>
-    <row r="493" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -21035,7 +21035,7 @@
       <c r="AK493" s="3"/>
       <c r="AL493" s="3"/>
     </row>
-    <row r="494" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -21075,7 +21075,7 @@
       <c r="AK494" s="3"/>
       <c r="AL494" s="3"/>
     </row>
-    <row r="495" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -21115,7 +21115,7 @@
       <c r="AK495" s="3"/>
       <c r="AL495" s="3"/>
     </row>
-    <row r="496" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -21155,7 +21155,7 @@
       <c r="AK496" s="3"/>
       <c r="AL496" s="3"/>
     </row>
-    <row r="497" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -21195,7 +21195,7 @@
       <c r="AK497" s="3"/>
       <c r="AL497" s="3"/>
     </row>
-    <row r="498" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -21235,7 +21235,7 @@
       <c r="AK498" s="3"/>
       <c r="AL498" s="3"/>
     </row>
-    <row r="499" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -21275,7 +21275,7 @@
       <c r="AK499" s="3"/>
       <c r="AL499" s="3"/>
     </row>
-    <row r="500" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -21315,7 +21315,7 @@
       <c r="AK500" s="3"/>
       <c r="AL500" s="3"/>
     </row>
-    <row r="501" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -21355,7 +21355,7 @@
       <c r="AK501" s="3"/>
       <c r="AL501" s="3"/>
     </row>
-    <row r="502" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -21395,7 +21395,7 @@
       <c r="AK502" s="3"/>
       <c r="AL502" s="3"/>
     </row>
-    <row r="503" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -21435,7 +21435,7 @@
       <c r="AK503" s="3"/>
       <c r="AL503" s="3"/>
     </row>
-    <row r="504" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -21475,7 +21475,7 @@
       <c r="AK504" s="3"/>
       <c r="AL504" s="3"/>
     </row>
-    <row r="505" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -21515,7 +21515,7 @@
       <c r="AK505" s="3"/>
       <c r="AL505" s="3"/>
     </row>
-    <row r="506" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -21555,7 +21555,7 @@
       <c r="AK506" s="3"/>
       <c r="AL506" s="3"/>
     </row>
-    <row r="507" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -21595,7 +21595,7 @@
       <c r="AK507" s="3"/>
       <c r="AL507" s="3"/>
     </row>
-    <row r="508" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -21635,7 +21635,7 @@
       <c r="AK508" s="3"/>
       <c r="AL508" s="3"/>
     </row>
-    <row r="509" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -21675,7 +21675,7 @@
       <c r="AK509" s="3"/>
       <c r="AL509" s="3"/>
     </row>
-    <row r="510" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -21715,7 +21715,7 @@
       <c r="AK510" s="3"/>
       <c r="AL510" s="3"/>
     </row>
-    <row r="511" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -21755,7 +21755,7 @@
       <c r="AK511" s="3"/>
       <c r="AL511" s="3"/>
     </row>
-    <row r="512" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -21795,7 +21795,7 @@
       <c r="AK512" s="3"/>
       <c r="AL512" s="3"/>
     </row>
-    <row r="513" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -21835,7 +21835,7 @@
       <c r="AK513" s="3"/>
       <c r="AL513" s="3"/>
     </row>
-    <row r="514" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -21875,7 +21875,7 @@
       <c r="AK514" s="3"/>
       <c r="AL514" s="3"/>
     </row>
-    <row r="515" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -21915,7 +21915,7 @@
       <c r="AK515" s="3"/>
       <c r="AL515" s="3"/>
     </row>
-    <row r="516" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -21955,7 +21955,7 @@
       <c r="AK516" s="3"/>
       <c r="AL516" s="3"/>
     </row>
-    <row r="517" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -21995,7 +21995,7 @@
       <c r="AK517" s="3"/>
       <c r="AL517" s="3"/>
     </row>
-    <row r="518" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -22035,7 +22035,7 @@
       <c r="AK518" s="3"/>
       <c r="AL518" s="3"/>
     </row>
-    <row r="519" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -22075,7 +22075,7 @@
       <c r="AK519" s="3"/>
       <c r="AL519" s="3"/>
     </row>
-    <row r="520" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -22115,7 +22115,7 @@
       <c r="AK520" s="3"/>
       <c r="AL520" s="3"/>
     </row>
-    <row r="521" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -22155,7 +22155,7 @@
       <c r="AK521" s="3"/>
       <c r="AL521" s="3"/>
     </row>
-    <row r="522" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -22195,7 +22195,7 @@
       <c r="AK522" s="3"/>
       <c r="AL522" s="3"/>
     </row>
-    <row r="523" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -22235,7 +22235,7 @@
       <c r="AK523" s="3"/>
       <c r="AL523" s="3"/>
     </row>
-    <row r="524" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -22275,7 +22275,7 @@
       <c r="AK524" s="3"/>
       <c r="AL524" s="3"/>
     </row>
-    <row r="525" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -22315,7 +22315,7 @@
       <c r="AK525" s="3"/>
       <c r="AL525" s="3"/>
     </row>
-    <row r="526" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -22355,7 +22355,7 @@
       <c r="AK526" s="3"/>
       <c r="AL526" s="3"/>
     </row>
-    <row r="527" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -22395,7 +22395,7 @@
       <c r="AK527" s="3"/>
       <c r="AL527" s="3"/>
     </row>
-    <row r="528" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -22435,7 +22435,7 @@
       <c r="AK528" s="3"/>
       <c r="AL528" s="3"/>
     </row>
-    <row r="529" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -22475,7 +22475,7 @@
       <c r="AK529" s="3"/>
       <c r="AL529" s="3"/>
     </row>
-    <row r="530" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -22515,7 +22515,7 @@
       <c r="AK530" s="3"/>
       <c r="AL530" s="3"/>
     </row>
-    <row r="531" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -22555,7 +22555,7 @@
       <c r="AK531" s="3"/>
       <c r="AL531" s="3"/>
     </row>
-    <row r="532" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -22595,7 +22595,7 @@
       <c r="AK532" s="3"/>
       <c r="AL532" s="3"/>
     </row>
-    <row r="533" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -22635,7 +22635,7 @@
       <c r="AK533" s="3"/>
       <c r="AL533" s="3"/>
     </row>
-    <row r="534" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -22675,7 +22675,7 @@
       <c r="AK534" s="3"/>
       <c r="AL534" s="3"/>
     </row>
-    <row r="535" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -22715,7 +22715,7 @@
       <c r="AK535" s="3"/>
       <c r="AL535" s="3"/>
     </row>
-    <row r="536" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -22755,7 +22755,7 @@
       <c r="AK536" s="3"/>
       <c r="AL536" s="3"/>
     </row>
-    <row r="537" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -22795,7 +22795,7 @@
       <c r="AK537" s="3"/>
       <c r="AL537" s="3"/>
     </row>
-    <row r="538" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -22835,7 +22835,7 @@
       <c r="AK538" s="3"/>
       <c r="AL538" s="3"/>
     </row>
-    <row r="539" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -22875,7 +22875,7 @@
       <c r="AK539" s="3"/>
       <c r="AL539" s="3"/>
     </row>
-    <row r="540" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -22915,7 +22915,7 @@
       <c r="AK540" s="3"/>
       <c r="AL540" s="3"/>
     </row>
-    <row r="541" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -22955,7 +22955,7 @@
       <c r="AK541" s="3"/>
       <c r="AL541" s="3"/>
     </row>
-    <row r="542" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -22995,7 +22995,7 @@
       <c r="AK542" s="3"/>
       <c r="AL542" s="3"/>
     </row>
-    <row r="543" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -23035,7 +23035,7 @@
       <c r="AK543" s="3"/>
       <c r="AL543" s="3"/>
     </row>
-    <row r="544" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -23075,7 +23075,7 @@
       <c r="AK544" s="3"/>
       <c r="AL544" s="3"/>
     </row>
-    <row r="545" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -23115,7 +23115,7 @@
       <c r="AK545" s="3"/>
       <c r="AL545" s="3"/>
     </row>
-    <row r="546" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -23155,7 +23155,7 @@
       <c r="AK546" s="3"/>
       <c r="AL546" s="3"/>
     </row>
-    <row r="547" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -23195,7 +23195,7 @@
       <c r="AK547" s="3"/>
       <c r="AL547" s="3"/>
     </row>
-    <row r="548" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -23235,7 +23235,7 @@
       <c r="AK548" s="3"/>
       <c r="AL548" s="3"/>
     </row>
-    <row r="549" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -23275,7 +23275,7 @@
       <c r="AK549" s="3"/>
       <c r="AL549" s="3"/>
     </row>
-    <row r="550" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -23315,7 +23315,7 @@
       <c r="AK550" s="3"/>
       <c r="AL550" s="3"/>
     </row>
-    <row r="551" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -23355,7 +23355,7 @@
       <c r="AK551" s="3"/>
       <c r="AL551" s="3"/>
     </row>
-    <row r="552" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -23395,7 +23395,7 @@
       <c r="AK552" s="3"/>
       <c r="AL552" s="3"/>
     </row>
-    <row r="553" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -23435,7 +23435,7 @@
       <c r="AK553" s="3"/>
       <c r="AL553" s="3"/>
     </row>
-    <row r="554" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -23475,7 +23475,7 @@
       <c r="AK554" s="3"/>
       <c r="AL554" s="3"/>
     </row>
-    <row r="555" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -23515,7 +23515,7 @@
       <c r="AK555" s="3"/>
       <c r="AL555" s="3"/>
     </row>
-    <row r="556" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -23555,7 +23555,7 @@
       <c r="AK556" s="3"/>
       <c r="AL556" s="3"/>
     </row>
-    <row r="557" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -23595,7 +23595,7 @@
       <c r="AK557" s="3"/>
       <c r="AL557" s="3"/>
     </row>
-    <row r="558" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -23635,7 +23635,7 @@
       <c r="AK558" s="3"/>
       <c r="AL558" s="3"/>
     </row>
-    <row r="559" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -23675,7 +23675,7 @@
       <c r="AK559" s="3"/>
       <c r="AL559" s="3"/>
     </row>
-    <row r="560" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -23715,7 +23715,7 @@
       <c r="AK560" s="3"/>
       <c r="AL560" s="3"/>
     </row>
-    <row r="561" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -23755,7 +23755,7 @@
       <c r="AK561" s="3"/>
       <c r="AL561" s="3"/>
     </row>
-    <row r="562" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -23795,7 +23795,7 @@
       <c r="AK562" s="3"/>
       <c r="AL562" s="3"/>
     </row>
-    <row r="563" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -23835,7 +23835,7 @@
       <c r="AK563" s="3"/>
       <c r="AL563" s="3"/>
     </row>
-    <row r="564" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -23875,7 +23875,7 @@
       <c r="AK564" s="3"/>
       <c r="AL564" s="3"/>
     </row>
-    <row r="565" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -23915,7 +23915,7 @@
       <c r="AK565" s="3"/>
       <c r="AL565" s="3"/>
     </row>
-    <row r="566" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -23955,7 +23955,7 @@
       <c r="AK566" s="3"/>
       <c r="AL566" s="3"/>
     </row>
-    <row r="567" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -23995,7 +23995,7 @@
       <c r="AK567" s="3"/>
       <c r="AL567" s="3"/>
     </row>
-    <row r="568" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -24035,7 +24035,7 @@
       <c r="AK568" s="3"/>
       <c r="AL568" s="3"/>
     </row>
-    <row r="569" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -24075,7 +24075,7 @@
       <c r="AK569" s="3"/>
       <c r="AL569" s="3"/>
     </row>
-    <row r="570" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -24115,7 +24115,7 @@
       <c r="AK570" s="3"/>
       <c r="AL570" s="3"/>
     </row>
-    <row r="571" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -24155,7 +24155,7 @@
       <c r="AK571" s="3"/>
       <c r="AL571" s="3"/>
     </row>
-    <row r="572" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -24195,7 +24195,7 @@
       <c r="AK572" s="3"/>
       <c r="AL572" s="3"/>
     </row>
-    <row r="573" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -24235,7 +24235,7 @@
       <c r="AK573" s="3"/>
       <c r="AL573" s="3"/>
     </row>
-    <row r="574" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -24275,7 +24275,7 @@
       <c r="AK574" s="3"/>
       <c r="AL574" s="3"/>
     </row>
-    <row r="575" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -24315,7 +24315,7 @@
       <c r="AK575" s="3"/>
       <c r="AL575" s="3"/>
     </row>
-    <row r="576" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -24355,7 +24355,7 @@
       <c r="AK576" s="3"/>
       <c r="AL576" s="3"/>
     </row>
-    <row r="577" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -24395,7 +24395,7 @@
       <c r="AK577" s="3"/>
       <c r="AL577" s="3"/>
     </row>
-    <row r="578" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -24435,7 +24435,7 @@
       <c r="AK578" s="3"/>
       <c r="AL578" s="3"/>
     </row>
-    <row r="579" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -24475,7 +24475,7 @@
       <c r="AK579" s="3"/>
       <c r="AL579" s="3"/>
     </row>
-    <row r="580" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -24515,7 +24515,7 @@
       <c r="AK580" s="3"/>
       <c r="AL580" s="3"/>
     </row>
-    <row r="581" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -24555,7 +24555,7 @@
       <c r="AK581" s="3"/>
       <c r="AL581" s="3"/>
     </row>
-    <row r="582" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -24595,7 +24595,7 @@
       <c r="AK582" s="3"/>
       <c r="AL582" s="3"/>
     </row>
-    <row r="583" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -24635,7 +24635,7 @@
       <c r="AK583" s="3"/>
       <c r="AL583" s="3"/>
     </row>
-    <row r="584" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -24675,7 +24675,7 @@
       <c r="AK584" s="3"/>
       <c r="AL584" s="3"/>
     </row>
-    <row r="585" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -24715,7 +24715,7 @@
       <c r="AK585" s="3"/>
       <c r="AL585" s="3"/>
     </row>
-    <row r="586" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -24755,7 +24755,7 @@
       <c r="AK586" s="3"/>
       <c r="AL586" s="3"/>
     </row>
-    <row r="587" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -24795,7 +24795,7 @@
       <c r="AK587" s="3"/>
       <c r="AL587" s="3"/>
     </row>
-    <row r="588" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -24835,7 +24835,7 @@
       <c r="AK588" s="3"/>
       <c r="AL588" s="3"/>
     </row>
-    <row r="589" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -24875,7 +24875,7 @@
       <c r="AK589" s="3"/>
       <c r="AL589" s="3"/>
     </row>
-    <row r="590" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -24915,7 +24915,7 @@
       <c r="AK590" s="3"/>
       <c r="AL590" s="3"/>
     </row>
-    <row r="591" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -24955,7 +24955,7 @@
       <c r="AK591" s="3"/>
       <c r="AL591" s="3"/>
     </row>
-    <row r="592" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -24995,7 +24995,7 @@
       <c r="AK592" s="3"/>
       <c r="AL592" s="3"/>
     </row>
-    <row r="593" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -25035,7 +25035,7 @@
       <c r="AK593" s="3"/>
       <c r="AL593" s="3"/>
     </row>
-    <row r="594" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -25075,7 +25075,7 @@
       <c r="AK594" s="3"/>
       <c r="AL594" s="3"/>
     </row>
-    <row r="595" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -25115,7 +25115,7 @@
       <c r="AK595" s="3"/>
       <c r="AL595" s="3"/>
     </row>
-    <row r="596" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -25155,7 +25155,7 @@
       <c r="AK596" s="3"/>
       <c r="AL596" s="3"/>
     </row>
-    <row r="597" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -25195,7 +25195,7 @@
       <c r="AK597" s="3"/>
       <c r="AL597" s="3"/>
     </row>
-    <row r="598" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -25235,7 +25235,7 @@
       <c r="AK598" s="3"/>
       <c r="AL598" s="3"/>
     </row>
-    <row r="599" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -25275,7 +25275,7 @@
       <c r="AK599" s="3"/>
       <c r="AL599" s="3"/>
     </row>
-    <row r="600" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -25315,7 +25315,7 @@
       <c r="AK600" s="3"/>
       <c r="AL600" s="3"/>
     </row>
-    <row r="601" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -25355,7 +25355,7 @@
       <c r="AK601" s="3"/>
       <c r="AL601" s="3"/>
     </row>
-    <row r="602" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -25395,7 +25395,7 @@
       <c r="AK602" s="3"/>
       <c r="AL602" s="3"/>
     </row>
-    <row r="603" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -25435,7 +25435,7 @@
       <c r="AK603" s="3"/>
       <c r="AL603" s="3"/>
     </row>
-    <row r="604" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -25475,7 +25475,7 @@
       <c r="AK604" s="3"/>
       <c r="AL604" s="3"/>
     </row>
-    <row r="605" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -25515,7 +25515,7 @@
       <c r="AK605" s="3"/>
       <c r="AL605" s="3"/>
     </row>
-    <row r="606" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -25555,7 +25555,7 @@
       <c r="AK606" s="3"/>
       <c r="AL606" s="3"/>
     </row>
-    <row r="607" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -25595,7 +25595,7 @@
       <c r="AK607" s="3"/>
       <c r="AL607" s="3"/>
     </row>
-    <row r="608" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -25635,7 +25635,7 @@
       <c r="AK608" s="3"/>
       <c r="AL608" s="3"/>
     </row>
-    <row r="609" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -25675,7 +25675,7 @@
       <c r="AK609" s="3"/>
       <c r="AL609" s="3"/>
     </row>
-    <row r="610" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -25715,7 +25715,7 @@
       <c r="AK610" s="3"/>
       <c r="AL610" s="3"/>
     </row>
-    <row r="611" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -25755,7 +25755,7 @@
       <c r="AK611" s="3"/>
       <c r="AL611" s="3"/>
     </row>
-    <row r="612" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -25795,7 +25795,7 @@
       <c r="AK612" s="3"/>
       <c r="AL612" s="3"/>
     </row>
-    <row r="613" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -25835,7 +25835,7 @@
       <c r="AK613" s="3"/>
       <c r="AL613" s="3"/>
     </row>
-    <row r="614" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -25875,7 +25875,7 @@
       <c r="AK614" s="3"/>
       <c r="AL614" s="3"/>
     </row>
-    <row r="615" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -25915,7 +25915,7 @@
       <c r="AK615" s="3"/>
       <c r="AL615" s="3"/>
     </row>
-    <row r="616" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -25955,7 +25955,7 @@
       <c r="AK616" s="3"/>
       <c r="AL616" s="3"/>
     </row>
-    <row r="617" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -25995,7 +25995,7 @@
       <c r="AK617" s="3"/>
       <c r="AL617" s="3"/>
     </row>
-    <row r="618" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -26035,7 +26035,7 @@
       <c r="AK618" s="3"/>
       <c r="AL618" s="3"/>
     </row>
-    <row r="619" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -26075,7 +26075,7 @@
       <c r="AK619" s="3"/>
       <c r="AL619" s="3"/>
     </row>
-    <row r="620" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -26115,7 +26115,7 @@
       <c r="AK620" s="3"/>
       <c r="AL620" s="3"/>
     </row>
-    <row r="621" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -26155,7 +26155,7 @@
       <c r="AK621" s="3"/>
       <c r="AL621" s="3"/>
     </row>
-    <row r="622" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -26195,7 +26195,7 @@
       <c r="AK622" s="3"/>
       <c r="AL622" s="3"/>
     </row>
-    <row r="623" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -26235,7 +26235,7 @@
       <c r="AK623" s="3"/>
       <c r="AL623" s="3"/>
     </row>
-    <row r="624" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -26275,7 +26275,7 @@
       <c r="AK624" s="3"/>
       <c r="AL624" s="3"/>
     </row>
-    <row r="625" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -26315,7 +26315,7 @@
       <c r="AK625" s="3"/>
       <c r="AL625" s="3"/>
     </row>
-    <row r="626" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -26355,7 +26355,7 @@
       <c r="AK626" s="3"/>
       <c r="AL626" s="3"/>
     </row>
-    <row r="627" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -26395,7 +26395,7 @@
       <c r="AK627" s="3"/>
       <c r="AL627" s="3"/>
     </row>
-    <row r="628" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -26435,7 +26435,7 @@
       <c r="AK628" s="3"/>
       <c r="AL628" s="3"/>
     </row>
-    <row r="629" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -26475,7 +26475,7 @@
       <c r="AK629" s="3"/>
       <c r="AL629" s="3"/>
     </row>
-    <row r="630" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -26515,7 +26515,7 @@
       <c r="AK630" s="3"/>
       <c r="AL630" s="3"/>
     </row>
-    <row r="631" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -26555,7 +26555,7 @@
       <c r="AK631" s="3"/>
       <c r="AL631" s="3"/>
     </row>
-    <row r="632" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -26595,7 +26595,7 @@
       <c r="AK632" s="3"/>
       <c r="AL632" s="3"/>
     </row>
-    <row r="633" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -26635,7 +26635,7 @@
       <c r="AK633" s="3"/>
       <c r="AL633" s="3"/>
     </row>
-    <row r="634" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -26675,7 +26675,7 @@
       <c r="AK634" s="3"/>
       <c r="AL634" s="3"/>
     </row>
-    <row r="635" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -26715,7 +26715,7 @@
       <c r="AK635" s="3"/>
       <c r="AL635" s="3"/>
     </row>
-    <row r="636" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -26755,7 +26755,7 @@
       <c r="AK636" s="3"/>
       <c r="AL636" s="3"/>
     </row>
-    <row r="637" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -26795,7 +26795,7 @@
       <c r="AK637" s="3"/>
       <c r="AL637" s="3"/>
     </row>
-    <row r="638" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -26835,7 +26835,7 @@
       <c r="AK638" s="3"/>
       <c r="AL638" s="3"/>
     </row>
-    <row r="639" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -26875,7 +26875,7 @@
       <c r="AK639" s="3"/>
       <c r="AL639" s="3"/>
     </row>
-    <row r="640" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -26915,7 +26915,7 @@
       <c r="AK640" s="3"/>
       <c r="AL640" s="3"/>
     </row>
-    <row r="641" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -26955,7 +26955,7 @@
       <c r="AK641" s="3"/>
       <c r="AL641" s="3"/>
     </row>
-    <row r="642" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -26995,7 +26995,7 @@
       <c r="AK642" s="3"/>
       <c r="AL642" s="3"/>
     </row>
-    <row r="643" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -27035,7 +27035,7 @@
       <c r="AK643" s="3"/>
       <c r="AL643" s="3"/>
     </row>
-    <row r="644" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -27075,7 +27075,7 @@
       <c r="AK644" s="3"/>
       <c r="AL644" s="3"/>
     </row>
-    <row r="645" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -27115,7 +27115,7 @@
       <c r="AK645" s="3"/>
       <c r="AL645" s="3"/>
     </row>
-    <row r="646" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -27155,7 +27155,7 @@
       <c r="AK646" s="3"/>
       <c r="AL646" s="3"/>
     </row>
-    <row r="647" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -27195,7 +27195,7 @@
       <c r="AK647" s="3"/>
       <c r="AL647" s="3"/>
     </row>
-    <row r="648" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -27235,7 +27235,7 @@
       <c r="AK648" s="3"/>
       <c r="AL648" s="3"/>
     </row>
-    <row r="649" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -27275,7 +27275,7 @@
       <c r="AK649" s="3"/>
       <c r="AL649" s="3"/>
     </row>
-    <row r="650" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -27315,7 +27315,7 @@
       <c r="AK650" s="3"/>
       <c r="AL650" s="3"/>
     </row>
-    <row r="651" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -27355,7 +27355,7 @@
       <c r="AK651" s="3"/>
       <c r="AL651" s="3"/>
     </row>
-    <row r="652" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -27395,7 +27395,7 @@
       <c r="AK652" s="3"/>
       <c r="AL652" s="3"/>
     </row>
-    <row r="653" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -27435,7 +27435,7 @@
       <c r="AK653" s="3"/>
       <c r="AL653" s="3"/>
     </row>
-    <row r="654" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -27475,7 +27475,7 @@
       <c r="AK654" s="3"/>
       <c r="AL654" s="3"/>
     </row>
-    <row r="655" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -27515,7 +27515,7 @@
       <c r="AK655" s="3"/>
       <c r="AL655" s="3"/>
     </row>
-    <row r="656" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -27555,7 +27555,7 @@
       <c r="AK656" s="3"/>
       <c r="AL656" s="3"/>
     </row>
-    <row r="657" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -27595,7 +27595,7 @@
       <c r="AK657" s="3"/>
       <c r="AL657" s="3"/>
     </row>
-    <row r="658" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -27635,7 +27635,7 @@
       <c r="AK658" s="3"/>
       <c r="AL658" s="3"/>
     </row>
-    <row r="659" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -27675,7 +27675,7 @@
       <c r="AK659" s="3"/>
       <c r="AL659" s="3"/>
     </row>
-    <row r="660" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -27715,7 +27715,7 @@
       <c r="AK660" s="3"/>
       <c r="AL660" s="3"/>
     </row>
-    <row r="661" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -27755,7 +27755,7 @@
       <c r="AK661" s="3"/>
       <c r="AL661" s="3"/>
     </row>
-    <row r="662" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -27795,7 +27795,7 @@
       <c r="AK662" s="3"/>
       <c r="AL662" s="3"/>
     </row>
-    <row r="663" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -27835,7 +27835,7 @@
       <c r="AK663" s="3"/>
       <c r="AL663" s="3"/>
     </row>
-    <row r="664" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -27875,7 +27875,7 @@
       <c r="AK664" s="3"/>
       <c r="AL664" s="3"/>
     </row>
-    <row r="665" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -27915,7 +27915,7 @@
       <c r="AK665" s="3"/>
       <c r="AL665" s="3"/>
     </row>
-    <row r="666" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -27955,7 +27955,7 @@
       <c r="AK666" s="3"/>
       <c r="AL666" s="3"/>
     </row>
-    <row r="667" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -27995,7 +27995,7 @@
       <c r="AK667" s="3"/>
       <c r="AL667" s="3"/>
     </row>
-    <row r="668" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -28035,7 +28035,7 @@
       <c r="AK668" s="3"/>
       <c r="AL668" s="3"/>
     </row>
-    <row r="669" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -28075,7 +28075,7 @@
       <c r="AK669" s="3"/>
       <c r="AL669" s="3"/>
     </row>
-    <row r="670" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -28115,7 +28115,7 @@
       <c r="AK670" s="3"/>
       <c r="AL670" s="3"/>
     </row>
-    <row r="671" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -28155,7 +28155,7 @@
       <c r="AK671" s="3"/>
       <c r="AL671" s="3"/>
     </row>
-    <row r="672" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -28195,7 +28195,7 @@
       <c r="AK672" s="3"/>
       <c r="AL672" s="3"/>
     </row>
-    <row r="673" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -28235,7 +28235,7 @@
       <c r="AK673" s="3"/>
       <c r="AL673" s="3"/>
     </row>
-    <row r="674" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -28275,7 +28275,7 @@
       <c r="AK674" s="3"/>
       <c r="AL674" s="3"/>
     </row>
-    <row r="675" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -28315,7 +28315,7 @@
       <c r="AK675" s="3"/>
       <c r="AL675" s="3"/>
     </row>
-    <row r="676" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -28355,7 +28355,7 @@
       <c r="AK676" s="3"/>
       <c r="AL676" s="3"/>
     </row>
-    <row r="677" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -28395,7 +28395,7 @@
       <c r="AK677" s="3"/>
       <c r="AL677" s="3"/>
     </row>
-    <row r="678" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -28435,7 +28435,7 @@
       <c r="AK678" s="3"/>
       <c r="AL678" s="3"/>
     </row>
-    <row r="679" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -28475,7 +28475,7 @@
       <c r="AK679" s="3"/>
       <c r="AL679" s="3"/>
     </row>
-    <row r="680" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -28515,7 +28515,7 @@
       <c r="AK680" s="3"/>
       <c r="AL680" s="3"/>
     </row>
-    <row r="681" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -28555,7 +28555,7 @@
       <c r="AK681" s="3"/>
       <c r="AL681" s="3"/>
     </row>
-    <row r="682" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -28595,7 +28595,7 @@
       <c r="AK682" s="3"/>
       <c r="AL682" s="3"/>
     </row>
-    <row r="683" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -28635,7 +28635,7 @@
       <c r="AK683" s="3"/>
       <c r="AL683" s="3"/>
     </row>
-    <row r="684" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -28675,7 +28675,7 @@
       <c r="AK684" s="3"/>
       <c r="AL684" s="3"/>
     </row>
-    <row r="685" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -28715,7 +28715,7 @@
       <c r="AK685" s="3"/>
       <c r="AL685" s="3"/>
     </row>
-    <row r="686" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -28755,7 +28755,7 @@
       <c r="AK686" s="3"/>
       <c r="AL686" s="3"/>
     </row>
-    <row r="687" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -28795,7 +28795,7 @@
       <c r="AK687" s="3"/>
       <c r="AL687" s="3"/>
     </row>
-    <row r="688" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -28835,7 +28835,7 @@
       <c r="AK688" s="3"/>
       <c r="AL688" s="3"/>
     </row>
-    <row r="689" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -28875,7 +28875,7 @@
       <c r="AK689" s="3"/>
       <c r="AL689" s="3"/>
     </row>
-    <row r="690" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -28915,7 +28915,7 @@
       <c r="AK690" s="3"/>
       <c r="AL690" s="3"/>
     </row>
-    <row r="691" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -28955,7 +28955,7 @@
       <c r="AK691" s="3"/>
       <c r="AL691" s="3"/>
     </row>
-    <row r="692" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -28995,7 +28995,7 @@
       <c r="AK692" s="3"/>
       <c r="AL692" s="3"/>
     </row>
-    <row r="693" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -29035,7 +29035,7 @@
       <c r="AK693" s="3"/>
       <c r="AL693" s="3"/>
     </row>
-    <row r="694" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -29075,7 +29075,7 @@
       <c r="AK694" s="3"/>
       <c r="AL694" s="3"/>
     </row>
-    <row r="695" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -29115,7 +29115,7 @@
       <c r="AK695" s="3"/>
       <c r="AL695" s="3"/>
     </row>
-    <row r="696" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -29155,7 +29155,7 @@
       <c r="AK696" s="3"/>
       <c r="AL696" s="3"/>
     </row>
-    <row r="697" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -29195,7 +29195,7 @@
       <c r="AK697" s="3"/>
       <c r="AL697" s="3"/>
     </row>
-    <row r="698" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -29235,7 +29235,7 @@
       <c r="AK698" s="3"/>
       <c r="AL698" s="3"/>
     </row>
-    <row r="699" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -29275,7 +29275,7 @@
       <c r="AK699" s="3"/>
       <c r="AL699" s="3"/>
     </row>
-    <row r="700" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -29315,7 +29315,7 @@
       <c r="AK700" s="3"/>
       <c r="AL700" s="3"/>
     </row>
-    <row r="701" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -29355,7 +29355,7 @@
       <c r="AK701" s="3"/>
       <c r="AL701" s="3"/>
     </row>
-    <row r="702" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -29395,7 +29395,7 @@
       <c r="AK702" s="3"/>
       <c r="AL702" s="3"/>
     </row>
-    <row r="703" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -29435,7 +29435,7 @@
       <c r="AK703" s="3"/>
       <c r="AL703" s="3"/>
     </row>
-    <row r="704" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -29475,7 +29475,7 @@
       <c r="AK704" s="3"/>
       <c r="AL704" s="3"/>
     </row>
-    <row r="705" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -29515,7 +29515,7 @@
       <c r="AK705" s="3"/>
       <c r="AL705" s="3"/>
     </row>
-    <row r="706" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -29555,7 +29555,7 @@
       <c r="AK706" s="3"/>
       <c r="AL706" s="3"/>
     </row>
-    <row r="707" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -29595,7 +29595,7 @@
       <c r="AK707" s="3"/>
       <c r="AL707" s="3"/>
     </row>
-    <row r="708" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -29635,7 +29635,7 @@
       <c r="AK708" s="3"/>
       <c r="AL708" s="3"/>
     </row>
-    <row r="709" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -29675,7 +29675,7 @@
       <c r="AK709" s="3"/>
       <c r="AL709" s="3"/>
     </row>
-    <row r="710" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -29715,7 +29715,7 @@
       <c r="AK710" s="3"/>
       <c r="AL710" s="3"/>
     </row>
-    <row r="711" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -29755,7 +29755,7 @@
       <c r="AK711" s="3"/>
       <c r="AL711" s="3"/>
     </row>
-    <row r="712" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -29795,7 +29795,7 @@
       <c r="AK712" s="3"/>
       <c r="AL712" s="3"/>
     </row>
-    <row r="713" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -29835,7 +29835,7 @@
       <c r="AK713" s="3"/>
       <c r="AL713" s="3"/>
     </row>
-    <row r="714" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -29875,7 +29875,7 @@
       <c r="AK714" s="3"/>
       <c r="AL714" s="3"/>
     </row>
-    <row r="715" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -29915,7 +29915,7 @@
       <c r="AK715" s="3"/>
       <c r="AL715" s="3"/>
     </row>
-    <row r="716" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -29955,7 +29955,7 @@
       <c r="AK716" s="3"/>
       <c r="AL716" s="3"/>
     </row>
-    <row r="717" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -29995,7 +29995,7 @@
       <c r="AK717" s="3"/>
       <c r="AL717" s="3"/>
     </row>
-    <row r="718" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -30035,7 +30035,7 @@
       <c r="AK718" s="3"/>
       <c r="AL718" s="3"/>
     </row>
-    <row r="719" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -30075,7 +30075,7 @@
       <c r="AK719" s="3"/>
       <c r="AL719" s="3"/>
     </row>
-    <row r="720" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -30115,7 +30115,7 @@
       <c r="AK720" s="3"/>
       <c r="AL720" s="3"/>
     </row>
-    <row r="721" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -30155,7 +30155,7 @@
       <c r="AK721" s="3"/>
       <c r="AL721" s="3"/>
     </row>
-    <row r="722" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -30195,7 +30195,7 @@
       <c r="AK722" s="3"/>
       <c r="AL722" s="3"/>
     </row>
-    <row r="723" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -30235,7 +30235,7 @@
       <c r="AK723" s="3"/>
       <c r="AL723" s="3"/>
     </row>
-    <row r="724" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -30275,7 +30275,7 @@
       <c r="AK724" s="3"/>
       <c r="AL724" s="3"/>
     </row>
-    <row r="725" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -30315,7 +30315,7 @@
       <c r="AK725" s="3"/>
       <c r="AL725" s="3"/>
     </row>
-    <row r="726" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -30355,7 +30355,7 @@
       <c r="AK726" s="3"/>
       <c r="AL726" s="3"/>
     </row>
-    <row r="727" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -30395,7 +30395,7 @@
       <c r="AK727" s="3"/>
       <c r="AL727" s="3"/>
     </row>
-    <row r="728" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -30435,7 +30435,7 @@
       <c r="AK728" s="3"/>
       <c r="AL728" s="3"/>
     </row>
-    <row r="729" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -30475,7 +30475,7 @@
       <c r="AK729" s="3"/>
       <c r="AL729" s="3"/>
     </row>
-    <row r="730" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -30515,7 +30515,7 @@
       <c r="AK730" s="3"/>
       <c r="AL730" s="3"/>
     </row>
-    <row r="731" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -30555,7 +30555,7 @@
       <c r="AK731" s="3"/>
       <c r="AL731" s="3"/>
     </row>
-    <row r="732" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -30595,7 +30595,7 @@
       <c r="AK732" s="3"/>
       <c r="AL732" s="3"/>
     </row>
-    <row r="733" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -30635,7 +30635,7 @@
       <c r="AK733" s="3"/>
       <c r="AL733" s="3"/>
     </row>
-    <row r="734" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -30675,7 +30675,7 @@
       <c r="AK734" s="3"/>
       <c r="AL734" s="3"/>
     </row>
-    <row r="735" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -30715,7 +30715,7 @@
       <c r="AK735" s="3"/>
       <c r="AL735" s="3"/>
     </row>
-    <row r="736" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -30755,7 +30755,7 @@
       <c r="AK736" s="3"/>
       <c r="AL736" s="3"/>
     </row>
-    <row r="737" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -30795,7 +30795,7 @@
       <c r="AK737" s="3"/>
       <c r="AL737" s="3"/>
     </row>
-    <row r="738" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -30835,7 +30835,7 @@
       <c r="AK738" s="3"/>
       <c r="AL738" s="3"/>
     </row>
-    <row r="739" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -30875,7 +30875,7 @@
       <c r="AK739" s="3"/>
       <c r="AL739" s="3"/>
     </row>
-    <row r="740" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -30915,7 +30915,7 @@
       <c r="AK740" s="3"/>
       <c r="AL740" s="3"/>
     </row>
-    <row r="741" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -30955,7 +30955,7 @@
       <c r="AK741" s="3"/>
       <c r="AL741" s="3"/>
     </row>
-    <row r="742" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -30995,7 +30995,7 @@
       <c r="AK742" s="3"/>
       <c r="AL742" s="3"/>
     </row>
-    <row r="743" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -31035,7 +31035,7 @@
       <c r="AK743" s="3"/>
       <c r="AL743" s="3"/>
     </row>
-    <row r="744" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -31075,7 +31075,7 @@
       <c r="AK744" s="3"/>
       <c r="AL744" s="3"/>
     </row>
-    <row r="745" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -31115,7 +31115,7 @@
       <c r="AK745" s="3"/>
       <c r="AL745" s="3"/>
     </row>
-    <row r="746" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -31155,7 +31155,7 @@
       <c r="AK746" s="3"/>
       <c r="AL746" s="3"/>
     </row>
-    <row r="747" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -31195,7 +31195,7 @@
       <c r="AK747" s="3"/>
       <c r="AL747" s="3"/>
     </row>
-    <row r="748" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -31235,7 +31235,7 @@
       <c r="AK748" s="3"/>
       <c r="AL748" s="3"/>
     </row>
-    <row r="749" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -31275,7 +31275,7 @@
       <c r="AK749" s="3"/>
       <c r="AL749" s="3"/>
     </row>
-    <row r="750" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -31315,7 +31315,7 @@
       <c r="AK750" s="3"/>
       <c r="AL750" s="3"/>
     </row>
-    <row r="751" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -31355,7 +31355,7 @@
       <c r="AK751" s="3"/>
       <c r="AL751" s="3"/>
     </row>
-    <row r="752" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -31395,7 +31395,7 @@
       <c r="AK752" s="3"/>
       <c r="AL752" s="3"/>
     </row>
-    <row r="753" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -31435,7 +31435,7 @@
       <c r="AK753" s="3"/>
       <c r="AL753" s="3"/>
     </row>
-    <row r="754" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -31475,7 +31475,7 @@
       <c r="AK754" s="3"/>
       <c r="AL754" s="3"/>
     </row>
-    <row r="755" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -31515,7 +31515,7 @@
       <c r="AK755" s="3"/>
       <c r="AL755" s="3"/>
     </row>
-    <row r="756" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -31555,7 +31555,7 @@
       <c r="AK756" s="3"/>
       <c r="AL756" s="3"/>
     </row>
-    <row r="757" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -31595,7 +31595,7 @@
       <c r="AK757" s="3"/>
       <c r="AL757" s="3"/>
     </row>
-    <row r="758" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -31635,7 +31635,7 @@
       <c r="AK758" s="3"/>
       <c r="AL758" s="3"/>
     </row>
-    <row r="759" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -31675,7 +31675,7 @@
       <c r="AK759" s="3"/>
       <c r="AL759" s="3"/>
     </row>
-    <row r="760" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -31715,7 +31715,7 @@
       <c r="AK760" s="3"/>
       <c r="AL760" s="3"/>
     </row>
-    <row r="761" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -31755,7 +31755,7 @@
       <c r="AK761" s="3"/>
       <c r="AL761" s="3"/>
     </row>
-    <row r="762" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -31795,7 +31795,7 @@
       <c r="AK762" s="3"/>
       <c r="AL762" s="3"/>
     </row>
-    <row r="763" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -31835,7 +31835,7 @@
       <c r="AK763" s="3"/>
       <c r="AL763" s="3"/>
     </row>
-    <row r="764" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -31875,7 +31875,7 @@
       <c r="AK764" s="3"/>
       <c r="AL764" s="3"/>
     </row>
-    <row r="765" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -31915,7 +31915,7 @@
       <c r="AK765" s="3"/>
       <c r="AL765" s="3"/>
     </row>
-    <row r="766" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -31955,7 +31955,7 @@
       <c r="AK766" s="3"/>
       <c r="AL766" s="3"/>
     </row>
-    <row r="767" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -31995,7 +31995,7 @@
       <c r="AK767" s="3"/>
       <c r="AL767" s="3"/>
     </row>
-    <row r="768" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -32035,7 +32035,7 @@
       <c r="AK768" s="3"/>
       <c r="AL768" s="3"/>
     </row>
-    <row r="769" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -32075,7 +32075,7 @@
       <c r="AK769" s="3"/>
       <c r="AL769" s="3"/>
     </row>
-    <row r="770" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -32115,7 +32115,7 @@
       <c r="AK770" s="3"/>
       <c r="AL770" s="3"/>
     </row>
-    <row r="771" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -32155,7 +32155,7 @@
       <c r="AK771" s="3"/>
       <c r="AL771" s="3"/>
     </row>
-    <row r="772" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -32195,7 +32195,7 @@
       <c r="AK772" s="3"/>
       <c r="AL772" s="3"/>
     </row>
-    <row r="773" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -32235,7 +32235,7 @@
       <c r="AK773" s="3"/>
       <c r="AL773" s="3"/>
     </row>
-    <row r="774" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -32275,7 +32275,7 @@
       <c r="AK774" s="3"/>
       <c r="AL774" s="3"/>
     </row>
-    <row r="775" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -32315,7 +32315,7 @@
       <c r="AK775" s="3"/>
       <c r="AL775" s="3"/>
     </row>
-    <row r="776" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -32355,7 +32355,7 @@
       <c r="AK776" s="3"/>
       <c r="AL776" s="3"/>
     </row>
-    <row r="777" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -32395,7 +32395,7 @@
       <c r="AK777" s="3"/>
       <c r="AL777" s="3"/>
     </row>
-    <row r="778" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -32435,7 +32435,7 @@
       <c r="AK778" s="3"/>
       <c r="AL778" s="3"/>
     </row>
-    <row r="779" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -32475,7 +32475,7 @@
       <c r="AK779" s="3"/>
       <c r="AL779" s="3"/>
     </row>
-    <row r="780" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -32515,7 +32515,7 @@
       <c r="AK780" s="3"/>
       <c r="AL780" s="3"/>
     </row>
-    <row r="781" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -32555,7 +32555,7 @@
       <c r="AK781" s="3"/>
       <c r="AL781" s="3"/>
     </row>
-    <row r="782" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -32595,7 +32595,7 @@
       <c r="AK782" s="3"/>
       <c r="AL782" s="3"/>
     </row>
-    <row r="783" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -32635,7 +32635,7 @@
       <c r="AK783" s="3"/>
       <c r="AL783" s="3"/>
     </row>
-    <row r="784" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -32675,7 +32675,7 @@
       <c r="AK784" s="3"/>
       <c r="AL784" s="3"/>
     </row>
-    <row r="785" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -32715,7 +32715,7 @@
       <c r="AK785" s="3"/>
       <c r="AL785" s="3"/>
     </row>
-    <row r="786" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -32755,7 +32755,7 @@
       <c r="AK786" s="3"/>
       <c r="AL786" s="3"/>
     </row>
-    <row r="787" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -32795,7 +32795,7 @@
       <c r="AK787" s="3"/>
       <c r="AL787" s="3"/>
     </row>
-    <row r="788" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -32835,7 +32835,7 @@
       <c r="AK788" s="3"/>
       <c r="AL788" s="3"/>
     </row>
-    <row r="789" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -32875,7 +32875,7 @@
       <c r="AK789" s="3"/>
       <c r="AL789" s="3"/>
     </row>
-    <row r="790" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -32915,7 +32915,7 @@
       <c r="AK790" s="3"/>
       <c r="AL790" s="3"/>
     </row>
-    <row r="791" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -32955,7 +32955,7 @@
       <c r="AK791" s="3"/>
       <c r="AL791" s="3"/>
     </row>
-    <row r="792" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -32995,7 +32995,7 @@
       <c r="AK792" s="3"/>
       <c r="AL792" s="3"/>
     </row>
-    <row r="793" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -33035,7 +33035,7 @@
       <c r="AK793" s="3"/>
       <c r="AL793" s="3"/>
     </row>
-    <row r="794" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -33075,7 +33075,7 @@
       <c r="AK794" s="3"/>
       <c r="AL794" s="3"/>
     </row>
-    <row r="795" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -33115,7 +33115,7 @@
       <c r="AK795" s="3"/>
       <c r="AL795" s="3"/>
     </row>
-    <row r="796" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -33155,7 +33155,7 @@
       <c r="AK796" s="3"/>
       <c r="AL796" s="3"/>
     </row>
-    <row r="797" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -33195,7 +33195,7 @@
       <c r="AK797" s="3"/>
       <c r="AL797" s="3"/>
     </row>
-    <row r="798" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -33235,7 +33235,7 @@
       <c r="AK798" s="3"/>
       <c r="AL798" s="3"/>
     </row>
-    <row r="799" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -33275,7 +33275,7 @@
       <c r="AK799" s="3"/>
       <c r="AL799" s="3"/>
     </row>
-    <row r="800" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -33315,7 +33315,7 @@
       <c r="AK800" s="3"/>
       <c r="AL800" s="3"/>
     </row>
-    <row r="801" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -33355,7 +33355,7 @@
       <c r="AK801" s="3"/>
       <c r="AL801" s="3"/>
     </row>
-    <row r="802" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -33395,7 +33395,7 @@
       <c r="AK802" s="3"/>
       <c r="AL802" s="3"/>
     </row>
-    <row r="803" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -33435,7 +33435,7 @@
       <c r="AK803" s="3"/>
       <c r="AL803" s="3"/>
     </row>
-    <row r="804" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -33475,7 +33475,7 @@
       <c r="AK804" s="3"/>
       <c r="AL804" s="3"/>
     </row>
-    <row r="805" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -33515,7 +33515,7 @@
       <c r="AK805" s="3"/>
       <c r="AL805" s="3"/>
     </row>
-    <row r="806" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -33555,7 +33555,7 @@
       <c r="AK806" s="3"/>
       <c r="AL806" s="3"/>
     </row>
-    <row r="807" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -33595,7 +33595,7 @@
       <c r="AK807" s="3"/>
       <c r="AL807" s="3"/>
     </row>
-    <row r="808" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -33635,7 +33635,7 @@
       <c r="AK808" s="3"/>
       <c r="AL808" s="3"/>
     </row>
-    <row r="809" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -33675,7 +33675,7 @@
       <c r="AK809" s="3"/>
       <c r="AL809" s="3"/>
     </row>
-    <row r="810" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -33715,7 +33715,7 @@
       <c r="AK810" s="3"/>
       <c r="AL810" s="3"/>
     </row>
-    <row r="811" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -33755,7 +33755,7 @@
       <c r="AK811" s="3"/>
       <c r="AL811" s="3"/>
     </row>
-    <row r="812" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -33795,7 +33795,7 @@
       <c r="AK812" s="3"/>
       <c r="AL812" s="3"/>
     </row>
-    <row r="813" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -33835,7 +33835,7 @@
       <c r="AK813" s="3"/>
       <c r="AL813" s="3"/>
     </row>
-    <row r="814" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -33875,7 +33875,7 @@
       <c r="AK814" s="3"/>
       <c r="AL814" s="3"/>
     </row>
-    <row r="815" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -33915,7 +33915,7 @@
       <c r="AK815" s="3"/>
       <c r="AL815" s="3"/>
     </row>
-    <row r="816" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -33955,7 +33955,7 @@
       <c r="AK816" s="3"/>
       <c r="AL816" s="3"/>
     </row>
-    <row r="817" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -33995,7 +33995,7 @@
       <c r="AK817" s="3"/>
       <c r="AL817" s="3"/>
     </row>
-    <row r="818" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -34035,7 +34035,7 @@
       <c r="AK818" s="3"/>
       <c r="AL818" s="3"/>
     </row>
-    <row r="819" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -34075,7 +34075,7 @@
       <c r="AK819" s="3"/>
       <c r="AL819" s="3"/>
     </row>
-    <row r="820" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -34115,7 +34115,7 @@
       <c r="AK820" s="3"/>
       <c r="AL820" s="3"/>
     </row>
-    <row r="821" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -34155,7 +34155,7 @@
       <c r="AK821" s="3"/>
       <c r="AL821" s="3"/>
     </row>
-    <row r="822" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -34195,7 +34195,7 @@
       <c r="AK822" s="3"/>
       <c r="AL822" s="3"/>
     </row>
-    <row r="823" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -34235,7 +34235,7 @@
       <c r="AK823" s="3"/>
       <c r="AL823" s="3"/>
     </row>
-    <row r="824" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -34275,7 +34275,7 @@
       <c r="AK824" s="3"/>
       <c r="AL824" s="3"/>
     </row>
-    <row r="825" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -34315,7 +34315,7 @@
       <c r="AK825" s="3"/>
       <c r="AL825" s="3"/>
     </row>
-    <row r="826" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -34355,7 +34355,7 @@
       <c r="AK826" s="3"/>
       <c r="AL826" s="3"/>
     </row>
-    <row r="827" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -34395,7 +34395,7 @@
       <c r="AK827" s="3"/>
       <c r="AL827" s="3"/>
     </row>
-    <row r="828" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -34435,7 +34435,7 @@
       <c r="AK828" s="3"/>
       <c r="AL828" s="3"/>
     </row>
-    <row r="829" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -34475,7 +34475,7 @@
       <c r="AK829" s="3"/>
       <c r="AL829" s="3"/>
     </row>
-    <row r="830" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -34515,7 +34515,7 @@
       <c r="AK830" s="3"/>
       <c r="AL830" s="3"/>
     </row>
-    <row r="831" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -34555,7 +34555,7 @@
       <c r="AK831" s="3"/>
       <c r="AL831" s="3"/>
     </row>
-    <row r="832" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -34595,7 +34595,7 @@
       <c r="AK832" s="3"/>
       <c r="AL832" s="3"/>
     </row>
-    <row r="833" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -34635,7 +34635,7 @@
       <c r="AK833" s="3"/>
       <c r="AL833" s="3"/>
     </row>
-    <row r="834" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -34675,7 +34675,7 @@
       <c r="AK834" s="3"/>
       <c r="AL834" s="3"/>
     </row>
-    <row r="835" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -34715,7 +34715,7 @@
       <c r="AK835" s="3"/>
       <c r="AL835" s="3"/>
     </row>
-    <row r="836" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -34755,7 +34755,7 @@
       <c r="AK836" s="3"/>
       <c r="AL836" s="3"/>
     </row>
-    <row r="837" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -34795,7 +34795,7 @@
       <c r="AK837" s="3"/>
       <c r="AL837" s="3"/>
     </row>
-    <row r="838" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -34835,7 +34835,7 @@
       <c r="AK838" s="3"/>
       <c r="AL838" s="3"/>
     </row>
-    <row r="839" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -34875,7 +34875,7 @@
       <c r="AK839" s="3"/>
       <c r="AL839" s="3"/>
     </row>
-    <row r="840" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -34915,7 +34915,7 @@
       <c r="AK840" s="3"/>
       <c r="AL840" s="3"/>
     </row>
-    <row r="841" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -34955,7 +34955,7 @@
       <c r="AK841" s="3"/>
       <c r="AL841" s="3"/>
     </row>
-    <row r="842" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -34995,7 +34995,7 @@
       <c r="AK842" s="3"/>
       <c r="AL842" s="3"/>
     </row>
-    <row r="843" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -35035,7 +35035,7 @@
       <c r="AK843" s="3"/>
       <c r="AL843" s="3"/>
     </row>
-    <row r="844" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -35075,7 +35075,7 @@
       <c r="AK844" s="3"/>
       <c r="AL844" s="3"/>
     </row>
-    <row r="845" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -35115,7 +35115,7 @@
       <c r="AK845" s="3"/>
       <c r="AL845" s="3"/>
     </row>
-    <row r="846" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -35155,7 +35155,7 @@
       <c r="AK846" s="3"/>
       <c r="AL846" s="3"/>
     </row>
-    <row r="847" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -35195,7 +35195,7 @@
       <c r="AK847" s="3"/>
       <c r="AL847" s="3"/>
     </row>
-    <row r="848" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -35235,7 +35235,7 @@
       <c r="AK848" s="3"/>
       <c r="AL848" s="3"/>
     </row>
-    <row r="849" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -35275,7 +35275,7 @@
       <c r="AK849" s="3"/>
       <c r="AL849" s="3"/>
     </row>
-    <row r="850" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -35315,7 +35315,7 @@
       <c r="AK850" s="3"/>
       <c r="AL850" s="3"/>
     </row>
-    <row r="851" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -35355,7 +35355,7 @@
       <c r="AK851" s="3"/>
       <c r="AL851" s="3"/>
     </row>
-    <row r="852" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -35395,7 +35395,7 @@
       <c r="AK852" s="3"/>
       <c r="AL852" s="3"/>
     </row>
-    <row r="853" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -35435,7 +35435,7 @@
       <c r="AK853" s="3"/>
       <c r="AL853" s="3"/>
     </row>
-    <row r="854" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -35475,7 +35475,7 @@
       <c r="AK854" s="3"/>
       <c r="AL854" s="3"/>
     </row>
-    <row r="855" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -35515,7 +35515,7 @@
       <c r="AK855" s="3"/>
       <c r="AL855" s="3"/>
     </row>
-    <row r="856" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -35555,7 +35555,7 @@
       <c r="AK856" s="3"/>
       <c r="AL856" s="3"/>
     </row>
-    <row r="857" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -35595,7 +35595,7 @@
       <c r="AK857" s="3"/>
       <c r="AL857" s="3"/>
     </row>
-    <row r="858" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -35635,7 +35635,7 @@
       <c r="AK858" s="3"/>
       <c r="AL858" s="3"/>
     </row>
-    <row r="859" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -35675,7 +35675,7 @@
       <c r="AK859" s="3"/>
       <c r="AL859" s="3"/>
     </row>
-    <row r="860" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -35715,7 +35715,7 @@
       <c r="AK860" s="3"/>
       <c r="AL860" s="3"/>
     </row>
-    <row r="861" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -35755,7 +35755,7 @@
       <c r="AK861" s="3"/>
       <c r="AL861" s="3"/>
     </row>
-    <row r="862" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -35795,7 +35795,7 @@
       <c r="AK862" s="3"/>
       <c r="AL862" s="3"/>
     </row>
-    <row r="863" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -35835,7 +35835,7 @@
       <c r="AK863" s="3"/>
       <c r="AL863" s="3"/>
     </row>
-    <row r="864" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -35875,7 +35875,7 @@
       <c r="AK864" s="3"/>
       <c r="AL864" s="3"/>
     </row>
-    <row r="865" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -35915,7 +35915,7 @@
       <c r="AK865" s="3"/>
       <c r="AL865" s="3"/>
     </row>
-    <row r="866" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -35955,7 +35955,7 @@
       <c r="AK866" s="3"/>
       <c r="AL866" s="3"/>
     </row>
-    <row r="867" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -35995,7 +35995,7 @@
       <c r="AK867" s="3"/>
       <c r="AL867" s="3"/>
     </row>
-    <row r="868" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -36035,7 +36035,7 @@
       <c r="AK868" s="3"/>
       <c r="AL868" s="3"/>
     </row>
-    <row r="869" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -36075,7 +36075,7 @@
       <c r="AK869" s="3"/>
       <c r="AL869" s="3"/>
     </row>
-    <row r="870" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -36115,7 +36115,7 @@
       <c r="AK870" s="3"/>
       <c r="AL870" s="3"/>
     </row>
-    <row r="871" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -36155,7 +36155,7 @@
       <c r="AK871" s="3"/>
       <c r="AL871" s="3"/>
     </row>
-    <row r="872" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -36195,7 +36195,7 @@
       <c r="AK872" s="3"/>
       <c r="AL872" s="3"/>
     </row>
-    <row r="873" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -36235,7 +36235,7 @@
       <c r="AK873" s="3"/>
       <c r="AL873" s="3"/>
     </row>
-    <row r="874" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -36275,7 +36275,7 @@
       <c r="AK874" s="3"/>
       <c r="AL874" s="3"/>
     </row>
-    <row r="875" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -36315,7 +36315,7 @@
       <c r="AK875" s="3"/>
       <c r="AL875" s="3"/>
     </row>
-    <row r="876" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -36355,7 +36355,7 @@
       <c r="AK876" s="3"/>
       <c r="AL876" s="3"/>
     </row>
-    <row r="877" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -36395,7 +36395,7 @@
       <c r="AK877" s="3"/>
       <c r="AL877" s="3"/>
     </row>
-    <row r="878" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -36435,7 +36435,7 @@
       <c r="AK878" s="3"/>
       <c r="AL878" s="3"/>
     </row>
-    <row r="879" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -36475,7 +36475,7 @@
       <c r="AK879" s="3"/>
       <c r="AL879" s="3"/>
     </row>
-    <row r="880" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -36515,7 +36515,7 @@
       <c r="AK880" s="3"/>
       <c r="AL880" s="3"/>
     </row>
-    <row r="881" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -36555,7 +36555,7 @@
       <c r="AK881" s="3"/>
       <c r="AL881" s="3"/>
     </row>
-    <row r="882" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -36595,7 +36595,7 @@
       <c r="AK882" s="3"/>
       <c r="AL882" s="3"/>
     </row>
-    <row r="883" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -36635,7 +36635,7 @@
       <c r="AK883" s="3"/>
       <c r="AL883" s="3"/>
     </row>
-    <row r="884" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -36675,7 +36675,7 @@
       <c r="AK884" s="3"/>
       <c r="AL884" s="3"/>
     </row>
-    <row r="885" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -36715,7 +36715,7 @@
       <c r="AK885" s="3"/>
       <c r="AL885" s="3"/>
     </row>
-    <row r="886" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -36755,7 +36755,7 @@
       <c r="AK886" s="3"/>
       <c r="AL886" s="3"/>
     </row>
-    <row r="887" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -36795,7 +36795,7 @@
       <c r="AK887" s="3"/>
       <c r="AL887" s="3"/>
     </row>
-    <row r="888" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -36835,7 +36835,7 @@
       <c r="AK888" s="3"/>
       <c r="AL888" s="3"/>
     </row>
-    <row r="889" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -36875,7 +36875,7 @@
       <c r="AK889" s="3"/>
       <c r="AL889" s="3"/>
     </row>
-    <row r="890" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -36915,7 +36915,7 @@
       <c r="AK890" s="3"/>
       <c r="AL890" s="3"/>
     </row>
-    <row r="891" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -36955,7 +36955,7 @@
       <c r="AK891" s="3"/>
       <c r="AL891" s="3"/>
     </row>
-    <row r="892" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -36995,7 +36995,7 @@
       <c r="AK892" s="3"/>
       <c r="AL892" s="3"/>
     </row>
-    <row r="893" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -37035,7 +37035,7 @@
       <c r="AK893" s="3"/>
       <c r="AL893" s="3"/>
     </row>
-    <row r="894" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -37075,7 +37075,7 @@
       <c r="AK894" s="3"/>
       <c r="AL894" s="3"/>
     </row>
-    <row r="895" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -37115,7 +37115,7 @@
       <c r="AK895" s="3"/>
       <c r="AL895" s="3"/>
     </row>
-    <row r="896" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -37155,7 +37155,7 @@
       <c r="AK896" s="3"/>
       <c r="AL896" s="3"/>
     </row>
-    <row r="897" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -37195,7 +37195,7 @@
       <c r="AK897" s="3"/>
       <c r="AL897" s="3"/>
     </row>
-    <row r="898" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -37235,7 +37235,7 @@
       <c r="AK898" s="3"/>
       <c r="AL898" s="3"/>
     </row>
-    <row r="899" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -37275,7 +37275,7 @@
       <c r="AK899" s="3"/>
       <c r="AL899" s="3"/>
     </row>
-    <row r="900" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -37315,7 +37315,7 @@
       <c r="AK900" s="3"/>
       <c r="AL900" s="3"/>
     </row>
-    <row r="901" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -37355,7 +37355,7 @@
       <c r="AK901" s="3"/>
       <c r="AL901" s="3"/>
     </row>
-    <row r="902" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -37395,7 +37395,7 @@
       <c r="AK902" s="3"/>
       <c r="AL902" s="3"/>
     </row>
-    <row r="903" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -37435,7 +37435,7 @@
       <c r="AK903" s="3"/>
       <c r="AL903" s="3"/>
     </row>
-    <row r="904" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -37475,7 +37475,7 @@
       <c r="AK904" s="3"/>
       <c r="AL904" s="3"/>
     </row>
-    <row r="905" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -37515,7 +37515,7 @@
       <c r="AK905" s="3"/>
       <c r="AL905" s="3"/>
     </row>
-    <row r="906" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -37555,7 +37555,7 @@
       <c r="AK906" s="3"/>
       <c r="AL906" s="3"/>
     </row>
-    <row r="907" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -37595,7 +37595,7 @@
       <c r="AK907" s="3"/>
       <c r="AL907" s="3"/>
     </row>
-    <row r="908" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -37635,7 +37635,7 @@
       <c r="AK908" s="3"/>
       <c r="AL908" s="3"/>
     </row>
-    <row r="909" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -37675,7 +37675,7 @@
       <c r="AK909" s="3"/>
       <c r="AL909" s="3"/>
     </row>
-    <row r="910" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -37715,7 +37715,7 @@
       <c r="AK910" s="3"/>
       <c r="AL910" s="3"/>
     </row>
-    <row r="911" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -37755,7 +37755,7 @@
       <c r="AK911" s="3"/>
       <c r="AL911" s="3"/>
     </row>
-    <row r="912" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -37795,7 +37795,7 @@
       <c r="AK912" s="3"/>
       <c r="AL912" s="3"/>
     </row>
-    <row r="913" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -37835,7 +37835,7 @@
       <c r="AK913" s="3"/>
       <c r="AL913" s="3"/>
     </row>
-    <row r="914" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -37875,7 +37875,7 @@
       <c r="AK914" s="3"/>
       <c r="AL914" s="3"/>
     </row>
-    <row r="915" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -37915,7 +37915,7 @@
       <c r="AK915" s="3"/>
       <c r="AL915" s="3"/>
     </row>
-    <row r="916" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -37955,7 +37955,7 @@
       <c r="AK916" s="3"/>
       <c r="AL916" s="3"/>
     </row>
-    <row r="917" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -37995,7 +37995,7 @@
       <c r="AK917" s="3"/>
       <c r="AL917" s="3"/>
     </row>
-    <row r="918" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -38035,7 +38035,7 @@
       <c r="AK918" s="3"/>
       <c r="AL918" s="3"/>
     </row>
-    <row r="919" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -38075,7 +38075,7 @@
       <c r="AK919" s="3"/>
       <c r="AL919" s="3"/>
     </row>
-    <row r="920" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -38115,7 +38115,7 @@
       <c r="AK920" s="3"/>
       <c r="AL920" s="3"/>
     </row>
-    <row r="921" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -38155,7 +38155,7 @@
       <c r="AK921" s="3"/>
       <c r="AL921" s="3"/>
     </row>
-    <row r="922" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -38195,7 +38195,7 @@
       <c r="AK922" s="3"/>
       <c r="AL922" s="3"/>
     </row>
-    <row r="923" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -38235,7 +38235,7 @@
       <c r="AK923" s="3"/>
       <c r="AL923" s="3"/>
     </row>
-    <row r="924" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -38275,7 +38275,7 @@
       <c r="AK924" s="3"/>
       <c r="AL924" s="3"/>
     </row>
-    <row r="925" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -38315,7 +38315,7 @@
       <c r="AK925" s="3"/>
       <c r="AL925" s="3"/>
     </row>
-    <row r="926" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -38355,7 +38355,7 @@
       <c r="AK926" s="3"/>
       <c r="AL926" s="3"/>
     </row>
-    <row r="927" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -38395,7 +38395,7 @@
       <c r="AK927" s="3"/>
       <c r="AL927" s="3"/>
     </row>
-    <row r="928" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -38435,7 +38435,7 @@
       <c r="AK928" s="3"/>
       <c r="AL928" s="3"/>
     </row>
-    <row r="929" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -38475,7 +38475,7 @@
       <c r="AK929" s="3"/>
       <c r="AL929" s="3"/>
     </row>
-    <row r="930" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -38515,7 +38515,7 @@
       <c r="AK930" s="3"/>
       <c r="AL930" s="3"/>
     </row>
-    <row r="931" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -38555,7 +38555,7 @@
       <c r="AK931" s="3"/>
       <c r="AL931" s="3"/>
     </row>
-    <row r="932" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -38595,7 +38595,7 @@
       <c r="AK932" s="3"/>
       <c r="AL932" s="3"/>
     </row>
-    <row r="933" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -38635,7 +38635,7 @@
       <c r="AK933" s="3"/>
       <c r="AL933" s="3"/>
     </row>
-    <row r="934" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -38675,7 +38675,7 @@
       <c r="AK934" s="3"/>
       <c r="AL934" s="3"/>
     </row>
-    <row r="935" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -38715,7 +38715,7 @@
       <c r="AK935" s="3"/>
       <c r="AL935" s="3"/>
     </row>
-    <row r="936" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -38755,7 +38755,7 @@
       <c r="AK936" s="3"/>
       <c r="AL936" s="3"/>
     </row>
-    <row r="937" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -38795,7 +38795,7 @@
       <c r="AK937" s="3"/>
       <c r="AL937" s="3"/>
     </row>
-    <row r="938" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -38835,7 +38835,7 @@
       <c r="AK938" s="3"/>
       <c r="AL938" s="3"/>
     </row>
-    <row r="939" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -38875,7 +38875,7 @@
       <c r="AK939" s="3"/>
       <c r="AL939" s="3"/>
     </row>
-    <row r="940" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -38915,7 +38915,7 @@
       <c r="AK940" s="3"/>
       <c r="AL940" s="3"/>
     </row>
-    <row r="941" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -38955,7 +38955,7 @@
       <c r="AK941" s="3"/>
       <c r="AL941" s="3"/>
     </row>
-    <row r="942" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -38995,7 +38995,7 @@
       <c r="AK942" s="3"/>
       <c r="AL942" s="3"/>
     </row>
-    <row r="943" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -39035,7 +39035,7 @@
       <c r="AK943" s="3"/>
       <c r="AL943" s="3"/>
     </row>
-    <row r="944" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -39075,7 +39075,7 @@
       <c r="AK944" s="3"/>
       <c r="AL944" s="3"/>
     </row>
-    <row r="945" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -39115,7 +39115,7 @@
       <c r="AK945" s="3"/>
       <c r="AL945" s="3"/>
     </row>
-    <row r="946" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -39155,7 +39155,7 @@
       <c r="AK946" s="3"/>
       <c r="AL946" s="3"/>
     </row>
-    <row r="947" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -39195,7 +39195,7 @@
       <c r="AK947" s="3"/>
       <c r="AL947" s="3"/>
     </row>
-    <row r="948" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -39235,7 +39235,7 @@
       <c r="AK948" s="3"/>
       <c r="AL948" s="3"/>
     </row>
-    <row r="949" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -39275,7 +39275,7 @@
       <c r="AK949" s="3"/>
       <c r="AL949" s="3"/>
     </row>
-    <row r="950" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -39315,7 +39315,7 @@
       <c r="AK950" s="3"/>
       <c r="AL950" s="3"/>
     </row>
-    <row r="951" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -39355,7 +39355,7 @@
       <c r="AK951" s="3"/>
       <c r="AL951" s="3"/>
     </row>
-    <row r="952" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -39395,7 +39395,7 @@
       <c r="AK952" s="3"/>
       <c r="AL952" s="3"/>
     </row>
-    <row r="953" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -39435,7 +39435,7 @@
       <c r="AK953" s="3"/>
       <c r="AL953" s="3"/>
     </row>
-    <row r="954" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -39475,7 +39475,7 @@
       <c r="AK954" s="3"/>
       <c r="AL954" s="3"/>
     </row>
-    <row r="955" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -39515,7 +39515,7 @@
       <c r="AK955" s="3"/>
       <c r="AL955" s="3"/>
     </row>
-    <row r="956" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -39555,7 +39555,7 @@
       <c r="AK956" s="3"/>
       <c r="AL956" s="3"/>
     </row>
-    <row r="957" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -39595,7 +39595,7 @@
       <c r="AK957" s="3"/>
       <c r="AL957" s="3"/>
     </row>
-    <row r="958" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -39635,7 +39635,7 @@
       <c r="AK958" s="3"/>
       <c r="AL958" s="3"/>
     </row>
-    <row r="959" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -39675,7 +39675,7 @@
       <c r="AK959" s="3"/>
       <c r="AL959" s="3"/>
     </row>
-    <row r="960" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -39715,7 +39715,7 @@
       <c r="AK960" s="3"/>
       <c r="AL960" s="3"/>
     </row>
-    <row r="961" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -39755,7 +39755,7 @@
       <c r="AK961" s="3"/>
       <c r="AL961" s="3"/>
     </row>
-    <row r="962" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -39795,7 +39795,7 @@
       <c r="AK962" s="3"/>
       <c r="AL962" s="3"/>
     </row>
-    <row r="963" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -39835,7 +39835,7 @@
       <c r="AK963" s="3"/>
       <c r="AL963" s="3"/>
     </row>
-    <row r="964" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -39875,7 +39875,7 @@
       <c r="AK964" s="3"/>
       <c r="AL964" s="3"/>
     </row>
-    <row r="965" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -39915,7 +39915,7 @@
       <c r="AK965" s="3"/>
       <c r="AL965" s="3"/>
     </row>
-    <row r="966" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -39955,7 +39955,7 @@
       <c r="AK966" s="3"/>
       <c r="AL966" s="3"/>
     </row>
-    <row r="967" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -39995,7 +39995,7 @@
       <c r="AK967" s="3"/>
       <c r="AL967" s="3"/>
     </row>
-    <row r="968" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -40035,7 +40035,7 @@
       <c r="AK968" s="3"/>
       <c r="AL968" s="3"/>
     </row>
-    <row r="969" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -40075,7 +40075,7 @@
       <c r="AK969" s="3"/>
       <c r="AL969" s="3"/>
     </row>
-    <row r="970" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -40115,7 +40115,7 @@
       <c r="AK970" s="3"/>
       <c r="AL970" s="3"/>
     </row>
-    <row r="971" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -40155,7 +40155,7 @@
       <c r="AK971" s="3"/>
       <c r="AL971" s="3"/>
     </row>
-    <row r="972" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -40195,7 +40195,7 @@
       <c r="AK972" s="3"/>
       <c r="AL972" s="3"/>
     </row>
-    <row r="973" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -40235,7 +40235,7 @@
       <c r="AK973" s="3"/>
       <c r="AL973" s="3"/>
     </row>
-    <row r="974" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -40275,7 +40275,7 @@
       <c r="AK974" s="3"/>
       <c r="AL974" s="3"/>
     </row>
-    <row r="975" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -40315,7 +40315,7 @@
       <c r="AK975" s="3"/>
       <c r="AL975" s="3"/>
     </row>
-    <row r="976" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -40355,7 +40355,7 @@
       <c r="AK976" s="3"/>
       <c r="AL976" s="3"/>
     </row>
-    <row r="977" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -40395,7 +40395,7 @@
       <c r="AK977" s="3"/>
       <c r="AL977" s="3"/>
     </row>
-    <row r="978" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -40435,7 +40435,7 @@
       <c r="AK978" s="3"/>
       <c r="AL978" s="3"/>
     </row>
-    <row r="979" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -40475,7 +40475,7 @@
       <c r="AK979" s="3"/>
       <c r="AL979" s="3"/>
     </row>
-    <row r="980" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -40515,7 +40515,7 @@
       <c r="AK980" s="3"/>
       <c r="AL980" s="3"/>
     </row>
-    <row r="981" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -40555,7 +40555,7 @@
       <c r="AK981" s="3"/>
       <c r="AL981" s="3"/>
     </row>
-    <row r="982" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -40595,7 +40595,7 @@
       <c r="AK982" s="3"/>
       <c r="AL982" s="3"/>
     </row>
-    <row r="983" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -40635,7 +40635,7 @@
       <c r="AK983" s="3"/>
       <c r="AL983" s="3"/>
     </row>
-    <row r="984" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -40675,7 +40675,7 @@
       <c r="AK984" s="3"/>
       <c r="AL984" s="3"/>
     </row>
-    <row r="985" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -40715,7 +40715,7 @@
       <c r="AK985" s="3"/>
       <c r="AL985" s="3"/>
     </row>
-    <row r="986" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -40755,7 +40755,7 @@
       <c r="AK986" s="3"/>
       <c r="AL986" s="3"/>
     </row>
-    <row r="987" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -40795,7 +40795,7 @@
       <c r="AK987" s="3"/>
       <c r="AL987" s="3"/>
     </row>
-    <row r="988" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -40835,7 +40835,7 @@
       <c r="AK988" s="3"/>
       <c r="AL988" s="3"/>
     </row>
-    <row r="989" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -40875,7 +40875,7 @@
       <c r="AK989" s="3"/>
       <c r="AL989" s="3"/>
     </row>
-    <row r="990" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -40915,7 +40915,7 @@
       <c r="AK990" s="3"/>
       <c r="AL990" s="3"/>
     </row>
-    <row r="991" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -40955,7 +40955,7 @@
       <c r="AK991" s="3"/>
       <c r="AL991" s="3"/>
     </row>
-    <row r="992" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -40995,7 +40995,7 @@
       <c r="AK992" s="3"/>
       <c r="AL992" s="3"/>
     </row>
-    <row r="993" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -41035,7 +41035,7 @@
       <c r="AK993" s="3"/>
       <c r="AL993" s="3"/>
     </row>
-    <row r="994" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -41075,7 +41075,7 @@
       <c r="AK994" s="3"/>
       <c r="AL994" s="3"/>
     </row>
-    <row r="995" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -41115,7 +41115,7 @@
       <c r="AK995" s="3"/>
       <c r="AL995" s="3"/>
     </row>
-    <row r="996" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -41155,7 +41155,7 @@
       <c r="AK996" s="3"/>
       <c r="AL996" s="3"/>
     </row>
-    <row r="997" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -41195,7 +41195,7 @@
       <c r="AK997" s="3"/>
       <c r="AL997" s="3"/>
     </row>
-    <row r="998" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -41235,7 +41235,7 @@
       <c r="AK998" s="3"/>
       <c r="AL998" s="3"/>
     </row>
-    <row r="999" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -41275,7 +41275,7 @@
       <c r="AK999" s="3"/>
       <c r="AL999" s="3"/>
     </row>
-    <row r="1000" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>

--- a/Monstruos.xlsx
+++ b/Monstruos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Espacios de trabajo\Phyton\Con lo colegas\PhytonMaster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python\PhytonMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F3D43B-2CC4-4DCA-B5A4-EA68CD4EB53D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538F74E3-5B67-4CE3-A99B-2FE8BFE868FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,28 +150,28 @@
     <t>Cocodrilo</t>
   </si>
   <si>
+    <t>enjambre de insectos</t>
+  </si>
+  <si>
+    <t>enjambre de pirañas</t>
+  </si>
+  <si>
+    <t>enjambre de murciélagos</t>
+  </si>
+  <si>
     <t>Escorpión gigante</t>
   </si>
   <si>
     <t>Goblin</t>
   </si>
   <si>
-    <t>Serpiente venenosa</t>
+    <t>serpiente venenosa</t>
   </si>
   <si>
-    <t>Enjambre de murciélagos</t>
+    <t>tigre</t>
   </si>
   <si>
-    <t>Enjambre de pirañas</t>
-  </si>
-  <si>
-    <t>Enjambre de insectos</t>
-  </si>
-  <si>
-    <t>Tigre</t>
-  </si>
-  <si>
-    <t>Hombre serpiente</t>
+    <t>hombre serpiente</t>
   </si>
 </sst>
 </file>
@@ -471,13 +471,11 @@
   </sheetPr>
   <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,7 +591,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -711,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -827,9 +825,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
@@ -943,9 +941,9 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1059,9 +1057,9 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
@@ -1175,9 +1173,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2">
         <v>21</v>
@@ -1291,9 +1289,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -1407,9 +1405,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
@@ -1523,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -1639,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -1755,7 +1753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1795,7 +1793,7 @@
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1835,7 +1833,7 @@
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1875,7 +1873,7 @@
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
     </row>
-    <row r="15" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1915,7 +1913,7 @@
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
     </row>
-    <row r="16" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1955,7 +1953,7 @@
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
     </row>
-    <row r="17" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1995,7 +1993,7 @@
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
     </row>
-    <row r="18" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2035,7 +2033,7 @@
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2075,7 +2073,7 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2115,7 +2113,7 @@
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
     </row>
-    <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2155,7 +2153,7 @@
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
     </row>
-    <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2195,7 +2193,7 @@
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
     </row>
-    <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2235,7 +2233,7 @@
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
     </row>
-    <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2275,7 +2273,7 @@
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
     </row>
-    <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2315,7 +2313,7 @@
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
     </row>
-    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2355,7 +2353,7 @@
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
     </row>
-    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2395,7 +2393,7 @@
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
     </row>
-    <row r="28" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2435,7 +2433,7 @@
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
     </row>
-    <row r="29" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2475,7 +2473,7 @@
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
     </row>
-    <row r="30" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2515,7 +2513,7 @@
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
     </row>
-    <row r="31" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2555,7 +2553,7 @@
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
     </row>
-    <row r="32" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2595,7 +2593,7 @@
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
     </row>
-    <row r="33" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2635,7 +2633,7 @@
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
     </row>
-    <row r="34" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2675,7 +2673,7 @@
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
     </row>
-    <row r="35" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2715,7 +2713,7 @@
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
     </row>
-    <row r="36" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2755,7 +2753,7 @@
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
     </row>
-    <row r="37" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2795,7 +2793,7 @@
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
     </row>
-    <row r="38" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2835,7 +2833,7 @@
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
     </row>
-    <row r="39" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2875,7 +2873,7 @@
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
     </row>
-    <row r="40" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2915,7 +2913,7 @@
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
     </row>
-    <row r="41" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2955,7 +2953,7 @@
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
     </row>
-    <row r="42" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2995,7 +2993,7 @@
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
     </row>
-    <row r="43" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3035,7 +3033,7 @@
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
     </row>
-    <row r="44" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3075,7 +3073,7 @@
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
     </row>
-    <row r="45" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3115,7 +3113,7 @@
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
     </row>
-    <row r="46" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3155,7 +3153,7 @@
       <c r="AK46" s="3"/>
       <c r="AL46" s="3"/>
     </row>
-    <row r="47" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3195,7 +3193,7 @@
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
     </row>
-    <row r="48" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3235,7 +3233,7 @@
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
     </row>
-    <row r="49" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3275,7 +3273,7 @@
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
     </row>
-    <row r="50" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3315,7 +3313,7 @@
       <c r="AK50" s="3"/>
       <c r="AL50" s="3"/>
     </row>
-    <row r="51" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3355,7 +3353,7 @@
       <c r="AK51" s="3"/>
       <c r="AL51" s="3"/>
     </row>
-    <row r="52" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3395,7 +3393,7 @@
       <c r="AK52" s="3"/>
       <c r="AL52" s="3"/>
     </row>
-    <row r="53" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3435,7 +3433,7 @@
       <c r="AK53" s="3"/>
       <c r="AL53" s="3"/>
     </row>
-    <row r="54" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3475,7 +3473,7 @@
       <c r="AK54" s="3"/>
       <c r="AL54" s="3"/>
     </row>
-    <row r="55" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3515,7 +3513,7 @@
       <c r="AK55" s="3"/>
       <c r="AL55" s="3"/>
     </row>
-    <row r="56" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3555,7 +3553,7 @@
       <c r="AK56" s="3"/>
       <c r="AL56" s="3"/>
     </row>
-    <row r="57" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3595,7 +3593,7 @@
       <c r="AK57" s="3"/>
       <c r="AL57" s="3"/>
     </row>
-    <row r="58" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3635,7 +3633,7 @@
       <c r="AK58" s="3"/>
       <c r="AL58" s="3"/>
     </row>
-    <row r="59" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3675,7 +3673,7 @@
       <c r="AK59" s="3"/>
       <c r="AL59" s="3"/>
     </row>
-    <row r="60" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3715,7 +3713,7 @@
       <c r="AK60" s="3"/>
       <c r="AL60" s="3"/>
     </row>
-    <row r="61" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3755,7 +3753,7 @@
       <c r="AK61" s="3"/>
       <c r="AL61" s="3"/>
     </row>
-    <row r="62" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3795,7 +3793,7 @@
       <c r="AK62" s="3"/>
       <c r="AL62" s="3"/>
     </row>
-    <row r="63" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3835,7 +3833,7 @@
       <c r="AK63" s="3"/>
       <c r="AL63" s="3"/>
     </row>
-    <row r="64" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3875,7 +3873,7 @@
       <c r="AK64" s="3"/>
       <c r="AL64" s="3"/>
     </row>
-    <row r="65" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3915,7 +3913,7 @@
       <c r="AK65" s="3"/>
       <c r="AL65" s="3"/>
     </row>
-    <row r="66" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3955,7 +3953,7 @@
       <c r="AK66" s="3"/>
       <c r="AL66" s="3"/>
     </row>
-    <row r="67" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3995,7 +3993,7 @@
       <c r="AK67" s="3"/>
       <c r="AL67" s="3"/>
     </row>
-    <row r="68" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4035,7 +4033,7 @@
       <c r="AK68" s="3"/>
       <c r="AL68" s="3"/>
     </row>
-    <row r="69" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4075,7 +4073,7 @@
       <c r="AK69" s="3"/>
       <c r="AL69" s="3"/>
     </row>
-    <row r="70" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4115,7 +4113,7 @@
       <c r="AK70" s="3"/>
       <c r="AL70" s="3"/>
     </row>
-    <row r="71" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4155,7 +4153,7 @@
       <c r="AK71" s="3"/>
       <c r="AL71" s="3"/>
     </row>
-    <row r="72" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -4195,7 +4193,7 @@
       <c r="AK72" s="3"/>
       <c r="AL72" s="3"/>
     </row>
-    <row r="73" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4235,7 +4233,7 @@
       <c r="AK73" s="3"/>
       <c r="AL73" s="3"/>
     </row>
-    <row r="74" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -4275,7 +4273,7 @@
       <c r="AK74" s="3"/>
       <c r="AL74" s="3"/>
     </row>
-    <row r="75" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4315,7 +4313,7 @@
       <c r="AK75" s="3"/>
       <c r="AL75" s="3"/>
     </row>
-    <row r="76" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4355,7 +4353,7 @@
       <c r="AK76" s="3"/>
       <c r="AL76" s="3"/>
     </row>
-    <row r="77" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4395,7 +4393,7 @@
       <c r="AK77" s="3"/>
       <c r="AL77" s="3"/>
     </row>
-    <row r="78" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -4435,7 +4433,7 @@
       <c r="AK78" s="3"/>
       <c r="AL78" s="3"/>
     </row>
-    <row r="79" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4475,7 +4473,7 @@
       <c r="AK79" s="3"/>
       <c r="AL79" s="3"/>
     </row>
-    <row r="80" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4515,7 +4513,7 @@
       <c r="AK80" s="3"/>
       <c r="AL80" s="3"/>
     </row>
-    <row r="81" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4555,7 +4553,7 @@
       <c r="AK81" s="3"/>
       <c r="AL81" s="3"/>
     </row>
-    <row r="82" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4595,7 +4593,7 @@
       <c r="AK82" s="3"/>
       <c r="AL82" s="3"/>
     </row>
-    <row r="83" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4635,7 +4633,7 @@
       <c r="AK83" s="3"/>
       <c r="AL83" s="3"/>
     </row>
-    <row r="84" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4675,7 +4673,7 @@
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
     </row>
-    <row r="85" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4715,7 +4713,7 @@
       <c r="AK85" s="3"/>
       <c r="AL85" s="3"/>
     </row>
-    <row r="86" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4755,7 +4753,7 @@
       <c r="AK86" s="3"/>
       <c r="AL86" s="3"/>
     </row>
-    <row r="87" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4795,7 +4793,7 @@
       <c r="AK87" s="3"/>
       <c r="AL87" s="3"/>
     </row>
-    <row r="88" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4835,7 +4833,7 @@
       <c r="AK88" s="3"/>
       <c r="AL88" s="3"/>
     </row>
-    <row r="89" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4875,7 +4873,7 @@
       <c r="AK89" s="3"/>
       <c r="AL89" s="3"/>
     </row>
-    <row r="90" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -4915,7 +4913,7 @@
       <c r="AK90" s="3"/>
       <c r="AL90" s="3"/>
     </row>
-    <row r="91" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4955,7 +4953,7 @@
       <c r="AK91" s="3"/>
       <c r="AL91" s="3"/>
     </row>
-    <row r="92" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4995,7 +4993,7 @@
       <c r="AK92" s="3"/>
       <c r="AL92" s="3"/>
     </row>
-    <row r="93" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5035,7 +5033,7 @@
       <c r="AK93" s="3"/>
       <c r="AL93" s="3"/>
     </row>
-    <row r="94" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5075,7 +5073,7 @@
       <c r="AK94" s="3"/>
       <c r="AL94" s="3"/>
     </row>
-    <row r="95" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5115,7 +5113,7 @@
       <c r="AK95" s="3"/>
       <c r="AL95" s="3"/>
     </row>
-    <row r="96" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5155,7 +5153,7 @@
       <c r="AK96" s="3"/>
       <c r="AL96" s="3"/>
     </row>
-    <row r="97" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5195,7 +5193,7 @@
       <c r="AK97" s="3"/>
       <c r="AL97" s="3"/>
     </row>
-    <row r="98" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5235,7 +5233,7 @@
       <c r="AK98" s="3"/>
       <c r="AL98" s="3"/>
     </row>
-    <row r="99" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5275,7 +5273,7 @@
       <c r="AK99" s="3"/>
       <c r="AL99" s="3"/>
     </row>
-    <row r="100" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5315,7 +5313,7 @@
       <c r="AK100" s="3"/>
       <c r="AL100" s="3"/>
     </row>
-    <row r="101" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5355,7 +5353,7 @@
       <c r="AK101" s="3"/>
       <c r="AL101" s="3"/>
     </row>
-    <row r="102" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -5395,7 +5393,7 @@
       <c r="AK102" s="3"/>
       <c r="AL102" s="3"/>
     </row>
-    <row r="103" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -5435,7 +5433,7 @@
       <c r="AK103" s="3"/>
       <c r="AL103" s="3"/>
     </row>
-    <row r="104" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -5475,7 +5473,7 @@
       <c r="AK104" s="3"/>
       <c r="AL104" s="3"/>
     </row>
-    <row r="105" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -5515,7 +5513,7 @@
       <c r="AK105" s="3"/>
       <c r="AL105" s="3"/>
     </row>
-    <row r="106" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -5555,7 +5553,7 @@
       <c r="AK106" s="3"/>
       <c r="AL106" s="3"/>
     </row>
-    <row r="107" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -5595,7 +5593,7 @@
       <c r="AK107" s="3"/>
       <c r="AL107" s="3"/>
     </row>
-    <row r="108" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -5635,7 +5633,7 @@
       <c r="AK108" s="3"/>
       <c r="AL108" s="3"/>
     </row>
-    <row r="109" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -5675,7 +5673,7 @@
       <c r="AK109" s="3"/>
       <c r="AL109" s="3"/>
     </row>
-    <row r="110" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -5715,7 +5713,7 @@
       <c r="AK110" s="3"/>
       <c r="AL110" s="3"/>
     </row>
-    <row r="111" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -5755,7 +5753,7 @@
       <c r="AK111" s="3"/>
       <c r="AL111" s="3"/>
     </row>
-    <row r="112" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -5795,7 +5793,7 @@
       <c r="AK112" s="3"/>
       <c r="AL112" s="3"/>
     </row>
-    <row r="113" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -5835,7 +5833,7 @@
       <c r="AK113" s="3"/>
       <c r="AL113" s="3"/>
     </row>
-    <row r="114" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -5875,7 +5873,7 @@
       <c r="AK114" s="3"/>
       <c r="AL114" s="3"/>
     </row>
-    <row r="115" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -5915,7 +5913,7 @@
       <c r="AK115" s="3"/>
       <c r="AL115" s="3"/>
     </row>
-    <row r="116" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -5955,7 +5953,7 @@
       <c r="AK116" s="3"/>
       <c r="AL116" s="3"/>
     </row>
-    <row r="117" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -5995,7 +5993,7 @@
       <c r="AK117" s="3"/>
       <c r="AL117" s="3"/>
     </row>
-    <row r="118" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6035,7 +6033,7 @@
       <c r="AK118" s="3"/>
       <c r="AL118" s="3"/>
     </row>
-    <row r="119" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6075,7 +6073,7 @@
       <c r="AK119" s="3"/>
       <c r="AL119" s="3"/>
     </row>
-    <row r="120" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6115,7 +6113,7 @@
       <c r="AK120" s="3"/>
       <c r="AL120" s="3"/>
     </row>
-    <row r="121" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6155,7 +6153,7 @@
       <c r="AK121" s="3"/>
       <c r="AL121" s="3"/>
     </row>
-    <row r="122" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6195,7 +6193,7 @@
       <c r="AK122" s="3"/>
       <c r="AL122" s="3"/>
     </row>
-    <row r="123" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6235,7 +6233,7 @@
       <c r="AK123" s="3"/>
       <c r="AL123" s="3"/>
     </row>
-    <row r="124" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6275,7 +6273,7 @@
       <c r="AK124" s="3"/>
       <c r="AL124" s="3"/>
     </row>
-    <row r="125" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6315,7 +6313,7 @@
       <c r="AK125" s="3"/>
       <c r="AL125" s="3"/>
     </row>
-    <row r="126" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6355,7 +6353,7 @@
       <c r="AK126" s="3"/>
       <c r="AL126" s="3"/>
     </row>
-    <row r="127" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6395,7 +6393,7 @@
       <c r="AK127" s="3"/>
       <c r="AL127" s="3"/>
     </row>
-    <row r="128" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6435,7 +6433,7 @@
       <c r="AK128" s="3"/>
       <c r="AL128" s="3"/>
     </row>
-    <row r="129" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6475,7 +6473,7 @@
       <c r="AK129" s="3"/>
       <c r="AL129" s="3"/>
     </row>
-    <row r="130" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6515,7 +6513,7 @@
       <c r="AK130" s="3"/>
       <c r="AL130" s="3"/>
     </row>
-    <row r="131" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6555,7 +6553,7 @@
       <c r="AK131" s="3"/>
       <c r="AL131" s="3"/>
     </row>
-    <row r="132" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6595,7 +6593,7 @@
       <c r="AK132" s="3"/>
       <c r="AL132" s="3"/>
     </row>
-    <row r="133" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -6635,7 +6633,7 @@
       <c r="AK133" s="3"/>
       <c r="AL133" s="3"/>
     </row>
-    <row r="134" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -6675,7 +6673,7 @@
       <c r="AK134" s="3"/>
       <c r="AL134" s="3"/>
     </row>
-    <row r="135" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -6715,7 +6713,7 @@
       <c r="AK135" s="3"/>
       <c r="AL135" s="3"/>
     </row>
-    <row r="136" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -6755,7 +6753,7 @@
       <c r="AK136" s="3"/>
       <c r="AL136" s="3"/>
     </row>
-    <row r="137" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -6795,7 +6793,7 @@
       <c r="AK137" s="3"/>
       <c r="AL137" s="3"/>
     </row>
-    <row r="138" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -6835,7 +6833,7 @@
       <c r="AK138" s="3"/>
       <c r="AL138" s="3"/>
     </row>
-    <row r="139" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -6875,7 +6873,7 @@
       <c r="AK139" s="3"/>
       <c r="AL139" s="3"/>
     </row>
-    <row r="140" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -6915,7 +6913,7 @@
       <c r="AK140" s="3"/>
       <c r="AL140" s="3"/>
     </row>
-    <row r="141" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -6955,7 +6953,7 @@
       <c r="AK141" s="3"/>
       <c r="AL141" s="3"/>
     </row>
-    <row r="142" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -6995,7 +6993,7 @@
       <c r="AK142" s="3"/>
       <c r="AL142" s="3"/>
     </row>
-    <row r="143" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -7035,7 +7033,7 @@
       <c r="AK143" s="3"/>
       <c r="AL143" s="3"/>
     </row>
-    <row r="144" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -7075,7 +7073,7 @@
       <c r="AK144" s="3"/>
       <c r="AL144" s="3"/>
     </row>
-    <row r="145" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -7115,7 +7113,7 @@
       <c r="AK145" s="3"/>
       <c r="AL145" s="3"/>
     </row>
-    <row r="146" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -7155,7 +7153,7 @@
       <c r="AK146" s="3"/>
       <c r="AL146" s="3"/>
     </row>
-    <row r="147" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -7195,7 +7193,7 @@
       <c r="AK147" s="3"/>
       <c r="AL147" s="3"/>
     </row>
-    <row r="148" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -7235,7 +7233,7 @@
       <c r="AK148" s="3"/>
       <c r="AL148" s="3"/>
     </row>
-    <row r="149" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -7275,7 +7273,7 @@
       <c r="AK149" s="3"/>
       <c r="AL149" s="3"/>
     </row>
-    <row r="150" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -7315,7 +7313,7 @@
       <c r="AK150" s="3"/>
       <c r="AL150" s="3"/>
     </row>
-    <row r="151" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -7355,7 +7353,7 @@
       <c r="AK151" s="3"/>
       <c r="AL151" s="3"/>
     </row>
-    <row r="152" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -7395,7 +7393,7 @@
       <c r="AK152" s="3"/>
       <c r="AL152" s="3"/>
     </row>
-    <row r="153" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -7435,7 +7433,7 @@
       <c r="AK153" s="3"/>
       <c r="AL153" s="3"/>
     </row>
-    <row r="154" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -7475,7 +7473,7 @@
       <c r="AK154" s="3"/>
       <c r="AL154" s="3"/>
     </row>
-    <row r="155" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -7515,7 +7513,7 @@
       <c r="AK155" s="3"/>
       <c r="AL155" s="3"/>
     </row>
-    <row r="156" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -7555,7 +7553,7 @@
       <c r="AK156" s="3"/>
       <c r="AL156" s="3"/>
     </row>
-    <row r="157" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -7595,7 +7593,7 @@
       <c r="AK157" s="3"/>
       <c r="AL157" s="3"/>
     </row>
-    <row r="158" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -7635,7 +7633,7 @@
       <c r="AK158" s="3"/>
       <c r="AL158" s="3"/>
     </row>
-    <row r="159" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -7675,7 +7673,7 @@
       <c r="AK159" s="3"/>
       <c r="AL159" s="3"/>
     </row>
-    <row r="160" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -7715,7 +7713,7 @@
       <c r="AK160" s="3"/>
       <c r="AL160" s="3"/>
     </row>
-    <row r="161" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -7755,7 +7753,7 @@
       <c r="AK161" s="3"/>
       <c r="AL161" s="3"/>
     </row>
-    <row r="162" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -7795,7 +7793,7 @@
       <c r="AK162" s="3"/>
       <c r="AL162" s="3"/>
     </row>
-    <row r="163" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -7835,7 +7833,7 @@
       <c r="AK163" s="3"/>
       <c r="AL163" s="3"/>
     </row>
-    <row r="164" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -7875,7 +7873,7 @@
       <c r="AK164" s="3"/>
       <c r="AL164" s="3"/>
     </row>
-    <row r="165" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -7915,7 +7913,7 @@
       <c r="AK165" s="3"/>
       <c r="AL165" s="3"/>
     </row>
-    <row r="166" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -7955,7 +7953,7 @@
       <c r="AK166" s="3"/>
       <c r="AL166" s="3"/>
     </row>
-    <row r="167" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -7995,7 +7993,7 @@
       <c r="AK167" s="3"/>
       <c r="AL167" s="3"/>
     </row>
-    <row r="168" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -8035,7 +8033,7 @@
       <c r="AK168" s="3"/>
       <c r="AL168" s="3"/>
     </row>
-    <row r="169" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -8075,7 +8073,7 @@
       <c r="AK169" s="3"/>
       <c r="AL169" s="3"/>
     </row>
-    <row r="170" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -8115,7 +8113,7 @@
       <c r="AK170" s="3"/>
       <c r="AL170" s="3"/>
     </row>
-    <row r="171" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -8155,7 +8153,7 @@
       <c r="AK171" s="3"/>
       <c r="AL171" s="3"/>
     </row>
-    <row r="172" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -8195,7 +8193,7 @@
       <c r="AK172" s="3"/>
       <c r="AL172" s="3"/>
     </row>
-    <row r="173" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -8235,7 +8233,7 @@
       <c r="AK173" s="3"/>
       <c r="AL173" s="3"/>
     </row>
-    <row r="174" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -8275,7 +8273,7 @@
       <c r="AK174" s="3"/>
       <c r="AL174" s="3"/>
     </row>
-    <row r="175" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -8315,7 +8313,7 @@
       <c r="AK175" s="3"/>
       <c r="AL175" s="3"/>
     </row>
-    <row r="176" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -8355,7 +8353,7 @@
       <c r="AK176" s="3"/>
       <c r="AL176" s="3"/>
     </row>
-    <row r="177" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -8395,7 +8393,7 @@
       <c r="AK177" s="3"/>
       <c r="AL177" s="3"/>
     </row>
-    <row r="178" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -8435,7 +8433,7 @@
       <c r="AK178" s="3"/>
       <c r="AL178" s="3"/>
     </row>
-    <row r="179" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -8475,7 +8473,7 @@
       <c r="AK179" s="3"/>
       <c r="AL179" s="3"/>
     </row>
-    <row r="180" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -8515,7 +8513,7 @@
       <c r="AK180" s="3"/>
       <c r="AL180" s="3"/>
     </row>
-    <row r="181" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -8555,7 +8553,7 @@
       <c r="AK181" s="3"/>
       <c r="AL181" s="3"/>
     </row>
-    <row r="182" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -8595,7 +8593,7 @@
       <c r="AK182" s="3"/>
       <c r="AL182" s="3"/>
     </row>
-    <row r="183" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -8635,7 +8633,7 @@
       <c r="AK183" s="3"/>
       <c r="AL183" s="3"/>
     </row>
-    <row r="184" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -8675,7 +8673,7 @@
       <c r="AK184" s="3"/>
       <c r="AL184" s="3"/>
     </row>
-    <row r="185" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -8715,7 +8713,7 @@
       <c r="AK185" s="3"/>
       <c r="AL185" s="3"/>
     </row>
-    <row r="186" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -8755,7 +8753,7 @@
       <c r="AK186" s="3"/>
       <c r="AL186" s="3"/>
     </row>
-    <row r="187" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -8795,7 +8793,7 @@
       <c r="AK187" s="3"/>
       <c r="AL187" s="3"/>
     </row>
-    <row r="188" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -8835,7 +8833,7 @@
       <c r="AK188" s="3"/>
       <c r="AL188" s="3"/>
     </row>
-    <row r="189" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -8875,7 +8873,7 @@
       <c r="AK189" s="3"/>
       <c r="AL189" s="3"/>
     </row>
-    <row r="190" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -8915,7 +8913,7 @@
       <c r="AK190" s="3"/>
       <c r="AL190" s="3"/>
     </row>
-    <row r="191" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -8955,7 +8953,7 @@
       <c r="AK191" s="3"/>
       <c r="AL191" s="3"/>
     </row>
-    <row r="192" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -8995,7 +8993,7 @@
       <c r="AK192" s="3"/>
       <c r="AL192" s="3"/>
     </row>
-    <row r="193" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -9035,7 +9033,7 @@
       <c r="AK193" s="3"/>
       <c r="AL193" s="3"/>
     </row>
-    <row r="194" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -9075,7 +9073,7 @@
       <c r="AK194" s="3"/>
       <c r="AL194" s="3"/>
     </row>
-    <row r="195" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -9115,7 +9113,7 @@
       <c r="AK195" s="3"/>
       <c r="AL195" s="3"/>
     </row>
-    <row r="196" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -9155,7 +9153,7 @@
       <c r="AK196" s="3"/>
       <c r="AL196" s="3"/>
     </row>
-    <row r="197" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -9195,7 +9193,7 @@
       <c r="AK197" s="3"/>
       <c r="AL197" s="3"/>
     </row>
-    <row r="198" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -9235,7 +9233,7 @@
       <c r="AK198" s="3"/>
       <c r="AL198" s="3"/>
     </row>
-    <row r="199" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -9275,7 +9273,7 @@
       <c r="AK199" s="3"/>
       <c r="AL199" s="3"/>
     </row>
-    <row r="200" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -9315,7 +9313,7 @@
       <c r="AK200" s="3"/>
       <c r="AL200" s="3"/>
     </row>
-    <row r="201" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -9355,7 +9353,7 @@
       <c r="AK201" s="3"/>
       <c r="AL201" s="3"/>
     </row>
-    <row r="202" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -9395,7 +9393,7 @@
       <c r="AK202" s="3"/>
       <c r="AL202" s="3"/>
     </row>
-    <row r="203" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -9435,7 +9433,7 @@
       <c r="AK203" s="3"/>
       <c r="AL203" s="3"/>
     </row>
-    <row r="204" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -9475,7 +9473,7 @@
       <c r="AK204" s="3"/>
       <c r="AL204" s="3"/>
     </row>
-    <row r="205" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -9515,7 +9513,7 @@
       <c r="AK205" s="3"/>
       <c r="AL205" s="3"/>
     </row>
-    <row r="206" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -9555,7 +9553,7 @@
       <c r="AK206" s="3"/>
       <c r="AL206" s="3"/>
     </row>
-    <row r="207" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -9595,7 +9593,7 @@
       <c r="AK207" s="3"/>
       <c r="AL207" s="3"/>
     </row>
-    <row r="208" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -9635,7 +9633,7 @@
       <c r="AK208" s="3"/>
       <c r="AL208" s="3"/>
     </row>
-    <row r="209" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -9675,7 +9673,7 @@
       <c r="AK209" s="3"/>
       <c r="AL209" s="3"/>
     </row>
-    <row r="210" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -9715,7 +9713,7 @@
       <c r="AK210" s="3"/>
       <c r="AL210" s="3"/>
     </row>
-    <row r="211" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -9755,7 +9753,7 @@
       <c r="AK211" s="3"/>
       <c r="AL211" s="3"/>
     </row>
-    <row r="212" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -9795,7 +9793,7 @@
       <c r="AK212" s="3"/>
       <c r="AL212" s="3"/>
     </row>
-    <row r="213" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -9835,7 +9833,7 @@
       <c r="AK213" s="3"/>
       <c r="AL213" s="3"/>
     </row>
-    <row r="214" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -9875,7 +9873,7 @@
       <c r="AK214" s="3"/>
       <c r="AL214" s="3"/>
     </row>
-    <row r="215" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -9915,7 +9913,7 @@
       <c r="AK215" s="3"/>
       <c r="AL215" s="3"/>
     </row>
-    <row r="216" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -9955,7 +9953,7 @@
       <c r="AK216" s="3"/>
       <c r="AL216" s="3"/>
     </row>
-    <row r="217" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -9995,7 +9993,7 @@
       <c r="AK217" s="3"/>
       <c r="AL217" s="3"/>
     </row>
-    <row r="218" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -10035,7 +10033,7 @@
       <c r="AK218" s="3"/>
       <c r="AL218" s="3"/>
     </row>
-    <row r="219" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -10075,7 +10073,7 @@
       <c r="AK219" s="3"/>
       <c r="AL219" s="3"/>
     </row>
-    <row r="220" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -10115,7 +10113,7 @@
       <c r="AK220" s="3"/>
       <c r="AL220" s="3"/>
     </row>
-    <row r="221" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -10155,7 +10153,7 @@
       <c r="AK221" s="3"/>
       <c r="AL221" s="3"/>
     </row>
-    <row r="222" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -10195,7 +10193,7 @@
       <c r="AK222" s="3"/>
       <c r="AL222" s="3"/>
     </row>
-    <row r="223" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -10235,7 +10233,7 @@
       <c r="AK223" s="3"/>
       <c r="AL223" s="3"/>
     </row>
-    <row r="224" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -10275,7 +10273,7 @@
       <c r="AK224" s="3"/>
       <c r="AL224" s="3"/>
     </row>
-    <row r="225" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -10315,7 +10313,7 @@
       <c r="AK225" s="3"/>
       <c r="AL225" s="3"/>
     </row>
-    <row r="226" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -10355,7 +10353,7 @@
       <c r="AK226" s="3"/>
       <c r="AL226" s="3"/>
     </row>
-    <row r="227" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -10395,7 +10393,7 @@
       <c r="AK227" s="3"/>
       <c r="AL227" s="3"/>
     </row>
-    <row r="228" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -10435,7 +10433,7 @@
       <c r="AK228" s="3"/>
       <c r="AL228" s="3"/>
     </row>
-    <row r="229" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -10475,7 +10473,7 @@
       <c r="AK229" s="3"/>
       <c r="AL229" s="3"/>
     </row>
-    <row r="230" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -10515,7 +10513,7 @@
       <c r="AK230" s="3"/>
       <c r="AL230" s="3"/>
     </row>
-    <row r="231" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -10555,7 +10553,7 @@
       <c r="AK231" s="3"/>
       <c r="AL231" s="3"/>
     </row>
-    <row r="232" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -10595,7 +10593,7 @@
       <c r="AK232" s="3"/>
       <c r="AL232" s="3"/>
     </row>
-    <row r="233" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -10635,7 +10633,7 @@
       <c r="AK233" s="3"/>
       <c r="AL233" s="3"/>
     </row>
-    <row r="234" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -10675,7 +10673,7 @@
       <c r="AK234" s="3"/>
       <c r="AL234" s="3"/>
     </row>
-    <row r="235" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -10715,7 +10713,7 @@
       <c r="AK235" s="3"/>
       <c r="AL235" s="3"/>
     </row>
-    <row r="236" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -10755,7 +10753,7 @@
       <c r="AK236" s="3"/>
       <c r="AL236" s="3"/>
     </row>
-    <row r="237" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -10795,7 +10793,7 @@
       <c r="AK237" s="3"/>
       <c r="AL237" s="3"/>
     </row>
-    <row r="238" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -10835,7 +10833,7 @@
       <c r="AK238" s="3"/>
       <c r="AL238" s="3"/>
     </row>
-    <row r="239" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -10875,7 +10873,7 @@
       <c r="AK239" s="3"/>
       <c r="AL239" s="3"/>
     </row>
-    <row r="240" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -10915,7 +10913,7 @@
       <c r="AK240" s="3"/>
       <c r="AL240" s="3"/>
     </row>
-    <row r="241" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -10955,7 +10953,7 @@
       <c r="AK241" s="3"/>
       <c r="AL241" s="3"/>
     </row>
-    <row r="242" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -10995,7 +10993,7 @@
       <c r="AK242" s="3"/>
       <c r="AL242" s="3"/>
     </row>
-    <row r="243" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -11035,7 +11033,7 @@
       <c r="AK243" s="3"/>
       <c r="AL243" s="3"/>
     </row>
-    <row r="244" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -11075,7 +11073,7 @@
       <c r="AK244" s="3"/>
       <c r="AL244" s="3"/>
     </row>
-    <row r="245" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -11115,7 +11113,7 @@
       <c r="AK245" s="3"/>
       <c r="AL245" s="3"/>
     </row>
-    <row r="246" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -11155,7 +11153,7 @@
       <c r="AK246" s="3"/>
       <c r="AL246" s="3"/>
     </row>
-    <row r="247" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -11195,7 +11193,7 @@
       <c r="AK247" s="3"/>
       <c r="AL247" s="3"/>
     </row>
-    <row r="248" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -11235,7 +11233,7 @@
       <c r="AK248" s="3"/>
       <c r="AL248" s="3"/>
     </row>
-    <row r="249" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -11275,7 +11273,7 @@
       <c r="AK249" s="3"/>
       <c r="AL249" s="3"/>
     </row>
-    <row r="250" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -11315,7 +11313,7 @@
       <c r="AK250" s="3"/>
       <c r="AL250" s="3"/>
     </row>
-    <row r="251" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -11355,7 +11353,7 @@
       <c r="AK251" s="3"/>
       <c r="AL251" s="3"/>
     </row>
-    <row r="252" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -11395,7 +11393,7 @@
       <c r="AK252" s="3"/>
       <c r="AL252" s="3"/>
     </row>
-    <row r="253" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -11435,7 +11433,7 @@
       <c r="AK253" s="3"/>
       <c r="AL253" s="3"/>
     </row>
-    <row r="254" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -11475,7 +11473,7 @@
       <c r="AK254" s="3"/>
       <c r="AL254" s="3"/>
     </row>
-    <row r="255" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -11515,7 +11513,7 @@
       <c r="AK255" s="3"/>
       <c r="AL255" s="3"/>
     </row>
-    <row r="256" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -11555,7 +11553,7 @@
       <c r="AK256" s="3"/>
       <c r="AL256" s="3"/>
     </row>
-    <row r="257" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -11595,7 +11593,7 @@
       <c r="AK257" s="3"/>
       <c r="AL257" s="3"/>
     </row>
-    <row r="258" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -11635,7 +11633,7 @@
       <c r="AK258" s="3"/>
       <c r="AL258" s="3"/>
     </row>
-    <row r="259" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -11675,7 +11673,7 @@
       <c r="AK259" s="3"/>
       <c r="AL259" s="3"/>
     </row>
-    <row r="260" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -11715,7 +11713,7 @@
       <c r="AK260" s="3"/>
       <c r="AL260" s="3"/>
     </row>
-    <row r="261" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -11755,7 +11753,7 @@
       <c r="AK261" s="3"/>
       <c r="AL261" s="3"/>
     </row>
-    <row r="262" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -11795,7 +11793,7 @@
       <c r="AK262" s="3"/>
       <c r="AL262" s="3"/>
     </row>
-    <row r="263" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -11835,7 +11833,7 @@
       <c r="AK263" s="3"/>
       <c r="AL263" s="3"/>
     </row>
-    <row r="264" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -11875,7 +11873,7 @@
       <c r="AK264" s="3"/>
       <c r="AL264" s="3"/>
     </row>
-    <row r="265" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -11915,7 +11913,7 @@
       <c r="AK265" s="3"/>
       <c r="AL265" s="3"/>
     </row>
-    <row r="266" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -11955,7 +11953,7 @@
       <c r="AK266" s="3"/>
       <c r="AL266" s="3"/>
     </row>
-    <row r="267" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -11995,7 +11993,7 @@
       <c r="AK267" s="3"/>
       <c r="AL267" s="3"/>
     </row>
-    <row r="268" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -12035,7 +12033,7 @@
       <c r="AK268" s="3"/>
       <c r="AL268" s="3"/>
     </row>
-    <row r="269" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -12075,7 +12073,7 @@
       <c r="AK269" s="3"/>
       <c r="AL269" s="3"/>
     </row>
-    <row r="270" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -12115,7 +12113,7 @@
       <c r="AK270" s="3"/>
       <c r="AL270" s="3"/>
     </row>
-    <row r="271" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -12155,7 +12153,7 @@
       <c r="AK271" s="3"/>
       <c r="AL271" s="3"/>
     </row>
-    <row r="272" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -12195,7 +12193,7 @@
       <c r="AK272" s="3"/>
       <c r="AL272" s="3"/>
     </row>
-    <row r="273" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -12235,7 +12233,7 @@
       <c r="AK273" s="3"/>
       <c r="AL273" s="3"/>
     </row>
-    <row r="274" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -12275,7 +12273,7 @@
       <c r="AK274" s="3"/>
       <c r="AL274" s="3"/>
     </row>
-    <row r="275" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -12315,7 +12313,7 @@
       <c r="AK275" s="3"/>
       <c r="AL275" s="3"/>
     </row>
-    <row r="276" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -12355,7 +12353,7 @@
       <c r="AK276" s="3"/>
       <c r="AL276" s="3"/>
     </row>
-    <row r="277" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -12395,7 +12393,7 @@
       <c r="AK277" s="3"/>
       <c r="AL277" s="3"/>
     </row>
-    <row r="278" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -12435,7 +12433,7 @@
       <c r="AK278" s="3"/>
       <c r="AL278" s="3"/>
     </row>
-    <row r="279" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -12475,7 +12473,7 @@
       <c r="AK279" s="3"/>
       <c r="AL279" s="3"/>
     </row>
-    <row r="280" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -12515,7 +12513,7 @@
       <c r="AK280" s="3"/>
       <c r="AL280" s="3"/>
     </row>
-    <row r="281" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -12555,7 +12553,7 @@
       <c r="AK281" s="3"/>
       <c r="AL281" s="3"/>
     </row>
-    <row r="282" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -12595,7 +12593,7 @@
       <c r="AK282" s="3"/>
       <c r="AL282" s="3"/>
     </row>
-    <row r="283" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -12635,7 +12633,7 @@
       <c r="AK283" s="3"/>
       <c r="AL283" s="3"/>
     </row>
-    <row r="284" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -12675,7 +12673,7 @@
       <c r="AK284" s="3"/>
       <c r="AL284" s="3"/>
     </row>
-    <row r="285" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -12715,7 +12713,7 @@
       <c r="AK285" s="3"/>
       <c r="AL285" s="3"/>
     </row>
-    <row r="286" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -12755,7 +12753,7 @@
       <c r="AK286" s="3"/>
       <c r="AL286" s="3"/>
     </row>
-    <row r="287" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -12795,7 +12793,7 @@
       <c r="AK287" s="3"/>
       <c r="AL287" s="3"/>
     </row>
-    <row r="288" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -12835,7 +12833,7 @@
       <c r="AK288" s="3"/>
       <c r="AL288" s="3"/>
     </row>
-    <row r="289" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -12875,7 +12873,7 @@
       <c r="AK289" s="3"/>
       <c r="AL289" s="3"/>
     </row>
-    <row r="290" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -12915,7 +12913,7 @@
       <c r="AK290" s="3"/>
       <c r="AL290" s="3"/>
     </row>
-    <row r="291" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -12955,7 +12953,7 @@
       <c r="AK291" s="3"/>
       <c r="AL291" s="3"/>
     </row>
-    <row r="292" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -12995,7 +12993,7 @@
       <c r="AK292" s="3"/>
       <c r="AL292" s="3"/>
     </row>
-    <row r="293" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -13035,7 +13033,7 @@
       <c r="AK293" s="3"/>
       <c r="AL293" s="3"/>
     </row>
-    <row r="294" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -13075,7 +13073,7 @@
       <c r="AK294" s="3"/>
       <c r="AL294" s="3"/>
     </row>
-    <row r="295" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -13115,7 +13113,7 @@
       <c r="AK295" s="3"/>
       <c r="AL295" s="3"/>
     </row>
-    <row r="296" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -13155,7 +13153,7 @@
       <c r="AK296" s="3"/>
       <c r="AL296" s="3"/>
     </row>
-    <row r="297" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -13195,7 +13193,7 @@
       <c r="AK297" s="3"/>
       <c r="AL297" s="3"/>
     </row>
-    <row r="298" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -13235,7 +13233,7 @@
       <c r="AK298" s="3"/>
       <c r="AL298" s="3"/>
     </row>
-    <row r="299" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -13275,7 +13273,7 @@
       <c r="AK299" s="3"/>
       <c r="AL299" s="3"/>
     </row>
-    <row r="300" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -13315,7 +13313,7 @@
       <c r="AK300" s="3"/>
       <c r="AL300" s="3"/>
     </row>
-    <row r="301" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -13355,7 +13353,7 @@
       <c r="AK301" s="3"/>
       <c r="AL301" s="3"/>
     </row>
-    <row r="302" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -13395,7 +13393,7 @@
       <c r="AK302" s="3"/>
       <c r="AL302" s="3"/>
     </row>
-    <row r="303" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -13435,7 +13433,7 @@
       <c r="AK303" s="3"/>
       <c r="AL303" s="3"/>
     </row>
-    <row r="304" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -13475,7 +13473,7 @@
       <c r="AK304" s="3"/>
       <c r="AL304" s="3"/>
     </row>
-    <row r="305" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -13515,7 +13513,7 @@
       <c r="AK305" s="3"/>
       <c r="AL305" s="3"/>
     </row>
-    <row r="306" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -13555,7 +13553,7 @@
       <c r="AK306" s="3"/>
       <c r="AL306" s="3"/>
     </row>
-    <row r="307" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -13595,7 +13593,7 @@
       <c r="AK307" s="3"/>
       <c r="AL307" s="3"/>
     </row>
-    <row r="308" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -13635,7 +13633,7 @@
       <c r="AK308" s="3"/>
       <c r="AL308" s="3"/>
     </row>
-    <row r="309" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -13675,7 +13673,7 @@
       <c r="AK309" s="3"/>
       <c r="AL309" s="3"/>
     </row>
-    <row r="310" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -13715,7 +13713,7 @@
       <c r="AK310" s="3"/>
       <c r="AL310" s="3"/>
     </row>
-    <row r="311" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -13755,7 +13753,7 @@
       <c r="AK311" s="3"/>
       <c r="AL311" s="3"/>
     </row>
-    <row r="312" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -13795,7 +13793,7 @@
       <c r="AK312" s="3"/>
       <c r="AL312" s="3"/>
     </row>
-    <row r="313" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -13835,7 +13833,7 @@
       <c r="AK313" s="3"/>
       <c r="AL313" s="3"/>
     </row>
-    <row r="314" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -13875,7 +13873,7 @@
       <c r="AK314" s="3"/>
       <c r="AL314" s="3"/>
     </row>
-    <row r="315" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -13915,7 +13913,7 @@
       <c r="AK315" s="3"/>
       <c r="AL315" s="3"/>
     </row>
-    <row r="316" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -13955,7 +13953,7 @@
       <c r="AK316" s="3"/>
       <c r="AL316" s="3"/>
     </row>
-    <row r="317" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -13995,7 +13993,7 @@
       <c r="AK317" s="3"/>
       <c r="AL317" s="3"/>
     </row>
-    <row r="318" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -14035,7 +14033,7 @@
       <c r="AK318" s="3"/>
       <c r="AL318" s="3"/>
     </row>
-    <row r="319" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -14075,7 +14073,7 @@
       <c r="AK319" s="3"/>
       <c r="AL319" s="3"/>
     </row>
-    <row r="320" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -14115,7 +14113,7 @@
       <c r="AK320" s="3"/>
       <c r="AL320" s="3"/>
     </row>
-    <row r="321" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -14155,7 +14153,7 @@
       <c r="AK321" s="3"/>
       <c r="AL321" s="3"/>
     </row>
-    <row r="322" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -14195,7 +14193,7 @@
       <c r="AK322" s="3"/>
       <c r="AL322" s="3"/>
     </row>
-    <row r="323" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -14235,7 +14233,7 @@
       <c r="AK323" s="3"/>
       <c r="AL323" s="3"/>
     </row>
-    <row r="324" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -14275,7 +14273,7 @@
       <c r="AK324" s="3"/>
       <c r="AL324" s="3"/>
     </row>
-    <row r="325" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -14315,7 +14313,7 @@
       <c r="AK325" s="3"/>
       <c r="AL325" s="3"/>
     </row>
-    <row r="326" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -14355,7 +14353,7 @@
       <c r="AK326" s="3"/>
       <c r="AL326" s="3"/>
     </row>
-    <row r="327" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -14395,7 +14393,7 @@
       <c r="AK327" s="3"/>
       <c r="AL327" s="3"/>
     </row>
-    <row r="328" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -14435,7 +14433,7 @@
       <c r="AK328" s="3"/>
       <c r="AL328" s="3"/>
     </row>
-    <row r="329" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -14475,7 +14473,7 @@
       <c r="AK329" s="3"/>
       <c r="AL329" s="3"/>
     </row>
-    <row r="330" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -14515,7 +14513,7 @@
       <c r="AK330" s="3"/>
       <c r="AL330" s="3"/>
     </row>
-    <row r="331" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -14555,7 +14553,7 @@
       <c r="AK331" s="3"/>
       <c r="AL331" s="3"/>
     </row>
-    <row r="332" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -14595,7 +14593,7 @@
       <c r="AK332" s="3"/>
       <c r="AL332" s="3"/>
     </row>
-    <row r="333" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -14635,7 +14633,7 @@
       <c r="AK333" s="3"/>
       <c r="AL333" s="3"/>
     </row>
-    <row r="334" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -14675,7 +14673,7 @@
       <c r="AK334" s="3"/>
       <c r="AL334" s="3"/>
     </row>
-    <row r="335" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -14715,7 +14713,7 @@
       <c r="AK335" s="3"/>
       <c r="AL335" s="3"/>
     </row>
-    <row r="336" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -14755,7 +14753,7 @@
       <c r="AK336" s="3"/>
       <c r="AL336" s="3"/>
     </row>
-    <row r="337" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -14795,7 +14793,7 @@
       <c r="AK337" s="3"/>
       <c r="AL337" s="3"/>
     </row>
-    <row r="338" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -14835,7 +14833,7 @@
       <c r="AK338" s="3"/>
       <c r="AL338" s="3"/>
     </row>
-    <row r="339" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -14875,7 +14873,7 @@
       <c r="AK339" s="3"/>
       <c r="AL339" s="3"/>
     </row>
-    <row r="340" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -14915,7 +14913,7 @@
       <c r="AK340" s="3"/>
       <c r="AL340" s="3"/>
     </row>
-    <row r="341" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -14955,7 +14953,7 @@
       <c r="AK341" s="3"/>
       <c r="AL341" s="3"/>
     </row>
-    <row r="342" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -14995,7 +14993,7 @@
       <c r="AK342" s="3"/>
       <c r="AL342" s="3"/>
     </row>
-    <row r="343" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -15035,7 +15033,7 @@
       <c r="AK343" s="3"/>
       <c r="AL343" s="3"/>
     </row>
-    <row r="344" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -15075,7 +15073,7 @@
       <c r="AK344" s="3"/>
       <c r="AL344" s="3"/>
     </row>
-    <row r="345" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -15115,7 +15113,7 @@
       <c r="AK345" s="3"/>
       <c r="AL345" s="3"/>
     </row>
-    <row r="346" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -15155,7 +15153,7 @@
       <c r="AK346" s="3"/>
       <c r="AL346" s="3"/>
     </row>
-    <row r="347" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -15195,7 +15193,7 @@
       <c r="AK347" s="3"/>
       <c r="AL347" s="3"/>
     </row>
-    <row r="348" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -15235,7 +15233,7 @@
       <c r="AK348" s="3"/>
       <c r="AL348" s="3"/>
     </row>
-    <row r="349" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -15275,7 +15273,7 @@
       <c r="AK349" s="3"/>
       <c r="AL349" s="3"/>
     </row>
-    <row r="350" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -15315,7 +15313,7 @@
       <c r="AK350" s="3"/>
       <c r="AL350" s="3"/>
     </row>
-    <row r="351" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -15355,7 +15353,7 @@
       <c r="AK351" s="3"/>
       <c r="AL351" s="3"/>
     </row>
-    <row r="352" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -15395,7 +15393,7 @@
       <c r="AK352" s="3"/>
       <c r="AL352" s="3"/>
     </row>
-    <row r="353" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -15435,7 +15433,7 @@
       <c r="AK353" s="3"/>
       <c r="AL353" s="3"/>
     </row>
-    <row r="354" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -15475,7 +15473,7 @@
       <c r="AK354" s="3"/>
       <c r="AL354" s="3"/>
     </row>
-    <row r="355" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -15515,7 +15513,7 @@
       <c r="AK355" s="3"/>
       <c r="AL355" s="3"/>
     </row>
-    <row r="356" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -15555,7 +15553,7 @@
       <c r="AK356" s="3"/>
       <c r="AL356" s="3"/>
     </row>
-    <row r="357" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -15595,7 +15593,7 @@
       <c r="AK357" s="3"/>
       <c r="AL357" s="3"/>
     </row>
-    <row r="358" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -15635,7 +15633,7 @@
       <c r="AK358" s="3"/>
       <c r="AL358" s="3"/>
     </row>
-    <row r="359" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -15675,7 +15673,7 @@
       <c r="AK359" s="3"/>
       <c r="AL359" s="3"/>
     </row>
-    <row r="360" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -15715,7 +15713,7 @@
       <c r="AK360" s="3"/>
       <c r="AL360" s="3"/>
     </row>
-    <row r="361" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -15755,7 +15753,7 @@
       <c r="AK361" s="3"/>
       <c r="AL361" s="3"/>
     </row>
-    <row r="362" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -15795,7 +15793,7 @@
       <c r="AK362" s="3"/>
       <c r="AL362" s="3"/>
     </row>
-    <row r="363" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -15835,7 +15833,7 @@
       <c r="AK363" s="3"/>
       <c r="AL363" s="3"/>
     </row>
-    <row r="364" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -15875,7 +15873,7 @@
       <c r="AK364" s="3"/>
       <c r="AL364" s="3"/>
     </row>
-    <row r="365" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -15915,7 +15913,7 @@
       <c r="AK365" s="3"/>
       <c r="AL365" s="3"/>
     </row>
-    <row r="366" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -15955,7 +15953,7 @@
       <c r="AK366" s="3"/>
       <c r="AL366" s="3"/>
     </row>
-    <row r="367" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -15995,7 +15993,7 @@
       <c r="AK367" s="3"/>
       <c r="AL367" s="3"/>
     </row>
-    <row r="368" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -16035,7 +16033,7 @@
       <c r="AK368" s="3"/>
       <c r="AL368" s="3"/>
     </row>
-    <row r="369" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -16075,7 +16073,7 @@
       <c r="AK369" s="3"/>
       <c r="AL369" s="3"/>
     </row>
-    <row r="370" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -16115,7 +16113,7 @@
       <c r="AK370" s="3"/>
       <c r="AL370" s="3"/>
     </row>
-    <row r="371" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -16155,7 +16153,7 @@
       <c r="AK371" s="3"/>
       <c r="AL371" s="3"/>
     </row>
-    <row r="372" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -16195,7 +16193,7 @@
       <c r="AK372" s="3"/>
       <c r="AL372" s="3"/>
     </row>
-    <row r="373" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -16235,7 +16233,7 @@
       <c r="AK373" s="3"/>
       <c r="AL373" s="3"/>
     </row>
-    <row r="374" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -16275,7 +16273,7 @@
       <c r="AK374" s="3"/>
       <c r="AL374" s="3"/>
     </row>
-    <row r="375" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -16315,7 +16313,7 @@
       <c r="AK375" s="3"/>
       <c r="AL375" s="3"/>
     </row>
-    <row r="376" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -16355,7 +16353,7 @@
       <c r="AK376" s="3"/>
       <c r="AL376" s="3"/>
     </row>
-    <row r="377" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -16395,7 +16393,7 @@
       <c r="AK377" s="3"/>
       <c r="AL377" s="3"/>
     </row>
-    <row r="378" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -16435,7 +16433,7 @@
       <c r="AK378" s="3"/>
       <c r="AL378" s="3"/>
     </row>
-    <row r="379" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -16475,7 +16473,7 @@
       <c r="AK379" s="3"/>
       <c r="AL379" s="3"/>
     </row>
-    <row r="380" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -16515,7 +16513,7 @@
       <c r="AK380" s="3"/>
       <c r="AL380" s="3"/>
     </row>
-    <row r="381" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -16555,7 +16553,7 @@
       <c r="AK381" s="3"/>
       <c r="AL381" s="3"/>
     </row>
-    <row r="382" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -16595,7 +16593,7 @@
       <c r="AK382" s="3"/>
       <c r="AL382" s="3"/>
     </row>
-    <row r="383" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -16635,7 +16633,7 @@
       <c r="AK383" s="3"/>
       <c r="AL383" s="3"/>
     </row>
-    <row r="384" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -16675,7 +16673,7 @@
       <c r="AK384" s="3"/>
       <c r="AL384" s="3"/>
     </row>
-    <row r="385" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -16715,7 +16713,7 @@
       <c r="AK385" s="3"/>
       <c r="AL385" s="3"/>
     </row>
-    <row r="386" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -16755,7 +16753,7 @@
       <c r="AK386" s="3"/>
       <c r="AL386" s="3"/>
     </row>
-    <row r="387" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -16795,7 +16793,7 @@
       <c r="AK387" s="3"/>
       <c r="AL387" s="3"/>
     </row>
-    <row r="388" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -16835,7 +16833,7 @@
       <c r="AK388" s="3"/>
       <c r="AL388" s="3"/>
     </row>
-    <row r="389" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -16875,7 +16873,7 @@
       <c r="AK389" s="3"/>
       <c r="AL389" s="3"/>
     </row>
-    <row r="390" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -16915,7 +16913,7 @@
       <c r="AK390" s="3"/>
       <c r="AL390" s="3"/>
     </row>
-    <row r="391" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -16955,7 +16953,7 @@
       <c r="AK391" s="3"/>
       <c r="AL391" s="3"/>
     </row>
-    <row r="392" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -16995,7 +16993,7 @@
       <c r="AK392" s="3"/>
       <c r="AL392" s="3"/>
     </row>
-    <row r="393" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -17035,7 +17033,7 @@
       <c r="AK393" s="3"/>
       <c r="AL393" s="3"/>
     </row>
-    <row r="394" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -17075,7 +17073,7 @@
       <c r="AK394" s="3"/>
       <c r="AL394" s="3"/>
     </row>
-    <row r="395" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -17115,7 +17113,7 @@
       <c r="AK395" s="3"/>
       <c r="AL395" s="3"/>
     </row>
-    <row r="396" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -17155,7 +17153,7 @@
       <c r="AK396" s="3"/>
       <c r="AL396" s="3"/>
     </row>
-    <row r="397" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -17195,7 +17193,7 @@
       <c r="AK397" s="3"/>
       <c r="AL397" s="3"/>
     </row>
-    <row r="398" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -17235,7 +17233,7 @@
       <c r="AK398" s="3"/>
       <c r="AL398" s="3"/>
     </row>
-    <row r="399" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -17275,7 +17273,7 @@
       <c r="AK399" s="3"/>
       <c r="AL399" s="3"/>
     </row>
-    <row r="400" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -17315,7 +17313,7 @@
       <c r="AK400" s="3"/>
       <c r="AL400" s="3"/>
     </row>
-    <row r="401" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -17355,7 +17353,7 @@
       <c r="AK401" s="3"/>
       <c r="AL401" s="3"/>
     </row>
-    <row r="402" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -17395,7 +17393,7 @@
       <c r="AK402" s="3"/>
       <c r="AL402" s="3"/>
     </row>
-    <row r="403" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -17435,7 +17433,7 @@
       <c r="AK403" s="3"/>
       <c r="AL403" s="3"/>
     </row>
-    <row r="404" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -17475,7 +17473,7 @@
       <c r="AK404" s="3"/>
       <c r="AL404" s="3"/>
     </row>
-    <row r="405" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -17515,7 +17513,7 @@
       <c r="AK405" s="3"/>
       <c r="AL405" s="3"/>
     </row>
-    <row r="406" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -17555,7 +17553,7 @@
       <c r="AK406" s="3"/>
       <c r="AL406" s="3"/>
     </row>
-    <row r="407" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -17595,7 +17593,7 @@
       <c r="AK407" s="3"/>
       <c r="AL407" s="3"/>
     </row>
-    <row r="408" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -17635,7 +17633,7 @@
       <c r="AK408" s="3"/>
       <c r="AL408" s="3"/>
     </row>
-    <row r="409" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -17675,7 +17673,7 @@
       <c r="AK409" s="3"/>
       <c r="AL409" s="3"/>
     </row>
-    <row r="410" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -17715,7 +17713,7 @@
       <c r="AK410" s="3"/>
       <c r="AL410" s="3"/>
     </row>
-    <row r="411" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -17755,7 +17753,7 @@
       <c r="AK411" s="3"/>
       <c r="AL411" s="3"/>
     </row>
-    <row r="412" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -17795,7 +17793,7 @@
       <c r="AK412" s="3"/>
       <c r="AL412" s="3"/>
     </row>
-    <row r="413" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -17835,7 +17833,7 @@
       <c r="AK413" s="3"/>
       <c r="AL413" s="3"/>
     </row>
-    <row r="414" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -17875,7 +17873,7 @@
       <c r="AK414" s="3"/>
       <c r="AL414" s="3"/>
     </row>
-    <row r="415" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -17915,7 +17913,7 @@
       <c r="AK415" s="3"/>
       <c r="AL415" s="3"/>
     </row>
-    <row r="416" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -17955,7 +17953,7 @@
       <c r="AK416" s="3"/>
       <c r="AL416" s="3"/>
     </row>
-    <row r="417" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -17995,7 +17993,7 @@
       <c r="AK417" s="3"/>
       <c r="AL417" s="3"/>
     </row>
-    <row r="418" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -18035,7 +18033,7 @@
       <c r="AK418" s="3"/>
       <c r="AL418" s="3"/>
     </row>
-    <row r="419" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -18075,7 +18073,7 @@
       <c r="AK419" s="3"/>
       <c r="AL419" s="3"/>
     </row>
-    <row r="420" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -18115,7 +18113,7 @@
       <c r="AK420" s="3"/>
       <c r="AL420" s="3"/>
     </row>
-    <row r="421" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -18155,7 +18153,7 @@
       <c r="AK421" s="3"/>
       <c r="AL421" s="3"/>
     </row>
-    <row r="422" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -18195,7 +18193,7 @@
       <c r="AK422" s="3"/>
       <c r="AL422" s="3"/>
     </row>
-    <row r="423" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -18235,7 +18233,7 @@
       <c r="AK423" s="3"/>
       <c r="AL423" s="3"/>
     </row>
-    <row r="424" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -18275,7 +18273,7 @@
       <c r="AK424" s="3"/>
       <c r="AL424" s="3"/>
     </row>
-    <row r="425" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -18315,7 +18313,7 @@
       <c r="AK425" s="3"/>
       <c r="AL425" s="3"/>
     </row>
-    <row r="426" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -18355,7 +18353,7 @@
       <c r="AK426" s="3"/>
       <c r="AL426" s="3"/>
     </row>
-    <row r="427" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -18395,7 +18393,7 @@
       <c r="AK427" s="3"/>
       <c r="AL427" s="3"/>
     </row>
-    <row r="428" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -18435,7 +18433,7 @@
       <c r="AK428" s="3"/>
       <c r="AL428" s="3"/>
     </row>
-    <row r="429" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -18475,7 +18473,7 @@
       <c r="AK429" s="3"/>
       <c r="AL429" s="3"/>
     </row>
-    <row r="430" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -18515,7 +18513,7 @@
       <c r="AK430" s="3"/>
       <c r="AL430" s="3"/>
     </row>
-    <row r="431" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -18555,7 +18553,7 @@
       <c r="AK431" s="3"/>
       <c r="AL431" s="3"/>
     </row>
-    <row r="432" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -18595,7 +18593,7 @@
       <c r="AK432" s="3"/>
       <c r="AL432" s="3"/>
     </row>
-    <row r="433" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -18635,7 +18633,7 @@
       <c r="AK433" s="3"/>
       <c r="AL433" s="3"/>
     </row>
-    <row r="434" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -18675,7 +18673,7 @@
       <c r="AK434" s="3"/>
       <c r="AL434" s="3"/>
     </row>
-    <row r="435" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -18715,7 +18713,7 @@
       <c r="AK435" s="3"/>
       <c r="AL435" s="3"/>
     </row>
-    <row r="436" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -18755,7 +18753,7 @@
       <c r="AK436" s="3"/>
       <c r="AL436" s="3"/>
     </row>
-    <row r="437" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -18795,7 +18793,7 @@
       <c r="AK437" s="3"/>
       <c r="AL437" s="3"/>
     </row>
-    <row r="438" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -18835,7 +18833,7 @@
       <c r="AK438" s="3"/>
       <c r="AL438" s="3"/>
     </row>
-    <row r="439" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -18875,7 +18873,7 @@
       <c r="AK439" s="3"/>
       <c r="AL439" s="3"/>
     </row>
-    <row r="440" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -18915,7 +18913,7 @@
       <c r="AK440" s="3"/>
       <c r="AL440" s="3"/>
     </row>
-    <row r="441" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -18955,7 +18953,7 @@
       <c r="AK441" s="3"/>
       <c r="AL441" s="3"/>
     </row>
-    <row r="442" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -18995,7 +18993,7 @@
       <c r="AK442" s="3"/>
       <c r="AL442" s="3"/>
     </row>
-    <row r="443" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -19035,7 +19033,7 @@
       <c r="AK443" s="3"/>
       <c r="AL443" s="3"/>
     </row>
-    <row r="444" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -19075,7 +19073,7 @@
       <c r="AK444" s="3"/>
       <c r="AL444" s="3"/>
     </row>
-    <row r="445" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -19115,7 +19113,7 @@
       <c r="AK445" s="3"/>
       <c r="AL445" s="3"/>
     </row>
-    <row r="446" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -19155,7 +19153,7 @@
       <c r="AK446" s="3"/>
       <c r="AL446" s="3"/>
     </row>
-    <row r="447" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -19195,7 +19193,7 @@
       <c r="AK447" s="3"/>
       <c r="AL447" s="3"/>
     </row>
-    <row r="448" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -19235,7 +19233,7 @@
       <c r="AK448" s="3"/>
       <c r="AL448" s="3"/>
     </row>
-    <row r="449" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -19275,7 +19273,7 @@
       <c r="AK449" s="3"/>
       <c r="AL449" s="3"/>
     </row>
-    <row r="450" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -19315,7 +19313,7 @@
       <c r="AK450" s="3"/>
       <c r="AL450" s="3"/>
     </row>
-    <row r="451" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -19355,7 +19353,7 @@
       <c r="AK451" s="3"/>
       <c r="AL451" s="3"/>
     </row>
-    <row r="452" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -19395,7 +19393,7 @@
       <c r="AK452" s="3"/>
       <c r="AL452" s="3"/>
     </row>
-    <row r="453" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -19435,7 +19433,7 @@
       <c r="AK453" s="3"/>
       <c r="AL453" s="3"/>
     </row>
-    <row r="454" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -19475,7 +19473,7 @@
       <c r="AK454" s="3"/>
       <c r="AL454" s="3"/>
     </row>
-    <row r="455" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -19515,7 +19513,7 @@
       <c r="AK455" s="3"/>
       <c r="AL455" s="3"/>
     </row>
-    <row r="456" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -19555,7 +19553,7 @@
       <c r="AK456" s="3"/>
       <c r="AL456" s="3"/>
     </row>
-    <row r="457" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -19595,7 +19593,7 @@
       <c r="AK457" s="3"/>
       <c r="AL457" s="3"/>
     </row>
-    <row r="458" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -19635,7 +19633,7 @@
       <c r="AK458" s="3"/>
       <c r="AL458" s="3"/>
     </row>
-    <row r="459" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -19675,7 +19673,7 @@
       <c r="AK459" s="3"/>
       <c r="AL459" s="3"/>
     </row>
-    <row r="460" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -19715,7 +19713,7 @@
       <c r="AK460" s="3"/>
       <c r="AL460" s="3"/>
     </row>
-    <row r="461" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -19755,7 +19753,7 @@
       <c r="AK461" s="3"/>
       <c r="AL461" s="3"/>
     </row>
-    <row r="462" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -19795,7 +19793,7 @@
       <c r="AK462" s="3"/>
       <c r="AL462" s="3"/>
     </row>
-    <row r="463" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -19835,7 +19833,7 @@
       <c r="AK463" s="3"/>
       <c r="AL463" s="3"/>
     </row>
-    <row r="464" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -19875,7 +19873,7 @@
       <c r="AK464" s="3"/>
       <c r="AL464" s="3"/>
     </row>
-    <row r="465" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -19915,7 +19913,7 @@
       <c r="AK465" s="3"/>
       <c r="AL465" s="3"/>
     </row>
-    <row r="466" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -19955,7 +19953,7 @@
       <c r="AK466" s="3"/>
       <c r="AL466" s="3"/>
     </row>
-    <row r="467" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -19995,7 +19993,7 @@
       <c r="AK467" s="3"/>
       <c r="AL467" s="3"/>
     </row>
-    <row r="468" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -20035,7 +20033,7 @@
       <c r="AK468" s="3"/>
       <c r="AL468" s="3"/>
     </row>
-    <row r="469" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -20075,7 +20073,7 @@
       <c r="AK469" s="3"/>
       <c r="AL469" s="3"/>
     </row>
-    <row r="470" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -20115,7 +20113,7 @@
       <c r="AK470" s="3"/>
       <c r="AL470" s="3"/>
     </row>
-    <row r="471" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -20155,7 +20153,7 @@
       <c r="AK471" s="3"/>
       <c r="AL471" s="3"/>
     </row>
-    <row r="472" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -20195,7 +20193,7 @@
       <c r="AK472" s="3"/>
       <c r="AL472" s="3"/>
     </row>
-    <row r="473" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -20235,7 +20233,7 @@
       <c r="AK473" s="3"/>
       <c r="AL473" s="3"/>
     </row>
-    <row r="474" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -20275,7 +20273,7 @@
       <c r="AK474" s="3"/>
       <c r="AL474" s="3"/>
     </row>
-    <row r="475" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -20315,7 +20313,7 @@
       <c r="AK475" s="3"/>
       <c r="AL475" s="3"/>
     </row>
-    <row r="476" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -20355,7 +20353,7 @@
       <c r="AK476" s="3"/>
       <c r="AL476" s="3"/>
     </row>
-    <row r="477" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -20395,7 +20393,7 @@
       <c r="AK477" s="3"/>
       <c r="AL477" s="3"/>
     </row>
-    <row r="478" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -20435,7 +20433,7 @@
       <c r="AK478" s="3"/>
       <c r="AL478" s="3"/>
     </row>
-    <row r="479" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -20475,7 +20473,7 @@
       <c r="AK479" s="3"/>
       <c r="AL479" s="3"/>
     </row>
-    <row r="480" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -20515,7 +20513,7 @@
       <c r="AK480" s="3"/>
       <c r="AL480" s="3"/>
     </row>
-    <row r="481" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -20555,7 +20553,7 @@
       <c r="AK481" s="3"/>
       <c r="AL481" s="3"/>
     </row>
-    <row r="482" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -20595,7 +20593,7 @@
       <c r="AK482" s="3"/>
       <c r="AL482" s="3"/>
     </row>
-    <row r="483" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -20635,7 +20633,7 @@
       <c r="AK483" s="3"/>
       <c r="AL483" s="3"/>
     </row>
-    <row r="484" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -20675,7 +20673,7 @@
       <c r="AK484" s="3"/>
       <c r="AL484" s="3"/>
     </row>
-    <row r="485" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -20715,7 +20713,7 @@
       <c r="AK485" s="3"/>
       <c r="AL485" s="3"/>
     </row>
-    <row r="486" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -20755,7 +20753,7 @@
       <c r="AK486" s="3"/>
       <c r="AL486" s="3"/>
     </row>
-    <row r="487" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -20795,7 +20793,7 @@
       <c r="AK487" s="3"/>
       <c r="AL487" s="3"/>
     </row>
-    <row r="488" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -20835,7 +20833,7 @@
       <c r="AK488" s="3"/>
       <c r="AL488" s="3"/>
     </row>
-    <row r="489" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -20875,7 +20873,7 @@
       <c r="AK489" s="3"/>
       <c r="AL489" s="3"/>
     </row>
-    <row r="490" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -20915,7 +20913,7 @@
       <c r="AK490" s="3"/>
       <c r="AL490" s="3"/>
     </row>
-    <row r="491" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -20955,7 +20953,7 @@
       <c r="AK491" s="3"/>
       <c r="AL491" s="3"/>
     </row>
-    <row r="492" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -20995,7 +20993,7 @@
       <c r="AK492" s="3"/>
       <c r="AL492" s="3"/>
     </row>
-    <row r="493" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -21035,7 +21033,7 @@
       <c r="AK493" s="3"/>
       <c r="AL493" s="3"/>
     </row>
-    <row r="494" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -21075,7 +21073,7 @@
       <c r="AK494" s="3"/>
       <c r="AL494" s="3"/>
     </row>
-    <row r="495" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -21115,7 +21113,7 @@
       <c r="AK495" s="3"/>
       <c r="AL495" s="3"/>
     </row>
-    <row r="496" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -21155,7 +21153,7 @@
       <c r="AK496" s="3"/>
       <c r="AL496" s="3"/>
     </row>
-    <row r="497" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -21195,7 +21193,7 @@
       <c r="AK497" s="3"/>
       <c r="AL497" s="3"/>
     </row>
-    <row r="498" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -21235,7 +21233,7 @@
       <c r="AK498" s="3"/>
       <c r="AL498" s="3"/>
     </row>
-    <row r="499" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -21275,7 +21273,7 @@
       <c r="AK499" s="3"/>
       <c r="AL499" s="3"/>
     </row>
-    <row r="500" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -21315,7 +21313,7 @@
       <c r="AK500" s="3"/>
       <c r="AL500" s="3"/>
     </row>
-    <row r="501" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -21355,7 +21353,7 @@
       <c r="AK501" s="3"/>
       <c r="AL501" s="3"/>
     </row>
-    <row r="502" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -21395,7 +21393,7 @@
       <c r="AK502" s="3"/>
       <c r="AL502" s="3"/>
     </row>
-    <row r="503" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -21435,7 +21433,7 @@
       <c r="AK503" s="3"/>
       <c r="AL503" s="3"/>
     </row>
-    <row r="504" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -21475,7 +21473,7 @@
       <c r="AK504" s="3"/>
       <c r="AL504" s="3"/>
     </row>
-    <row r="505" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -21515,7 +21513,7 @@
       <c r="AK505" s="3"/>
       <c r="AL505" s="3"/>
     </row>
-    <row r="506" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -21555,7 +21553,7 @@
       <c r="AK506" s="3"/>
       <c r="AL506" s="3"/>
     </row>
-    <row r="507" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -21595,7 +21593,7 @@
       <c r="AK507" s="3"/>
       <c r="AL507" s="3"/>
     </row>
-    <row r="508" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -21635,7 +21633,7 @@
       <c r="AK508" s="3"/>
       <c r="AL508" s="3"/>
     </row>
-    <row r="509" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -21675,7 +21673,7 @@
       <c r="AK509" s="3"/>
       <c r="AL509" s="3"/>
     </row>
-    <row r="510" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -21715,7 +21713,7 @@
       <c r="AK510" s="3"/>
       <c r="AL510" s="3"/>
     </row>
-    <row r="511" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -21755,7 +21753,7 @@
       <c r="AK511" s="3"/>
       <c r="AL511" s="3"/>
     </row>
-    <row r="512" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -21795,7 +21793,7 @@
       <c r="AK512" s="3"/>
       <c r="AL512" s="3"/>
     </row>
-    <row r="513" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -21835,7 +21833,7 @@
       <c r="AK513" s="3"/>
       <c r="AL513" s="3"/>
     </row>
-    <row r="514" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -21875,7 +21873,7 @@
       <c r="AK514" s="3"/>
       <c r="AL514" s="3"/>
     </row>
-    <row r="515" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -21915,7 +21913,7 @@
       <c r="AK515" s="3"/>
       <c r="AL515" s="3"/>
     </row>
-    <row r="516" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -21955,7 +21953,7 @@
       <c r="AK516" s="3"/>
       <c r="AL516" s="3"/>
     </row>
-    <row r="517" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -21995,7 +21993,7 @@
       <c r="AK517" s="3"/>
       <c r="AL517" s="3"/>
     </row>
-    <row r="518" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -22035,7 +22033,7 @@
       <c r="AK518" s="3"/>
       <c r="AL518" s="3"/>
     </row>
-    <row r="519" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -22075,7 +22073,7 @@
       <c r="AK519" s="3"/>
       <c r="AL519" s="3"/>
     </row>
-    <row r="520" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -22115,7 +22113,7 @@
       <c r="AK520" s="3"/>
       <c r="AL520" s="3"/>
     </row>
-    <row r="521" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -22155,7 +22153,7 @@
       <c r="AK521" s="3"/>
       <c r="AL521" s="3"/>
     </row>
-    <row r="522" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -22195,7 +22193,7 @@
       <c r="AK522" s="3"/>
       <c r="AL522" s="3"/>
     </row>
-    <row r="523" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -22235,7 +22233,7 @@
       <c r="AK523" s="3"/>
       <c r="AL523" s="3"/>
     </row>
-    <row r="524" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -22275,7 +22273,7 @@
       <c r="AK524" s="3"/>
       <c r="AL524" s="3"/>
     </row>
-    <row r="525" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -22315,7 +22313,7 @@
       <c r="AK525" s="3"/>
       <c r="AL525" s="3"/>
     </row>
-    <row r="526" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -22355,7 +22353,7 @@
       <c r="AK526" s="3"/>
       <c r="AL526" s="3"/>
     </row>
-    <row r="527" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -22395,7 +22393,7 @@
       <c r="AK527" s="3"/>
       <c r="AL527" s="3"/>
     </row>
-    <row r="528" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -22435,7 +22433,7 @@
       <c r="AK528" s="3"/>
       <c r="AL528" s="3"/>
     </row>
-    <row r="529" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -22475,7 +22473,7 @@
       <c r="AK529" s="3"/>
       <c r="AL529" s="3"/>
     </row>
-    <row r="530" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -22515,7 +22513,7 @@
       <c r="AK530" s="3"/>
       <c r="AL530" s="3"/>
     </row>
-    <row r="531" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -22555,7 +22553,7 @@
       <c r="AK531" s="3"/>
       <c r="AL531" s="3"/>
     </row>
-    <row r="532" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -22595,7 +22593,7 @@
       <c r="AK532" s="3"/>
       <c r="AL532" s="3"/>
     </row>
-    <row r="533" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -22635,7 +22633,7 @@
       <c r="AK533" s="3"/>
       <c r="AL533" s="3"/>
     </row>
-    <row r="534" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -22675,7 +22673,7 @@
       <c r="AK534" s="3"/>
       <c r="AL534" s="3"/>
     </row>
-    <row r="535" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -22715,7 +22713,7 @@
       <c r="AK535" s="3"/>
       <c r="AL535" s="3"/>
     </row>
-    <row r="536" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -22755,7 +22753,7 @@
       <c r="AK536" s="3"/>
       <c r="AL536" s="3"/>
     </row>
-    <row r="537" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -22795,7 +22793,7 @@
       <c r="AK537" s="3"/>
       <c r="AL537" s="3"/>
     </row>
-    <row r="538" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -22835,7 +22833,7 @@
       <c r="AK538" s="3"/>
       <c r="AL538" s="3"/>
     </row>
-    <row r="539" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -22875,7 +22873,7 @@
       <c r="AK539" s="3"/>
       <c r="AL539" s="3"/>
     </row>
-    <row r="540" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -22915,7 +22913,7 @@
       <c r="AK540" s="3"/>
       <c r="AL540" s="3"/>
     </row>
-    <row r="541" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -22955,7 +22953,7 @@
       <c r="AK541" s="3"/>
       <c r="AL541" s="3"/>
     </row>
-    <row r="542" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -22995,7 +22993,7 @@
       <c r="AK542" s="3"/>
       <c r="AL542" s="3"/>
     </row>
-    <row r="543" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -23035,7 +23033,7 @@
       <c r="AK543" s="3"/>
       <c r="AL543" s="3"/>
     </row>
-    <row r="544" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -23075,7 +23073,7 @@
       <c r="AK544" s="3"/>
       <c r="AL544" s="3"/>
     </row>
-    <row r="545" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -23115,7 +23113,7 @@
       <c r="AK545" s="3"/>
       <c r="AL545" s="3"/>
     </row>
-    <row r="546" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -23155,7 +23153,7 @@
       <c r="AK546" s="3"/>
       <c r="AL546" s="3"/>
     </row>
-    <row r="547" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -23195,7 +23193,7 @@
       <c r="AK547" s="3"/>
       <c r="AL547" s="3"/>
     </row>
-    <row r="548" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -23235,7 +23233,7 @@
       <c r="AK548" s="3"/>
       <c r="AL548" s="3"/>
     </row>
-    <row r="549" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -23275,7 +23273,7 @@
       <c r="AK549" s="3"/>
       <c r="AL549" s="3"/>
     </row>
-    <row r="550" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -23315,7 +23313,7 @@
       <c r="AK550" s="3"/>
       <c r="AL550" s="3"/>
     </row>
-    <row r="551" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -23355,7 +23353,7 @@
       <c r="AK551" s="3"/>
       <c r="AL551" s="3"/>
     </row>
-    <row r="552" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -23395,7 +23393,7 @@
       <c r="AK552" s="3"/>
       <c r="AL552" s="3"/>
     </row>
-    <row r="553" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -23435,7 +23433,7 @@
       <c r="AK553" s="3"/>
       <c r="AL553" s="3"/>
     </row>
-    <row r="554" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -23475,7 +23473,7 @@
       <c r="AK554" s="3"/>
       <c r="AL554" s="3"/>
     </row>
-    <row r="555" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -23515,7 +23513,7 @@
       <c r="AK555" s="3"/>
       <c r="AL555" s="3"/>
     </row>
-    <row r="556" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -23555,7 +23553,7 @@
       <c r="AK556" s="3"/>
       <c r="AL556" s="3"/>
     </row>
-    <row r="557" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -23595,7 +23593,7 @@
       <c r="AK557" s="3"/>
       <c r="AL557" s="3"/>
     </row>
-    <row r="558" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -23635,7 +23633,7 @@
       <c r="AK558" s="3"/>
       <c r="AL558" s="3"/>
     </row>
-    <row r="559" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -23675,7 +23673,7 @@
       <c r="AK559" s="3"/>
       <c r="AL559" s="3"/>
     </row>
-    <row r="560" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -23715,7 +23713,7 @@
       <c r="AK560" s="3"/>
       <c r="AL560" s="3"/>
     </row>
-    <row r="561" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -23755,7 +23753,7 @@
       <c r="AK561" s="3"/>
       <c r="AL561" s="3"/>
     </row>
-    <row r="562" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -23795,7 +23793,7 @@
       <c r="AK562" s="3"/>
       <c r="AL562" s="3"/>
     </row>
-    <row r="563" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -23835,7 +23833,7 @@
       <c r="AK563" s="3"/>
       <c r="AL563" s="3"/>
     </row>
-    <row r="564" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -23875,7 +23873,7 @@
       <c r="AK564" s="3"/>
       <c r="AL564" s="3"/>
     </row>
-    <row r="565" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -23915,7 +23913,7 @@
       <c r="AK565" s="3"/>
       <c r="AL565" s="3"/>
     </row>
-    <row r="566" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -23955,7 +23953,7 @@
       <c r="AK566" s="3"/>
       <c r="AL566" s="3"/>
     </row>
-    <row r="567" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -23995,7 +23993,7 @@
       <c r="AK567" s="3"/>
       <c r="AL567" s="3"/>
     </row>
-    <row r="568" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -24035,7 +24033,7 @@
       <c r="AK568" s="3"/>
       <c r="AL568" s="3"/>
     </row>
-    <row r="569" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -24075,7 +24073,7 @@
       <c r="AK569" s="3"/>
       <c r="AL569" s="3"/>
     </row>
-    <row r="570" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -24115,7 +24113,7 @@
       <c r="AK570" s="3"/>
       <c r="AL570" s="3"/>
     </row>
-    <row r="571" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -24155,7 +24153,7 @@
       <c r="AK571" s="3"/>
       <c r="AL571" s="3"/>
     </row>
-    <row r="572" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -24195,7 +24193,7 @@
       <c r="AK572" s="3"/>
       <c r="AL572" s="3"/>
     </row>
-    <row r="573" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -24235,7 +24233,7 @@
       <c r="AK573" s="3"/>
       <c r="AL573" s="3"/>
     </row>
-    <row r="574" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -24275,7 +24273,7 @@
       <c r="AK574" s="3"/>
       <c r="AL574" s="3"/>
     </row>
-    <row r="575" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -24315,7 +24313,7 @@
       <c r="AK575" s="3"/>
       <c r="AL575" s="3"/>
     </row>
-    <row r="576" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -24355,7 +24353,7 @@
       <c r="AK576" s="3"/>
       <c r="AL576" s="3"/>
     </row>
-    <row r="577" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -24395,7 +24393,7 @@
       <c r="AK577" s="3"/>
       <c r="AL577" s="3"/>
     </row>
-    <row r="578" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -24435,7 +24433,7 @@
       <c r="AK578" s="3"/>
       <c r="AL578" s="3"/>
     </row>
-    <row r="579" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -24475,7 +24473,7 @@
       <c r="AK579" s="3"/>
       <c r="AL579" s="3"/>
     </row>
-    <row r="580" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -24515,7 +24513,7 @@
       <c r="AK580" s="3"/>
       <c r="AL580" s="3"/>
     </row>
-    <row r="581" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -24555,7 +24553,7 @@
       <c r="AK581" s="3"/>
       <c r="AL581" s="3"/>
     </row>
-    <row r="582" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -24595,7 +24593,7 @@
       <c r="AK582" s="3"/>
       <c r="AL582" s="3"/>
     </row>
-    <row r="583" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -24635,7 +24633,7 @@
       <c r="AK583" s="3"/>
       <c r="AL583" s="3"/>
     </row>
-    <row r="584" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -24675,7 +24673,7 @@
       <c r="AK584" s="3"/>
       <c r="AL584" s="3"/>
     </row>
-    <row r="585" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -24715,7 +24713,7 @@
       <c r="AK585" s="3"/>
       <c r="AL585" s="3"/>
     </row>
-    <row r="586" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -24755,7 +24753,7 @@
       <c r="AK586" s="3"/>
       <c r="AL586" s="3"/>
     </row>
-    <row r="587" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -24795,7 +24793,7 @@
       <c r="AK587" s="3"/>
       <c r="AL587" s="3"/>
     </row>
-    <row r="588" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -24835,7 +24833,7 @@
       <c r="AK588" s="3"/>
       <c r="AL588" s="3"/>
     </row>
-    <row r="589" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -24875,7 +24873,7 @@
       <c r="AK589" s="3"/>
       <c r="AL589" s="3"/>
     </row>
-    <row r="590" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -24915,7 +24913,7 @@
       <c r="AK590" s="3"/>
       <c r="AL590" s="3"/>
     </row>
-    <row r="591" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -24955,7 +24953,7 @@
       <c r="AK591" s="3"/>
       <c r="AL591" s="3"/>
     </row>
-    <row r="592" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -24995,7 +24993,7 @@
       <c r="AK592" s="3"/>
       <c r="AL592" s="3"/>
     </row>
-    <row r="593" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -25035,7 +25033,7 @@
       <c r="AK593" s="3"/>
       <c r="AL593" s="3"/>
     </row>
-    <row r="594" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -25075,7 +25073,7 @@
       <c r="AK594" s="3"/>
       <c r="AL594" s="3"/>
     </row>
-    <row r="595" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -25115,7 +25113,7 @@
       <c r="AK595" s="3"/>
       <c r="AL595" s="3"/>
     </row>
-    <row r="596" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -25155,7 +25153,7 @@
       <c r="AK596" s="3"/>
       <c r="AL596" s="3"/>
     </row>
-    <row r="597" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -25195,7 +25193,7 @@
       <c r="AK597" s="3"/>
       <c r="AL597" s="3"/>
     </row>
-    <row r="598" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -25235,7 +25233,7 @@
       <c r="AK598" s="3"/>
       <c r="AL598" s="3"/>
     </row>
-    <row r="599" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -25275,7 +25273,7 @@
       <c r="AK599" s="3"/>
       <c r="AL599" s="3"/>
     </row>
-    <row r="600" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -25315,7 +25313,7 @@
       <c r="AK600" s="3"/>
       <c r="AL600" s="3"/>
     </row>
-    <row r="601" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -25355,7 +25353,7 @@
       <c r="AK601" s="3"/>
       <c r="AL601" s="3"/>
     </row>
-    <row r="602" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -25395,7 +25393,7 @@
       <c r="AK602" s="3"/>
       <c r="AL602" s="3"/>
     </row>
-    <row r="603" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -25435,7 +25433,7 @@
       <c r="AK603" s="3"/>
       <c r="AL603" s="3"/>
     </row>
-    <row r="604" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -25475,7 +25473,7 @@
       <c r="AK604" s="3"/>
       <c r="AL604" s="3"/>
     </row>
-    <row r="605" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -25515,7 +25513,7 @@
       <c r="AK605" s="3"/>
       <c r="AL605" s="3"/>
     </row>
-    <row r="606" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -25555,7 +25553,7 @@
       <c r="AK606" s="3"/>
       <c r="AL606" s="3"/>
     </row>
-    <row r="607" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -25595,7 +25593,7 @@
       <c r="AK607" s="3"/>
       <c r="AL607" s="3"/>
     </row>
-    <row r="608" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -25635,7 +25633,7 @@
       <c r="AK608" s="3"/>
       <c r="AL608" s="3"/>
     </row>
-    <row r="609" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -25675,7 +25673,7 @@
       <c r="AK609" s="3"/>
       <c r="AL609" s="3"/>
     </row>
-    <row r="610" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -25715,7 +25713,7 @@
       <c r="AK610" s="3"/>
       <c r="AL610" s="3"/>
     </row>
-    <row r="611" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -25755,7 +25753,7 @@
       <c r="AK611" s="3"/>
       <c r="AL611" s="3"/>
     </row>
-    <row r="612" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -25795,7 +25793,7 @@
       <c r="AK612" s="3"/>
       <c r="AL612" s="3"/>
     </row>
-    <row r="613" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -25835,7 +25833,7 @@
       <c r="AK613" s="3"/>
       <c r="AL613" s="3"/>
     </row>
-    <row r="614" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -25875,7 +25873,7 @@
       <c r="AK614" s="3"/>
       <c r="AL614" s="3"/>
     </row>
-    <row r="615" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -25915,7 +25913,7 @@
       <c r="AK615" s="3"/>
       <c r="AL615" s="3"/>
     </row>
-    <row r="616" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -25955,7 +25953,7 @@
       <c r="AK616" s="3"/>
       <c r="AL616" s="3"/>
     </row>
-    <row r="617" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -25995,7 +25993,7 @@
       <c r="AK617" s="3"/>
       <c r="AL617" s="3"/>
     </row>
-    <row r="618" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -26035,7 +26033,7 @@
       <c r="AK618" s="3"/>
       <c r="AL618" s="3"/>
     </row>
-    <row r="619" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -26075,7 +26073,7 @@
       <c r="AK619" s="3"/>
       <c r="AL619" s="3"/>
     </row>
-    <row r="620" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -26115,7 +26113,7 @@
       <c r="AK620" s="3"/>
       <c r="AL620" s="3"/>
     </row>
-    <row r="621" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -26155,7 +26153,7 @@
       <c r="AK621" s="3"/>
       <c r="AL621" s="3"/>
     </row>
-    <row r="622" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -26195,7 +26193,7 @@
       <c r="AK622" s="3"/>
       <c r="AL622" s="3"/>
     </row>
-    <row r="623" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -26235,7 +26233,7 @@
       <c r="AK623" s="3"/>
       <c r="AL623" s="3"/>
     </row>
-    <row r="624" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -26275,7 +26273,7 @@
       <c r="AK624" s="3"/>
       <c r="AL624" s="3"/>
     </row>
-    <row r="625" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -26315,7 +26313,7 @@
       <c r="AK625" s="3"/>
       <c r="AL625" s="3"/>
     </row>
-    <row r="626" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -26355,7 +26353,7 @@
       <c r="AK626" s="3"/>
       <c r="AL626" s="3"/>
     </row>
-    <row r="627" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -26395,7 +26393,7 @@
       <c r="AK627" s="3"/>
       <c r="AL627" s="3"/>
     </row>
-    <row r="628" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -26435,7 +26433,7 @@
       <c r="AK628" s="3"/>
       <c r="AL628" s="3"/>
     </row>
-    <row r="629" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -26475,7 +26473,7 @@
       <c r="AK629" s="3"/>
       <c r="AL629" s="3"/>
     </row>
-    <row r="630" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -26515,7 +26513,7 @@
       <c r="AK630" s="3"/>
       <c r="AL630" s="3"/>
     </row>
-    <row r="631" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -26555,7 +26553,7 @@
       <c r="AK631" s="3"/>
       <c r="AL631" s="3"/>
     </row>
-    <row r="632" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -26595,7 +26593,7 @@
       <c r="AK632" s="3"/>
       <c r="AL632" s="3"/>
     </row>
-    <row r="633" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -26635,7 +26633,7 @@
       <c r="AK633" s="3"/>
       <c r="AL633" s="3"/>
     </row>
-    <row r="634" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -26675,7 +26673,7 @@
       <c r="AK634" s="3"/>
       <c r="AL634" s="3"/>
     </row>
-    <row r="635" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -26715,7 +26713,7 @@
       <c r="AK635" s="3"/>
       <c r="AL635" s="3"/>
     </row>
-    <row r="636" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -26755,7 +26753,7 @@
       <c r="AK636" s="3"/>
       <c r="AL636" s="3"/>
     </row>
-    <row r="637" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -26795,7 +26793,7 @@
       <c r="AK637" s="3"/>
       <c r="AL637" s="3"/>
     </row>
-    <row r="638" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -26835,7 +26833,7 @@
       <c r="AK638" s="3"/>
       <c r="AL638" s="3"/>
     </row>
-    <row r="639" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -26875,7 +26873,7 @@
       <c r="AK639" s="3"/>
       <c r="AL639" s="3"/>
     </row>
-    <row r="640" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -26915,7 +26913,7 @@
       <c r="AK640" s="3"/>
       <c r="AL640" s="3"/>
     </row>
-    <row r="641" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -26955,7 +26953,7 @@
       <c r="AK641" s="3"/>
       <c r="AL641" s="3"/>
     </row>
-    <row r="642" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -26995,7 +26993,7 @@
       <c r="AK642" s="3"/>
       <c r="AL642" s="3"/>
     </row>
-    <row r="643" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -27035,7 +27033,7 @@
       <c r="AK643" s="3"/>
       <c r="AL643" s="3"/>
     </row>
-    <row r="644" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -27075,7 +27073,7 @@
       <c r="AK644" s="3"/>
       <c r="AL644" s="3"/>
     </row>
-    <row r="645" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -27115,7 +27113,7 @@
       <c r="AK645" s="3"/>
       <c r="AL645" s="3"/>
     </row>
-    <row r="646" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -27155,7 +27153,7 @@
       <c r="AK646" s="3"/>
       <c r="AL646" s="3"/>
     </row>
-    <row r="647" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -27195,7 +27193,7 @@
       <c r="AK647" s="3"/>
       <c r="AL647" s="3"/>
     </row>
-    <row r="648" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -27235,7 +27233,7 @@
       <c r="AK648" s="3"/>
       <c r="AL648" s="3"/>
     </row>
-    <row r="649" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -27275,7 +27273,7 @@
       <c r="AK649" s="3"/>
       <c r="AL649" s="3"/>
     </row>
-    <row r="650" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -27315,7 +27313,7 @@
       <c r="AK650" s="3"/>
       <c r="AL650" s="3"/>
     </row>
-    <row r="651" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -27355,7 +27353,7 @@
       <c r="AK651" s="3"/>
       <c r="AL651" s="3"/>
     </row>
-    <row r="652" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -27395,7 +27393,7 @@
       <c r="AK652" s="3"/>
       <c r="AL652" s="3"/>
     </row>
-    <row r="653" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -27435,7 +27433,7 @@
       <c r="AK653" s="3"/>
       <c r="AL653" s="3"/>
     </row>
-    <row r="654" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -27475,7 +27473,7 @@
       <c r="AK654" s="3"/>
       <c r="AL654" s="3"/>
     </row>
-    <row r="655" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -27515,7 +27513,7 @@
       <c r="AK655" s="3"/>
       <c r="AL655" s="3"/>
     </row>
-    <row r="656" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -27555,7 +27553,7 @@
       <c r="AK656" s="3"/>
       <c r="AL656" s="3"/>
     </row>
-    <row r="657" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -27595,7 +27593,7 @@
       <c r="AK657" s="3"/>
       <c r="AL657" s="3"/>
     </row>
-    <row r="658" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -27635,7 +27633,7 @@
       <c r="AK658" s="3"/>
       <c r="AL658" s="3"/>
     </row>
-    <row r="659" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -27675,7 +27673,7 @@
       <c r="AK659" s="3"/>
       <c r="AL659" s="3"/>
     </row>
-    <row r="660" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -27715,7 +27713,7 @@
       <c r="AK660" s="3"/>
       <c r="AL660" s="3"/>
     </row>
-    <row r="661" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -27755,7 +27753,7 @@
       <c r="AK661" s="3"/>
       <c r="AL661" s="3"/>
     </row>
-    <row r="662" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -27795,7 +27793,7 @@
       <c r="AK662" s="3"/>
       <c r="AL662" s="3"/>
     </row>
-    <row r="663" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -27835,7 +27833,7 @@
       <c r="AK663" s="3"/>
       <c r="AL663" s="3"/>
     </row>
-    <row r="664" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -27875,7 +27873,7 @@
       <c r="AK664" s="3"/>
       <c r="AL664" s="3"/>
     </row>
-    <row r="665" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -27915,7 +27913,7 @@
       <c r="AK665" s="3"/>
       <c r="AL665" s="3"/>
     </row>
-    <row r="666" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -27955,7 +27953,7 @@
       <c r="AK666" s="3"/>
       <c r="AL666" s="3"/>
     </row>
-    <row r="667" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -27995,7 +27993,7 @@
       <c r="AK667" s="3"/>
       <c r="AL667" s="3"/>
     </row>
-    <row r="668" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -28035,7 +28033,7 @@
       <c r="AK668" s="3"/>
       <c r="AL668" s="3"/>
     </row>
-    <row r="669" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -28075,7 +28073,7 @@
       <c r="AK669" s="3"/>
       <c r="AL669" s="3"/>
     </row>
-    <row r="670" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -28115,7 +28113,7 @@
       <c r="AK670" s="3"/>
       <c r="AL670" s="3"/>
     </row>
-    <row r="671" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -28155,7 +28153,7 @@
       <c r="AK671" s="3"/>
       <c r="AL671" s="3"/>
     </row>
-    <row r="672" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -28195,7 +28193,7 @@
       <c r="AK672" s="3"/>
       <c r="AL672" s="3"/>
     </row>
-    <row r="673" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -28235,7 +28233,7 @@
       <c r="AK673" s="3"/>
       <c r="AL673" s="3"/>
     </row>
-    <row r="674" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -28275,7 +28273,7 @@
       <c r="AK674" s="3"/>
       <c r="AL674" s="3"/>
     </row>
-    <row r="675" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -28315,7 +28313,7 @@
       <c r="AK675" s="3"/>
       <c r="AL675" s="3"/>
     </row>
-    <row r="676" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -28355,7 +28353,7 @@
       <c r="AK676" s="3"/>
       <c r="AL676" s="3"/>
     </row>
-    <row r="677" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -28395,7 +28393,7 @@
       <c r="AK677" s="3"/>
       <c r="AL677" s="3"/>
     </row>
-    <row r="678" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -28435,7 +28433,7 @@
       <c r="AK678" s="3"/>
       <c r="AL678" s="3"/>
     </row>
-    <row r="679" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -28475,7 +28473,7 @@
       <c r="AK679" s="3"/>
       <c r="AL679" s="3"/>
     </row>
-    <row r="680" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -28515,7 +28513,7 @@
       <c r="AK680" s="3"/>
       <c r="AL680" s="3"/>
     </row>
-    <row r="681" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -28555,7 +28553,7 @@
       <c r="AK681" s="3"/>
       <c r="AL681" s="3"/>
     </row>
-    <row r="682" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -28595,7 +28593,7 @@
       <c r="AK682" s="3"/>
       <c r="AL682" s="3"/>
     </row>
-    <row r="683" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -28635,7 +28633,7 @@
       <c r="AK683" s="3"/>
       <c r="AL683" s="3"/>
     </row>
-    <row r="684" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -28675,7 +28673,7 @@
       <c r="AK684" s="3"/>
       <c r="AL684" s="3"/>
     </row>
-    <row r="685" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -28715,7 +28713,7 @@
       <c r="AK685" s="3"/>
       <c r="AL685" s="3"/>
     </row>
-    <row r="686" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -28755,7 +28753,7 @@
       <c r="AK686" s="3"/>
       <c r="AL686" s="3"/>
     </row>
-    <row r="687" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -28795,7 +28793,7 @@
       <c r="AK687" s="3"/>
       <c r="AL687" s="3"/>
     </row>
-    <row r="688" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -28835,7 +28833,7 @@
       <c r="AK688" s="3"/>
       <c r="AL688" s="3"/>
     </row>
-    <row r="689" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -28875,7 +28873,7 @@
       <c r="AK689" s="3"/>
       <c r="AL689" s="3"/>
     </row>
-    <row r="690" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -28915,7 +28913,7 @@
       <c r="AK690" s="3"/>
       <c r="AL690" s="3"/>
     </row>
-    <row r="691" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -28955,7 +28953,7 @@
       <c r="AK691" s="3"/>
       <c r="AL691" s="3"/>
     </row>
-    <row r="692" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -28995,7 +28993,7 @@
       <c r="AK692" s="3"/>
       <c r="AL692" s="3"/>
     </row>
-    <row r="693" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -29035,7 +29033,7 @@
       <c r="AK693" s="3"/>
       <c r="AL693" s="3"/>
     </row>
-    <row r="694" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -29075,7 +29073,7 @@
       <c r="AK694" s="3"/>
       <c r="AL694" s="3"/>
     </row>
-    <row r="695" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -29115,7 +29113,7 @@
       <c r="AK695" s="3"/>
       <c r="AL695" s="3"/>
     </row>
-    <row r="696" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -29155,7 +29153,7 @@
       <c r="AK696" s="3"/>
       <c r="AL696" s="3"/>
     </row>
-    <row r="697" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -29195,7 +29193,7 @@
       <c r="AK697" s="3"/>
       <c r="AL697" s="3"/>
     </row>
-    <row r="698" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -29235,7 +29233,7 @@
       <c r="AK698" s="3"/>
       <c r="AL698" s="3"/>
     </row>
-    <row r="699" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -29275,7 +29273,7 @@
       <c r="AK699" s="3"/>
       <c r="AL699" s="3"/>
     </row>
-    <row r="700" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -29315,7 +29313,7 @@
       <c r="AK700" s="3"/>
       <c r="AL700" s="3"/>
     </row>
-    <row r="701" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -29355,7 +29353,7 @@
       <c r="AK701" s="3"/>
       <c r="AL701" s="3"/>
     </row>
-    <row r="702" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -29395,7 +29393,7 @@
       <c r="AK702" s="3"/>
       <c r="AL702" s="3"/>
     </row>
-    <row r="703" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -29435,7 +29433,7 @@
       <c r="AK703" s="3"/>
       <c r="AL703" s="3"/>
     </row>
-    <row r="704" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -29475,7 +29473,7 @@
       <c r="AK704" s="3"/>
       <c r="AL704" s="3"/>
     </row>
-    <row r="705" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -29515,7 +29513,7 @@
       <c r="AK705" s="3"/>
       <c r="AL705" s="3"/>
     </row>
-    <row r="706" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -29555,7 +29553,7 @@
       <c r="AK706" s="3"/>
       <c r="AL706" s="3"/>
     </row>
-    <row r="707" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -29595,7 +29593,7 @@
       <c r="AK707" s="3"/>
       <c r="AL707" s="3"/>
     </row>
-    <row r="708" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -29635,7 +29633,7 @@
       <c r="AK708" s="3"/>
       <c r="AL708" s="3"/>
     </row>
-    <row r="709" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -29675,7 +29673,7 @@
       <c r="AK709" s="3"/>
       <c r="AL709" s="3"/>
     </row>
-    <row r="710" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -29715,7 +29713,7 @@
       <c r="AK710" s="3"/>
       <c r="AL710" s="3"/>
     </row>
-    <row r="711" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -29755,7 +29753,7 @@
       <c r="AK711" s="3"/>
       <c r="AL711" s="3"/>
     </row>
-    <row r="712" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -29795,7 +29793,7 @@
       <c r="AK712" s="3"/>
       <c r="AL712" s="3"/>
     </row>
-    <row r="713" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -29835,7 +29833,7 @@
       <c r="AK713" s="3"/>
       <c r="AL713" s="3"/>
     </row>
-    <row r="714" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -29875,7 +29873,7 @@
       <c r="AK714" s="3"/>
       <c r="AL714" s="3"/>
     </row>
-    <row r="715" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -29915,7 +29913,7 @@
       <c r="AK715" s="3"/>
       <c r="AL715" s="3"/>
     </row>
-    <row r="716" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -29955,7 +29953,7 @@
       <c r="AK716" s="3"/>
       <c r="AL716" s="3"/>
     </row>
-    <row r="717" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -29995,7 +29993,7 @@
       <c r="AK717" s="3"/>
       <c r="AL717" s="3"/>
     </row>
-    <row r="718" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -30035,7 +30033,7 @@
       <c r="AK718" s="3"/>
       <c r="AL718" s="3"/>
     </row>
-    <row r="719" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -30075,7 +30073,7 @@
       <c r="AK719" s="3"/>
       <c r="AL719" s="3"/>
     </row>
-    <row r="720" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -30115,7 +30113,7 @@
       <c r="AK720" s="3"/>
       <c r="AL720" s="3"/>
     </row>
-    <row r="721" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -30155,7 +30153,7 @@
       <c r="AK721" s="3"/>
       <c r="AL721" s="3"/>
     </row>
-    <row r="722" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -30195,7 +30193,7 @@
       <c r="AK722" s="3"/>
       <c r="AL722" s="3"/>
     </row>
-    <row r="723" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -30235,7 +30233,7 @@
       <c r="AK723" s="3"/>
       <c r="AL723" s="3"/>
     </row>
-    <row r="724" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -30275,7 +30273,7 @@
       <c r="AK724" s="3"/>
       <c r="AL724" s="3"/>
     </row>
-    <row r="725" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -30315,7 +30313,7 @@
       <c r="AK725" s="3"/>
       <c r="AL725" s="3"/>
     </row>
-    <row r="726" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -30355,7 +30353,7 @@
       <c r="AK726" s="3"/>
       <c r="AL726" s="3"/>
     </row>
-    <row r="727" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -30395,7 +30393,7 @@
       <c r="AK727" s="3"/>
       <c r="AL727" s="3"/>
     </row>
-    <row r="728" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -30435,7 +30433,7 @@
       <c r="AK728" s="3"/>
       <c r="AL728" s="3"/>
     </row>
-    <row r="729" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -30475,7 +30473,7 @@
       <c r="AK729" s="3"/>
       <c r="AL729" s="3"/>
     </row>
-    <row r="730" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -30515,7 +30513,7 @@
       <c r="AK730" s="3"/>
       <c r="AL730" s="3"/>
     </row>
-    <row r="731" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -30555,7 +30553,7 @@
       <c r="AK731" s="3"/>
       <c r="AL731" s="3"/>
     </row>
-    <row r="732" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -30595,7 +30593,7 @@
       <c r="AK732" s="3"/>
       <c r="AL732" s="3"/>
     </row>
-    <row r="733" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -30635,7 +30633,7 @@
       <c r="AK733" s="3"/>
       <c r="AL733" s="3"/>
     </row>
-    <row r="734" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -30675,7 +30673,7 @@
       <c r="AK734" s="3"/>
       <c r="AL734" s="3"/>
     </row>
-    <row r="735" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -30715,7 +30713,7 @@
       <c r="AK735" s="3"/>
       <c r="AL735" s="3"/>
     </row>
-    <row r="736" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -30755,7 +30753,7 @@
       <c r="AK736" s="3"/>
       <c r="AL736" s="3"/>
     </row>
-    <row r="737" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -30795,7 +30793,7 @@
       <c r="AK737" s="3"/>
       <c r="AL737" s="3"/>
     </row>
-    <row r="738" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -30835,7 +30833,7 @@
       <c r="AK738" s="3"/>
       <c r="AL738" s="3"/>
     </row>
-    <row r="739" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -30875,7 +30873,7 @@
       <c r="AK739" s="3"/>
       <c r="AL739" s="3"/>
     </row>
-    <row r="740" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -30915,7 +30913,7 @@
       <c r="AK740" s="3"/>
       <c r="AL740" s="3"/>
     </row>
-    <row r="741" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -30955,7 +30953,7 @@
       <c r="AK741" s="3"/>
       <c r="AL741" s="3"/>
     </row>
-    <row r="742" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -30995,7 +30993,7 @@
       <c r="AK742" s="3"/>
       <c r="AL742" s="3"/>
     </row>
-    <row r="743" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -31035,7 +31033,7 @@
       <c r="AK743" s="3"/>
       <c r="AL743" s="3"/>
     </row>
-    <row r="744" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -31075,7 +31073,7 @@
       <c r="AK744" s="3"/>
       <c r="AL744" s="3"/>
     </row>
-    <row r="745" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -31115,7 +31113,7 @@
       <c r="AK745" s="3"/>
       <c r="AL745" s="3"/>
     </row>
-    <row r="746" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -31155,7 +31153,7 @@
       <c r="AK746" s="3"/>
       <c r="AL746" s="3"/>
     </row>
-    <row r="747" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -31195,7 +31193,7 @@
       <c r="AK747" s="3"/>
       <c r="AL747" s="3"/>
     </row>
-    <row r="748" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -31235,7 +31233,7 @@
       <c r="AK748" s="3"/>
       <c r="AL748" s="3"/>
     </row>
-    <row r="749" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -31275,7 +31273,7 @@
       <c r="AK749" s="3"/>
       <c r="AL749" s="3"/>
     </row>
-    <row r="750" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -31315,7 +31313,7 @@
       <c r="AK750" s="3"/>
       <c r="AL750" s="3"/>
     </row>
-    <row r="751" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -31355,7 +31353,7 @@
       <c r="AK751" s="3"/>
       <c r="AL751" s="3"/>
     </row>
-    <row r="752" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -31395,7 +31393,7 @@
       <c r="AK752" s="3"/>
       <c r="AL752" s="3"/>
     </row>
-    <row r="753" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -31435,7 +31433,7 @@
       <c r="AK753" s="3"/>
       <c r="AL753" s="3"/>
     </row>
-    <row r="754" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -31475,7 +31473,7 @@
       <c r="AK754" s="3"/>
       <c r="AL754" s="3"/>
     </row>
-    <row r="755" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -31515,7 +31513,7 @@
       <c r="AK755" s="3"/>
       <c r="AL755" s="3"/>
     </row>
-    <row r="756" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -31555,7 +31553,7 @@
       <c r="AK756" s="3"/>
       <c r="AL756" s="3"/>
     </row>
-    <row r="757" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -31595,7 +31593,7 @@
       <c r="AK757" s="3"/>
       <c r="AL757" s="3"/>
     </row>
-    <row r="758" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -31635,7 +31633,7 @@
       <c r="AK758" s="3"/>
       <c r="AL758" s="3"/>
     </row>
-    <row r="759" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -31675,7 +31673,7 @@
       <c r="AK759" s="3"/>
       <c r="AL759" s="3"/>
     </row>
-    <row r="760" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -31715,7 +31713,7 @@
       <c r="AK760" s="3"/>
       <c r="AL760" s="3"/>
     </row>
-    <row r="761" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -31755,7 +31753,7 @@
       <c r="AK761" s="3"/>
       <c r="AL761" s="3"/>
     </row>
-    <row r="762" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -31795,7 +31793,7 @@
       <c r="AK762" s="3"/>
       <c r="AL762" s="3"/>
     </row>
-    <row r="763" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -31835,7 +31833,7 @@
       <c r="AK763" s="3"/>
       <c r="AL763" s="3"/>
     </row>
-    <row r="764" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -31875,7 +31873,7 @@
       <c r="AK764" s="3"/>
       <c r="AL764" s="3"/>
     </row>
-    <row r="765" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -31915,7 +31913,7 @@
       <c r="AK765" s="3"/>
       <c r="AL765" s="3"/>
     </row>
-    <row r="766" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -31955,7 +31953,7 @@
       <c r="AK766" s="3"/>
       <c r="AL766" s="3"/>
     </row>
-    <row r="767" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -31995,7 +31993,7 @@
       <c r="AK767" s="3"/>
       <c r="AL767" s="3"/>
     </row>
-    <row r="768" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -32035,7 +32033,7 @@
       <c r="AK768" s="3"/>
       <c r="AL768" s="3"/>
     </row>
-    <row r="769" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -32075,7 +32073,7 @@
       <c r="AK769" s="3"/>
       <c r="AL769" s="3"/>
     </row>
-    <row r="770" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -32115,7 +32113,7 @@
       <c r="AK770" s="3"/>
       <c r="AL770" s="3"/>
     </row>
-    <row r="771" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -32155,7 +32153,7 @@
       <c r="AK771" s="3"/>
       <c r="AL771" s="3"/>
     </row>
-    <row r="772" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -32195,7 +32193,7 @@
       <c r="AK772" s="3"/>
       <c r="AL772" s="3"/>
     </row>
-    <row r="773" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -32235,7 +32233,7 @@
       <c r="AK773" s="3"/>
       <c r="AL773" s="3"/>
     </row>
-    <row r="774" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -32275,7 +32273,7 @@
       <c r="AK774" s="3"/>
       <c r="AL774" s="3"/>
     </row>
-    <row r="775" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -32315,7 +32313,7 @@
       <c r="AK775" s="3"/>
       <c r="AL775" s="3"/>
     </row>
-    <row r="776" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -32355,7 +32353,7 @@
       <c r="AK776" s="3"/>
       <c r="AL776" s="3"/>
     </row>
-    <row r="777" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -32395,7 +32393,7 @@
       <c r="AK777" s="3"/>
       <c r="AL777" s="3"/>
     </row>
-    <row r="778" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -32435,7 +32433,7 @@
       <c r="AK778" s="3"/>
       <c r="AL778" s="3"/>
     </row>
-    <row r="779" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -32475,7 +32473,7 @@
       <c r="AK779" s="3"/>
       <c r="AL779" s="3"/>
     </row>
-    <row r="780" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -32515,7 +32513,7 @@
       <c r="AK780" s="3"/>
       <c r="AL780" s="3"/>
     </row>
-    <row r="781" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -32555,7 +32553,7 @@
       <c r="AK781" s="3"/>
       <c r="AL781" s="3"/>
     </row>
-    <row r="782" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -32595,7 +32593,7 @@
       <c r="AK782" s="3"/>
       <c r="AL782" s="3"/>
     </row>
-    <row r="783" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -32635,7 +32633,7 @@
       <c r="AK783" s="3"/>
       <c r="AL783" s="3"/>
     </row>
-    <row r="784" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -32675,7 +32673,7 @@
       <c r="AK784" s="3"/>
       <c r="AL784" s="3"/>
     </row>
-    <row r="785" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -32715,7 +32713,7 @@
       <c r="AK785" s="3"/>
       <c r="AL785" s="3"/>
     </row>
-    <row r="786" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -32755,7 +32753,7 @@
       <c r="AK786" s="3"/>
       <c r="AL786" s="3"/>
     </row>
-    <row r="787" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -32795,7 +32793,7 @@
       <c r="AK787" s="3"/>
       <c r="AL787" s="3"/>
     </row>
-    <row r="788" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -32835,7 +32833,7 @@
       <c r="AK788" s="3"/>
       <c r="AL788" s="3"/>
     </row>
-    <row r="789" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -32875,7 +32873,7 @@
       <c r="AK789" s="3"/>
       <c r="AL789" s="3"/>
     </row>
-    <row r="790" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -32915,7 +32913,7 @@
       <c r="AK790" s="3"/>
       <c r="AL790" s="3"/>
     </row>
-    <row r="791" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -32955,7 +32953,7 @@
       <c r="AK791" s="3"/>
       <c r="AL791" s="3"/>
     </row>
-    <row r="792" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -32995,7 +32993,7 @@
       <c r="AK792" s="3"/>
       <c r="AL792" s="3"/>
     </row>
-    <row r="793" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -33035,7 +33033,7 @@
       <c r="AK793" s="3"/>
       <c r="AL793" s="3"/>
     </row>
-    <row r="794" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -33075,7 +33073,7 @@
       <c r="AK794" s="3"/>
       <c r="AL794" s="3"/>
     </row>
-    <row r="795" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -33115,7 +33113,7 @@
       <c r="AK795" s="3"/>
       <c r="AL795" s="3"/>
     </row>
-    <row r="796" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -33155,7 +33153,7 @@
       <c r="AK796" s="3"/>
       <c r="AL796" s="3"/>
     </row>
-    <row r="797" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -33195,7 +33193,7 @@
       <c r="AK797" s="3"/>
       <c r="AL797" s="3"/>
     </row>
-    <row r="798" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -33235,7 +33233,7 @@
       <c r="AK798" s="3"/>
       <c r="AL798" s="3"/>
     </row>
-    <row r="799" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -33275,7 +33273,7 @@
       <c r="AK799" s="3"/>
       <c r="AL799" s="3"/>
     </row>
-    <row r="800" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -33315,7 +33313,7 @@
       <c r="AK800" s="3"/>
       <c r="AL800" s="3"/>
     </row>
-    <row r="801" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -33355,7 +33353,7 @@
       <c r="AK801" s="3"/>
       <c r="AL801" s="3"/>
     </row>
-    <row r="802" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -33395,7 +33393,7 @@
       <c r="AK802" s="3"/>
       <c r="AL802" s="3"/>
     </row>
-    <row r="803" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -33435,7 +33433,7 @@
       <c r="AK803" s="3"/>
       <c r="AL803" s="3"/>
     </row>
-    <row r="804" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -33475,7 +33473,7 @@
       <c r="AK804" s="3"/>
       <c r="AL804" s="3"/>
     </row>
-    <row r="805" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -33515,7 +33513,7 @@
       <c r="AK805" s="3"/>
       <c r="AL805" s="3"/>
     </row>
-    <row r="806" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -33555,7 +33553,7 @@
       <c r="AK806" s="3"/>
       <c r="AL806" s="3"/>
     </row>
-    <row r="807" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -33595,7 +33593,7 @@
       <c r="AK807" s="3"/>
       <c r="AL807" s="3"/>
     </row>
-    <row r="808" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -33635,7 +33633,7 @@
       <c r="AK808" s="3"/>
       <c r="AL808" s="3"/>
     </row>
-    <row r="809" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -33675,7 +33673,7 @@
       <c r="AK809" s="3"/>
       <c r="AL809" s="3"/>
     </row>
-    <row r="810" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -33715,7 +33713,7 @@
       <c r="AK810" s="3"/>
       <c r="AL810" s="3"/>
     </row>
-    <row r="811" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -33755,7 +33753,7 @@
       <c r="AK811" s="3"/>
       <c r="AL811" s="3"/>
     </row>
-    <row r="812" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -33795,7 +33793,7 @@
       <c r="AK812" s="3"/>
       <c r="AL812" s="3"/>
     </row>
-    <row r="813" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -33835,7 +33833,7 @@
       <c r="AK813" s="3"/>
       <c r="AL813" s="3"/>
     </row>
-    <row r="814" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -33875,7 +33873,7 @@
       <c r="AK814" s="3"/>
       <c r="AL814" s="3"/>
     </row>
-    <row r="815" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -33915,7 +33913,7 @@
       <c r="AK815" s="3"/>
       <c r="AL815" s="3"/>
     </row>
-    <row r="816" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -33955,7 +33953,7 @@
       <c r="AK816" s="3"/>
       <c r="AL816" s="3"/>
     </row>
-    <row r="817" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -33995,7 +33993,7 @@
       <c r="AK817" s="3"/>
       <c r="AL817" s="3"/>
     </row>
-    <row r="818" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -34035,7 +34033,7 @@
       <c r="AK818" s="3"/>
       <c r="AL818" s="3"/>
     </row>
-    <row r="819" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -34075,7 +34073,7 @@
       <c r="AK819" s="3"/>
       <c r="AL819" s="3"/>
     </row>
-    <row r="820" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -34115,7 +34113,7 @@
       <c r="AK820" s="3"/>
       <c r="AL820" s="3"/>
     </row>
-    <row r="821" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -34155,7 +34153,7 @@
       <c r="AK821" s="3"/>
       <c r="AL821" s="3"/>
     </row>
-    <row r="822" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -34195,7 +34193,7 @@
       <c r="AK822" s="3"/>
       <c r="AL822" s="3"/>
     </row>
-    <row r="823" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -34235,7 +34233,7 @@
       <c r="AK823" s="3"/>
       <c r="AL823" s="3"/>
     </row>
-    <row r="824" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -34275,7 +34273,7 @@
       <c r="AK824" s="3"/>
       <c r="AL824" s="3"/>
     </row>
-    <row r="825" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -34315,7 +34313,7 @@
       <c r="AK825" s="3"/>
       <c r="AL825" s="3"/>
     </row>
-    <row r="826" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -34355,7 +34353,7 @@
       <c r="AK826" s="3"/>
       <c r="AL826" s="3"/>
     </row>
-    <row r="827" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -34395,7 +34393,7 @@
       <c r="AK827" s="3"/>
       <c r="AL827" s="3"/>
     </row>
-    <row r="828" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -34435,7 +34433,7 @@
       <c r="AK828" s="3"/>
       <c r="AL828" s="3"/>
     </row>
-    <row r="829" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -34475,7 +34473,7 @@
       <c r="AK829" s="3"/>
       <c r="AL829" s="3"/>
     </row>
-    <row r="830" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -34515,7 +34513,7 @@
       <c r="AK830" s="3"/>
       <c r="AL830" s="3"/>
     </row>
-    <row r="831" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -34555,7 +34553,7 @@
       <c r="AK831" s="3"/>
       <c r="AL831" s="3"/>
     </row>
-    <row r="832" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -34595,7 +34593,7 @@
       <c r="AK832" s="3"/>
       <c r="AL832" s="3"/>
     </row>
-    <row r="833" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -34635,7 +34633,7 @@
       <c r="AK833" s="3"/>
       <c r="AL833" s="3"/>
     </row>
-    <row r="834" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -34675,7 +34673,7 @@
       <c r="AK834" s="3"/>
       <c r="AL834" s="3"/>
     </row>
-    <row r="835" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -34715,7 +34713,7 @@
       <c r="AK835" s="3"/>
       <c r="AL835" s="3"/>
     </row>
-    <row r="836" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -34755,7 +34753,7 @@
       <c r="AK836" s="3"/>
       <c r="AL836" s="3"/>
     </row>
-    <row r="837" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -34795,7 +34793,7 @@
       <c r="AK837" s="3"/>
       <c r="AL837" s="3"/>
     </row>
-    <row r="838" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -34835,7 +34833,7 @@
       <c r="AK838" s="3"/>
       <c r="AL838" s="3"/>
     </row>
-    <row r="839" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -34875,7 +34873,7 @@
       <c r="AK839" s="3"/>
       <c r="AL839" s="3"/>
     </row>
-    <row r="840" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -34915,7 +34913,7 @@
       <c r="AK840" s="3"/>
       <c r="AL840" s="3"/>
     </row>
-    <row r="841" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -34955,7 +34953,7 @@
       <c r="AK841" s="3"/>
       <c r="AL841" s="3"/>
     </row>
-    <row r="842" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -34995,7 +34993,7 @@
       <c r="AK842" s="3"/>
       <c r="AL842" s="3"/>
     </row>
-    <row r="843" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -35035,7 +35033,7 @@
       <c r="AK843" s="3"/>
       <c r="AL843" s="3"/>
     </row>
-    <row r="844" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -35075,7 +35073,7 @@
       <c r="AK844" s="3"/>
       <c r="AL844" s="3"/>
     </row>
-    <row r="845" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -35115,7 +35113,7 @@
       <c r="AK845" s="3"/>
       <c r="AL845" s="3"/>
     </row>
-    <row r="846" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -35155,7 +35153,7 @@
       <c r="AK846" s="3"/>
       <c r="AL846" s="3"/>
     </row>
-    <row r="847" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -35195,7 +35193,7 @@
       <c r="AK847" s="3"/>
       <c r="AL847" s="3"/>
     </row>
-    <row r="848" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -35235,7 +35233,7 @@
       <c r="AK848" s="3"/>
       <c r="AL848" s="3"/>
     </row>
-    <row r="849" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -35275,7 +35273,7 @@
       <c r="AK849" s="3"/>
       <c r="AL849" s="3"/>
     </row>
-    <row r="850" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -35315,7 +35313,7 @@
       <c r="AK850" s="3"/>
       <c r="AL850" s="3"/>
     </row>
-    <row r="851" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -35355,7 +35353,7 @@
       <c r="AK851" s="3"/>
       <c r="AL851" s="3"/>
     </row>
-    <row r="852" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -35395,7 +35393,7 @@
       <c r="AK852" s="3"/>
       <c r="AL852" s="3"/>
     </row>
-    <row r="853" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -35435,7 +35433,7 @@
       <c r="AK853" s="3"/>
       <c r="AL853" s="3"/>
     </row>
-    <row r="854" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -35475,7 +35473,7 @@
       <c r="AK854" s="3"/>
       <c r="AL854" s="3"/>
     </row>
-    <row r="855" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -35515,7 +35513,7 @@
       <c r="AK855" s="3"/>
       <c r="AL855" s="3"/>
     </row>
-    <row r="856" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -35555,7 +35553,7 @@
       <c r="AK856" s="3"/>
       <c r="AL856" s="3"/>
     </row>
-    <row r="857" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -35595,7 +35593,7 @@
       <c r="AK857" s="3"/>
       <c r="AL857" s="3"/>
     </row>
-    <row r="858" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -35635,7 +35633,7 @@
       <c r="AK858" s="3"/>
       <c r="AL858" s="3"/>
     </row>
-    <row r="859" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -35675,7 +35673,7 @@
       <c r="AK859" s="3"/>
       <c r="AL859" s="3"/>
     </row>
-    <row r="860" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -35715,7 +35713,7 @@
       <c r="AK860" s="3"/>
       <c r="AL860" s="3"/>
     </row>
-    <row r="861" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -35755,7 +35753,7 @@
       <c r="AK861" s="3"/>
       <c r="AL861" s="3"/>
     </row>
-    <row r="862" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -35795,7 +35793,7 @@
       <c r="AK862" s="3"/>
       <c r="AL862" s="3"/>
     </row>
-    <row r="863" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -35835,7 +35833,7 @@
       <c r="AK863" s="3"/>
       <c r="AL863" s="3"/>
     </row>
-    <row r="864" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -35875,7 +35873,7 @@
       <c r="AK864" s="3"/>
       <c r="AL864" s="3"/>
     </row>
-    <row r="865" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -35915,7 +35913,7 @@
       <c r="AK865" s="3"/>
       <c r="AL865" s="3"/>
     </row>
-    <row r="866" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -35955,7 +35953,7 @@
       <c r="AK866" s="3"/>
       <c r="AL866" s="3"/>
     </row>
-    <row r="867" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -35995,7 +35993,7 @@
       <c r="AK867" s="3"/>
       <c r="AL867" s="3"/>
     </row>
-    <row r="868" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -36035,7 +36033,7 @@
       <c r="AK868" s="3"/>
       <c r="AL868" s="3"/>
     </row>
-    <row r="869" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -36075,7 +36073,7 @@
       <c r="AK869" s="3"/>
       <c r="AL869" s="3"/>
     </row>
-    <row r="870" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -36115,7 +36113,7 @@
       <c r="AK870" s="3"/>
       <c r="AL870" s="3"/>
     </row>
-    <row r="871" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -36155,7 +36153,7 @@
       <c r="AK871" s="3"/>
       <c r="AL871" s="3"/>
     </row>
-    <row r="872" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -36195,7 +36193,7 @@
       <c r="AK872" s="3"/>
       <c r="AL872" s="3"/>
     </row>
-    <row r="873" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -36235,7 +36233,7 @@
       <c r="AK873" s="3"/>
       <c r="AL873" s="3"/>
     </row>
-    <row r="874" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -36275,7 +36273,7 @@
       <c r="AK874" s="3"/>
       <c r="AL874" s="3"/>
     </row>
-    <row r="875" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -36315,7 +36313,7 @@
       <c r="AK875" s="3"/>
       <c r="AL875" s="3"/>
     </row>
-    <row r="876" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -36355,7 +36353,7 @@
       <c r="AK876" s="3"/>
       <c r="AL876" s="3"/>
     </row>
-    <row r="877" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -36395,7 +36393,7 @@
       <c r="AK877" s="3"/>
       <c r="AL877" s="3"/>
     </row>
-    <row r="878" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -36435,7 +36433,7 @@
       <c r="AK878" s="3"/>
       <c r="AL878" s="3"/>
     </row>
-    <row r="879" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -36475,7 +36473,7 @@
       <c r="AK879" s="3"/>
       <c r="AL879" s="3"/>
     </row>
-    <row r="880" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -36515,7 +36513,7 @@
       <c r="AK880" s="3"/>
       <c r="AL880" s="3"/>
     </row>
-    <row r="881" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -36555,7 +36553,7 @@
       <c r="AK881" s="3"/>
       <c r="AL881" s="3"/>
     </row>
-    <row r="882" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -36595,7 +36593,7 @@
       <c r="AK882" s="3"/>
       <c r="AL882" s="3"/>
     </row>
-    <row r="883" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -36635,7 +36633,7 @@
       <c r="AK883" s="3"/>
       <c r="AL883" s="3"/>
     </row>
-    <row r="884" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -36675,7 +36673,7 @@
       <c r="AK884" s="3"/>
       <c r="AL884" s="3"/>
     </row>
-    <row r="885" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -36715,7 +36713,7 @@
       <c r="AK885" s="3"/>
       <c r="AL885" s="3"/>
     </row>
-    <row r="886" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -36755,7 +36753,7 @@
       <c r="AK886" s="3"/>
       <c r="AL886" s="3"/>
     </row>
-    <row r="887" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -36795,7 +36793,7 @@
       <c r="AK887" s="3"/>
       <c r="AL887" s="3"/>
     </row>
-    <row r="888" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -36835,7 +36833,7 @@
       <c r="AK888" s="3"/>
       <c r="AL888" s="3"/>
     </row>
-    <row r="889" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -36875,7 +36873,7 @@
       <c r="AK889" s="3"/>
       <c r="AL889" s="3"/>
     </row>
-    <row r="890" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -36915,7 +36913,7 @@
       <c r="AK890" s="3"/>
       <c r="AL890" s="3"/>
     </row>
-    <row r="891" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -36955,7 +36953,7 @@
       <c r="AK891" s="3"/>
       <c r="AL891" s="3"/>
     </row>
-    <row r="892" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -36995,7 +36993,7 @@
       <c r="AK892" s="3"/>
       <c r="AL892" s="3"/>
     </row>
-    <row r="893" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -37035,7 +37033,7 @@
       <c r="AK893" s="3"/>
       <c r="AL893" s="3"/>
     </row>
-    <row r="894" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -37075,7 +37073,7 @@
       <c r="AK894" s="3"/>
       <c r="AL894" s="3"/>
     </row>
-    <row r="895" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -37115,7 +37113,7 @@
       <c r="AK895" s="3"/>
       <c r="AL895" s="3"/>
     </row>
-    <row r="896" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -37155,7 +37153,7 @@
       <c r="AK896" s="3"/>
       <c r="AL896" s="3"/>
     </row>
-    <row r="897" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -37195,7 +37193,7 @@
       <c r="AK897" s="3"/>
       <c r="AL897" s="3"/>
     </row>
-    <row r="898" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -37235,7 +37233,7 @@
       <c r="AK898" s="3"/>
       <c r="AL898" s="3"/>
     </row>
-    <row r="899" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -37275,7 +37273,7 @@
       <c r="AK899" s="3"/>
       <c r="AL899" s="3"/>
     </row>
-    <row r="900" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -37315,7 +37313,7 @@
       <c r="AK900" s="3"/>
       <c r="AL900" s="3"/>
     </row>
-    <row r="901" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -37355,7 +37353,7 @@
       <c r="AK901" s="3"/>
       <c r="AL901" s="3"/>
     </row>
-    <row r="902" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -37395,7 +37393,7 @@
       <c r="AK902" s="3"/>
       <c r="AL902" s="3"/>
     </row>
-    <row r="903" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -37435,7 +37433,7 @@
       <c r="AK903" s="3"/>
       <c r="AL903" s="3"/>
     </row>
-    <row r="904" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -37475,7 +37473,7 @@
       <c r="AK904" s="3"/>
       <c r="AL904" s="3"/>
     </row>
-    <row r="905" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -37515,7 +37513,7 @@
       <c r="AK905" s="3"/>
       <c r="AL905" s="3"/>
     </row>
-    <row r="906" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -37555,7 +37553,7 @@
       <c r="AK906" s="3"/>
       <c r="AL906" s="3"/>
     </row>
-    <row r="907" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -37595,7 +37593,7 @@
       <c r="AK907" s="3"/>
       <c r="AL907" s="3"/>
     </row>
-    <row r="908" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -37635,7 +37633,7 @@
       <c r="AK908" s="3"/>
       <c r="AL908" s="3"/>
     </row>
-    <row r="909" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -37675,7 +37673,7 @@
       <c r="AK909" s="3"/>
       <c r="AL909" s="3"/>
     </row>
-    <row r="910" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -37715,7 +37713,7 @@
       <c r="AK910" s="3"/>
       <c r="AL910" s="3"/>
     </row>
-    <row r="911" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -37755,7 +37753,7 @@
       <c r="AK911" s="3"/>
       <c r="AL911" s="3"/>
     </row>
-    <row r="912" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -37795,7 +37793,7 @@
       <c r="AK912" s="3"/>
       <c r="AL912" s="3"/>
     </row>
-    <row r="913" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -37835,7 +37833,7 @@
       <c r="AK913" s="3"/>
       <c r="AL913" s="3"/>
     </row>
-    <row r="914" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -37875,7 +37873,7 @@
       <c r="AK914" s="3"/>
       <c r="AL914" s="3"/>
     </row>
-    <row r="915" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -37915,7 +37913,7 @@
       <c r="AK915" s="3"/>
       <c r="AL915" s="3"/>
     </row>
-    <row r="916" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -37955,7 +37953,7 @@
       <c r="AK916" s="3"/>
       <c r="AL916" s="3"/>
     </row>
-    <row r="917" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -37995,7 +37993,7 @@
       <c r="AK917" s="3"/>
       <c r="AL917" s="3"/>
     </row>
-    <row r="918" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -38035,7 +38033,7 @@
       <c r="AK918" s="3"/>
       <c r="AL918" s="3"/>
     </row>
-    <row r="919" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -38075,7 +38073,7 @@
       <c r="AK919" s="3"/>
       <c r="AL919" s="3"/>
     </row>
-    <row r="920" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -38115,7 +38113,7 @@
       <c r="AK920" s="3"/>
       <c r="AL920" s="3"/>
     </row>
-    <row r="921" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -38155,7 +38153,7 @@
       <c r="AK921" s="3"/>
       <c r="AL921" s="3"/>
     </row>
-    <row r="922" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -38195,7 +38193,7 @@
       <c r="AK922" s="3"/>
       <c r="AL922" s="3"/>
     </row>
-    <row r="923" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -38235,7 +38233,7 @@
       <c r="AK923" s="3"/>
       <c r="AL923" s="3"/>
     </row>
-    <row r="924" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -38275,7 +38273,7 @@
       <c r="AK924" s="3"/>
       <c r="AL924" s="3"/>
     </row>
-    <row r="925" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -38315,7 +38313,7 @@
       <c r="AK925" s="3"/>
       <c r="AL925" s="3"/>
     </row>
-    <row r="926" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -38355,7 +38353,7 @@
       <c r="AK926" s="3"/>
       <c r="AL926" s="3"/>
     </row>
-    <row r="927" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -38395,7 +38393,7 @@
       <c r="AK927" s="3"/>
       <c r="AL927" s="3"/>
     </row>
-    <row r="928" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -38435,7 +38433,7 @@
       <c r="AK928" s="3"/>
       <c r="AL928" s="3"/>
     </row>
-    <row r="929" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -38475,7 +38473,7 @@
       <c r="AK929" s="3"/>
       <c r="AL929" s="3"/>
     </row>
-    <row r="930" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -38515,7 +38513,7 @@
       <c r="AK930" s="3"/>
       <c r="AL930" s="3"/>
     </row>
-    <row r="931" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -38555,7 +38553,7 @@
       <c r="AK931" s="3"/>
       <c r="AL931" s="3"/>
     </row>
-    <row r="932" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -38595,7 +38593,7 @@
       <c r="AK932" s="3"/>
       <c r="AL932" s="3"/>
     </row>
-    <row r="933" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -38635,7 +38633,7 @@
       <c r="AK933" s="3"/>
       <c r="AL933" s="3"/>
     </row>
-    <row r="934" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -38675,7 +38673,7 @@
       <c r="AK934" s="3"/>
       <c r="AL934" s="3"/>
     </row>
-    <row r="935" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -38715,7 +38713,7 @@
       <c r="AK935" s="3"/>
       <c r="AL935" s="3"/>
     </row>
-    <row r="936" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -38755,7 +38753,7 @@
       <c r="AK936" s="3"/>
       <c r="AL936" s="3"/>
     </row>
-    <row r="937" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -38795,7 +38793,7 @@
       <c r="AK937" s="3"/>
       <c r="AL937" s="3"/>
     </row>
-    <row r="938" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -38835,7 +38833,7 @@
       <c r="AK938" s="3"/>
       <c r="AL938" s="3"/>
     </row>
-    <row r="939" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -38875,7 +38873,7 @@
       <c r="AK939" s="3"/>
       <c r="AL939" s="3"/>
     </row>
-    <row r="940" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -38915,7 +38913,7 @@
       <c r="AK940" s="3"/>
       <c r="AL940" s="3"/>
     </row>
-    <row r="941" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -38955,7 +38953,7 @@
       <c r="AK941" s="3"/>
       <c r="AL941" s="3"/>
     </row>
-    <row r="942" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -38995,7 +38993,7 @@
       <c r="AK942" s="3"/>
       <c r="AL942" s="3"/>
     </row>
-    <row r="943" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -39035,7 +39033,7 @@
       <c r="AK943" s="3"/>
       <c r="AL943" s="3"/>
     </row>
-    <row r="944" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -39075,7 +39073,7 @@
       <c r="AK944" s="3"/>
       <c r="AL944" s="3"/>
     </row>
-    <row r="945" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -39115,7 +39113,7 @@
       <c r="AK945" s="3"/>
       <c r="AL945" s="3"/>
     </row>
-    <row r="946" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -39155,7 +39153,7 @@
       <c r="AK946" s="3"/>
       <c r="AL946" s="3"/>
     </row>
-    <row r="947" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -39195,7 +39193,7 @@
       <c r="AK947" s="3"/>
       <c r="AL947" s="3"/>
     </row>
-    <row r="948" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -39235,7 +39233,7 @@
       <c r="AK948" s="3"/>
       <c r="AL948" s="3"/>
     </row>
-    <row r="949" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -39275,7 +39273,7 @@
       <c r="AK949" s="3"/>
       <c r="AL949" s="3"/>
     </row>
-    <row r="950" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -39315,7 +39313,7 @@
       <c r="AK950" s="3"/>
       <c r="AL950" s="3"/>
     </row>
-    <row r="951" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -39355,7 +39353,7 @@
       <c r="AK951" s="3"/>
       <c r="AL951" s="3"/>
     </row>
-    <row r="952" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -39395,7 +39393,7 @@
       <c r="AK952" s="3"/>
       <c r="AL952" s="3"/>
     </row>
-    <row r="953" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -39435,7 +39433,7 @@
       <c r="AK953" s="3"/>
       <c r="AL953" s="3"/>
     </row>
-    <row r="954" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -39475,7 +39473,7 @@
       <c r="AK954" s="3"/>
       <c r="AL954" s="3"/>
     </row>
-    <row r="955" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -39515,7 +39513,7 @@
       <c r="AK955" s="3"/>
       <c r="AL955" s="3"/>
     </row>
-    <row r="956" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -39555,7 +39553,7 @@
       <c r="AK956" s="3"/>
       <c r="AL956" s="3"/>
     </row>
-    <row r="957" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -39595,7 +39593,7 @@
       <c r="AK957" s="3"/>
       <c r="AL957" s="3"/>
     </row>
-    <row r="958" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -39635,7 +39633,7 @@
       <c r="AK958" s="3"/>
       <c r="AL958" s="3"/>
     </row>
-    <row r="959" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -39675,7 +39673,7 @@
       <c r="AK959" s="3"/>
       <c r="AL959" s="3"/>
     </row>
-    <row r="960" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -39715,7 +39713,7 @@
       <c r="AK960" s="3"/>
       <c r="AL960" s="3"/>
     </row>
-    <row r="961" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -39755,7 +39753,7 @@
       <c r="AK961" s="3"/>
       <c r="AL961" s="3"/>
     </row>
-    <row r="962" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -39795,7 +39793,7 @@
       <c r="AK962" s="3"/>
       <c r="AL962" s="3"/>
     </row>
-    <row r="963" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -39835,7 +39833,7 @@
       <c r="AK963" s="3"/>
       <c r="AL963" s="3"/>
     </row>
-    <row r="964" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -39875,7 +39873,7 @@
       <c r="AK964" s="3"/>
       <c r="AL964" s="3"/>
     </row>
-    <row r="965" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -39915,7 +39913,7 @@
       <c r="AK965" s="3"/>
       <c r="AL965" s="3"/>
     </row>
-    <row r="966" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -39955,7 +39953,7 @@
       <c r="AK966" s="3"/>
       <c r="AL966" s="3"/>
     </row>
-    <row r="967" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -39995,7 +39993,7 @@
       <c r="AK967" s="3"/>
       <c r="AL967" s="3"/>
     </row>
-    <row r="968" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -40035,7 +40033,7 @@
       <c r="AK968" s="3"/>
       <c r="AL968" s="3"/>
     </row>
-    <row r="969" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -40075,7 +40073,7 @@
       <c r="AK969" s="3"/>
       <c r="AL969" s="3"/>
     </row>
-    <row r="970" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -40115,7 +40113,7 @@
       <c r="AK970" s="3"/>
       <c r="AL970" s="3"/>
     </row>
-    <row r="971" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -40155,7 +40153,7 @@
       <c r="AK971" s="3"/>
       <c r="AL971" s="3"/>
     </row>
-    <row r="972" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -40195,7 +40193,7 @@
       <c r="AK972" s="3"/>
       <c r="AL972" s="3"/>
     </row>
-    <row r="973" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -40235,7 +40233,7 @@
       <c r="AK973" s="3"/>
       <c r="AL973" s="3"/>
     </row>
-    <row r="974" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -40275,7 +40273,7 @@
       <c r="AK974" s="3"/>
       <c r="AL974" s="3"/>
     </row>
-    <row r="975" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -40315,7 +40313,7 @@
       <c r="AK975" s="3"/>
       <c r="AL975" s="3"/>
     </row>
-    <row r="976" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -40355,7 +40353,7 @@
       <c r="AK976" s="3"/>
       <c r="AL976" s="3"/>
     </row>
-    <row r="977" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -40395,7 +40393,7 @@
       <c r="AK977" s="3"/>
       <c r="AL977" s="3"/>
     </row>
-    <row r="978" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -40435,7 +40433,7 @@
       <c r="AK978" s="3"/>
       <c r="AL978" s="3"/>
     </row>
-    <row r="979" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -40475,7 +40473,7 @@
       <c r="AK979" s="3"/>
       <c r="AL979" s="3"/>
     </row>
-    <row r="980" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -40515,7 +40513,7 @@
       <c r="AK980" s="3"/>
       <c r="AL980" s="3"/>
     </row>
-    <row r="981" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -40555,7 +40553,7 @@
       <c r="AK981" s="3"/>
       <c r="AL981" s="3"/>
     </row>
-    <row r="982" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -40595,7 +40593,7 @@
       <c r="AK982" s="3"/>
       <c r="AL982" s="3"/>
     </row>
-    <row r="983" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -40635,7 +40633,7 @@
       <c r="AK983" s="3"/>
       <c r="AL983" s="3"/>
     </row>
-    <row r="984" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -40675,7 +40673,7 @@
       <c r="AK984" s="3"/>
       <c r="AL984" s="3"/>
     </row>
-    <row r="985" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -40715,7 +40713,7 @@
       <c r="AK985" s="3"/>
       <c r="AL985" s="3"/>
     </row>
-    <row r="986" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -40755,7 +40753,7 @@
       <c r="AK986" s="3"/>
       <c r="AL986" s="3"/>
     </row>
-    <row r="987" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -40795,7 +40793,7 @@
       <c r="AK987" s="3"/>
       <c r="AL987" s="3"/>
     </row>
-    <row r="988" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -40835,7 +40833,7 @@
       <c r="AK988" s="3"/>
       <c r="AL988" s="3"/>
     </row>
-    <row r="989" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -40875,7 +40873,7 @@
       <c r="AK989" s="3"/>
       <c r="AL989" s="3"/>
     </row>
-    <row r="990" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -40915,7 +40913,7 @@
       <c r="AK990" s="3"/>
       <c r="AL990" s="3"/>
     </row>
-    <row r="991" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -40955,7 +40953,7 @@
       <c r="AK991" s="3"/>
       <c r="AL991" s="3"/>
     </row>
-    <row r="992" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -40995,7 +40993,7 @@
       <c r="AK992" s="3"/>
       <c r="AL992" s="3"/>
     </row>
-    <row r="993" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -41035,7 +41033,7 @@
       <c r="AK993" s="3"/>
       <c r="AL993" s="3"/>
     </row>
-    <row r="994" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -41075,7 +41073,7 @@
       <c r="AK994" s="3"/>
       <c r="AL994" s="3"/>
     </row>
-    <row r="995" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -41115,7 +41113,7 @@
       <c r="AK995" s="3"/>
       <c r="AL995" s="3"/>
     </row>
-    <row r="996" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -41155,7 +41153,7 @@
       <c r="AK996" s="3"/>
       <c r="AL996" s="3"/>
     </row>
-    <row r="997" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -41195,7 +41193,7 @@
       <c r="AK997" s="3"/>
       <c r="AL997" s="3"/>
     </row>
-    <row r="998" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -41235,7 +41233,7 @@
       <c r="AK998" s="3"/>
       <c r="AL998" s="3"/>
     </row>
-    <row r="999" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -41275,7 +41273,7 @@
       <c r="AK999" s="3"/>
       <c r="AL999" s="3"/>
     </row>
-    <row r="1000" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>

--- a/Monstruos.xlsx
+++ b/Monstruos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python\PhytonMaster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Espacios de trabajo\Phyton\Con lo colegas\PhytonMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538F74E3-5B67-4CE3-A99B-2FE8BFE868FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94191242-409A-4015-8518-CDA62407E03A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,28 +150,28 @@
     <t>Cocodrilo</t>
   </si>
   <si>
-    <t>enjambre de insectos</t>
-  </si>
-  <si>
-    <t>enjambre de pirañas</t>
-  </si>
-  <si>
-    <t>enjambre de murciélagos</t>
-  </si>
-  <si>
     <t>Escorpión gigante</t>
   </si>
   <si>
     <t>Goblin</t>
   </si>
   <si>
-    <t>serpiente venenosa</t>
+    <t>Enjambre de murciélagos</t>
   </si>
   <si>
-    <t>tigre</t>
+    <t>Enjambre de pirañas</t>
   </si>
   <si>
-    <t>hombre serpiente</t>
+    <t>Enjambre de insectos</t>
+  </si>
+  <si>
+    <t>Serpiente venenosa</t>
+  </si>
+  <si>
+    <t>Tigre</t>
+  </si>
+  <si>
+    <t>Hombre serpiente</t>
   </si>
 </sst>
 </file>
@@ -471,11 +471,13 @@
   </sheetPr>
   <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +593,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -709,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -825,9 +827,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
@@ -941,9 +943,9 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1057,7 +1059,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -1173,9 +1175,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2">
         <v>21</v>
@@ -1289,9 +1291,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -1405,7 +1407,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -1521,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -1637,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -1753,7 +1755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1793,7 +1795,7 @@
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1833,7 +1835,7 @@
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1873,7 +1875,7 @@
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
     </row>
-    <row r="15" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1913,7 +1915,7 @@
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
     </row>
-    <row r="16" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1953,7 +1955,7 @@
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
     </row>
-    <row r="17" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1993,7 +1995,7 @@
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
     </row>
-    <row r="18" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2033,7 +2035,7 @@
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2073,7 +2075,7 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2113,7 +2115,7 @@
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
     </row>
-    <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2153,7 +2155,7 @@
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
     </row>
-    <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2193,7 +2195,7 @@
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
     </row>
-    <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2233,7 +2235,7 @@
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
     </row>
-    <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2273,7 +2275,7 @@
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
     </row>
-    <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2313,7 +2315,7 @@
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
     </row>
-    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2353,7 +2355,7 @@
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
     </row>
-    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2393,7 +2395,7 @@
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
     </row>
-    <row r="28" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2433,7 +2435,7 @@
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
     </row>
-    <row r="29" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2473,7 +2475,7 @@
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
     </row>
-    <row r="30" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2513,7 +2515,7 @@
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
     </row>
-    <row r="31" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2553,7 +2555,7 @@
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
     </row>
-    <row r="32" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2593,7 +2595,7 @@
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
     </row>
-    <row r="33" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2633,7 +2635,7 @@
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
     </row>
-    <row r="34" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2673,7 +2675,7 @@
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
     </row>
-    <row r="35" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2713,7 +2715,7 @@
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
     </row>
-    <row r="36" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2753,7 +2755,7 @@
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
     </row>
-    <row r="37" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2793,7 +2795,7 @@
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
     </row>
-    <row r="38" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2833,7 +2835,7 @@
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
     </row>
-    <row r="39" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2873,7 +2875,7 @@
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
     </row>
-    <row r="40" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2913,7 +2915,7 @@
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
     </row>
-    <row r="41" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2953,7 +2955,7 @@
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
     </row>
-    <row r="42" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2993,7 +2995,7 @@
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
     </row>
-    <row r="43" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3033,7 +3035,7 @@
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
     </row>
-    <row r="44" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3073,7 +3075,7 @@
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
     </row>
-    <row r="45" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3113,7 +3115,7 @@
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
     </row>
-    <row r="46" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3153,7 +3155,7 @@
       <c r="AK46" s="3"/>
       <c r="AL46" s="3"/>
     </row>
-    <row r="47" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3193,7 +3195,7 @@
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
     </row>
-    <row r="48" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3233,7 +3235,7 @@
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
     </row>
-    <row r="49" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3273,7 +3275,7 @@
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
     </row>
-    <row r="50" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3313,7 +3315,7 @@
       <c r="AK50" s="3"/>
       <c r="AL50" s="3"/>
     </row>
-    <row r="51" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3353,7 +3355,7 @@
       <c r="AK51" s="3"/>
       <c r="AL51" s="3"/>
     </row>
-    <row r="52" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3393,7 +3395,7 @@
       <c r="AK52" s="3"/>
       <c r="AL52" s="3"/>
     </row>
-    <row r="53" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3433,7 +3435,7 @@
       <c r="AK53" s="3"/>
       <c r="AL53" s="3"/>
     </row>
-    <row r="54" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3473,7 +3475,7 @@
       <c r="AK54" s="3"/>
       <c r="AL54" s="3"/>
     </row>
-    <row r="55" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3513,7 +3515,7 @@
       <c r="AK55" s="3"/>
       <c r="AL55" s="3"/>
     </row>
-    <row r="56" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3553,7 +3555,7 @@
       <c r="AK56" s="3"/>
       <c r="AL56" s="3"/>
     </row>
-    <row r="57" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3593,7 +3595,7 @@
       <c r="AK57" s="3"/>
       <c r="AL57" s="3"/>
     </row>
-    <row r="58" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3633,7 +3635,7 @@
       <c r="AK58" s="3"/>
       <c r="AL58" s="3"/>
     </row>
-    <row r="59" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3673,7 +3675,7 @@
       <c r="AK59" s="3"/>
       <c r="AL59" s="3"/>
     </row>
-    <row r="60" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3713,7 +3715,7 @@
       <c r="AK60" s="3"/>
       <c r="AL60" s="3"/>
     </row>
-    <row r="61" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3753,7 +3755,7 @@
       <c r="AK61" s="3"/>
       <c r="AL61" s="3"/>
     </row>
-    <row r="62" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3793,7 +3795,7 @@
       <c r="AK62" s="3"/>
       <c r="AL62" s="3"/>
     </row>
-    <row r="63" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3833,7 +3835,7 @@
       <c r="AK63" s="3"/>
       <c r="AL63" s="3"/>
     </row>
-    <row r="64" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3873,7 +3875,7 @@
       <c r="AK64" s="3"/>
       <c r="AL64" s="3"/>
     </row>
-    <row r="65" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3913,7 +3915,7 @@
       <c r="AK65" s="3"/>
       <c r="AL65" s="3"/>
     </row>
-    <row r="66" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3953,7 +3955,7 @@
       <c r="AK66" s="3"/>
       <c r="AL66" s="3"/>
     </row>
-    <row r="67" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3993,7 +3995,7 @@
       <c r="AK67" s="3"/>
       <c r="AL67" s="3"/>
     </row>
-    <row r="68" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4033,7 +4035,7 @@
       <c r="AK68" s="3"/>
       <c r="AL68" s="3"/>
     </row>
-    <row r="69" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4073,7 +4075,7 @@
       <c r="AK69" s="3"/>
       <c r="AL69" s="3"/>
     </row>
-    <row r="70" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4113,7 +4115,7 @@
       <c r="AK70" s="3"/>
       <c r="AL70" s="3"/>
     </row>
-    <row r="71" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4153,7 +4155,7 @@
       <c r="AK71" s="3"/>
       <c r="AL71" s="3"/>
     </row>
-    <row r="72" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -4193,7 +4195,7 @@
       <c r="AK72" s="3"/>
       <c r="AL72" s="3"/>
     </row>
-    <row r="73" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4233,7 +4235,7 @@
       <c r="AK73" s="3"/>
       <c r="AL73" s="3"/>
     </row>
-    <row r="74" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -4273,7 +4275,7 @@
       <c r="AK74" s="3"/>
       <c r="AL74" s="3"/>
     </row>
-    <row r="75" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4313,7 +4315,7 @@
       <c r="AK75" s="3"/>
       <c r="AL75" s="3"/>
     </row>
-    <row r="76" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4353,7 +4355,7 @@
       <c r="AK76" s="3"/>
       <c r="AL76" s="3"/>
     </row>
-    <row r="77" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4393,7 +4395,7 @@
       <c r="AK77" s="3"/>
       <c r="AL77" s="3"/>
     </row>
-    <row r="78" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -4433,7 +4435,7 @@
       <c r="AK78" s="3"/>
       <c r="AL78" s="3"/>
     </row>
-    <row r="79" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4473,7 +4475,7 @@
       <c r="AK79" s="3"/>
       <c r="AL79" s="3"/>
     </row>
-    <row r="80" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4513,7 +4515,7 @@
       <c r="AK80" s="3"/>
       <c r="AL80" s="3"/>
     </row>
-    <row r="81" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4553,7 +4555,7 @@
       <c r="AK81" s="3"/>
       <c r="AL81" s="3"/>
     </row>
-    <row r="82" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4593,7 +4595,7 @@
       <c r="AK82" s="3"/>
       <c r="AL82" s="3"/>
     </row>
-    <row r="83" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4633,7 +4635,7 @@
       <c r="AK83" s="3"/>
       <c r="AL83" s="3"/>
     </row>
-    <row r="84" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4673,7 +4675,7 @@
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
     </row>
-    <row r="85" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4713,7 +4715,7 @@
       <c r="AK85" s="3"/>
       <c r="AL85" s="3"/>
     </row>
-    <row r="86" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4753,7 +4755,7 @@
       <c r="AK86" s="3"/>
       <c r="AL86" s="3"/>
     </row>
-    <row r="87" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4793,7 +4795,7 @@
       <c r="AK87" s="3"/>
       <c r="AL87" s="3"/>
     </row>
-    <row r="88" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4833,7 +4835,7 @@
       <c r="AK88" s="3"/>
       <c r="AL88" s="3"/>
     </row>
-    <row r="89" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4873,7 +4875,7 @@
       <c r="AK89" s="3"/>
       <c r="AL89" s="3"/>
     </row>
-    <row r="90" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -4913,7 +4915,7 @@
       <c r="AK90" s="3"/>
       <c r="AL90" s="3"/>
     </row>
-    <row r="91" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4953,7 +4955,7 @@
       <c r="AK91" s="3"/>
       <c r="AL91" s="3"/>
     </row>
-    <row r="92" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4993,7 +4995,7 @@
       <c r="AK92" s="3"/>
       <c r="AL92" s="3"/>
     </row>
-    <row r="93" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5033,7 +5035,7 @@
       <c r="AK93" s="3"/>
       <c r="AL93" s="3"/>
     </row>
-    <row r="94" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5073,7 +5075,7 @@
       <c r="AK94" s="3"/>
       <c r="AL94" s="3"/>
     </row>
-    <row r="95" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5113,7 +5115,7 @@
       <c r="AK95" s="3"/>
       <c r="AL95" s="3"/>
     </row>
-    <row r="96" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5153,7 +5155,7 @@
       <c r="AK96" s="3"/>
       <c r="AL96" s="3"/>
     </row>
-    <row r="97" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5193,7 +5195,7 @@
       <c r="AK97" s="3"/>
       <c r="AL97" s="3"/>
     </row>
-    <row r="98" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5233,7 +5235,7 @@
       <c r="AK98" s="3"/>
       <c r="AL98" s="3"/>
     </row>
-    <row r="99" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5273,7 +5275,7 @@
       <c r="AK99" s="3"/>
       <c r="AL99" s="3"/>
     </row>
-    <row r="100" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5313,7 +5315,7 @@
       <c r="AK100" s="3"/>
       <c r="AL100" s="3"/>
     </row>
-    <row r="101" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5353,7 +5355,7 @@
       <c r="AK101" s="3"/>
       <c r="AL101" s="3"/>
     </row>
-    <row r="102" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -5393,7 +5395,7 @@
       <c r="AK102" s="3"/>
       <c r="AL102" s="3"/>
     </row>
-    <row r="103" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -5433,7 +5435,7 @@
       <c r="AK103" s="3"/>
       <c r="AL103" s="3"/>
     </row>
-    <row r="104" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -5473,7 +5475,7 @@
       <c r="AK104" s="3"/>
       <c r="AL104" s="3"/>
     </row>
-    <row r="105" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -5513,7 +5515,7 @@
       <c r="AK105" s="3"/>
       <c r="AL105" s="3"/>
     </row>
-    <row r="106" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -5553,7 +5555,7 @@
       <c r="AK106" s="3"/>
       <c r="AL106" s="3"/>
     </row>
-    <row r="107" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -5593,7 +5595,7 @@
       <c r="AK107" s="3"/>
       <c r="AL107" s="3"/>
     </row>
-    <row r="108" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -5633,7 +5635,7 @@
       <c r="AK108" s="3"/>
       <c r="AL108" s="3"/>
     </row>
-    <row r="109" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -5673,7 +5675,7 @@
       <c r="AK109" s="3"/>
       <c r="AL109" s="3"/>
     </row>
-    <row r="110" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -5713,7 +5715,7 @@
       <c r="AK110" s="3"/>
       <c r="AL110" s="3"/>
     </row>
-    <row r="111" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -5753,7 +5755,7 @@
       <c r="AK111" s="3"/>
       <c r="AL111" s="3"/>
     </row>
-    <row r="112" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -5793,7 +5795,7 @@
       <c r="AK112" s="3"/>
       <c r="AL112" s="3"/>
     </row>
-    <row r="113" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -5833,7 +5835,7 @@
       <c r="AK113" s="3"/>
       <c r="AL113" s="3"/>
     </row>
-    <row r="114" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -5873,7 +5875,7 @@
       <c r="AK114" s="3"/>
       <c r="AL114" s="3"/>
     </row>
-    <row r="115" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -5913,7 +5915,7 @@
       <c r="AK115" s="3"/>
       <c r="AL115" s="3"/>
     </row>
-    <row r="116" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -5953,7 +5955,7 @@
       <c r="AK116" s="3"/>
       <c r="AL116" s="3"/>
     </row>
-    <row r="117" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -5993,7 +5995,7 @@
       <c r="AK117" s="3"/>
       <c r="AL117" s="3"/>
     </row>
-    <row r="118" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6033,7 +6035,7 @@
       <c r="AK118" s="3"/>
       <c r="AL118" s="3"/>
     </row>
-    <row r="119" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6073,7 +6075,7 @@
       <c r="AK119" s="3"/>
       <c r="AL119" s="3"/>
     </row>
-    <row r="120" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6113,7 +6115,7 @@
       <c r="AK120" s="3"/>
       <c r="AL120" s="3"/>
     </row>
-    <row r="121" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6153,7 +6155,7 @@
       <c r="AK121" s="3"/>
       <c r="AL121" s="3"/>
     </row>
-    <row r="122" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6193,7 +6195,7 @@
       <c r="AK122" s="3"/>
       <c r="AL122" s="3"/>
     </row>
-    <row r="123" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6233,7 +6235,7 @@
       <c r="AK123" s="3"/>
       <c r="AL123" s="3"/>
     </row>
-    <row r="124" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6273,7 +6275,7 @@
       <c r="AK124" s="3"/>
       <c r="AL124" s="3"/>
     </row>
-    <row r="125" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6313,7 +6315,7 @@
       <c r="AK125" s="3"/>
       <c r="AL125" s="3"/>
     </row>
-    <row r="126" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6353,7 +6355,7 @@
       <c r="AK126" s="3"/>
       <c r="AL126" s="3"/>
     </row>
-    <row r="127" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6393,7 +6395,7 @@
       <c r="AK127" s="3"/>
       <c r="AL127" s="3"/>
     </row>
-    <row r="128" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6433,7 +6435,7 @@
       <c r="AK128" s="3"/>
       <c r="AL128" s="3"/>
     </row>
-    <row r="129" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6473,7 +6475,7 @@
       <c r="AK129" s="3"/>
       <c r="AL129" s="3"/>
     </row>
-    <row r="130" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6513,7 +6515,7 @@
       <c r="AK130" s="3"/>
       <c r="AL130" s="3"/>
     </row>
-    <row r="131" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6553,7 +6555,7 @@
       <c r="AK131" s="3"/>
       <c r="AL131" s="3"/>
     </row>
-    <row r="132" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6593,7 +6595,7 @@
       <c r="AK132" s="3"/>
       <c r="AL132" s="3"/>
     </row>
-    <row r="133" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -6633,7 +6635,7 @@
       <c r="AK133" s="3"/>
       <c r="AL133" s="3"/>
     </row>
-    <row r="134" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -6673,7 +6675,7 @@
       <c r="AK134" s="3"/>
       <c r="AL134" s="3"/>
     </row>
-    <row r="135" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -6713,7 +6715,7 @@
       <c r="AK135" s="3"/>
       <c r="AL135" s="3"/>
     </row>
-    <row r="136" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -6753,7 +6755,7 @@
       <c r="AK136" s="3"/>
       <c r="AL136" s="3"/>
     </row>
-    <row r="137" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -6793,7 +6795,7 @@
       <c r="AK137" s="3"/>
       <c r="AL137" s="3"/>
     </row>
-    <row r="138" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -6833,7 +6835,7 @@
       <c r="AK138" s="3"/>
       <c r="AL138" s="3"/>
     </row>
-    <row r="139" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -6873,7 +6875,7 @@
       <c r="AK139" s="3"/>
       <c r="AL139" s="3"/>
     </row>
-    <row r="140" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -6913,7 +6915,7 @@
       <c r="AK140" s="3"/>
       <c r="AL140" s="3"/>
     </row>
-    <row r="141" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -6953,7 +6955,7 @@
       <c r="AK141" s="3"/>
       <c r="AL141" s="3"/>
     </row>
-    <row r="142" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -6993,7 +6995,7 @@
       <c r="AK142" s="3"/>
       <c r="AL142" s="3"/>
     </row>
-    <row r="143" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -7033,7 +7035,7 @@
       <c r="AK143" s="3"/>
       <c r="AL143" s="3"/>
     </row>
-    <row r="144" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -7073,7 +7075,7 @@
       <c r="AK144" s="3"/>
       <c r="AL144" s="3"/>
     </row>
-    <row r="145" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -7113,7 +7115,7 @@
       <c r="AK145" s="3"/>
       <c r="AL145" s="3"/>
     </row>
-    <row r="146" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -7153,7 +7155,7 @@
       <c r="AK146" s="3"/>
       <c r="AL146" s="3"/>
     </row>
-    <row r="147" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -7193,7 +7195,7 @@
       <c r="AK147" s="3"/>
       <c r="AL147" s="3"/>
     </row>
-    <row r="148" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -7233,7 +7235,7 @@
       <c r="AK148" s="3"/>
       <c r="AL148" s="3"/>
     </row>
-    <row r="149" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -7273,7 +7275,7 @@
       <c r="AK149" s="3"/>
       <c r="AL149" s="3"/>
     </row>
-    <row r="150" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -7313,7 +7315,7 @@
       <c r="AK150" s="3"/>
       <c r="AL150" s="3"/>
     </row>
-    <row r="151" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -7353,7 +7355,7 @@
       <c r="AK151" s="3"/>
       <c r="AL151" s="3"/>
     </row>
-    <row r="152" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -7393,7 +7395,7 @@
       <c r="AK152" s="3"/>
       <c r="AL152" s="3"/>
     </row>
-    <row r="153" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -7433,7 +7435,7 @@
       <c r="AK153" s="3"/>
       <c r="AL153" s="3"/>
     </row>
-    <row r="154" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -7473,7 +7475,7 @@
       <c r="AK154" s="3"/>
       <c r="AL154" s="3"/>
     </row>
-    <row r="155" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -7513,7 +7515,7 @@
       <c r="AK155" s="3"/>
       <c r="AL155" s="3"/>
     </row>
-    <row r="156" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -7553,7 +7555,7 @@
       <c r="AK156" s="3"/>
       <c r="AL156" s="3"/>
     </row>
-    <row r="157" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -7593,7 +7595,7 @@
       <c r="AK157" s="3"/>
       <c r="AL157" s="3"/>
     </row>
-    <row r="158" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -7633,7 +7635,7 @@
       <c r="AK158" s="3"/>
       <c r="AL158" s="3"/>
     </row>
-    <row r="159" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -7673,7 +7675,7 @@
       <c r="AK159" s="3"/>
       <c r="AL159" s="3"/>
     </row>
-    <row r="160" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -7713,7 +7715,7 @@
       <c r="AK160" s="3"/>
       <c r="AL160" s="3"/>
     </row>
-    <row r="161" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -7753,7 +7755,7 @@
       <c r="AK161" s="3"/>
       <c r="AL161" s="3"/>
     </row>
-    <row r="162" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -7793,7 +7795,7 @@
       <c r="AK162" s="3"/>
       <c r="AL162" s="3"/>
     </row>
-    <row r="163" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -7833,7 +7835,7 @@
       <c r="AK163" s="3"/>
       <c r="AL163" s="3"/>
     </row>
-    <row r="164" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -7873,7 +7875,7 @@
       <c r="AK164" s="3"/>
       <c r="AL164" s="3"/>
     </row>
-    <row r="165" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -7913,7 +7915,7 @@
       <c r="AK165" s="3"/>
       <c r="AL165" s="3"/>
     </row>
-    <row r="166" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -7953,7 +7955,7 @@
       <c r="AK166" s="3"/>
       <c r="AL166" s="3"/>
     </row>
-    <row r="167" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -7993,7 +7995,7 @@
       <c r="AK167" s="3"/>
       <c r="AL167" s="3"/>
     </row>
-    <row r="168" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -8033,7 +8035,7 @@
       <c r="AK168" s="3"/>
       <c r="AL168" s="3"/>
     </row>
-    <row r="169" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -8073,7 +8075,7 @@
       <c r="AK169" s="3"/>
       <c r="AL169" s="3"/>
     </row>
-    <row r="170" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -8113,7 +8115,7 @@
       <c r="AK170" s="3"/>
       <c r="AL170" s="3"/>
     </row>
-    <row r="171" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -8153,7 +8155,7 @@
       <c r="AK171" s="3"/>
       <c r="AL171" s="3"/>
     </row>
-    <row r="172" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -8193,7 +8195,7 @@
       <c r="AK172" s="3"/>
       <c r="AL172" s="3"/>
     </row>
-    <row r="173" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -8233,7 +8235,7 @@
       <c r="AK173" s="3"/>
       <c r="AL173" s="3"/>
     </row>
-    <row r="174" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -8273,7 +8275,7 @@
       <c r="AK174" s="3"/>
       <c r="AL174" s="3"/>
     </row>
-    <row r="175" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -8313,7 +8315,7 @@
       <c r="AK175" s="3"/>
       <c r="AL175" s="3"/>
     </row>
-    <row r="176" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -8353,7 +8355,7 @@
       <c r="AK176" s="3"/>
       <c r="AL176" s="3"/>
     </row>
-    <row r="177" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -8393,7 +8395,7 @@
       <c r="AK177" s="3"/>
       <c r="AL177" s="3"/>
     </row>
-    <row r="178" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -8433,7 +8435,7 @@
       <c r="AK178" s="3"/>
       <c r="AL178" s="3"/>
     </row>
-    <row r="179" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -8473,7 +8475,7 @@
       <c r="AK179" s="3"/>
       <c r="AL179" s="3"/>
     </row>
-    <row r="180" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -8513,7 +8515,7 @@
       <c r="AK180" s="3"/>
       <c r="AL180" s="3"/>
     </row>
-    <row r="181" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -8553,7 +8555,7 @@
       <c r="AK181" s="3"/>
       <c r="AL181" s="3"/>
     </row>
-    <row r="182" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -8593,7 +8595,7 @@
       <c r="AK182" s="3"/>
       <c r="AL182" s="3"/>
     </row>
-    <row r="183" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -8633,7 +8635,7 @@
       <c r="AK183" s="3"/>
       <c r="AL183" s="3"/>
     </row>
-    <row r="184" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -8673,7 +8675,7 @@
       <c r="AK184" s="3"/>
       <c r="AL184" s="3"/>
     </row>
-    <row r="185" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -8713,7 +8715,7 @@
       <c r="AK185" s="3"/>
       <c r="AL185" s="3"/>
     </row>
-    <row r="186" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -8753,7 +8755,7 @@
       <c r="AK186" s="3"/>
       <c r="AL186" s="3"/>
     </row>
-    <row r="187" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -8793,7 +8795,7 @@
       <c r="AK187" s="3"/>
       <c r="AL187" s="3"/>
     </row>
-    <row r="188" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -8833,7 +8835,7 @@
       <c r="AK188" s="3"/>
       <c r="AL188" s="3"/>
     </row>
-    <row r="189" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -8873,7 +8875,7 @@
       <c r="AK189" s="3"/>
       <c r="AL189" s="3"/>
     </row>
-    <row r="190" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -8913,7 +8915,7 @@
       <c r="AK190" s="3"/>
       <c r="AL190" s="3"/>
     </row>
-    <row r="191" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -8953,7 +8955,7 @@
       <c r="AK191" s="3"/>
       <c r="AL191" s="3"/>
     </row>
-    <row r="192" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -8993,7 +8995,7 @@
       <c r="AK192" s="3"/>
       <c r="AL192" s="3"/>
     </row>
-    <row r="193" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -9033,7 +9035,7 @@
       <c r="AK193" s="3"/>
       <c r="AL193" s="3"/>
     </row>
-    <row r="194" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -9073,7 +9075,7 @@
       <c r="AK194" s="3"/>
       <c r="AL194" s="3"/>
     </row>
-    <row r="195" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -9113,7 +9115,7 @@
       <c r="AK195" s="3"/>
       <c r="AL195" s="3"/>
     </row>
-    <row r="196" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -9153,7 +9155,7 @@
       <c r="AK196" s="3"/>
       <c r="AL196" s="3"/>
     </row>
-    <row r="197" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -9193,7 +9195,7 @@
       <c r="AK197" s="3"/>
       <c r="AL197" s="3"/>
     </row>
-    <row r="198" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -9233,7 +9235,7 @@
       <c r="AK198" s="3"/>
       <c r="AL198" s="3"/>
     </row>
-    <row r="199" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -9273,7 +9275,7 @@
       <c r="AK199" s="3"/>
       <c r="AL199" s="3"/>
     </row>
-    <row r="200" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -9313,7 +9315,7 @@
       <c r="AK200" s="3"/>
       <c r="AL200" s="3"/>
     </row>
-    <row r="201" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -9353,7 +9355,7 @@
       <c r="AK201" s="3"/>
       <c r="AL201" s="3"/>
     </row>
-    <row r="202" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -9393,7 +9395,7 @@
       <c r="AK202" s="3"/>
       <c r="AL202" s="3"/>
     </row>
-    <row r="203" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -9433,7 +9435,7 @@
       <c r="AK203" s="3"/>
       <c r="AL203" s="3"/>
     </row>
-    <row r="204" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -9473,7 +9475,7 @@
       <c r="AK204" s="3"/>
       <c r="AL204" s="3"/>
     </row>
-    <row r="205" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -9513,7 +9515,7 @@
       <c r="AK205" s="3"/>
       <c r="AL205" s="3"/>
     </row>
-    <row r="206" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -9553,7 +9555,7 @@
       <c r="AK206" s="3"/>
       <c r="AL206" s="3"/>
     </row>
-    <row r="207" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -9593,7 +9595,7 @@
       <c r="AK207" s="3"/>
       <c r="AL207" s="3"/>
     </row>
-    <row r="208" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -9633,7 +9635,7 @@
       <c r="AK208" s="3"/>
       <c r="AL208" s="3"/>
     </row>
-    <row r="209" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -9673,7 +9675,7 @@
       <c r="AK209" s="3"/>
       <c r="AL209" s="3"/>
     </row>
-    <row r="210" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -9713,7 +9715,7 @@
       <c r="AK210" s="3"/>
       <c r="AL210" s="3"/>
     </row>
-    <row r="211" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -9753,7 +9755,7 @@
       <c r="AK211" s="3"/>
       <c r="AL211" s="3"/>
     </row>
-    <row r="212" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -9793,7 +9795,7 @@
       <c r="AK212" s="3"/>
       <c r="AL212" s="3"/>
     </row>
-    <row r="213" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -9833,7 +9835,7 @@
       <c r="AK213" s="3"/>
       <c r="AL213" s="3"/>
     </row>
-    <row r="214" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -9873,7 +9875,7 @@
       <c r="AK214" s="3"/>
       <c r="AL214" s="3"/>
     </row>
-    <row r="215" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -9913,7 +9915,7 @@
       <c r="AK215" s="3"/>
       <c r="AL215" s="3"/>
     </row>
-    <row r="216" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -9953,7 +9955,7 @@
       <c r="AK216" s="3"/>
       <c r="AL216" s="3"/>
     </row>
-    <row r="217" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -9993,7 +9995,7 @@
       <c r="AK217" s="3"/>
       <c r="AL217" s="3"/>
     </row>
-    <row r="218" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -10033,7 +10035,7 @@
       <c r="AK218" s="3"/>
       <c r="AL218" s="3"/>
     </row>
-    <row r="219" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -10073,7 +10075,7 @@
       <c r="AK219" s="3"/>
       <c r="AL219" s="3"/>
     </row>
-    <row r="220" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -10113,7 +10115,7 @@
       <c r="AK220" s="3"/>
       <c r="AL220" s="3"/>
     </row>
-    <row r="221" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -10153,7 +10155,7 @@
       <c r="AK221" s="3"/>
       <c r="AL221" s="3"/>
     </row>
-    <row r="222" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -10193,7 +10195,7 @@
       <c r="AK222" s="3"/>
       <c r="AL222" s="3"/>
     </row>
-    <row r="223" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -10233,7 +10235,7 @@
       <c r="AK223" s="3"/>
       <c r="AL223" s="3"/>
     </row>
-    <row r="224" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -10273,7 +10275,7 @@
       <c r="AK224" s="3"/>
       <c r="AL224" s="3"/>
     </row>
-    <row r="225" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -10313,7 +10315,7 @@
       <c r="AK225" s="3"/>
       <c r="AL225" s="3"/>
     </row>
-    <row r="226" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -10353,7 +10355,7 @@
       <c r="AK226" s="3"/>
       <c r="AL226" s="3"/>
     </row>
-    <row r="227" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -10393,7 +10395,7 @@
       <c r="AK227" s="3"/>
       <c r="AL227" s="3"/>
     </row>
-    <row r="228" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -10433,7 +10435,7 @@
       <c r="AK228" s="3"/>
       <c r="AL228" s="3"/>
     </row>
-    <row r="229" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -10473,7 +10475,7 @@
       <c r="AK229" s="3"/>
       <c r="AL229" s="3"/>
     </row>
-    <row r="230" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -10513,7 +10515,7 @@
       <c r="AK230" s="3"/>
       <c r="AL230" s="3"/>
     </row>
-    <row r="231" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -10553,7 +10555,7 @@
       <c r="AK231" s="3"/>
       <c r="AL231" s="3"/>
     </row>
-    <row r="232" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -10593,7 +10595,7 @@
       <c r="AK232" s="3"/>
       <c r="AL232" s="3"/>
     </row>
-    <row r="233" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -10633,7 +10635,7 @@
       <c r="AK233" s="3"/>
       <c r="AL233" s="3"/>
     </row>
-    <row r="234" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -10673,7 +10675,7 @@
       <c r="AK234" s="3"/>
       <c r="AL234" s="3"/>
     </row>
-    <row r="235" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -10713,7 +10715,7 @@
       <c r="AK235" s="3"/>
       <c r="AL235" s="3"/>
     </row>
-    <row r="236" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -10753,7 +10755,7 @@
       <c r="AK236" s="3"/>
       <c r="AL236" s="3"/>
     </row>
-    <row r="237" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -10793,7 +10795,7 @@
       <c r="AK237" s="3"/>
       <c r="AL237" s="3"/>
     </row>
-    <row r="238" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -10833,7 +10835,7 @@
       <c r="AK238" s="3"/>
       <c r="AL238" s="3"/>
     </row>
-    <row r="239" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -10873,7 +10875,7 @@
       <c r="AK239" s="3"/>
       <c r="AL239" s="3"/>
     </row>
-    <row r="240" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -10913,7 +10915,7 @@
       <c r="AK240" s="3"/>
       <c r="AL240" s="3"/>
     </row>
-    <row r="241" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -10953,7 +10955,7 @@
       <c r="AK241" s="3"/>
       <c r="AL241" s="3"/>
     </row>
-    <row r="242" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -10993,7 +10995,7 @@
       <c r="AK242" s="3"/>
       <c r="AL242" s="3"/>
     </row>
-    <row r="243" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -11033,7 +11035,7 @@
       <c r="AK243" s="3"/>
       <c r="AL243" s="3"/>
     </row>
-    <row r="244" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -11073,7 +11075,7 @@
       <c r="AK244" s="3"/>
       <c r="AL244" s="3"/>
     </row>
-    <row r="245" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -11113,7 +11115,7 @@
       <c r="AK245" s="3"/>
       <c r="AL245" s="3"/>
     </row>
-    <row r="246" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -11153,7 +11155,7 @@
       <c r="AK246" s="3"/>
       <c r="AL246" s="3"/>
     </row>
-    <row r="247" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -11193,7 +11195,7 @@
       <c r="AK247" s="3"/>
       <c r="AL247" s="3"/>
     </row>
-    <row r="248" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -11233,7 +11235,7 @@
       <c r="AK248" s="3"/>
       <c r="AL248" s="3"/>
     </row>
-    <row r="249" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -11273,7 +11275,7 @@
       <c r="AK249" s="3"/>
       <c r="AL249" s="3"/>
     </row>
-    <row r="250" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -11313,7 +11315,7 @@
       <c r="AK250" s="3"/>
       <c r="AL250" s="3"/>
     </row>
-    <row r="251" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -11353,7 +11355,7 @@
       <c r="AK251" s="3"/>
       <c r="AL251" s="3"/>
     </row>
-    <row r="252" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -11393,7 +11395,7 @@
       <c r="AK252" s="3"/>
       <c r="AL252" s="3"/>
     </row>
-    <row r="253" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -11433,7 +11435,7 @@
       <c r="AK253" s="3"/>
       <c r="AL253" s="3"/>
     </row>
-    <row r="254" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -11473,7 +11475,7 @@
       <c r="AK254" s="3"/>
       <c r="AL254" s="3"/>
     </row>
-    <row r="255" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -11513,7 +11515,7 @@
       <c r="AK255" s="3"/>
       <c r="AL255" s="3"/>
     </row>
-    <row r="256" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -11553,7 +11555,7 @@
       <c r="AK256" s="3"/>
       <c r="AL256" s="3"/>
     </row>
-    <row r="257" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -11593,7 +11595,7 @@
       <c r="AK257" s="3"/>
       <c r="AL257" s="3"/>
     </row>
-    <row r="258" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -11633,7 +11635,7 @@
       <c r="AK258" s="3"/>
       <c r="AL258" s="3"/>
     </row>
-    <row r="259" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -11673,7 +11675,7 @@
       <c r="AK259" s="3"/>
       <c r="AL259" s="3"/>
     </row>
-    <row r="260" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -11713,7 +11715,7 @@
       <c r="AK260" s="3"/>
       <c r="AL260" s="3"/>
     </row>
-    <row r="261" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -11753,7 +11755,7 @@
       <c r="AK261" s="3"/>
       <c r="AL261" s="3"/>
     </row>
-    <row r="262" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -11793,7 +11795,7 @@
       <c r="AK262" s="3"/>
       <c r="AL262" s="3"/>
     </row>
-    <row r="263" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -11833,7 +11835,7 @@
       <c r="AK263" s="3"/>
       <c r="AL263" s="3"/>
     </row>
-    <row r="264" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -11873,7 +11875,7 @@
       <c r="AK264" s="3"/>
       <c r="AL264" s="3"/>
     </row>
-    <row r="265" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -11913,7 +11915,7 @@
       <c r="AK265" s="3"/>
       <c r="AL265" s="3"/>
     </row>
-    <row r="266" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -11953,7 +11955,7 @@
       <c r="AK266" s="3"/>
       <c r="AL266" s="3"/>
     </row>
-    <row r="267" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -11993,7 +11995,7 @@
       <c r="AK267" s="3"/>
       <c r="AL267" s="3"/>
     </row>
-    <row r="268" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -12033,7 +12035,7 @@
       <c r="AK268" s="3"/>
       <c r="AL268" s="3"/>
     </row>
-    <row r="269" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -12073,7 +12075,7 @@
       <c r="AK269" s="3"/>
       <c r="AL269" s="3"/>
     </row>
-    <row r="270" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -12113,7 +12115,7 @@
       <c r="AK270" s="3"/>
       <c r="AL270" s="3"/>
     </row>
-    <row r="271" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -12153,7 +12155,7 @@
       <c r="AK271" s="3"/>
       <c r="AL271" s="3"/>
     </row>
-    <row r="272" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -12193,7 +12195,7 @@
       <c r="AK272" s="3"/>
       <c r="AL272" s="3"/>
     </row>
-    <row r="273" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -12233,7 +12235,7 @@
       <c r="AK273" s="3"/>
       <c r="AL273" s="3"/>
     </row>
-    <row r="274" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -12273,7 +12275,7 @@
       <c r="AK274" s="3"/>
       <c r="AL274" s="3"/>
     </row>
-    <row r="275" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -12313,7 +12315,7 @@
       <c r="AK275" s="3"/>
       <c r="AL275" s="3"/>
     </row>
-    <row r="276" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -12353,7 +12355,7 @@
       <c r="AK276" s="3"/>
       <c r="AL276" s="3"/>
     </row>
-    <row r="277" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -12393,7 +12395,7 @@
       <c r="AK277" s="3"/>
       <c r="AL277" s="3"/>
     </row>
-    <row r="278" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -12433,7 +12435,7 @@
       <c r="AK278" s="3"/>
       <c r="AL278" s="3"/>
     </row>
-    <row r="279" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -12473,7 +12475,7 @@
       <c r="AK279" s="3"/>
       <c r="AL279" s="3"/>
     </row>
-    <row r="280" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -12513,7 +12515,7 @@
       <c r="AK280" s="3"/>
       <c r="AL280" s="3"/>
     </row>
-    <row r="281" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -12553,7 +12555,7 @@
       <c r="AK281" s="3"/>
       <c r="AL281" s="3"/>
     </row>
-    <row r="282" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -12593,7 +12595,7 @@
       <c r="AK282" s="3"/>
       <c r="AL282" s="3"/>
     </row>
-    <row r="283" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -12633,7 +12635,7 @@
       <c r="AK283" s="3"/>
       <c r="AL283" s="3"/>
     </row>
-    <row r="284" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -12673,7 +12675,7 @@
       <c r="AK284" s="3"/>
       <c r="AL284" s="3"/>
     </row>
-    <row r="285" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -12713,7 +12715,7 @@
       <c r="AK285" s="3"/>
       <c r="AL285" s="3"/>
     </row>
-    <row r="286" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -12753,7 +12755,7 @@
       <c r="AK286" s="3"/>
       <c r="AL286" s="3"/>
     </row>
-    <row r="287" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -12793,7 +12795,7 @@
       <c r="AK287" s="3"/>
       <c r="AL287" s="3"/>
     </row>
-    <row r="288" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -12833,7 +12835,7 @@
       <c r="AK288" s="3"/>
       <c r="AL288" s="3"/>
     </row>
-    <row r="289" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -12873,7 +12875,7 @@
       <c r="AK289" s="3"/>
       <c r="AL289" s="3"/>
     </row>
-    <row r="290" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -12913,7 +12915,7 @@
       <c r="AK290" s="3"/>
       <c r="AL290" s="3"/>
     </row>
-    <row r="291" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -12953,7 +12955,7 @@
       <c r="AK291" s="3"/>
       <c r="AL291" s="3"/>
     </row>
-    <row r="292" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -12993,7 +12995,7 @@
       <c r="AK292" s="3"/>
       <c r="AL292" s="3"/>
     </row>
-    <row r="293" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -13033,7 +13035,7 @@
       <c r="AK293" s="3"/>
       <c r="AL293" s="3"/>
     </row>
-    <row r="294" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -13073,7 +13075,7 @@
       <c r="AK294" s="3"/>
       <c r="AL294" s="3"/>
     </row>
-    <row r="295" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -13113,7 +13115,7 @@
       <c r="AK295" s="3"/>
       <c r="AL295" s="3"/>
     </row>
-    <row r="296" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -13153,7 +13155,7 @@
       <c r="AK296" s="3"/>
       <c r="AL296" s="3"/>
     </row>
-    <row r="297" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -13193,7 +13195,7 @@
       <c r="AK297" s="3"/>
       <c r="AL297" s="3"/>
     </row>
-    <row r="298" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -13233,7 +13235,7 @@
       <c r="AK298" s="3"/>
       <c r="AL298" s="3"/>
     </row>
-    <row r="299" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -13273,7 +13275,7 @@
       <c r="AK299" s="3"/>
       <c r="AL299" s="3"/>
     </row>
-    <row r="300" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -13313,7 +13315,7 @@
       <c r="AK300" s="3"/>
       <c r="AL300" s="3"/>
     </row>
-    <row r="301" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -13353,7 +13355,7 @@
       <c r="AK301" s="3"/>
       <c r="AL301" s="3"/>
     </row>
-    <row r="302" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -13393,7 +13395,7 @@
       <c r="AK302" s="3"/>
       <c r="AL302" s="3"/>
     </row>
-    <row r="303" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -13433,7 +13435,7 @@
       <c r="AK303" s="3"/>
       <c r="AL303" s="3"/>
     </row>
-    <row r="304" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -13473,7 +13475,7 @@
       <c r="AK304" s="3"/>
       <c r="AL304" s="3"/>
     </row>
-    <row r="305" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -13513,7 +13515,7 @@
       <c r="AK305" s="3"/>
       <c r="AL305" s="3"/>
     </row>
-    <row r="306" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -13553,7 +13555,7 @@
       <c r="AK306" s="3"/>
       <c r="AL306" s="3"/>
     </row>
-    <row r="307" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -13593,7 +13595,7 @@
       <c r="AK307" s="3"/>
       <c r="AL307" s="3"/>
     </row>
-    <row r="308" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -13633,7 +13635,7 @@
       <c r="AK308" s="3"/>
       <c r="AL308" s="3"/>
     </row>
-    <row r="309" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -13673,7 +13675,7 @@
       <c r="AK309" s="3"/>
       <c r="AL309" s="3"/>
     </row>
-    <row r="310" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -13713,7 +13715,7 @@
       <c r="AK310" s="3"/>
       <c r="AL310" s="3"/>
     </row>
-    <row r="311" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -13753,7 +13755,7 @@
       <c r="AK311" s="3"/>
       <c r="AL311" s="3"/>
     </row>
-    <row r="312" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -13793,7 +13795,7 @@
       <c r="AK312" s="3"/>
       <c r="AL312" s="3"/>
     </row>
-    <row r="313" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -13833,7 +13835,7 @@
       <c r="AK313" s="3"/>
       <c r="AL313" s="3"/>
     </row>
-    <row r="314" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -13873,7 +13875,7 @@
       <c r="AK314" s="3"/>
       <c r="AL314" s="3"/>
     </row>
-    <row r="315" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -13913,7 +13915,7 @@
       <c r="AK315" s="3"/>
       <c r="AL315" s="3"/>
     </row>
-    <row r="316" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -13953,7 +13955,7 @@
       <c r="AK316" s="3"/>
       <c r="AL316" s="3"/>
     </row>
-    <row r="317" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -13993,7 +13995,7 @@
       <c r="AK317" s="3"/>
       <c r="AL317" s="3"/>
     </row>
-    <row r="318" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -14033,7 +14035,7 @@
       <c r="AK318" s="3"/>
       <c r="AL318" s="3"/>
     </row>
-    <row r="319" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -14073,7 +14075,7 @@
       <c r="AK319" s="3"/>
       <c r="AL319" s="3"/>
     </row>
-    <row r="320" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -14113,7 +14115,7 @@
       <c r="AK320" s="3"/>
       <c r="AL320" s="3"/>
     </row>
-    <row r="321" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -14153,7 +14155,7 @@
       <c r="AK321" s="3"/>
       <c r="AL321" s="3"/>
     </row>
-    <row r="322" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -14193,7 +14195,7 @@
       <c r="AK322" s="3"/>
       <c r="AL322" s="3"/>
     </row>
-    <row r="323" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -14233,7 +14235,7 @@
       <c r="AK323" s="3"/>
       <c r="AL323" s="3"/>
     </row>
-    <row r="324" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -14273,7 +14275,7 @@
       <c r="AK324" s="3"/>
       <c r="AL324" s="3"/>
     </row>
-    <row r="325" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -14313,7 +14315,7 @@
       <c r="AK325" s="3"/>
       <c r="AL325" s="3"/>
     </row>
-    <row r="326" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -14353,7 +14355,7 @@
       <c r="AK326" s="3"/>
       <c r="AL326" s="3"/>
     </row>
-    <row r="327" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -14393,7 +14395,7 @@
       <c r="AK327" s="3"/>
       <c r="AL327" s="3"/>
     </row>
-    <row r="328" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -14433,7 +14435,7 @@
       <c r="AK328" s="3"/>
       <c r="AL328" s="3"/>
     </row>
-    <row r="329" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -14473,7 +14475,7 @@
       <c r="AK329" s="3"/>
       <c r="AL329" s="3"/>
     </row>
-    <row r="330" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -14513,7 +14515,7 @@
       <c r="AK330" s="3"/>
       <c r="AL330" s="3"/>
     </row>
-    <row r="331" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -14553,7 +14555,7 @@
       <c r="AK331" s="3"/>
       <c r="AL331" s="3"/>
     </row>
-    <row r="332" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -14593,7 +14595,7 @@
       <c r="AK332" s="3"/>
       <c r="AL332" s="3"/>
     </row>
-    <row r="333" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -14633,7 +14635,7 @@
       <c r="AK333" s="3"/>
       <c r="AL333" s="3"/>
     </row>
-    <row r="334" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -14673,7 +14675,7 @@
       <c r="AK334" s="3"/>
       <c r="AL334" s="3"/>
     </row>
-    <row r="335" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -14713,7 +14715,7 @@
       <c r="AK335" s="3"/>
       <c r="AL335" s="3"/>
     </row>
-    <row r="336" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -14753,7 +14755,7 @@
       <c r="AK336" s="3"/>
       <c r="AL336" s="3"/>
     </row>
-    <row r="337" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -14793,7 +14795,7 @@
       <c r="AK337" s="3"/>
       <c r="AL337" s="3"/>
     </row>
-    <row r="338" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -14833,7 +14835,7 @@
       <c r="AK338" s="3"/>
       <c r="AL338" s="3"/>
     </row>
-    <row r="339" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -14873,7 +14875,7 @@
       <c r="AK339" s="3"/>
       <c r="AL339" s="3"/>
     </row>
-    <row r="340" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -14913,7 +14915,7 @@
       <c r="AK340" s="3"/>
       <c r="AL340" s="3"/>
     </row>
-    <row r="341" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -14953,7 +14955,7 @@
       <c r="AK341" s="3"/>
       <c r="AL341" s="3"/>
     </row>
-    <row r="342" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -14993,7 +14995,7 @@
       <c r="AK342" s="3"/>
       <c r="AL342" s="3"/>
     </row>
-    <row r="343" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -15033,7 +15035,7 @@
       <c r="AK343" s="3"/>
       <c r="AL343" s="3"/>
     </row>
-    <row r="344" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -15073,7 +15075,7 @@
       <c r="AK344" s="3"/>
       <c r="AL344" s="3"/>
     </row>
-    <row r="345" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -15113,7 +15115,7 @@
       <c r="AK345" s="3"/>
       <c r="AL345" s="3"/>
     </row>
-    <row r="346" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -15153,7 +15155,7 @@
       <c r="AK346" s="3"/>
       <c r="AL346" s="3"/>
     </row>
-    <row r="347" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -15193,7 +15195,7 @@
       <c r="AK347" s="3"/>
       <c r="AL347" s="3"/>
     </row>
-    <row r="348" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -15233,7 +15235,7 @@
       <c r="AK348" s="3"/>
       <c r="AL348" s="3"/>
     </row>
-    <row r="349" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -15273,7 +15275,7 @@
       <c r="AK349" s="3"/>
       <c r="AL349" s="3"/>
     </row>
-    <row r="350" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -15313,7 +15315,7 @@
       <c r="AK350" s="3"/>
       <c r="AL350" s="3"/>
     </row>
-    <row r="351" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -15353,7 +15355,7 @@
       <c r="AK351" s="3"/>
       <c r="AL351" s="3"/>
     </row>
-    <row r="352" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -15393,7 +15395,7 @@
       <c r="AK352" s="3"/>
       <c r="AL352" s="3"/>
     </row>
-    <row r="353" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -15433,7 +15435,7 @@
       <c r="AK353" s="3"/>
       <c r="AL353" s="3"/>
     </row>
-    <row r="354" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -15473,7 +15475,7 @@
       <c r="AK354" s="3"/>
       <c r="AL354" s="3"/>
     </row>
-    <row r="355" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -15513,7 +15515,7 @@
       <c r="AK355" s="3"/>
       <c r="AL355" s="3"/>
     </row>
-    <row r="356" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -15553,7 +15555,7 @@
       <c r="AK356" s="3"/>
       <c r="AL356" s="3"/>
     </row>
-    <row r="357" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -15593,7 +15595,7 @@
       <c r="AK357" s="3"/>
       <c r="AL357" s="3"/>
     </row>
-    <row r="358" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -15633,7 +15635,7 @@
       <c r="AK358" s="3"/>
       <c r="AL358" s="3"/>
     </row>
-    <row r="359" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -15673,7 +15675,7 @@
       <c r="AK359" s="3"/>
       <c r="AL359" s="3"/>
     </row>
-    <row r="360" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -15713,7 +15715,7 @@
       <c r="AK360" s="3"/>
       <c r="AL360" s="3"/>
     </row>
-    <row r="361" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -15753,7 +15755,7 @@
       <c r="AK361" s="3"/>
       <c r="AL361" s="3"/>
     </row>
-    <row r="362" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -15793,7 +15795,7 @@
       <c r="AK362" s="3"/>
       <c r="AL362" s="3"/>
     </row>
-    <row r="363" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -15833,7 +15835,7 @@
       <c r="AK363" s="3"/>
       <c r="AL363" s="3"/>
     </row>
-    <row r="364" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -15873,7 +15875,7 @@
       <c r="AK364" s="3"/>
       <c r="AL364" s="3"/>
     </row>
-    <row r="365" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -15913,7 +15915,7 @@
       <c r="AK365" s="3"/>
       <c r="AL365" s="3"/>
     </row>
-    <row r="366" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -15953,7 +15955,7 @@
       <c r="AK366" s="3"/>
       <c r="AL366" s="3"/>
     </row>
-    <row r="367" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -15993,7 +15995,7 @@
       <c r="AK367" s="3"/>
       <c r="AL367" s="3"/>
     </row>
-    <row r="368" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -16033,7 +16035,7 @@
       <c r="AK368" s="3"/>
       <c r="AL368" s="3"/>
     </row>
-    <row r="369" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -16073,7 +16075,7 @@
       <c r="AK369" s="3"/>
       <c r="AL369" s="3"/>
     </row>
-    <row r="370" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -16113,7 +16115,7 @@
       <c r="AK370" s="3"/>
       <c r="AL370" s="3"/>
     </row>
-    <row r="371" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -16153,7 +16155,7 @@
       <c r="AK371" s="3"/>
       <c r="AL371" s="3"/>
     </row>
-    <row r="372" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -16193,7 +16195,7 @@
       <c r="AK372" s="3"/>
       <c r="AL372" s="3"/>
     </row>
-    <row r="373" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -16233,7 +16235,7 @@
       <c r="AK373" s="3"/>
       <c r="AL373" s="3"/>
     </row>
-    <row r="374" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -16273,7 +16275,7 @@
       <c r="AK374" s="3"/>
       <c r="AL374" s="3"/>
     </row>
-    <row r="375" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -16313,7 +16315,7 @@
       <c r="AK375" s="3"/>
       <c r="AL375" s="3"/>
     </row>
-    <row r="376" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -16353,7 +16355,7 @@
       <c r="AK376" s="3"/>
       <c r="AL376" s="3"/>
     </row>
-    <row r="377" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -16393,7 +16395,7 @@
       <c r="AK377" s="3"/>
       <c r="AL377" s="3"/>
     </row>
-    <row r="378" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -16433,7 +16435,7 @@
       <c r="AK378" s="3"/>
       <c r="AL378" s="3"/>
     </row>
-    <row r="379" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -16473,7 +16475,7 @@
       <c r="AK379" s="3"/>
       <c r="AL379" s="3"/>
     </row>
-    <row r="380" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -16513,7 +16515,7 @@
       <c r="AK380" s="3"/>
       <c r="AL380" s="3"/>
     </row>
-    <row r="381" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -16553,7 +16555,7 @@
       <c r="AK381" s="3"/>
       <c r="AL381" s="3"/>
     </row>
-    <row r="382" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -16593,7 +16595,7 @@
       <c r="AK382" s="3"/>
       <c r="AL382" s="3"/>
     </row>
-    <row r="383" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -16633,7 +16635,7 @@
       <c r="AK383" s="3"/>
       <c r="AL383" s="3"/>
     </row>
-    <row r="384" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -16673,7 +16675,7 @@
       <c r="AK384" s="3"/>
       <c r="AL384" s="3"/>
     </row>
-    <row r="385" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -16713,7 +16715,7 @@
       <c r="AK385" s="3"/>
       <c r="AL385" s="3"/>
     </row>
-    <row r="386" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -16753,7 +16755,7 @@
       <c r="AK386" s="3"/>
       <c r="AL386" s="3"/>
     </row>
-    <row r="387" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -16793,7 +16795,7 @@
       <c r="AK387" s="3"/>
       <c r="AL387" s="3"/>
     </row>
-    <row r="388" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -16833,7 +16835,7 @@
       <c r="AK388" s="3"/>
       <c r="AL388" s="3"/>
     </row>
-    <row r="389" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -16873,7 +16875,7 @@
       <c r="AK389" s="3"/>
       <c r="AL389" s="3"/>
     </row>
-    <row r="390" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -16913,7 +16915,7 @@
       <c r="AK390" s="3"/>
       <c r="AL390" s="3"/>
     </row>
-    <row r="391" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -16953,7 +16955,7 @@
       <c r="AK391" s="3"/>
       <c r="AL391" s="3"/>
     </row>
-    <row r="392" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -16993,7 +16995,7 @@
       <c r="AK392" s="3"/>
       <c r="AL392" s="3"/>
     </row>
-    <row r="393" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -17033,7 +17035,7 @@
       <c r="AK393" s="3"/>
       <c r="AL393" s="3"/>
     </row>
-    <row r="394" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -17073,7 +17075,7 @@
       <c r="AK394" s="3"/>
       <c r="AL394" s="3"/>
     </row>
-    <row r="395" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -17113,7 +17115,7 @@
       <c r="AK395" s="3"/>
       <c r="AL395" s="3"/>
     </row>
-    <row r="396" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -17153,7 +17155,7 @@
       <c r="AK396" s="3"/>
       <c r="AL396" s="3"/>
     </row>
-    <row r="397" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -17193,7 +17195,7 @@
       <c r="AK397" s="3"/>
       <c r="AL397" s="3"/>
     </row>
-    <row r="398" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -17233,7 +17235,7 @@
       <c r="AK398" s="3"/>
       <c r="AL398" s="3"/>
     </row>
-    <row r="399" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -17273,7 +17275,7 @@
       <c r="AK399" s="3"/>
       <c r="AL399" s="3"/>
     </row>
-    <row r="400" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -17313,7 +17315,7 @@
       <c r="AK400" s="3"/>
       <c r="AL400" s="3"/>
     </row>
-    <row r="401" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -17353,7 +17355,7 @@
       <c r="AK401" s="3"/>
       <c r="AL401" s="3"/>
     </row>
-    <row r="402" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -17393,7 +17395,7 @@
       <c r="AK402" s="3"/>
       <c r="AL402" s="3"/>
     </row>
-    <row r="403" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -17433,7 +17435,7 @@
       <c r="AK403" s="3"/>
       <c r="AL403" s="3"/>
     </row>
-    <row r="404" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -17473,7 +17475,7 @@
       <c r="AK404" s="3"/>
       <c r="AL404" s="3"/>
     </row>
-    <row r="405" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -17513,7 +17515,7 @@
       <c r="AK405" s="3"/>
       <c r="AL405" s="3"/>
     </row>
-    <row r="406" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -17553,7 +17555,7 @@
       <c r="AK406" s="3"/>
       <c r="AL406" s="3"/>
     </row>
-    <row r="407" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -17593,7 +17595,7 @@
       <c r="AK407" s="3"/>
       <c r="AL407" s="3"/>
     </row>
-    <row r="408" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -17633,7 +17635,7 @@
       <c r="AK408" s="3"/>
       <c r="AL408" s="3"/>
     </row>
-    <row r="409" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -17673,7 +17675,7 @@
       <c r="AK409" s="3"/>
       <c r="AL409" s="3"/>
     </row>
-    <row r="410" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -17713,7 +17715,7 @@
       <c r="AK410" s="3"/>
       <c r="AL410" s="3"/>
     </row>
-    <row r="411" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -17753,7 +17755,7 @@
       <c r="AK411" s="3"/>
       <c r="AL411" s="3"/>
     </row>
-    <row r="412" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -17793,7 +17795,7 @@
       <c r="AK412" s="3"/>
       <c r="AL412" s="3"/>
     </row>
-    <row r="413" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -17833,7 +17835,7 @@
       <c r="AK413" s="3"/>
       <c r="AL413" s="3"/>
     </row>
-    <row r="414" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -17873,7 +17875,7 @@
       <c r="AK414" s="3"/>
       <c r="AL414" s="3"/>
     </row>
-    <row r="415" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -17913,7 +17915,7 @@
       <c r="AK415" s="3"/>
       <c r="AL415" s="3"/>
     </row>
-    <row r="416" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -17953,7 +17955,7 @@
       <c r="AK416" s="3"/>
       <c r="AL416" s="3"/>
     </row>
-    <row r="417" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -17993,7 +17995,7 @@
       <c r="AK417" s="3"/>
       <c r="AL417" s="3"/>
     </row>
-    <row r="418" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -18033,7 +18035,7 @@
       <c r="AK418" s="3"/>
       <c r="AL418" s="3"/>
     </row>
-    <row r="419" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -18073,7 +18075,7 @@
       <c r="AK419" s="3"/>
       <c r="AL419" s="3"/>
     </row>
-    <row r="420" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -18113,7 +18115,7 @@
       <c r="AK420" s="3"/>
       <c r="AL420" s="3"/>
     </row>
-    <row r="421" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -18153,7 +18155,7 @@
       <c r="AK421" s="3"/>
       <c r="AL421" s="3"/>
     </row>
-    <row r="422" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -18193,7 +18195,7 @@
       <c r="AK422" s="3"/>
       <c r="AL422" s="3"/>
     </row>
-    <row r="423" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -18233,7 +18235,7 @@
       <c r="AK423" s="3"/>
       <c r="AL423" s="3"/>
     </row>
-    <row r="424" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -18273,7 +18275,7 @@
       <c r="AK424" s="3"/>
       <c r="AL424" s="3"/>
     </row>
-    <row r="425" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -18313,7 +18315,7 @@
       <c r="AK425" s="3"/>
       <c r="AL425" s="3"/>
     </row>
-    <row r="426" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -18353,7 +18355,7 @@
       <c r="AK426" s="3"/>
       <c r="AL426" s="3"/>
     </row>
-    <row r="427" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -18393,7 +18395,7 @@
       <c r="AK427" s="3"/>
       <c r="AL427" s="3"/>
     </row>
-    <row r="428" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -18433,7 +18435,7 @@
       <c r="AK428" s="3"/>
       <c r="AL428" s="3"/>
     </row>
-    <row r="429" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -18473,7 +18475,7 @@
       <c r="AK429" s="3"/>
       <c r="AL429" s="3"/>
     </row>
-    <row r="430" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -18513,7 +18515,7 @@
       <c r="AK430" s="3"/>
       <c r="AL430" s="3"/>
     </row>
-    <row r="431" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -18553,7 +18555,7 @@
       <c r="AK431" s="3"/>
       <c r="AL431" s="3"/>
     </row>
-    <row r="432" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -18593,7 +18595,7 @@
       <c r="AK432" s="3"/>
       <c r="AL432" s="3"/>
     </row>
-    <row r="433" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -18633,7 +18635,7 @@
       <c r="AK433" s="3"/>
       <c r="AL433" s="3"/>
     </row>
-    <row r="434" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -18673,7 +18675,7 @@
       <c r="AK434" s="3"/>
       <c r="AL434" s="3"/>
     </row>
-    <row r="435" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -18713,7 +18715,7 @@
       <c r="AK435" s="3"/>
       <c r="AL435" s="3"/>
     </row>
-    <row r="436" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -18753,7 +18755,7 @@
       <c r="AK436" s="3"/>
       <c r="AL436" s="3"/>
     </row>
-    <row r="437" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -18793,7 +18795,7 @@
       <c r="AK437" s="3"/>
       <c r="AL437" s="3"/>
     </row>
-    <row r="438" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -18833,7 +18835,7 @@
       <c r="AK438" s="3"/>
       <c r="AL438" s="3"/>
     </row>
-    <row r="439" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -18873,7 +18875,7 @@
       <c r="AK439" s="3"/>
       <c r="AL439" s="3"/>
     </row>
-    <row r="440" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -18913,7 +18915,7 @@
       <c r="AK440" s="3"/>
       <c r="AL440" s="3"/>
     </row>
-    <row r="441" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -18953,7 +18955,7 @@
       <c r="AK441" s="3"/>
       <c r="AL441" s="3"/>
     </row>
-    <row r="442" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -18993,7 +18995,7 @@
       <c r="AK442" s="3"/>
       <c r="AL442" s="3"/>
     </row>
-    <row r="443" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -19033,7 +19035,7 @@
       <c r="AK443" s="3"/>
       <c r="AL443" s="3"/>
     </row>
-    <row r="444" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -19073,7 +19075,7 @@
       <c r="AK444" s="3"/>
       <c r="AL444" s="3"/>
     </row>
-    <row r="445" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -19113,7 +19115,7 @@
       <c r="AK445" s="3"/>
       <c r="AL445" s="3"/>
     </row>
-    <row r="446" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -19153,7 +19155,7 @@
       <c r="AK446" s="3"/>
       <c r="AL446" s="3"/>
     </row>
-    <row r="447" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -19193,7 +19195,7 @@
       <c r="AK447" s="3"/>
       <c r="AL447" s="3"/>
     </row>
-    <row r="448" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -19233,7 +19235,7 @@
       <c r="AK448" s="3"/>
       <c r="AL448" s="3"/>
     </row>
-    <row r="449" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -19273,7 +19275,7 @@
       <c r="AK449" s="3"/>
       <c r="AL449" s="3"/>
     </row>
-    <row r="450" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -19313,7 +19315,7 @@
       <c r="AK450" s="3"/>
       <c r="AL450" s="3"/>
     </row>
-    <row r="451" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -19353,7 +19355,7 @@
       <c r="AK451" s="3"/>
       <c r="AL451" s="3"/>
     </row>
-    <row r="452" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -19393,7 +19395,7 @@
       <c r="AK452" s="3"/>
       <c r="AL452" s="3"/>
     </row>
-    <row r="453" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -19433,7 +19435,7 @@
       <c r="AK453" s="3"/>
       <c r="AL453" s="3"/>
     </row>
-    <row r="454" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -19473,7 +19475,7 @@
       <c r="AK454" s="3"/>
       <c r="AL454" s="3"/>
     </row>
-    <row r="455" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -19513,7 +19515,7 @@
       <c r="AK455" s="3"/>
       <c r="AL455" s="3"/>
     </row>
-    <row r="456" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -19553,7 +19555,7 @@
       <c r="AK456" s="3"/>
       <c r="AL456" s="3"/>
     </row>
-    <row r="457" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -19593,7 +19595,7 @@
       <c r="AK457" s="3"/>
       <c r="AL457" s="3"/>
     </row>
-    <row r="458" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -19633,7 +19635,7 @@
       <c r="AK458" s="3"/>
       <c r="AL458" s="3"/>
     </row>
-    <row r="459" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -19673,7 +19675,7 @@
       <c r="AK459" s="3"/>
       <c r="AL459" s="3"/>
     </row>
-    <row r="460" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -19713,7 +19715,7 @@
       <c r="AK460" s="3"/>
       <c r="AL460" s="3"/>
     </row>
-    <row r="461" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -19753,7 +19755,7 @@
       <c r="AK461" s="3"/>
       <c r="AL461" s="3"/>
     </row>
-    <row r="462" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -19793,7 +19795,7 @@
       <c r="AK462" s="3"/>
       <c r="AL462" s="3"/>
     </row>
-    <row r="463" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -19833,7 +19835,7 @@
       <c r="AK463" s="3"/>
       <c r="AL463" s="3"/>
     </row>
-    <row r="464" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -19873,7 +19875,7 @@
       <c r="AK464" s="3"/>
       <c r="AL464" s="3"/>
     </row>
-    <row r="465" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -19913,7 +19915,7 @@
       <c r="AK465" s="3"/>
       <c r="AL465" s="3"/>
     </row>
-    <row r="466" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -19953,7 +19955,7 @@
       <c r="AK466" s="3"/>
       <c r="AL466" s="3"/>
     </row>
-    <row r="467" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -19993,7 +19995,7 @@
       <c r="AK467" s="3"/>
       <c r="AL467" s="3"/>
     </row>
-    <row r="468" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -20033,7 +20035,7 @@
       <c r="AK468" s="3"/>
       <c r="AL468" s="3"/>
     </row>
-    <row r="469" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -20073,7 +20075,7 @@
       <c r="AK469" s="3"/>
       <c r="AL469" s="3"/>
     </row>
-    <row r="470" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -20113,7 +20115,7 @@
       <c r="AK470" s="3"/>
       <c r="AL470" s="3"/>
     </row>
-    <row r="471" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -20153,7 +20155,7 @@
       <c r="AK471" s="3"/>
       <c r="AL471" s="3"/>
     </row>
-    <row r="472" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -20193,7 +20195,7 @@
       <c r="AK472" s="3"/>
       <c r="AL472" s="3"/>
     </row>
-    <row r="473" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -20233,7 +20235,7 @@
       <c r="AK473" s="3"/>
       <c r="AL473" s="3"/>
     </row>
-    <row r="474" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -20273,7 +20275,7 @@
       <c r="AK474" s="3"/>
       <c r="AL474" s="3"/>
     </row>
-    <row r="475" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -20313,7 +20315,7 @@
       <c r="AK475" s="3"/>
       <c r="AL475" s="3"/>
     </row>
-    <row r="476" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -20353,7 +20355,7 @@
       <c r="AK476" s="3"/>
       <c r="AL476" s="3"/>
     </row>
-    <row r="477" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -20393,7 +20395,7 @@
       <c r="AK477" s="3"/>
       <c r="AL477" s="3"/>
     </row>
-    <row r="478" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -20433,7 +20435,7 @@
       <c r="AK478" s="3"/>
       <c r="AL478" s="3"/>
     </row>
-    <row r="479" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -20473,7 +20475,7 @@
       <c r="AK479" s="3"/>
       <c r="AL479" s="3"/>
     </row>
-    <row r="480" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -20513,7 +20515,7 @@
       <c r="AK480" s="3"/>
       <c r="AL480" s="3"/>
     </row>
-    <row r="481" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -20553,7 +20555,7 @@
       <c r="AK481" s="3"/>
       <c r="AL481" s="3"/>
     </row>
-    <row r="482" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -20593,7 +20595,7 @@
       <c r="AK482" s="3"/>
       <c r="AL482" s="3"/>
     </row>
-    <row r="483" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -20633,7 +20635,7 @@
       <c r="AK483" s="3"/>
       <c r="AL483" s="3"/>
     </row>
-    <row r="484" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -20673,7 +20675,7 @@
       <c r="AK484" s="3"/>
       <c r="AL484" s="3"/>
     </row>
-    <row r="485" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -20713,7 +20715,7 @@
       <c r="AK485" s="3"/>
       <c r="AL485" s="3"/>
     </row>
-    <row r="486" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -20753,7 +20755,7 @@
       <c r="AK486" s="3"/>
       <c r="AL486" s="3"/>
     </row>
-    <row r="487" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -20793,7 +20795,7 @@
       <c r="AK487" s="3"/>
       <c r="AL487" s="3"/>
     </row>
-    <row r="488" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -20833,7 +20835,7 @@
       <c r="AK488" s="3"/>
       <c r="AL488" s="3"/>
     </row>
-    <row r="489" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -20873,7 +20875,7 @@
       <c r="AK489" s="3"/>
       <c r="AL489" s="3"/>
     </row>
-    <row r="490" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -20913,7 +20915,7 @@
       <c r="AK490" s="3"/>
       <c r="AL490" s="3"/>
     </row>
-    <row r="491" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -20953,7 +20955,7 @@
       <c r="AK491" s="3"/>
       <c r="AL491" s="3"/>
     </row>
-    <row r="492" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -20993,7 +20995,7 @@
       <c r="AK492" s="3"/>
       <c r="AL492" s="3"/>
     </row>
-    <row r="493" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -21033,7 +21035,7 @@
       <c r="AK493" s="3"/>
       <c r="AL493" s="3"/>
     </row>
-    <row r="494" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -21073,7 +21075,7 @@
       <c r="AK494" s="3"/>
       <c r="AL494" s="3"/>
     </row>
-    <row r="495" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -21113,7 +21115,7 @@
       <c r="AK495" s="3"/>
       <c r="AL495" s="3"/>
     </row>
-    <row r="496" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -21153,7 +21155,7 @@
       <c r="AK496" s="3"/>
       <c r="AL496" s="3"/>
     </row>
-    <row r="497" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -21193,7 +21195,7 @@
       <c r="AK497" s="3"/>
       <c r="AL497" s="3"/>
     </row>
-    <row r="498" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -21233,7 +21235,7 @@
       <c r="AK498" s="3"/>
       <c r="AL498" s="3"/>
     </row>
-    <row r="499" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -21273,7 +21275,7 @@
       <c r="AK499" s="3"/>
       <c r="AL499" s="3"/>
     </row>
-    <row r="500" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -21313,7 +21315,7 @@
       <c r="AK500" s="3"/>
       <c r="AL500" s="3"/>
     </row>
-    <row r="501" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -21353,7 +21355,7 @@
       <c r="AK501" s="3"/>
       <c r="AL501" s="3"/>
     </row>
-    <row r="502" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -21393,7 +21395,7 @@
       <c r="AK502" s="3"/>
       <c r="AL502" s="3"/>
     </row>
-    <row r="503" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -21433,7 +21435,7 @@
       <c r="AK503" s="3"/>
       <c r="AL503" s="3"/>
     </row>
-    <row r="504" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -21473,7 +21475,7 @@
       <c r="AK504" s="3"/>
       <c r="AL504" s="3"/>
     </row>
-    <row r="505" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -21513,7 +21515,7 @@
       <c r="AK505" s="3"/>
       <c r="AL505" s="3"/>
     </row>
-    <row r="506" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -21553,7 +21555,7 @@
       <c r="AK506" s="3"/>
       <c r="AL506" s="3"/>
     </row>
-    <row r="507" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -21593,7 +21595,7 @@
       <c r="AK507" s="3"/>
       <c r="AL507" s="3"/>
     </row>
-    <row r="508" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -21633,7 +21635,7 @@
       <c r="AK508" s="3"/>
       <c r="AL508" s="3"/>
     </row>
-    <row r="509" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -21673,7 +21675,7 @@
       <c r="AK509" s="3"/>
       <c r="AL509" s="3"/>
     </row>
-    <row r="510" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -21713,7 +21715,7 @@
       <c r="AK510" s="3"/>
       <c r="AL510" s="3"/>
     </row>
-    <row r="511" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -21753,7 +21755,7 @@
       <c r="AK511" s="3"/>
       <c r="AL511" s="3"/>
     </row>
-    <row r="512" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -21793,7 +21795,7 @@
       <c r="AK512" s="3"/>
       <c r="AL512" s="3"/>
     </row>
-    <row r="513" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -21833,7 +21835,7 @@
       <c r="AK513" s="3"/>
       <c r="AL513" s="3"/>
     </row>
-    <row r="514" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -21873,7 +21875,7 @@
       <c r="AK514" s="3"/>
       <c r="AL514" s="3"/>
     </row>
-    <row r="515" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -21913,7 +21915,7 @@
       <c r="AK515" s="3"/>
       <c r="AL515" s="3"/>
     </row>
-    <row r="516" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -21953,7 +21955,7 @@
       <c r="AK516" s="3"/>
       <c r="AL516" s="3"/>
     </row>
-    <row r="517" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -21993,7 +21995,7 @@
       <c r="AK517" s="3"/>
       <c r="AL517" s="3"/>
     </row>
-    <row r="518" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -22033,7 +22035,7 @@
       <c r="AK518" s="3"/>
       <c r="AL518" s="3"/>
     </row>
-    <row r="519" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -22073,7 +22075,7 @@
       <c r="AK519" s="3"/>
       <c r="AL519" s="3"/>
     </row>
-    <row r="520" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -22113,7 +22115,7 @@
       <c r="AK520" s="3"/>
       <c r="AL520" s="3"/>
     </row>
-    <row r="521" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -22153,7 +22155,7 @@
       <c r="AK521" s="3"/>
       <c r="AL521" s="3"/>
     </row>
-    <row r="522" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -22193,7 +22195,7 @@
       <c r="AK522" s="3"/>
       <c r="AL522" s="3"/>
     </row>
-    <row r="523" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -22233,7 +22235,7 @@
       <c r="AK523" s="3"/>
       <c r="AL523" s="3"/>
     </row>
-    <row r="524" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -22273,7 +22275,7 @@
       <c r="AK524" s="3"/>
       <c r="AL524" s="3"/>
     </row>
-    <row r="525" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -22313,7 +22315,7 @@
       <c r="AK525" s="3"/>
       <c r="AL525" s="3"/>
     </row>
-    <row r="526" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -22353,7 +22355,7 @@
       <c r="AK526" s="3"/>
       <c r="AL526" s="3"/>
     </row>
-    <row r="527" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -22393,7 +22395,7 @@
       <c r="AK527" s="3"/>
       <c r="AL527" s="3"/>
     </row>
-    <row r="528" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -22433,7 +22435,7 @@
       <c r="AK528" s="3"/>
       <c r="AL528" s="3"/>
     </row>
-    <row r="529" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -22473,7 +22475,7 @@
       <c r="AK529" s="3"/>
       <c r="AL529" s="3"/>
     </row>
-    <row r="530" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -22513,7 +22515,7 @@
       <c r="AK530" s="3"/>
       <c r="AL530" s="3"/>
     </row>
-    <row r="531" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -22553,7 +22555,7 @@
       <c r="AK531" s="3"/>
       <c r="AL531" s="3"/>
     </row>
-    <row r="532" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -22593,7 +22595,7 @@
       <c r="AK532" s="3"/>
       <c r="AL532" s="3"/>
     </row>
-    <row r="533" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -22633,7 +22635,7 @@
       <c r="AK533" s="3"/>
       <c r="AL533" s="3"/>
     </row>
-    <row r="534" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -22673,7 +22675,7 @@
       <c r="AK534" s="3"/>
       <c r="AL534" s="3"/>
     </row>
-    <row r="535" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -22713,7 +22715,7 @@
       <c r="AK535" s="3"/>
       <c r="AL535" s="3"/>
     </row>
-    <row r="536" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -22753,7 +22755,7 @@
       <c r="AK536" s="3"/>
       <c r="AL536" s="3"/>
     </row>
-    <row r="537" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -22793,7 +22795,7 @@
       <c r="AK537" s="3"/>
       <c r="AL537" s="3"/>
     </row>
-    <row r="538" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -22833,7 +22835,7 @@
       <c r="AK538" s="3"/>
       <c r="AL538" s="3"/>
     </row>
-    <row r="539" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -22873,7 +22875,7 @@
       <c r="AK539" s="3"/>
       <c r="AL539" s="3"/>
     </row>
-    <row r="540" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -22913,7 +22915,7 @@
       <c r="AK540" s="3"/>
       <c r="AL540" s="3"/>
     </row>
-    <row r="541" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -22953,7 +22955,7 @@
       <c r="AK541" s="3"/>
       <c r="AL541" s="3"/>
     </row>
-    <row r="542" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -22993,7 +22995,7 @@
       <c r="AK542" s="3"/>
       <c r="AL542" s="3"/>
     </row>
-    <row r="543" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -23033,7 +23035,7 @@
       <c r="AK543" s="3"/>
       <c r="AL543" s="3"/>
     </row>
-    <row r="544" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -23073,7 +23075,7 @@
       <c r="AK544" s="3"/>
       <c r="AL544" s="3"/>
     </row>
-    <row r="545" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -23113,7 +23115,7 @@
       <c r="AK545" s="3"/>
       <c r="AL545" s="3"/>
     </row>
-    <row r="546" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -23153,7 +23155,7 @@
       <c r="AK546" s="3"/>
       <c r="AL546" s="3"/>
     </row>
-    <row r="547" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -23193,7 +23195,7 @@
       <c r="AK547" s="3"/>
       <c r="AL547" s="3"/>
     </row>
-    <row r="548" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -23233,7 +23235,7 @@
       <c r="AK548" s="3"/>
       <c r="AL548" s="3"/>
     </row>
-    <row r="549" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -23273,7 +23275,7 @@
       <c r="AK549" s="3"/>
       <c r="AL549" s="3"/>
     </row>
-    <row r="550" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -23313,7 +23315,7 @@
       <c r="AK550" s="3"/>
       <c r="AL550" s="3"/>
     </row>
-    <row r="551" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -23353,7 +23355,7 @@
       <c r="AK551" s="3"/>
       <c r="AL551" s="3"/>
     </row>
-    <row r="552" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -23393,7 +23395,7 @@
       <c r="AK552" s="3"/>
       <c r="AL552" s="3"/>
     </row>
-    <row r="553" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -23433,7 +23435,7 @@
       <c r="AK553" s="3"/>
       <c r="AL553" s="3"/>
     </row>
-    <row r="554" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -23473,7 +23475,7 @@
       <c r="AK554" s="3"/>
       <c r="AL554" s="3"/>
     </row>
-    <row r="555" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -23513,7 +23515,7 @@
       <c r="AK555" s="3"/>
       <c r="AL555" s="3"/>
     </row>
-    <row r="556" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -23553,7 +23555,7 @@
       <c r="AK556" s="3"/>
       <c r="AL556" s="3"/>
     </row>
-    <row r="557" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -23593,7 +23595,7 @@
       <c r="AK557" s="3"/>
       <c r="AL557" s="3"/>
     </row>
-    <row r="558" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -23633,7 +23635,7 @@
       <c r="AK558" s="3"/>
       <c r="AL558" s="3"/>
     </row>
-    <row r="559" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -23673,7 +23675,7 @@
       <c r="AK559" s="3"/>
       <c r="AL559" s="3"/>
     </row>
-    <row r="560" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -23713,7 +23715,7 @@
       <c r="AK560" s="3"/>
       <c r="AL560" s="3"/>
     </row>
-    <row r="561" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -23753,7 +23755,7 @@
       <c r="AK561" s="3"/>
       <c r="AL561" s="3"/>
     </row>
-    <row r="562" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -23793,7 +23795,7 @@
       <c r="AK562" s="3"/>
       <c r="AL562" s="3"/>
     </row>
-    <row r="563" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -23833,7 +23835,7 @@
       <c r="AK563" s="3"/>
       <c r="AL563" s="3"/>
     </row>
-    <row r="564" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -23873,7 +23875,7 @@
       <c r="AK564" s="3"/>
       <c r="AL564" s="3"/>
     </row>
-    <row r="565" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -23913,7 +23915,7 @@
       <c r="AK565" s="3"/>
       <c r="AL565" s="3"/>
     </row>
-    <row r="566" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -23953,7 +23955,7 @@
       <c r="AK566" s="3"/>
       <c r="AL566" s="3"/>
     </row>
-    <row r="567" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -23993,7 +23995,7 @@
       <c r="AK567" s="3"/>
       <c r="AL567" s="3"/>
     </row>
-    <row r="568" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -24033,7 +24035,7 @@
       <c r="AK568" s="3"/>
       <c r="AL568" s="3"/>
     </row>
-    <row r="569" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -24073,7 +24075,7 @@
       <c r="AK569" s="3"/>
       <c r="AL569" s="3"/>
     </row>
-    <row r="570" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -24113,7 +24115,7 @@
       <c r="AK570" s="3"/>
       <c r="AL570" s="3"/>
     </row>
-    <row r="571" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -24153,7 +24155,7 @@
       <c r="AK571" s="3"/>
       <c r="AL571" s="3"/>
     </row>
-    <row r="572" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -24193,7 +24195,7 @@
       <c r="AK572" s="3"/>
       <c r="AL572" s="3"/>
     </row>
-    <row r="573" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -24233,7 +24235,7 @@
       <c r="AK573" s="3"/>
       <c r="AL573" s="3"/>
     </row>
-    <row r="574" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -24273,7 +24275,7 @@
       <c r="AK574" s="3"/>
       <c r="AL574" s="3"/>
     </row>
-    <row r="575" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -24313,7 +24315,7 @@
       <c r="AK575" s="3"/>
       <c r="AL575" s="3"/>
     </row>
-    <row r="576" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -24353,7 +24355,7 @@
       <c r="AK576" s="3"/>
       <c r="AL576" s="3"/>
     </row>
-    <row r="577" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -24393,7 +24395,7 @@
       <c r="AK577" s="3"/>
       <c r="AL577" s="3"/>
     </row>
-    <row r="578" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -24433,7 +24435,7 @@
       <c r="AK578" s="3"/>
       <c r="AL578" s="3"/>
     </row>
-    <row r="579" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -24473,7 +24475,7 @@
       <c r="AK579" s="3"/>
       <c r="AL579" s="3"/>
     </row>
-    <row r="580" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -24513,7 +24515,7 @@
       <c r="AK580" s="3"/>
       <c r="AL580" s="3"/>
     </row>
-    <row r="581" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -24553,7 +24555,7 @@
       <c r="AK581" s="3"/>
       <c r="AL581" s="3"/>
     </row>
-    <row r="582" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -24593,7 +24595,7 @@
       <c r="AK582" s="3"/>
       <c r="AL582" s="3"/>
     </row>
-    <row r="583" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -24633,7 +24635,7 @@
       <c r="AK583" s="3"/>
       <c r="AL583" s="3"/>
     </row>
-    <row r="584" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -24673,7 +24675,7 @@
       <c r="AK584" s="3"/>
       <c r="AL584" s="3"/>
     </row>
-    <row r="585" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -24713,7 +24715,7 @@
       <c r="AK585" s="3"/>
       <c r="AL585" s="3"/>
     </row>
-    <row r="586" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -24753,7 +24755,7 @@
       <c r="AK586" s="3"/>
       <c r="AL586" s="3"/>
     </row>
-    <row r="587" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -24793,7 +24795,7 @@
       <c r="AK587" s="3"/>
       <c r="AL587" s="3"/>
     </row>
-    <row r="588" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -24833,7 +24835,7 @@
       <c r="AK588" s="3"/>
       <c r="AL588" s="3"/>
     </row>
-    <row r="589" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -24873,7 +24875,7 @@
       <c r="AK589" s="3"/>
       <c r="AL589" s="3"/>
     </row>
-    <row r="590" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -24913,7 +24915,7 @@
       <c r="AK590" s="3"/>
       <c r="AL590" s="3"/>
     </row>
-    <row r="591" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -24953,7 +24955,7 @@
       <c r="AK591" s="3"/>
       <c r="AL591" s="3"/>
     </row>
-    <row r="592" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -24993,7 +24995,7 @@
       <c r="AK592" s="3"/>
       <c r="AL592" s="3"/>
     </row>
-    <row r="593" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -25033,7 +25035,7 @@
       <c r="AK593" s="3"/>
       <c r="AL593" s="3"/>
     </row>
-    <row r="594" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -25073,7 +25075,7 @@
       <c r="AK594" s="3"/>
       <c r="AL594" s="3"/>
     </row>
-    <row r="595" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -25113,7 +25115,7 @@
       <c r="AK595" s="3"/>
       <c r="AL595" s="3"/>
     </row>
-    <row r="596" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -25153,7 +25155,7 @@
       <c r="AK596" s="3"/>
       <c r="AL596" s="3"/>
     </row>
-    <row r="597" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -25193,7 +25195,7 @@
       <c r="AK597" s="3"/>
       <c r="AL597" s="3"/>
     </row>
-    <row r="598" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -25233,7 +25235,7 @@
       <c r="AK598" s="3"/>
       <c r="AL598" s="3"/>
     </row>
-    <row r="599" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -25273,7 +25275,7 @@
       <c r="AK599" s="3"/>
       <c r="AL599" s="3"/>
     </row>
-    <row r="600" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -25313,7 +25315,7 @@
       <c r="AK600" s="3"/>
       <c r="AL600" s="3"/>
     </row>
-    <row r="601" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -25353,7 +25355,7 @@
       <c r="AK601" s="3"/>
       <c r="AL601" s="3"/>
     </row>
-    <row r="602" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -25393,7 +25395,7 @@
       <c r="AK602" s="3"/>
       <c r="AL602" s="3"/>
     </row>
-    <row r="603" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -25433,7 +25435,7 @@
       <c r="AK603" s="3"/>
       <c r="AL603" s="3"/>
     </row>
-    <row r="604" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -25473,7 +25475,7 @@
       <c r="AK604" s="3"/>
       <c r="AL604" s="3"/>
     </row>
-    <row r="605" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -25513,7 +25515,7 @@
       <c r="AK605" s="3"/>
       <c r="AL605" s="3"/>
     </row>
-    <row r="606" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -25553,7 +25555,7 @@
       <c r="AK606" s="3"/>
       <c r="AL606" s="3"/>
     </row>
-    <row r="607" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -25593,7 +25595,7 @@
       <c r="AK607" s="3"/>
       <c r="AL607" s="3"/>
     </row>
-    <row r="608" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -25633,7 +25635,7 @@
       <c r="AK608" s="3"/>
       <c r="AL608" s="3"/>
     </row>
-    <row r="609" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -25673,7 +25675,7 @@
       <c r="AK609" s="3"/>
       <c r="AL609" s="3"/>
     </row>
-    <row r="610" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -25713,7 +25715,7 @@
       <c r="AK610" s="3"/>
       <c r="AL610" s="3"/>
     </row>
-    <row r="611" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -25753,7 +25755,7 @@
       <c r="AK611" s="3"/>
       <c r="AL611" s="3"/>
     </row>
-    <row r="612" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -25793,7 +25795,7 @@
       <c r="AK612" s="3"/>
       <c r="AL612" s="3"/>
     </row>
-    <row r="613" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -25833,7 +25835,7 @@
       <c r="AK613" s="3"/>
       <c r="AL613" s="3"/>
     </row>
-    <row r="614" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -25873,7 +25875,7 @@
       <c r="AK614" s="3"/>
       <c r="AL614" s="3"/>
     </row>
-    <row r="615" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -25913,7 +25915,7 @@
       <c r="AK615" s="3"/>
       <c r="AL615" s="3"/>
     </row>
-    <row r="616" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -25953,7 +25955,7 @@
       <c r="AK616" s="3"/>
       <c r="AL616" s="3"/>
     </row>
-    <row r="617" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -25993,7 +25995,7 @@
       <c r="AK617" s="3"/>
       <c r="AL617" s="3"/>
     </row>
-    <row r="618" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -26033,7 +26035,7 @@
       <c r="AK618" s="3"/>
       <c r="AL618" s="3"/>
     </row>
-    <row r="619" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -26073,7 +26075,7 @@
       <c r="AK619" s="3"/>
       <c r="AL619" s="3"/>
     </row>
-    <row r="620" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -26113,7 +26115,7 @@
       <c r="AK620" s="3"/>
       <c r="AL620" s="3"/>
     </row>
-    <row r="621" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -26153,7 +26155,7 @@
       <c r="AK621" s="3"/>
       <c r="AL621" s="3"/>
     </row>
-    <row r="622" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -26193,7 +26195,7 @@
       <c r="AK622" s="3"/>
       <c r="AL622" s="3"/>
     </row>
-    <row r="623" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -26233,7 +26235,7 @@
       <c r="AK623" s="3"/>
       <c r="AL623" s="3"/>
     </row>
-    <row r="624" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -26273,7 +26275,7 @@
       <c r="AK624" s="3"/>
       <c r="AL624" s="3"/>
     </row>
-    <row r="625" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -26313,7 +26315,7 @@
       <c r="AK625" s="3"/>
       <c r="AL625" s="3"/>
     </row>
-    <row r="626" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -26353,7 +26355,7 @@
       <c r="AK626" s="3"/>
       <c r="AL626" s="3"/>
     </row>
-    <row r="627" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -26393,7 +26395,7 @@
       <c r="AK627" s="3"/>
       <c r="AL627" s="3"/>
     </row>
-    <row r="628" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -26433,7 +26435,7 @@
       <c r="AK628" s="3"/>
       <c r="AL628" s="3"/>
     </row>
-    <row r="629" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -26473,7 +26475,7 @@
       <c r="AK629" s="3"/>
       <c r="AL629" s="3"/>
     </row>
-    <row r="630" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -26513,7 +26515,7 @@
       <c r="AK630" s="3"/>
       <c r="AL630" s="3"/>
     </row>
-    <row r="631" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -26553,7 +26555,7 @@
       <c r="AK631" s="3"/>
       <c r="AL631" s="3"/>
     </row>
-    <row r="632" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -26593,7 +26595,7 @@
       <c r="AK632" s="3"/>
       <c r="AL632" s="3"/>
     </row>
-    <row r="633" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -26633,7 +26635,7 @@
       <c r="AK633" s="3"/>
       <c r="AL633" s="3"/>
     </row>
-    <row r="634" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -26673,7 +26675,7 @@
       <c r="AK634" s="3"/>
       <c r="AL634" s="3"/>
     </row>
-    <row r="635" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -26713,7 +26715,7 @@
       <c r="AK635" s="3"/>
       <c r="AL635" s="3"/>
     </row>
-    <row r="636" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -26753,7 +26755,7 @@
       <c r="AK636" s="3"/>
       <c r="AL636" s="3"/>
     </row>
-    <row r="637" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -26793,7 +26795,7 @@
       <c r="AK637" s="3"/>
       <c r="AL637" s="3"/>
     </row>
-    <row r="638" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -26833,7 +26835,7 @@
       <c r="AK638" s="3"/>
       <c r="AL638" s="3"/>
     </row>
-    <row r="639" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -26873,7 +26875,7 @@
       <c r="AK639" s="3"/>
       <c r="AL639" s="3"/>
     </row>
-    <row r="640" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -26913,7 +26915,7 @@
       <c r="AK640" s="3"/>
       <c r="AL640" s="3"/>
     </row>
-    <row r="641" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -26953,7 +26955,7 @@
       <c r="AK641" s="3"/>
       <c r="AL641" s="3"/>
     </row>
-    <row r="642" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -26993,7 +26995,7 @@
       <c r="AK642" s="3"/>
       <c r="AL642" s="3"/>
     </row>
-    <row r="643" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -27033,7 +27035,7 @@
       <c r="AK643" s="3"/>
       <c r="AL643" s="3"/>
     </row>
-    <row r="644" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -27073,7 +27075,7 @@
       <c r="AK644" s="3"/>
       <c r="AL644" s="3"/>
     </row>
-    <row r="645" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -27113,7 +27115,7 @@
       <c r="AK645" s="3"/>
       <c r="AL645" s="3"/>
     </row>
-    <row r="646" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -27153,7 +27155,7 @@
       <c r="AK646" s="3"/>
       <c r="AL646" s="3"/>
     </row>
-    <row r="647" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -27193,7 +27195,7 @@
       <c r="AK647" s="3"/>
       <c r="AL647" s="3"/>
     </row>
-    <row r="648" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -27233,7 +27235,7 @@
       <c r="AK648" s="3"/>
       <c r="AL648" s="3"/>
     </row>
-    <row r="649" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -27273,7 +27275,7 @@
       <c r="AK649" s="3"/>
       <c r="AL649" s="3"/>
     </row>
-    <row r="650" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -27313,7 +27315,7 @@
       <c r="AK650" s="3"/>
       <c r="AL650" s="3"/>
     </row>
-    <row r="651" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -27353,7 +27355,7 @@
       <c r="AK651" s="3"/>
       <c r="AL651" s="3"/>
     </row>
-    <row r="652" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -27393,7 +27395,7 @@
       <c r="AK652" s="3"/>
       <c r="AL652" s="3"/>
     </row>
-    <row r="653" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -27433,7 +27435,7 @@
       <c r="AK653" s="3"/>
       <c r="AL653" s="3"/>
     </row>
-    <row r="654" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -27473,7 +27475,7 @@
       <c r="AK654" s="3"/>
       <c r="AL654" s="3"/>
     </row>
-    <row r="655" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -27513,7 +27515,7 @@
       <c r="AK655" s="3"/>
       <c r="AL655" s="3"/>
     </row>
-    <row r="656" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -27553,7 +27555,7 @@
       <c r="AK656" s="3"/>
       <c r="AL656" s="3"/>
     </row>
-    <row r="657" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -27593,7 +27595,7 @@
       <c r="AK657" s="3"/>
       <c r="AL657" s="3"/>
     </row>
-    <row r="658" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -27633,7 +27635,7 @@
       <c r="AK658" s="3"/>
       <c r="AL658" s="3"/>
     </row>
-    <row r="659" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -27673,7 +27675,7 @@
       <c r="AK659" s="3"/>
       <c r="AL659" s="3"/>
     </row>
-    <row r="660" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -27713,7 +27715,7 @@
       <c r="AK660" s="3"/>
       <c r="AL660" s="3"/>
     </row>
-    <row r="661" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -27753,7 +27755,7 @@
       <c r="AK661" s="3"/>
       <c r="AL661" s="3"/>
     </row>
-    <row r="662" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -27793,7 +27795,7 @@
       <c r="AK662" s="3"/>
       <c r="AL662" s="3"/>
     </row>
-    <row r="663" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -27833,7 +27835,7 @@
       <c r="AK663" s="3"/>
       <c r="AL663" s="3"/>
     </row>
-    <row r="664" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -27873,7 +27875,7 @@
       <c r="AK664" s="3"/>
       <c r="AL664" s="3"/>
     </row>
-    <row r="665" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -27913,7 +27915,7 @@
       <c r="AK665" s="3"/>
       <c r="AL665" s="3"/>
     </row>
-    <row r="666" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -27953,7 +27955,7 @@
       <c r="AK666" s="3"/>
       <c r="AL666" s="3"/>
     </row>
-    <row r="667" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -27993,7 +27995,7 @@
       <c r="AK667" s="3"/>
       <c r="AL667" s="3"/>
     </row>
-    <row r="668" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -28033,7 +28035,7 @@
       <c r="AK668" s="3"/>
       <c r="AL668" s="3"/>
     </row>
-    <row r="669" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -28073,7 +28075,7 @@
       <c r="AK669" s="3"/>
       <c r="AL669" s="3"/>
     </row>
-    <row r="670" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -28113,7 +28115,7 @@
       <c r="AK670" s="3"/>
       <c r="AL670" s="3"/>
     </row>
-    <row r="671" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -28153,7 +28155,7 @@
       <c r="AK671" s="3"/>
       <c r="AL671" s="3"/>
     </row>
-    <row r="672" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -28193,7 +28195,7 @@
       <c r="AK672" s="3"/>
       <c r="AL672" s="3"/>
     </row>
-    <row r="673" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -28233,7 +28235,7 @@
       <c r="AK673" s="3"/>
       <c r="AL673" s="3"/>
     </row>
-    <row r="674" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -28273,7 +28275,7 @@
       <c r="AK674" s="3"/>
       <c r="AL674" s="3"/>
     </row>
-    <row r="675" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -28313,7 +28315,7 @@
       <c r="AK675" s="3"/>
       <c r="AL675" s="3"/>
     </row>
-    <row r="676" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -28353,7 +28355,7 @@
       <c r="AK676" s="3"/>
       <c r="AL676" s="3"/>
     </row>
-    <row r="677" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -28393,7 +28395,7 @@
       <c r="AK677" s="3"/>
       <c r="AL677" s="3"/>
     </row>
-    <row r="678" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -28433,7 +28435,7 @@
       <c r="AK678" s="3"/>
       <c r="AL678" s="3"/>
     </row>
-    <row r="679" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -28473,7 +28475,7 @@
       <c r="AK679" s="3"/>
       <c r="AL679" s="3"/>
     </row>
-    <row r="680" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -28513,7 +28515,7 @@
       <c r="AK680" s="3"/>
       <c r="AL680" s="3"/>
     </row>
-    <row r="681" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -28553,7 +28555,7 @@
       <c r="AK681" s="3"/>
       <c r="AL681" s="3"/>
     </row>
-    <row r="682" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -28593,7 +28595,7 @@
       <c r="AK682" s="3"/>
       <c r="AL682" s="3"/>
     </row>
-    <row r="683" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -28633,7 +28635,7 @@
       <c r="AK683" s="3"/>
       <c r="AL683" s="3"/>
     </row>
-    <row r="684" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -28673,7 +28675,7 @@
       <c r="AK684" s="3"/>
       <c r="AL684" s="3"/>
     </row>
-    <row r="685" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -28713,7 +28715,7 @@
       <c r="AK685" s="3"/>
       <c r="AL685" s="3"/>
     </row>
-    <row r="686" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -28753,7 +28755,7 @@
       <c r="AK686" s="3"/>
       <c r="AL686" s="3"/>
     </row>
-    <row r="687" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -28793,7 +28795,7 @@
       <c r="AK687" s="3"/>
       <c r="AL687" s="3"/>
     </row>
-    <row r="688" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -28833,7 +28835,7 @@
       <c r="AK688" s="3"/>
       <c r="AL688" s="3"/>
     </row>
-    <row r="689" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -28873,7 +28875,7 @@
       <c r="AK689" s="3"/>
       <c r="AL689" s="3"/>
     </row>
-    <row r="690" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -28913,7 +28915,7 @@
       <c r="AK690" s="3"/>
       <c r="AL690" s="3"/>
     </row>
-    <row r="691" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -28953,7 +28955,7 @@
       <c r="AK691" s="3"/>
       <c r="AL691" s="3"/>
     </row>
-    <row r="692" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -28993,7 +28995,7 @@
       <c r="AK692" s="3"/>
       <c r="AL692" s="3"/>
     </row>
-    <row r="693" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -29033,7 +29035,7 @@
       <c r="AK693" s="3"/>
       <c r="AL693" s="3"/>
     </row>
-    <row r="694" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -29073,7 +29075,7 @@
       <c r="AK694" s="3"/>
       <c r="AL694" s="3"/>
     </row>
-    <row r="695" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -29113,7 +29115,7 @@
       <c r="AK695" s="3"/>
       <c r="AL695" s="3"/>
     </row>
-    <row r="696" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -29153,7 +29155,7 @@
       <c r="AK696" s="3"/>
       <c r="AL696" s="3"/>
     </row>
-    <row r="697" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -29193,7 +29195,7 @@
       <c r="AK697" s="3"/>
       <c r="AL697" s="3"/>
     </row>
-    <row r="698" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -29233,7 +29235,7 @@
       <c r="AK698" s="3"/>
       <c r="AL698" s="3"/>
     </row>
-    <row r="699" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -29273,7 +29275,7 @@
       <c r="AK699" s="3"/>
       <c r="AL699" s="3"/>
     </row>
-    <row r="700" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -29313,7 +29315,7 @@
       <c r="AK700" s="3"/>
       <c r="AL700" s="3"/>
     </row>
-    <row r="701" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -29353,7 +29355,7 @@
       <c r="AK701" s="3"/>
       <c r="AL701" s="3"/>
     </row>
-    <row r="702" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -29393,7 +29395,7 @@
       <c r="AK702" s="3"/>
       <c r="AL702" s="3"/>
     </row>
-    <row r="703" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -29433,7 +29435,7 @@
       <c r="AK703" s="3"/>
       <c r="AL703" s="3"/>
     </row>
-    <row r="704" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -29473,7 +29475,7 @@
       <c r="AK704" s="3"/>
       <c r="AL704" s="3"/>
     </row>
-    <row r="705" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -29513,7 +29515,7 @@
       <c r="AK705" s="3"/>
       <c r="AL705" s="3"/>
     </row>
-    <row r="706" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -29553,7 +29555,7 @@
       <c r="AK706" s="3"/>
       <c r="AL706" s="3"/>
     </row>
-    <row r="707" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -29593,7 +29595,7 @@
       <c r="AK707" s="3"/>
       <c r="AL707" s="3"/>
     </row>
-    <row r="708" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -29633,7 +29635,7 @@
       <c r="AK708" s="3"/>
       <c r="AL708" s="3"/>
     </row>
-    <row r="709" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -29673,7 +29675,7 @@
       <c r="AK709" s="3"/>
       <c r="AL709" s="3"/>
     </row>
-    <row r="710" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -29713,7 +29715,7 @@
       <c r="AK710" s="3"/>
       <c r="AL710" s="3"/>
     </row>
-    <row r="711" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -29753,7 +29755,7 @@
       <c r="AK711" s="3"/>
       <c r="AL711" s="3"/>
     </row>
-    <row r="712" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -29793,7 +29795,7 @@
       <c r="AK712" s="3"/>
       <c r="AL712" s="3"/>
     </row>
-    <row r="713" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -29833,7 +29835,7 @@
       <c r="AK713" s="3"/>
       <c r="AL713" s="3"/>
     </row>
-    <row r="714" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -29873,7 +29875,7 @@
       <c r="AK714" s="3"/>
       <c r="AL714" s="3"/>
     </row>
-    <row r="715" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -29913,7 +29915,7 @@
       <c r="AK715" s="3"/>
       <c r="AL715" s="3"/>
     </row>
-    <row r="716" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -29953,7 +29955,7 @@
       <c r="AK716" s="3"/>
       <c r="AL716" s="3"/>
     </row>
-    <row r="717" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -29993,7 +29995,7 @@
       <c r="AK717" s="3"/>
       <c r="AL717" s="3"/>
     </row>
-    <row r="718" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -30033,7 +30035,7 @@
       <c r="AK718" s="3"/>
       <c r="AL718" s="3"/>
     </row>
-    <row r="719" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -30073,7 +30075,7 @@
       <c r="AK719" s="3"/>
       <c r="AL719" s="3"/>
     </row>
-    <row r="720" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -30113,7 +30115,7 @@
       <c r="AK720" s="3"/>
       <c r="AL720" s="3"/>
     </row>
-    <row r="721" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -30153,7 +30155,7 @@
       <c r="AK721" s="3"/>
       <c r="AL721" s="3"/>
     </row>
-    <row r="722" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -30193,7 +30195,7 @@
       <c r="AK722" s="3"/>
       <c r="AL722" s="3"/>
     </row>
-    <row r="723" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -30233,7 +30235,7 @@
       <c r="AK723" s="3"/>
       <c r="AL723" s="3"/>
     </row>
-    <row r="724" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -30273,7 +30275,7 @@
       <c r="AK724" s="3"/>
       <c r="AL724" s="3"/>
     </row>
-    <row r="725" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -30313,7 +30315,7 @@
       <c r="AK725" s="3"/>
       <c r="AL725" s="3"/>
     </row>
-    <row r="726" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -30353,7 +30355,7 @@
       <c r="AK726" s="3"/>
       <c r="AL726" s="3"/>
     </row>
-    <row r="727" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -30393,7 +30395,7 @@
       <c r="AK727" s="3"/>
       <c r="AL727" s="3"/>
     </row>
-    <row r="728" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -30433,7 +30435,7 @@
       <c r="AK728" s="3"/>
       <c r="AL728" s="3"/>
     </row>
-    <row r="729" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -30473,7 +30475,7 @@
       <c r="AK729" s="3"/>
       <c r="AL729" s="3"/>
     </row>
-    <row r="730" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -30513,7 +30515,7 @@
       <c r="AK730" s="3"/>
       <c r="AL730" s="3"/>
     </row>
-    <row r="731" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -30553,7 +30555,7 @@
       <c r="AK731" s="3"/>
       <c r="AL731" s="3"/>
     </row>
-    <row r="732" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -30593,7 +30595,7 @@
       <c r="AK732" s="3"/>
       <c r="AL732" s="3"/>
     </row>
-    <row r="733" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -30633,7 +30635,7 @@
       <c r="AK733" s="3"/>
       <c r="AL733" s="3"/>
     </row>
-    <row r="734" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -30673,7 +30675,7 @@
       <c r="AK734" s="3"/>
       <c r="AL734" s="3"/>
     </row>
-    <row r="735" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -30713,7 +30715,7 @@
       <c r="AK735" s="3"/>
       <c r="AL735" s="3"/>
     </row>
-    <row r="736" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -30753,7 +30755,7 @@
       <c r="AK736" s="3"/>
       <c r="AL736" s="3"/>
     </row>
-    <row r="737" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -30793,7 +30795,7 @@
       <c r="AK737" s="3"/>
       <c r="AL737" s="3"/>
     </row>
-    <row r="738" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -30833,7 +30835,7 @@
       <c r="AK738" s="3"/>
       <c r="AL738" s="3"/>
     </row>
-    <row r="739" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -30873,7 +30875,7 @@
       <c r="AK739" s="3"/>
       <c r="AL739" s="3"/>
     </row>
-    <row r="740" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -30913,7 +30915,7 @@
       <c r="AK740" s="3"/>
       <c r="AL740" s="3"/>
     </row>
-    <row r="741" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -30953,7 +30955,7 @@
       <c r="AK741" s="3"/>
       <c r="AL741" s="3"/>
     </row>
-    <row r="742" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -30993,7 +30995,7 @@
       <c r="AK742" s="3"/>
       <c r="AL742" s="3"/>
     </row>
-    <row r="743" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -31033,7 +31035,7 @@
       <c r="AK743" s="3"/>
       <c r="AL743" s="3"/>
     </row>
-    <row r="744" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -31073,7 +31075,7 @@
       <c r="AK744" s="3"/>
       <c r="AL744" s="3"/>
     </row>
-    <row r="745" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -31113,7 +31115,7 @@
       <c r="AK745" s="3"/>
       <c r="AL745" s="3"/>
     </row>
-    <row r="746" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -31153,7 +31155,7 @@
       <c r="AK746" s="3"/>
       <c r="AL746" s="3"/>
     </row>
-    <row r="747" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -31193,7 +31195,7 @@
       <c r="AK747" s="3"/>
       <c r="AL747" s="3"/>
     </row>
-    <row r="748" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -31233,7 +31235,7 @@
       <c r="AK748" s="3"/>
       <c r="AL748" s="3"/>
     </row>
-    <row r="749" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -31273,7 +31275,7 @@
       <c r="AK749" s="3"/>
       <c r="AL749" s="3"/>
     </row>
-    <row r="750" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -31313,7 +31315,7 @@
       <c r="AK750" s="3"/>
       <c r="AL750" s="3"/>
     </row>
-    <row r="751" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -31353,7 +31355,7 @@
       <c r="AK751" s="3"/>
       <c r="AL751" s="3"/>
     </row>
-    <row r="752" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -31393,7 +31395,7 @@
       <c r="AK752" s="3"/>
       <c r="AL752" s="3"/>
     </row>
-    <row r="753" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -31433,7 +31435,7 @@
       <c r="AK753" s="3"/>
       <c r="AL753" s="3"/>
     </row>
-    <row r="754" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -31473,7 +31475,7 @@
       <c r="AK754" s="3"/>
       <c r="AL754" s="3"/>
     </row>
-    <row r="755" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -31513,7 +31515,7 @@
       <c r="AK755" s="3"/>
       <c r="AL755" s="3"/>
     </row>
-    <row r="756" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -31553,7 +31555,7 @@
       <c r="AK756" s="3"/>
       <c r="AL756" s="3"/>
     </row>
-    <row r="757" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -31593,7 +31595,7 @@
       <c r="AK757" s="3"/>
       <c r="AL757" s="3"/>
     </row>
-    <row r="758" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -31633,7 +31635,7 @@
       <c r="AK758" s="3"/>
       <c r="AL758" s="3"/>
     </row>
-    <row r="759" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -31673,7 +31675,7 @@
       <c r="AK759" s="3"/>
       <c r="AL759" s="3"/>
     </row>
-    <row r="760" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -31713,7 +31715,7 @@
       <c r="AK760" s="3"/>
       <c r="AL760" s="3"/>
     </row>
-    <row r="761" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -31753,7 +31755,7 @@
       <c r="AK761" s="3"/>
       <c r="AL761" s="3"/>
     </row>
-    <row r="762" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -31793,7 +31795,7 @@
       <c r="AK762" s="3"/>
       <c r="AL762" s="3"/>
     </row>
-    <row r="763" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -31833,7 +31835,7 @@
       <c r="AK763" s="3"/>
       <c r="AL763" s="3"/>
     </row>
-    <row r="764" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -31873,7 +31875,7 @@
       <c r="AK764" s="3"/>
       <c r="AL764" s="3"/>
     </row>
-    <row r="765" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -31913,7 +31915,7 @@
       <c r="AK765" s="3"/>
       <c r="AL765" s="3"/>
     </row>
-    <row r="766" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -31953,7 +31955,7 @@
       <c r="AK766" s="3"/>
       <c r="AL766" s="3"/>
     </row>
-    <row r="767" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -31993,7 +31995,7 @@
       <c r="AK767" s="3"/>
       <c r="AL767" s="3"/>
     </row>
-    <row r="768" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -32033,7 +32035,7 @@
       <c r="AK768" s="3"/>
       <c r="AL768" s="3"/>
     </row>
-    <row r="769" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -32073,7 +32075,7 @@
       <c r="AK769" s="3"/>
       <c r="AL769" s="3"/>
     </row>
-    <row r="770" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -32113,7 +32115,7 @@
       <c r="AK770" s="3"/>
       <c r="AL770" s="3"/>
     </row>
-    <row r="771" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -32153,7 +32155,7 @@
       <c r="AK771" s="3"/>
       <c r="AL771" s="3"/>
     </row>
-    <row r="772" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -32193,7 +32195,7 @@
       <c r="AK772" s="3"/>
       <c r="AL772" s="3"/>
     </row>
-    <row r="773" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -32233,7 +32235,7 @@
       <c r="AK773" s="3"/>
       <c r="AL773" s="3"/>
     </row>
-    <row r="774" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -32273,7 +32275,7 @@
       <c r="AK774" s="3"/>
       <c r="AL774" s="3"/>
     </row>
-    <row r="775" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -32313,7 +32315,7 @@
       <c r="AK775" s="3"/>
       <c r="AL775" s="3"/>
     </row>
-    <row r="776" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -32353,7 +32355,7 @@
       <c r="AK776" s="3"/>
       <c r="AL776" s="3"/>
     </row>
-    <row r="777" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -32393,7 +32395,7 @@
       <c r="AK777" s="3"/>
       <c r="AL777" s="3"/>
     </row>
-    <row r="778" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -32433,7 +32435,7 @@
       <c r="AK778" s="3"/>
       <c r="AL778" s="3"/>
     </row>
-    <row r="779" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -32473,7 +32475,7 @@
       <c r="AK779" s="3"/>
       <c r="AL779" s="3"/>
     </row>
-    <row r="780" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -32513,7 +32515,7 @@
       <c r="AK780" s="3"/>
       <c r="AL780" s="3"/>
     </row>
-    <row r="781" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -32553,7 +32555,7 @@
       <c r="AK781" s="3"/>
       <c r="AL781" s="3"/>
     </row>
-    <row r="782" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -32593,7 +32595,7 @@
       <c r="AK782" s="3"/>
       <c r="AL782" s="3"/>
     </row>
-    <row r="783" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -32633,7 +32635,7 @@
       <c r="AK783" s="3"/>
       <c r="AL783" s="3"/>
     </row>
-    <row r="784" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -32673,7 +32675,7 @@
       <c r="AK784" s="3"/>
       <c r="AL784" s="3"/>
     </row>
-    <row r="785" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -32713,7 +32715,7 @@
       <c r="AK785" s="3"/>
       <c r="AL785" s="3"/>
     </row>
-    <row r="786" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -32753,7 +32755,7 @@
       <c r="AK786" s="3"/>
       <c r="AL786" s="3"/>
     </row>
-    <row r="787" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -32793,7 +32795,7 @@
       <c r="AK787" s="3"/>
       <c r="AL787" s="3"/>
     </row>
-    <row r="788" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -32833,7 +32835,7 @@
       <c r="AK788" s="3"/>
       <c r="AL788" s="3"/>
     </row>
-    <row r="789" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -32873,7 +32875,7 @@
       <c r="AK789" s="3"/>
       <c r="AL789" s="3"/>
     </row>
-    <row r="790" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -32913,7 +32915,7 @@
       <c r="AK790" s="3"/>
       <c r="AL790" s="3"/>
     </row>
-    <row r="791" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -32953,7 +32955,7 @@
       <c r="AK791" s="3"/>
       <c r="AL791" s="3"/>
     </row>
-    <row r="792" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -32993,7 +32995,7 @@
       <c r="AK792" s="3"/>
       <c r="AL792" s="3"/>
     </row>
-    <row r="793" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -33033,7 +33035,7 @@
       <c r="AK793" s="3"/>
       <c r="AL793" s="3"/>
     </row>
-    <row r="794" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -33073,7 +33075,7 @@
       <c r="AK794" s="3"/>
       <c r="AL794" s="3"/>
     </row>
-    <row r="795" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -33113,7 +33115,7 @@
       <c r="AK795" s="3"/>
       <c r="AL795" s="3"/>
     </row>
-    <row r="796" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -33153,7 +33155,7 @@
       <c r="AK796" s="3"/>
       <c r="AL796" s="3"/>
     </row>
-    <row r="797" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -33193,7 +33195,7 @@
       <c r="AK797" s="3"/>
       <c r="AL797" s="3"/>
     </row>
-    <row r="798" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -33233,7 +33235,7 @@
       <c r="AK798" s="3"/>
       <c r="AL798" s="3"/>
     </row>
-    <row r="799" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -33273,7 +33275,7 @@
       <c r="AK799" s="3"/>
       <c r="AL799" s="3"/>
     </row>
-    <row r="800" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -33313,7 +33315,7 @@
       <c r="AK800" s="3"/>
       <c r="AL800" s="3"/>
     </row>
-    <row r="801" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -33353,7 +33355,7 @@
       <c r="AK801" s="3"/>
       <c r="AL801" s="3"/>
     </row>
-    <row r="802" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -33393,7 +33395,7 @@
       <c r="AK802" s="3"/>
       <c r="AL802" s="3"/>
     </row>
-    <row r="803" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -33433,7 +33435,7 @@
       <c r="AK803" s="3"/>
       <c r="AL803" s="3"/>
     </row>
-    <row r="804" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -33473,7 +33475,7 @@
       <c r="AK804" s="3"/>
       <c r="AL804" s="3"/>
     </row>
-    <row r="805" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -33513,7 +33515,7 @@
       <c r="AK805" s="3"/>
       <c r="AL805" s="3"/>
     </row>
-    <row r="806" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -33553,7 +33555,7 @@
       <c r="AK806" s="3"/>
       <c r="AL806" s="3"/>
     </row>
-    <row r="807" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -33593,7 +33595,7 @@
       <c r="AK807" s="3"/>
       <c r="AL807" s="3"/>
     </row>
-    <row r="808" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -33633,7 +33635,7 @@
       <c r="AK808" s="3"/>
       <c r="AL808" s="3"/>
     </row>
-    <row r="809" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -33673,7 +33675,7 @@
       <c r="AK809" s="3"/>
       <c r="AL809" s="3"/>
     </row>
-    <row r="810" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -33713,7 +33715,7 @@
       <c r="AK810" s="3"/>
       <c r="AL810" s="3"/>
     </row>
-    <row r="811" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -33753,7 +33755,7 @@
       <c r="AK811" s="3"/>
       <c r="AL811" s="3"/>
     </row>
-    <row r="812" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -33793,7 +33795,7 @@
       <c r="AK812" s="3"/>
       <c r="AL812" s="3"/>
     </row>
-    <row r="813" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -33833,7 +33835,7 @@
       <c r="AK813" s="3"/>
       <c r="AL813" s="3"/>
     </row>
-    <row r="814" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -33873,7 +33875,7 @@
       <c r="AK814" s="3"/>
       <c r="AL814" s="3"/>
     </row>
-    <row r="815" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -33913,7 +33915,7 @@
       <c r="AK815" s="3"/>
       <c r="AL815" s="3"/>
     </row>
-    <row r="816" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -33953,7 +33955,7 @@
       <c r="AK816" s="3"/>
       <c r="AL816" s="3"/>
     </row>
-    <row r="817" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -33993,7 +33995,7 @@
       <c r="AK817" s="3"/>
       <c r="AL817" s="3"/>
     </row>
-    <row r="818" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -34033,7 +34035,7 @@
       <c r="AK818" s="3"/>
       <c r="AL818" s="3"/>
     </row>
-    <row r="819" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -34073,7 +34075,7 @@
       <c r="AK819" s="3"/>
       <c r="AL819" s="3"/>
     </row>
-    <row r="820" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -34113,7 +34115,7 @@
       <c r="AK820" s="3"/>
       <c r="AL820" s="3"/>
     </row>
-    <row r="821" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -34153,7 +34155,7 @@
       <c r="AK821" s="3"/>
       <c r="AL821" s="3"/>
     </row>
-    <row r="822" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -34193,7 +34195,7 @@
       <c r="AK822" s="3"/>
       <c r="AL822" s="3"/>
     </row>
-    <row r="823" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -34233,7 +34235,7 @@
       <c r="AK823" s="3"/>
       <c r="AL823" s="3"/>
     </row>
-    <row r="824" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -34273,7 +34275,7 @@
       <c r="AK824" s="3"/>
       <c r="AL824" s="3"/>
     </row>
-    <row r="825" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -34313,7 +34315,7 @@
       <c r="AK825" s="3"/>
       <c r="AL825" s="3"/>
     </row>
-    <row r="826" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -34353,7 +34355,7 @@
       <c r="AK826" s="3"/>
       <c r="AL826" s="3"/>
     </row>
-    <row r="827" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -34393,7 +34395,7 @@
       <c r="AK827" s="3"/>
       <c r="AL827" s="3"/>
     </row>
-    <row r="828" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -34433,7 +34435,7 @@
       <c r="AK828" s="3"/>
       <c r="AL828" s="3"/>
     </row>
-    <row r="829" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -34473,7 +34475,7 @@
       <c r="AK829" s="3"/>
       <c r="AL829" s="3"/>
     </row>
-    <row r="830" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -34513,7 +34515,7 @@
       <c r="AK830" s="3"/>
       <c r="AL830" s="3"/>
     </row>
-    <row r="831" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -34553,7 +34555,7 @@
       <c r="AK831" s="3"/>
       <c r="AL831" s="3"/>
     </row>
-    <row r="832" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -34593,7 +34595,7 @@
       <c r="AK832" s="3"/>
       <c r="AL832" s="3"/>
     </row>
-    <row r="833" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -34633,7 +34635,7 @@
       <c r="AK833" s="3"/>
       <c r="AL833" s="3"/>
     </row>
-    <row r="834" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -34673,7 +34675,7 @@
       <c r="AK834" s="3"/>
       <c r="AL834" s="3"/>
     </row>
-    <row r="835" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -34713,7 +34715,7 @@
       <c r="AK835" s="3"/>
       <c r="AL835" s="3"/>
     </row>
-    <row r="836" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -34753,7 +34755,7 @@
       <c r="AK836" s="3"/>
       <c r="AL836" s="3"/>
     </row>
-    <row r="837" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -34793,7 +34795,7 @@
       <c r="AK837" s="3"/>
       <c r="AL837" s="3"/>
     </row>
-    <row r="838" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -34833,7 +34835,7 @@
       <c r="AK838" s="3"/>
       <c r="AL838" s="3"/>
     </row>
-    <row r="839" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -34873,7 +34875,7 @@
       <c r="AK839" s="3"/>
       <c r="AL839" s="3"/>
     </row>
-    <row r="840" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -34913,7 +34915,7 @@
       <c r="AK840" s="3"/>
       <c r="AL840" s="3"/>
     </row>
-    <row r="841" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -34953,7 +34955,7 @@
       <c r="AK841" s="3"/>
       <c r="AL841" s="3"/>
     </row>
-    <row r="842" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -34993,7 +34995,7 @@
       <c r="AK842" s="3"/>
       <c r="AL842" s="3"/>
     </row>
-    <row r="843" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -35033,7 +35035,7 @@
       <c r="AK843" s="3"/>
       <c r="AL843" s="3"/>
     </row>
-    <row r="844" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -35073,7 +35075,7 @@
       <c r="AK844" s="3"/>
       <c r="AL844" s="3"/>
     </row>
-    <row r="845" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -35113,7 +35115,7 @@
       <c r="AK845" s="3"/>
       <c r="AL845" s="3"/>
     </row>
-    <row r="846" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -35153,7 +35155,7 @@
       <c r="AK846" s="3"/>
       <c r="AL846" s="3"/>
     </row>
-    <row r="847" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -35193,7 +35195,7 @@
       <c r="AK847" s="3"/>
       <c r="AL847" s="3"/>
     </row>
-    <row r="848" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -35233,7 +35235,7 @@
       <c r="AK848" s="3"/>
       <c r="AL848" s="3"/>
     </row>
-    <row r="849" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -35273,7 +35275,7 @@
       <c r="AK849" s="3"/>
       <c r="AL849" s="3"/>
     </row>
-    <row r="850" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -35313,7 +35315,7 @@
       <c r="AK850" s="3"/>
       <c r="AL850" s="3"/>
     </row>
-    <row r="851" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -35353,7 +35355,7 @@
       <c r="AK851" s="3"/>
       <c r="AL851" s="3"/>
     </row>
-    <row r="852" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -35393,7 +35395,7 @@
       <c r="AK852" s="3"/>
       <c r="AL852" s="3"/>
     </row>
-    <row r="853" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -35433,7 +35435,7 @@
       <c r="AK853" s="3"/>
       <c r="AL853" s="3"/>
     </row>
-    <row r="854" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -35473,7 +35475,7 @@
       <c r="AK854" s="3"/>
       <c r="AL854" s="3"/>
     </row>
-    <row r="855" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -35513,7 +35515,7 @@
       <c r="AK855" s="3"/>
       <c r="AL855" s="3"/>
     </row>
-    <row r="856" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -35553,7 +35555,7 @@
       <c r="AK856" s="3"/>
       <c r="AL856" s="3"/>
     </row>
-    <row r="857" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -35593,7 +35595,7 @@
       <c r="AK857" s="3"/>
       <c r="AL857" s="3"/>
     </row>
-    <row r="858" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -35633,7 +35635,7 @@
       <c r="AK858" s="3"/>
       <c r="AL858" s="3"/>
     </row>
-    <row r="859" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -35673,7 +35675,7 @@
       <c r="AK859" s="3"/>
       <c r="AL859" s="3"/>
     </row>
-    <row r="860" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -35713,7 +35715,7 @@
       <c r="AK860" s="3"/>
       <c r="AL860" s="3"/>
     </row>
-    <row r="861" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -35753,7 +35755,7 @@
       <c r="AK861" s="3"/>
       <c r="AL861" s="3"/>
     </row>
-    <row r="862" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -35793,7 +35795,7 @@
       <c r="AK862" s="3"/>
       <c r="AL862" s="3"/>
     </row>
-    <row r="863" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -35833,7 +35835,7 @@
       <c r="AK863" s="3"/>
       <c r="AL863" s="3"/>
     </row>
-    <row r="864" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -35873,7 +35875,7 @@
       <c r="AK864" s="3"/>
       <c r="AL864" s="3"/>
     </row>
-    <row r="865" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -35913,7 +35915,7 @@
       <c r="AK865" s="3"/>
       <c r="AL865" s="3"/>
     </row>
-    <row r="866" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -35953,7 +35955,7 @@
       <c r="AK866" s="3"/>
       <c r="AL866" s="3"/>
     </row>
-    <row r="867" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -35993,7 +35995,7 @@
       <c r="AK867" s="3"/>
       <c r="AL867" s="3"/>
     </row>
-    <row r="868" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -36033,7 +36035,7 @@
       <c r="AK868" s="3"/>
       <c r="AL868" s="3"/>
     </row>
-    <row r="869" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -36073,7 +36075,7 @@
       <c r="AK869" s="3"/>
       <c r="AL869" s="3"/>
     </row>
-    <row r="870" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -36113,7 +36115,7 @@
       <c r="AK870" s="3"/>
       <c r="AL870" s="3"/>
     </row>
-    <row r="871" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -36153,7 +36155,7 @@
       <c r="AK871" s="3"/>
       <c r="AL871" s="3"/>
     </row>
-    <row r="872" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -36193,7 +36195,7 @@
       <c r="AK872" s="3"/>
       <c r="AL872" s="3"/>
     </row>
-    <row r="873" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -36233,7 +36235,7 @@
       <c r="AK873" s="3"/>
       <c r="AL873" s="3"/>
     </row>
-    <row r="874" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -36273,7 +36275,7 @@
       <c r="AK874" s="3"/>
       <c r="AL874" s="3"/>
     </row>
-    <row r="875" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -36313,7 +36315,7 @@
       <c r="AK875" s="3"/>
       <c r="AL875" s="3"/>
     </row>
-    <row r="876" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -36353,7 +36355,7 @@
       <c r="AK876" s="3"/>
       <c r="AL876" s="3"/>
     </row>
-    <row r="877" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -36393,7 +36395,7 @@
       <c r="AK877" s="3"/>
       <c r="AL877" s="3"/>
     </row>
-    <row r="878" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -36433,7 +36435,7 @@
       <c r="AK878" s="3"/>
       <c r="AL878" s="3"/>
     </row>
-    <row r="879" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -36473,7 +36475,7 @@
       <c r="AK879" s="3"/>
       <c r="AL879" s="3"/>
     </row>
-    <row r="880" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -36513,7 +36515,7 @@
       <c r="AK880" s="3"/>
       <c r="AL880" s="3"/>
     </row>
-    <row r="881" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -36553,7 +36555,7 @@
       <c r="AK881" s="3"/>
       <c r="AL881" s="3"/>
     </row>
-    <row r="882" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -36593,7 +36595,7 @@
       <c r="AK882" s="3"/>
       <c r="AL882" s="3"/>
     </row>
-    <row r="883" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -36633,7 +36635,7 @@
       <c r="AK883" s="3"/>
       <c r="AL883" s="3"/>
     </row>
-    <row r="884" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -36673,7 +36675,7 @@
       <c r="AK884" s="3"/>
       <c r="AL884" s="3"/>
     </row>
-    <row r="885" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -36713,7 +36715,7 @@
       <c r="AK885" s="3"/>
       <c r="AL885" s="3"/>
     </row>
-    <row r="886" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -36753,7 +36755,7 @@
       <c r="AK886" s="3"/>
       <c r="AL886" s="3"/>
     </row>
-    <row r="887" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -36793,7 +36795,7 @@
       <c r="AK887" s="3"/>
       <c r="AL887" s="3"/>
     </row>
-    <row r="888" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -36833,7 +36835,7 @@
       <c r="AK888" s="3"/>
       <c r="AL888" s="3"/>
     </row>
-    <row r="889" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -36873,7 +36875,7 @@
       <c r="AK889" s="3"/>
       <c r="AL889" s="3"/>
     </row>
-    <row r="890" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -36913,7 +36915,7 @@
       <c r="AK890" s="3"/>
       <c r="AL890" s="3"/>
     </row>
-    <row r="891" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -36953,7 +36955,7 @@
       <c r="AK891" s="3"/>
       <c r="AL891" s="3"/>
     </row>
-    <row r="892" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -36993,7 +36995,7 @@
       <c r="AK892" s="3"/>
       <c r="AL892" s="3"/>
     </row>
-    <row r="893" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -37033,7 +37035,7 @@
       <c r="AK893" s="3"/>
       <c r="AL893" s="3"/>
     </row>
-    <row r="894" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -37073,7 +37075,7 @@
       <c r="AK894" s="3"/>
       <c r="AL894" s="3"/>
     </row>
-    <row r="895" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -37113,7 +37115,7 @@
       <c r="AK895" s="3"/>
       <c r="AL895" s="3"/>
     </row>
-    <row r="896" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -37153,7 +37155,7 @@
       <c r="AK896" s="3"/>
       <c r="AL896" s="3"/>
     </row>
-    <row r="897" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -37193,7 +37195,7 @@
       <c r="AK897" s="3"/>
       <c r="AL897" s="3"/>
     </row>
-    <row r="898" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -37233,7 +37235,7 @@
       <c r="AK898" s="3"/>
       <c r="AL898" s="3"/>
     </row>
-    <row r="899" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -37273,7 +37275,7 @@
       <c r="AK899" s="3"/>
       <c r="AL899" s="3"/>
     </row>
-    <row r="900" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -37313,7 +37315,7 @@
       <c r="AK900" s="3"/>
       <c r="AL900" s="3"/>
     </row>
-    <row r="901" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -37353,7 +37355,7 @@
       <c r="AK901" s="3"/>
       <c r="AL901" s="3"/>
     </row>
-    <row r="902" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -37393,7 +37395,7 @@
       <c r="AK902" s="3"/>
       <c r="AL902" s="3"/>
     </row>
-    <row r="903" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -37433,7 +37435,7 @@
       <c r="AK903" s="3"/>
       <c r="AL903" s="3"/>
     </row>
-    <row r="904" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -37473,7 +37475,7 @@
       <c r="AK904" s="3"/>
       <c r="AL904" s="3"/>
     </row>
-    <row r="905" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -37513,7 +37515,7 @@
       <c r="AK905" s="3"/>
       <c r="AL905" s="3"/>
     </row>
-    <row r="906" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -37553,7 +37555,7 @@
       <c r="AK906" s="3"/>
       <c r="AL906" s="3"/>
     </row>
-    <row r="907" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -37593,7 +37595,7 @@
       <c r="AK907" s="3"/>
       <c r="AL907" s="3"/>
     </row>
-    <row r="908" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -37633,7 +37635,7 @@
       <c r="AK908" s="3"/>
       <c r="AL908" s="3"/>
     </row>
-    <row r="909" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -37673,7 +37675,7 @@
       <c r="AK909" s="3"/>
       <c r="AL909" s="3"/>
     </row>
-    <row r="910" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -37713,7 +37715,7 @@
       <c r="AK910" s="3"/>
       <c r="AL910" s="3"/>
     </row>
-    <row r="911" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -37753,7 +37755,7 @@
       <c r="AK911" s="3"/>
       <c r="AL911" s="3"/>
     </row>
-    <row r="912" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -37793,7 +37795,7 @@
       <c r="AK912" s="3"/>
       <c r="AL912" s="3"/>
     </row>
-    <row r="913" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -37833,7 +37835,7 @@
       <c r="AK913" s="3"/>
       <c r="AL913" s="3"/>
     </row>
-    <row r="914" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -37873,7 +37875,7 @@
       <c r="AK914" s="3"/>
       <c r="AL914" s="3"/>
     </row>
-    <row r="915" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -37913,7 +37915,7 @@
       <c r="AK915" s="3"/>
       <c r="AL915" s="3"/>
     </row>
-    <row r="916" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -37953,7 +37955,7 @@
       <c r="AK916" s="3"/>
       <c r="AL916" s="3"/>
     </row>
-    <row r="917" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -37993,7 +37995,7 @@
       <c r="AK917" s="3"/>
       <c r="AL917" s="3"/>
     </row>
-    <row r="918" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -38033,7 +38035,7 @@
       <c r="AK918" s="3"/>
       <c r="AL918" s="3"/>
     </row>
-    <row r="919" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -38073,7 +38075,7 @@
       <c r="AK919" s="3"/>
       <c r="AL919" s="3"/>
     </row>
-    <row r="920" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -38113,7 +38115,7 @@
       <c r="AK920" s="3"/>
       <c r="AL920" s="3"/>
     </row>
-    <row r="921" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -38153,7 +38155,7 @@
       <c r="AK921" s="3"/>
       <c r="AL921" s="3"/>
     </row>
-    <row r="922" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -38193,7 +38195,7 @@
       <c r="AK922" s="3"/>
       <c r="AL922" s="3"/>
     </row>
-    <row r="923" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -38233,7 +38235,7 @@
       <c r="AK923" s="3"/>
       <c r="AL923" s="3"/>
     </row>
-    <row r="924" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -38273,7 +38275,7 @@
       <c r="AK924" s="3"/>
       <c r="AL924" s="3"/>
     </row>
-    <row r="925" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -38313,7 +38315,7 @@
       <c r="AK925" s="3"/>
       <c r="AL925" s="3"/>
     </row>
-    <row r="926" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -38353,7 +38355,7 @@
       <c r="AK926" s="3"/>
       <c r="AL926" s="3"/>
     </row>
-    <row r="927" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -38393,7 +38395,7 @@
       <c r="AK927" s="3"/>
       <c r="AL927" s="3"/>
     </row>
-    <row r="928" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -38433,7 +38435,7 @@
       <c r="AK928" s="3"/>
       <c r="AL928" s="3"/>
     </row>
-    <row r="929" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -38473,7 +38475,7 @@
       <c r="AK929" s="3"/>
       <c r="AL929" s="3"/>
     </row>
-    <row r="930" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -38513,7 +38515,7 @@
       <c r="AK930" s="3"/>
       <c r="AL930" s="3"/>
     </row>
-    <row r="931" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -38553,7 +38555,7 @@
       <c r="AK931" s="3"/>
       <c r="AL931" s="3"/>
     </row>
-    <row r="932" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -38593,7 +38595,7 @@
       <c r="AK932" s="3"/>
       <c r="AL932" s="3"/>
     </row>
-    <row r="933" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -38633,7 +38635,7 @@
       <c r="AK933" s="3"/>
       <c r="AL933" s="3"/>
     </row>
-    <row r="934" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -38673,7 +38675,7 @@
       <c r="AK934" s="3"/>
       <c r="AL934" s="3"/>
     </row>
-    <row r="935" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -38713,7 +38715,7 @@
       <c r="AK935" s="3"/>
       <c r="AL935" s="3"/>
     </row>
-    <row r="936" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -38753,7 +38755,7 @@
       <c r="AK936" s="3"/>
       <c r="AL936" s="3"/>
     </row>
-    <row r="937" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -38793,7 +38795,7 @@
       <c r="AK937" s="3"/>
       <c r="AL937" s="3"/>
     </row>
-    <row r="938" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -38833,7 +38835,7 @@
       <c r="AK938" s="3"/>
       <c r="AL938" s="3"/>
     </row>
-    <row r="939" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -38873,7 +38875,7 @@
       <c r="AK939" s="3"/>
       <c r="AL939" s="3"/>
     </row>
-    <row r="940" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -38913,7 +38915,7 @@
       <c r="AK940" s="3"/>
       <c r="AL940" s="3"/>
     </row>
-    <row r="941" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -38953,7 +38955,7 @@
       <c r="AK941" s="3"/>
       <c r="AL941" s="3"/>
     </row>
-    <row r="942" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -38993,7 +38995,7 @@
       <c r="AK942" s="3"/>
       <c r="AL942" s="3"/>
     </row>
-    <row r="943" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -39033,7 +39035,7 @@
       <c r="AK943" s="3"/>
       <c r="AL943" s="3"/>
     </row>
-    <row r="944" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -39073,7 +39075,7 @@
       <c r="AK944" s="3"/>
       <c r="AL944" s="3"/>
     </row>
-    <row r="945" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -39113,7 +39115,7 @@
       <c r="AK945" s="3"/>
       <c r="AL945" s="3"/>
     </row>
-    <row r="946" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -39153,7 +39155,7 @@
       <c r="AK946" s="3"/>
       <c r="AL946" s="3"/>
     </row>
-    <row r="947" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -39193,7 +39195,7 @@
       <c r="AK947" s="3"/>
       <c r="AL947" s="3"/>
     </row>
-    <row r="948" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -39233,7 +39235,7 @@
       <c r="AK948" s="3"/>
       <c r="AL948" s="3"/>
     </row>
-    <row r="949" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -39273,7 +39275,7 @@
       <c r="AK949" s="3"/>
       <c r="AL949" s="3"/>
     </row>
-    <row r="950" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -39313,7 +39315,7 @@
       <c r="AK950" s="3"/>
       <c r="AL950" s="3"/>
     </row>
-    <row r="951" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -39353,7 +39355,7 @@
       <c r="AK951" s="3"/>
       <c r="AL951" s="3"/>
     </row>
-    <row r="952" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -39393,7 +39395,7 @@
       <c r="AK952" s="3"/>
       <c r="AL952" s="3"/>
     </row>
-    <row r="953" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -39433,7 +39435,7 @@
       <c r="AK953" s="3"/>
       <c r="AL953" s="3"/>
     </row>
-    <row r="954" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -39473,7 +39475,7 @@
       <c r="AK954" s="3"/>
       <c r="AL954" s="3"/>
     </row>
-    <row r="955" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -39513,7 +39515,7 @@
       <c r="AK955" s="3"/>
       <c r="AL955" s="3"/>
     </row>
-    <row r="956" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -39553,7 +39555,7 @@
       <c r="AK956" s="3"/>
       <c r="AL956" s="3"/>
     </row>
-    <row r="957" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -39593,7 +39595,7 @@
       <c r="AK957" s="3"/>
       <c r="AL957" s="3"/>
     </row>
-    <row r="958" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -39633,7 +39635,7 @@
       <c r="AK958" s="3"/>
       <c r="AL958" s="3"/>
     </row>
-    <row r="959" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -39673,7 +39675,7 @@
       <c r="AK959" s="3"/>
       <c r="AL959" s="3"/>
     </row>
-    <row r="960" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -39713,7 +39715,7 @@
       <c r="AK960" s="3"/>
       <c r="AL960" s="3"/>
     </row>
-    <row r="961" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -39753,7 +39755,7 @@
       <c r="AK961" s="3"/>
       <c r="AL961" s="3"/>
     </row>
-    <row r="962" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -39793,7 +39795,7 @@
       <c r="AK962" s="3"/>
       <c r="AL962" s="3"/>
     </row>
-    <row r="963" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -39833,7 +39835,7 @@
       <c r="AK963" s="3"/>
       <c r="AL963" s="3"/>
     </row>
-    <row r="964" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -39873,7 +39875,7 @@
       <c r="AK964" s="3"/>
       <c r="AL964" s="3"/>
     </row>
-    <row r="965" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -39913,7 +39915,7 @@
       <c r="AK965" s="3"/>
       <c r="AL965" s="3"/>
     </row>
-    <row r="966" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -39953,7 +39955,7 @@
       <c r="AK966" s="3"/>
       <c r="AL966" s="3"/>
     </row>
-    <row r="967" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -39993,7 +39995,7 @@
       <c r="AK967" s="3"/>
       <c r="AL967" s="3"/>
     </row>
-    <row r="968" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -40033,7 +40035,7 @@
       <c r="AK968" s="3"/>
       <c r="AL968" s="3"/>
     </row>
-    <row r="969" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -40073,7 +40075,7 @@
       <c r="AK969" s="3"/>
       <c r="AL969" s="3"/>
     </row>
-    <row r="970" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -40113,7 +40115,7 @@
       <c r="AK970" s="3"/>
       <c r="AL970" s="3"/>
     </row>
-    <row r="971" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -40153,7 +40155,7 @@
       <c r="AK971" s="3"/>
       <c r="AL971" s="3"/>
     </row>
-    <row r="972" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -40193,7 +40195,7 @@
       <c r="AK972" s="3"/>
       <c r="AL972" s="3"/>
     </row>
-    <row r="973" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -40233,7 +40235,7 @@
       <c r="AK973" s="3"/>
       <c r="AL973" s="3"/>
     </row>
-    <row r="974" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -40273,7 +40275,7 @@
       <c r="AK974" s="3"/>
       <c r="AL974" s="3"/>
     </row>
-    <row r="975" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -40313,7 +40315,7 @@
       <c r="AK975" s="3"/>
       <c r="AL975" s="3"/>
     </row>
-    <row r="976" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -40353,7 +40355,7 @@
       <c r="AK976" s="3"/>
       <c r="AL976" s="3"/>
     </row>
-    <row r="977" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -40393,7 +40395,7 @@
       <c r="AK977" s="3"/>
       <c r="AL977" s="3"/>
     </row>
-    <row r="978" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -40433,7 +40435,7 @@
       <c r="AK978" s="3"/>
       <c r="AL978" s="3"/>
     </row>
-    <row r="979" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -40473,7 +40475,7 @@
       <c r="AK979" s="3"/>
       <c r="AL979" s="3"/>
     </row>
-    <row r="980" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -40513,7 +40515,7 @@
       <c r="AK980" s="3"/>
       <c r="AL980" s="3"/>
     </row>
-    <row r="981" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -40553,7 +40555,7 @@
       <c r="AK981" s="3"/>
       <c r="AL981" s="3"/>
     </row>
-    <row r="982" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -40593,7 +40595,7 @@
       <c r="AK982" s="3"/>
       <c r="AL982" s="3"/>
     </row>
-    <row r="983" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -40633,7 +40635,7 @@
       <c r="AK983" s="3"/>
       <c r="AL983" s="3"/>
     </row>
-    <row r="984" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -40673,7 +40675,7 @@
       <c r="AK984" s="3"/>
       <c r="AL984" s="3"/>
     </row>
-    <row r="985" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -40713,7 +40715,7 @@
       <c r="AK985" s="3"/>
       <c r="AL985" s="3"/>
     </row>
-    <row r="986" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -40753,7 +40755,7 @@
       <c r="AK986" s="3"/>
       <c r="AL986" s="3"/>
     </row>
-    <row r="987" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -40793,7 +40795,7 @@
       <c r="AK987" s="3"/>
       <c r="AL987" s="3"/>
     </row>
-    <row r="988" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -40833,7 +40835,7 @@
       <c r="AK988" s="3"/>
       <c r="AL988" s="3"/>
     </row>
-    <row r="989" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -40873,7 +40875,7 @@
       <c r="AK989" s="3"/>
       <c r="AL989" s="3"/>
     </row>
-    <row r="990" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -40913,7 +40915,7 @@
       <c r="AK990" s="3"/>
       <c r="AL990" s="3"/>
     </row>
-    <row r="991" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -40953,7 +40955,7 @@
       <c r="AK991" s="3"/>
       <c r="AL991" s="3"/>
     </row>
-    <row r="992" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -40993,7 +40995,7 @@
       <c r="AK992" s="3"/>
       <c r="AL992" s="3"/>
     </row>
-    <row r="993" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -41033,7 +41035,7 @@
       <c r="AK993" s="3"/>
       <c r="AL993" s="3"/>
     </row>
-    <row r="994" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -41073,7 +41075,7 @@
       <c r="AK994" s="3"/>
       <c r="AL994" s="3"/>
     </row>
-    <row r="995" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -41113,7 +41115,7 @@
       <c r="AK995" s="3"/>
       <c r="AL995" s="3"/>
     </row>
-    <row r="996" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -41153,7 +41155,7 @@
       <c r="AK996" s="3"/>
       <c r="AL996" s="3"/>
     </row>
-    <row r="997" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -41193,7 +41195,7 @@
       <c r="AK997" s="3"/>
       <c r="AL997" s="3"/>
     </row>
-    <row r="998" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -41233,7 +41235,7 @@
       <c r="AK998" s="3"/>
       <c r="AL998" s="3"/>
     </row>
-    <row r="999" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -41273,7 +41275,7 @@
       <c r="AK999" s="3"/>
       <c r="AL999" s="3"/>
     </row>
-    <row r="1000" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
